--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200916\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200917\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$374</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$380</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="503">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -4282,6 +4282,84 @@
     <t>埼玉県</t>
     <rPh sb="0" eb="3">
       <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.364の同僚</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.333の別居親族、No.350・372の同居家族</t>
+    <rPh sb="0" eb="11">
+      <t>ノ.333ノベッキョシンゾク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.333の別居親族、No.350・373の同居家族、ホームパーティーに参加</t>
+    <rPh sb="7" eb="9">
+      <t>ベッキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンゾク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.364の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.311･312･313･314･315の別居親族、No.317･318･319･375の同居家族</t>
+    <rPh sb="23" eb="25">
+      <t>ベッキョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シンゾク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.311･312･313･314･315の別居親族、No.317･318･319･371の同居家族</t>
+    <rPh sb="23" eb="25">
+      <t>ベッキョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シンゾク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4452,7 +4530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4623,6 +4701,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4925,11 +5006,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G374"/>
+  <dimension ref="A1:G380"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A373" sqref="A373"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A379" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4944,15 +5025,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -5365,16 +5446,16 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="59">
+      <c r="A20" s="60">
         <v>18</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="60" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="8">
@@ -5383,22 +5464,22 @@
       <c r="F20" s="8">
         <v>43959</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="62" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="14">
         <v>43973</v>
       </c>
       <c r="F21" s="8">
         <v>43990</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -11122,7 +11203,9 @@
       <c r="E274" s="22">
         <v>44059</v>
       </c>
-      <c r="F274" s="18"/>
+      <c r="F274" s="20">
+        <v>44090</v>
+      </c>
       <c r="G274" s="21" t="s">
         <v>389</v>
       </c>
@@ -11997,7 +12080,9 @@
       <c r="E313" s="37">
         <v>44078</v>
       </c>
-      <c r="F313" s="27"/>
+      <c r="F313" s="37">
+        <v>44088</v>
+      </c>
       <c r="G313" s="29"/>
     </row>
     <row r="314" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12037,7 +12122,9 @@
       <c r="E315" s="20">
         <v>44081</v>
       </c>
-      <c r="F315" s="18"/>
+      <c r="F315" s="20">
+        <v>44091</v>
+      </c>
       <c r="G315" s="21"/>
     </row>
     <row r="316" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12056,7 +12143,9 @@
       <c r="E316" s="20">
         <v>44081</v>
       </c>
-      <c r="F316" s="18"/>
+      <c r="F316" s="20">
+        <v>44091</v>
+      </c>
       <c r="G316" s="21" t="s">
         <v>446</v>
       </c>
@@ -12077,7 +12166,9 @@
       <c r="E317" s="20">
         <v>44081</v>
       </c>
-      <c r="F317" s="18"/>
+      <c r="F317" s="20">
+        <v>44091</v>
+      </c>
       <c r="G317" s="21" t="s">
         <v>446</v>
       </c>
@@ -12098,7 +12189,9 @@
       <c r="E318" s="20">
         <v>44081</v>
       </c>
-      <c r="F318" s="18"/>
+      <c r="F318" s="20">
+        <v>44091</v>
+      </c>
       <c r="G318" s="21" t="s">
         <v>447</v>
       </c>
@@ -12119,7 +12212,9 @@
       <c r="E319" s="20">
         <v>44082</v>
       </c>
-      <c r="F319" s="18"/>
+      <c r="F319" s="20">
+        <v>44091</v>
+      </c>
       <c r="G319" s="21" t="s">
         <v>446</v>
       </c>
@@ -13230,39 +13325,165 @@
       <c r="G372" s="21"/>
     </row>
     <row r="373" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A373" s="51">
+      <c r="A373" s="18">
         <v>369</v>
       </c>
-      <c r="B373" s="52" t="s">
+      <c r="B373" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="C373" s="53" t="s">
+      <c r="C373" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="D373" s="51" t="s">
+      <c r="D373" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="E373" s="54">
+      <c r="E373" s="20">
         <v>44090</v>
       </c>
-      <c r="F373" s="51"/>
-      <c r="G373" s="55"/>
-    </row>
-    <row r="374" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A374" s="58" t="s">
+      <c r="F373" s="18"/>
+      <c r="G373" s="21"/>
+    </row>
+    <row r="374" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A374" s="51">
+        <v>370</v>
+      </c>
+      <c r="B374" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C374" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D374" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E374" s="54">
+        <v>44091</v>
+      </c>
+      <c r="F374" s="51"/>
+      <c r="G374" s="55" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A375" s="51">
+        <v>371</v>
+      </c>
+      <c r="B375" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C375" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D375" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E375" s="54">
+        <v>44091</v>
+      </c>
+      <c r="F375" s="51"/>
+      <c r="G375" s="57" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A376" s="51">
+        <v>372</v>
+      </c>
+      <c r="B376" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C376" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D376" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E376" s="54">
+        <v>44091</v>
+      </c>
+      <c r="F376" s="51"/>
+      <c r="G376" s="57" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A377" s="51">
+        <v>373</v>
+      </c>
+      <c r="B377" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C377" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D377" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E377" s="54">
+        <v>44091</v>
+      </c>
+      <c r="F377" s="51"/>
+      <c r="G377" s="55" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A378" s="51">
+        <v>374</v>
+      </c>
+      <c r="B378" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C378" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D378" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E378" s="54">
+        <v>44091</v>
+      </c>
+      <c r="F378" s="51"/>
+      <c r="G378" s="55" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A379" s="51">
+        <v>375</v>
+      </c>
+      <c r="B379" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C379" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D379" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E379" s="54">
+        <v>44091</v>
+      </c>
+      <c r="F379" s="51"/>
+      <c r="G379" s="57" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A380" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B374" s="58"/>
-      <c r="C374" s="58"/>
-      <c r="D374" s="58"/>
-      <c r="E374" s="58"/>
-      <c r="F374" s="58"/>
-      <c r="G374" s="58"/>
+      <c r="B380" s="59"/>
+      <c r="C380" s="59"/>
+      <c r="D380" s="59"/>
+      <c r="E380" s="59"/>
+      <c r="F380" s="59"/>
+      <c r="G380" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A374:G374"/>
+    <mergeCell ref="A380:G380"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -13272,7 +13493,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="7" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="7" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="6" man="1"/>
     <brk id="78" max="6" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200917\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200918\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$380</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$381</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="506">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -4360,6 +4360,27 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐野市</t>
+    <rPh sb="0" eb="3">
+      <t>サノシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.347の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4530,7 +4551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4684,6 +4705,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4694,12 +4718,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5006,11 +5024,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G380"/>
+  <dimension ref="A1:G381"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A379" sqref="A379"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5020,20 +5038,19 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -5446,16 +5463,16 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="60">
+      <c r="A20" s="59">
         <v>18</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="59" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="8">
@@ -5464,22 +5481,22 @@
       <c r="F20" s="8">
         <v>43959</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="61" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="14">
         <v>43973</v>
       </c>
       <c r="F21" s="8">
         <v>43990</v>
       </c>
-      <c r="G21" s="63"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -12387,7 +12404,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="328" spans="1:7" s="56" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="18">
         <v>324</v>
       </c>
@@ -12422,7 +12439,9 @@
       <c r="E329" s="20">
         <v>44085</v>
       </c>
-      <c r="F329" s="18"/>
+      <c r="F329" s="20">
+        <v>44092</v>
+      </c>
       <c r="G329" s="21"/>
     </row>
     <row r="330" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12651,7 +12670,9 @@
       <c r="E340" s="20">
         <v>44086</v>
       </c>
-      <c r="F340" s="18"/>
+      <c r="F340" s="20">
+        <v>44092</v>
+      </c>
       <c r="G340" s="21" t="s">
         <v>488</v>
       </c>
@@ -13344,146 +13365,167 @@
       <c r="G373" s="21"/>
     </row>
     <row r="374" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A374" s="51">
+      <c r="A374" s="18">
         <v>370</v>
       </c>
-      <c r="B374" s="52" t="s">
+      <c r="B374" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C374" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D374" s="51" t="s">
+      <c r="C374" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D374" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E374" s="54">
+      <c r="E374" s="20">
         <v>44091</v>
       </c>
-      <c r="F374" s="51"/>
-      <c r="G374" s="55" t="s">
+      <c r="F374" s="18"/>
+      <c r="G374" s="21" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="375" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A375" s="51">
+      <c r="A375" s="18">
         <v>371</v>
       </c>
-      <c r="B375" s="52" t="s">
+      <c r="B375" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C375" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D375" s="51" t="s">
+      <c r="C375" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D375" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E375" s="54">
+      <c r="E375" s="20">
         <v>44091</v>
       </c>
-      <c r="F375" s="51"/>
-      <c r="G375" s="57" t="s">
+      <c r="F375" s="18"/>
+      <c r="G375" s="24" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="376" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A376" s="51">
+      <c r="A376" s="18">
         <v>372</v>
       </c>
-      <c r="B376" s="52" t="s">
+      <c r="B376" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C376" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D376" s="51" t="s">
+      <c r="C376" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D376" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E376" s="54">
+      <c r="E376" s="20">
         <v>44091</v>
       </c>
-      <c r="F376" s="51"/>
-      <c r="G376" s="57" t="s">
+      <c r="F376" s="18"/>
+      <c r="G376" s="24" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="377" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A377" s="51">
+      <c r="A377" s="18">
         <v>373</v>
       </c>
-      <c r="B377" s="52" t="s">
+      <c r="B377" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C377" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D377" s="51" t="s">
+      <c r="C377" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D377" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E377" s="54">
+      <c r="E377" s="20">
         <v>44091</v>
       </c>
-      <c r="F377" s="51"/>
-      <c r="G377" s="55" t="s">
+      <c r="F377" s="18"/>
+      <c r="G377" s="21" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="378" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A378" s="51">
+      <c r="A378" s="18">
         <v>374</v>
       </c>
-      <c r="B378" s="52" t="s">
+      <c r="B378" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C378" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D378" s="51" t="s">
+      <c r="C378" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D378" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E378" s="54">
+      <c r="E378" s="20">
         <v>44091</v>
       </c>
-      <c r="F378" s="51"/>
-      <c r="G378" s="55" t="s">
+      <c r="F378" s="18"/>
+      <c r="G378" s="21" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="379" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A379" s="51">
+      <c r="A379" s="18">
         <v>375</v>
       </c>
-      <c r="B379" s="52" t="s">
+      <c r="B379" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C379" s="53" t="s">
+      <c r="C379" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D379" s="51" t="s">
+      <c r="D379" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E379" s="54">
+      <c r="E379" s="20">
         <v>44091</v>
       </c>
-      <c r="F379" s="51"/>
-      <c r="G379" s="57" t="s">
+      <c r="F379" s="18"/>
+      <c r="G379" s="24" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A380" s="59" t="s">
+    <row r="380" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A380" s="52">
+        <v>376</v>
+      </c>
+      <c r="B380" s="53" t="s">
+        <v>503</v>
+      </c>
+      <c r="C380" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D380" s="52" t="s">
+        <v>504</v>
+      </c>
+      <c r="E380" s="55">
+        <v>44092</v>
+      </c>
+      <c r="F380" s="52"/>
+      <c r="G380" s="56" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A381" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B380" s="59"/>
-      <c r="C380" s="59"/>
-      <c r="D380" s="59"/>
-      <c r="E380" s="59"/>
-      <c r="F380" s="59"/>
-      <c r="G380" s="59"/>
+      <c r="B381" s="58"/>
+      <c r="C381" s="58"/>
+      <c r="D381" s="58"/>
+      <c r="E381" s="58"/>
+      <c r="F381" s="58"/>
+      <c r="G381" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A380:G380"/>
+    <mergeCell ref="A381:G381"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -13493,7 +13535,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="7" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="6" man="1"/>
     <brk id="78" max="6" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200918\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200919\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$381</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$390</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="516">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -1412,16 +1412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10才未満</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小山市</t>
     <rPh sb="0" eb="3">
       <t>オヤマシ</t>
@@ -2084,16 +2074,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10才未満</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>60代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -3188,16 +3168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10才未満</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -4381,6 +4351,109 @@
     <t>No.347の知人</t>
     <rPh sb="7" eb="9">
       <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.351の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.352の子、No.353の妹</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イモウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.341の子、No.342の妹</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イモウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.370の同僚</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿沼市</t>
+    <rPh sb="0" eb="3">
+      <t>カヌマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.364･370の同僚</t>
+    <rPh sb="11" eb="13">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.338の父、No.383の夫</t>
+    <rPh sb="7" eb="8">
+      <t>チチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.338の母、No.382の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5024,11 +5097,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G381"/>
+  <dimension ref="A1:G390"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="2" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5066,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>79</v>
@@ -7550,7 +7623,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7987,7 +8060,7 @@
         <v>44037</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8001,7 +8074,7 @@
         <v>70</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E132" s="22">
         <v>44031</v>
@@ -8010,7 +8083,7 @@
         <v>44043</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8024,7 +8097,7 @@
         <v>181</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E133" s="22">
         <v>44031</v>
@@ -8033,7 +8106,7 @@
         <v>44043</v>
       </c>
       <c r="G133" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8047,7 +8120,7 @@
         <v>67</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E134" s="22">
         <v>44031</v>
@@ -8056,7 +8129,7 @@
         <v>44041</v>
       </c>
       <c r="G134" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8064,7 +8137,7 @@
         <v>131</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>70</v>
@@ -8079,7 +8152,7 @@
         <v>44041</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8102,7 +8175,7 @@
         <v>44041</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8131,13 +8204,13 @@
         <v>134</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C138" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E138" s="22">
         <v>44032</v>
@@ -8146,7 +8219,7 @@
         <v>44042</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8160,7 +8233,7 @@
         <v>70</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E139" s="22">
         <v>44032</v>
@@ -8169,7 +8242,7 @@
         <v>44041</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8192,7 +8265,7 @@
         <v>44042</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8215,7 +8288,7 @@
         <v>44043</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8238,7 +8311,7 @@
         <v>44046</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8261,7 +8334,7 @@
         <v>44041</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8284,7 +8357,7 @@
         <v>44044</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8307,7 +8380,7 @@
         <v>44044</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8321,7 +8394,7 @@
         <v>70</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E146" s="22">
         <v>44034</v>
@@ -8330,7 +8403,7 @@
         <v>44040</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8338,13 +8411,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E147" s="22">
         <v>44034</v>
@@ -8359,13 +8432,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E148" s="22">
         <v>44035</v>
@@ -8374,7 +8447,7 @@
         <v>44046</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8382,13 +8455,13 @@
         <v>145</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E149" s="22">
         <v>44035</v>
@@ -8403,13 +8476,13 @@
         <v>146</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E150" s="22">
         <v>44035</v>
@@ -8424,13 +8497,13 @@
         <v>147</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E151" s="22">
         <v>44035</v>
@@ -8445,13 +8518,13 @@
         <v>148</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E152" s="22">
         <v>44035</v>
@@ -8466,7 +8539,7 @@
         <v>149</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C153" s="19" t="s">
         <v>70</v>
@@ -8481,7 +8554,7 @@
         <v>44046</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8492,7 +8565,7 @@
         <v>93</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D154" s="19" t="s">
         <v>164</v>
@@ -8504,7 +8577,7 @@
         <v>44046</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8512,13 +8585,13 @@
         <v>151</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E155" s="22">
         <v>44036</v>
@@ -8527,7 +8600,7 @@
         <v>44054</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8535,7 +8608,7 @@
         <v>152</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C156" s="25" t="s">
         <v>67</v>
@@ -8550,7 +8623,7 @@
         <v>44048</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8558,7 +8631,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C157" s="25" t="s">
         <v>67</v>
@@ -8573,7 +8646,7 @@
         <v>44049</v>
       </c>
       <c r="G157" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8581,7 +8654,7 @@
         <v>154</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C158" s="25" t="s">
         <v>70</v>
@@ -8596,7 +8669,7 @@
         <v>44047</v>
       </c>
       <c r="G158" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8604,13 +8677,13 @@
         <v>155</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C159" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E159" s="26">
         <v>44037</v>
@@ -8619,7 +8692,7 @@
         <v>44048</v>
       </c>
       <c r="G159" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8627,13 +8700,13 @@
         <v>156</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C160" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E160" s="26">
         <v>44037</v>
@@ -8642,7 +8715,7 @@
         <v>44051</v>
       </c>
       <c r="G160" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8650,13 +8723,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C161" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E161" s="26">
         <v>44037</v>
@@ -8665,7 +8738,7 @@
         <v>44051</v>
       </c>
       <c r="G161" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8673,7 +8746,7 @@
         <v>158</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C162" s="25" t="s">
         <v>70</v>
@@ -8688,7 +8761,7 @@
         <v>44040</v>
       </c>
       <c r="G162" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="163" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8696,7 +8769,7 @@
         <v>159</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C163" s="25" t="s">
         <v>70</v>
@@ -8711,7 +8784,7 @@
         <v>44040</v>
       </c>
       <c r="G163" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="164" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8719,13 +8792,13 @@
         <v>160</v>
       </c>
       <c r="B164" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C164" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C164" s="25" t="s">
-        <v>236</v>
-      </c>
       <c r="D164" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E164" s="26">
         <v>44038</v>
@@ -8734,7 +8807,7 @@
         <v>44048</v>
       </c>
       <c r="G164" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8742,13 +8815,13 @@
         <v>161</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C165" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E165" s="26">
         <v>44038</v>
@@ -8757,7 +8830,7 @@
         <v>44048</v>
       </c>
       <c r="G165" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8765,13 +8838,13 @@
         <v>162</v>
       </c>
       <c r="B166" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C166" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C166" s="25" t="s">
-        <v>238</v>
-      </c>
       <c r="D166" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E166" s="26">
         <v>44038</v>
@@ -8780,21 +8853,21 @@
         <v>44048</v>
       </c>
       <c r="G166" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="25">
         <v>163</v>
       </c>
-      <c r="B167" s="36" t="s">
-        <v>185</v>
+      <c r="B167" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C167" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D167" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="D167" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="E167" s="26">
         <v>44038</v>
@@ -8803,7 +8876,7 @@
         <v>44048</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="168" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8811,7 +8884,7 @@
         <v>164</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C168" s="19" t="s">
         <v>70</v>
@@ -8826,7 +8899,7 @@
         <v>44049</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8834,7 +8907,7 @@
         <v>165</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>67</v>
@@ -8849,7 +8922,7 @@
         <v>44054</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8857,7 +8930,7 @@
         <v>166</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C170" s="19" t="s">
         <v>70</v>
@@ -8872,7 +8945,7 @@
         <v>44050</v>
       </c>
       <c r="G170" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8895,7 +8968,7 @@
         <v>44047</v>
       </c>
       <c r="G171" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8918,7 +8991,7 @@
         <v>44048</v>
       </c>
       <c r="G172" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8941,7 +9014,7 @@
         <v>44047</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8964,7 +9037,7 @@
         <v>44072</v>
       </c>
       <c r="G174" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8987,7 +9060,7 @@
         <v>44050</v>
       </c>
       <c r="G175" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9022,7 +9095,7 @@
         <v>70</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E177" s="22">
         <v>44041</v>
@@ -9031,7 +9104,7 @@
         <v>44050</v>
       </c>
       <c r="G177" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9045,7 +9118,7 @@
         <v>67</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E178" s="22">
         <v>44041</v>
@@ -9054,7 +9127,7 @@
         <v>44049</v>
       </c>
       <c r="G178" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9077,7 +9150,7 @@
         <v>44051</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9085,10 +9158,10 @@
         <v>176</v>
       </c>
       <c r="B180" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C180" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="C180" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="D180" s="19" t="s">
         <v>89</v>
@@ -9100,7 +9173,7 @@
         <v>44050</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9108,10 +9181,10 @@
         <v>177</v>
       </c>
       <c r="B181" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D181" s="19" t="s">
         <v>89</v>
@@ -9123,7 +9196,7 @@
         <v>44050</v>
       </c>
       <c r="G181" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9131,10 +9204,10 @@
         <v>178</v>
       </c>
       <c r="B182" s="34" t="s">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D182" s="19" t="s">
         <v>89</v>
@@ -9146,7 +9219,7 @@
         <v>44050</v>
       </c>
       <c r="G182" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9154,10 +9227,10 @@
         <v>179</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D183" s="19" t="s">
         <v>89</v>
@@ -9169,7 +9242,7 @@
         <v>44050</v>
       </c>
       <c r="G183" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9177,10 +9250,10 @@
         <v>180</v>
       </c>
       <c r="B184" s="34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D184" s="19" t="s">
         <v>89</v>
@@ -9192,7 +9265,7 @@
         <v>44051</v>
       </c>
       <c r="G184" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9200,10 +9273,10 @@
         <v>181</v>
       </c>
       <c r="B185" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D185" s="19" t="s">
         <v>89</v>
@@ -9215,7 +9288,7 @@
         <v>44052</v>
       </c>
       <c r="G185" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9223,13 +9296,13 @@
         <v>182</v>
       </c>
       <c r="B186" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E186" s="22">
         <v>44041</v>
@@ -9238,7 +9311,7 @@
         <v>44047</v>
       </c>
       <c r="G186" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9246,10 +9319,10 @@
         <v>183</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D187" s="19" t="s">
         <v>89</v>
@@ -9261,7 +9334,7 @@
         <v>44048</v>
       </c>
       <c r="G187" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9269,10 +9342,10 @@
         <v>184</v>
       </c>
       <c r="B188" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D188" s="19" t="s">
         <v>89</v>
@@ -9284,7 +9357,7 @@
         <v>44049</v>
       </c>
       <c r="G188" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9292,10 +9365,10 @@
         <v>185</v>
       </c>
       <c r="B189" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D189" s="19" t="s">
         <v>89</v>
@@ -9307,7 +9380,7 @@
         <v>44050</v>
       </c>
       <c r="G189" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9321,7 +9394,7 @@
         <v>67</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E190" s="22">
         <v>44041</v>
@@ -9342,7 +9415,7 @@
         <v>70</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E191" s="22">
         <v>44041</v>
@@ -9351,7 +9424,7 @@
         <v>44052</v>
       </c>
       <c r="G191" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9359,13 +9432,13 @@
         <v>188</v>
       </c>
       <c r="B192" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C192" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E192" s="22">
         <v>44041</v>
@@ -9374,7 +9447,7 @@
         <v>44057</v>
       </c>
       <c r="G192" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9397,7 +9470,7 @@
         <v>44048</v>
       </c>
       <c r="G193" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9420,7 +9493,7 @@
         <v>44050</v>
       </c>
       <c r="G194" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9428,7 +9501,7 @@
         <v>191</v>
       </c>
       <c r="B195" s="34" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C195" s="19" t="s">
         <v>70</v>
@@ -9443,7 +9516,7 @@
         <v>44050</v>
       </c>
       <c r="G195" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9451,13 +9524,13 @@
         <v>192</v>
       </c>
       <c r="B196" s="34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C196" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E196" s="22">
         <v>44043</v>
@@ -9466,7 +9539,7 @@
         <v>44053</v>
       </c>
       <c r="G196" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9474,7 +9547,7 @@
         <v>193</v>
       </c>
       <c r="B197" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C197" s="19" t="s">
         <v>70</v>
@@ -9489,7 +9562,7 @@
         <v>44051</v>
       </c>
       <c r="G197" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="198" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9503,7 +9576,7 @@
         <v>70</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E198" s="22">
         <v>44043</v>
@@ -9533,7 +9606,7 @@
         <v>44048</v>
       </c>
       <c r="G199" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9556,7 +9629,7 @@
         <v>44063</v>
       </c>
       <c r="G200" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9579,7 +9652,7 @@
         <v>44050</v>
       </c>
       <c r="G201" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9602,7 +9675,7 @@
         <v>44049</v>
       </c>
       <c r="G202" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9625,7 +9698,7 @@
         <v>44054</v>
       </c>
       <c r="G203" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9633,7 +9706,7 @@
         <v>200</v>
       </c>
       <c r="B204" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C204" s="19" t="s">
         <v>70</v>
@@ -9667,7 +9740,7 @@
         <v>44055</v>
       </c>
       <c r="G205" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9690,7 +9763,7 @@
         <v>44054</v>
       </c>
       <c r="G206" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9704,7 +9777,7 @@
         <v>70</v>
       </c>
       <c r="D207" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E207" s="22">
         <v>44047</v>
@@ -9713,7 +9786,7 @@
         <v>44050</v>
       </c>
       <c r="G207" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9736,7 +9809,7 @@
         <v>44055</v>
       </c>
       <c r="G208" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="209" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9759,7 +9832,7 @@
         <v>44055</v>
       </c>
       <c r="G209" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9782,7 +9855,7 @@
         <v>44060</v>
       </c>
       <c r="G210" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9790,10 +9863,10 @@
         <v>207</v>
       </c>
       <c r="B211" s="34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D211" s="19" t="s">
         <v>89</v>
@@ -9805,7 +9878,7 @@
         <v>44060</v>
       </c>
       <c r="G211" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="212" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9828,7 +9901,7 @@
         <v>44051</v>
       </c>
       <c r="G212" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="213" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9851,7 +9924,7 @@
         <v>44054</v>
       </c>
       <c r="G213" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9874,7 +9947,7 @@
         <v>44057</v>
       </c>
       <c r="G214" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9897,7 +9970,7 @@
         <v>44055</v>
       </c>
       <c r="G215" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9911,7 +9984,7 @@
         <v>67</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E216" s="22">
         <v>44047</v>
@@ -9920,7 +9993,7 @@
         <v>44051</v>
       </c>
       <c r="G216" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="217" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9934,7 +10007,7 @@
         <v>67</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E217" s="22">
         <v>44047</v>
@@ -9943,7 +10016,7 @@
         <v>44053</v>
       </c>
       <c r="G217" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9966,7 +10039,7 @@
         <v>44055</v>
       </c>
       <c r="G218" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9980,7 +10053,7 @@
         <v>70</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E219" s="22">
         <v>44048</v>
@@ -9989,7 +10062,7 @@
         <v>44056</v>
       </c>
       <c r="G219" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="220" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10054,7 +10127,7 @@
         <v>44056</v>
       </c>
       <c r="G222" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="223" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10077,7 +10150,7 @@
         <v>44060</v>
       </c>
       <c r="G223" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10100,7 +10173,7 @@
         <v>44056</v>
       </c>
       <c r="G224" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10123,7 +10196,7 @@
         <v>44055</v>
       </c>
       <c r="G225" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10146,7 +10219,7 @@
         <v>44057</v>
       </c>
       <c r="G226" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10169,7 +10242,7 @@
         <v>44059</v>
       </c>
       <c r="G227" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10192,7 +10265,7 @@
         <v>44055</v>
       </c>
       <c r="G228" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10206,7 +10279,7 @@
         <v>70</v>
       </c>
       <c r="D229" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E229" s="22">
         <v>44049</v>
@@ -10215,7 +10288,7 @@
         <v>44056</v>
       </c>
       <c r="G229" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10238,7 +10311,7 @@
         <v>44063</v>
       </c>
       <c r="G230" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10252,7 +10325,7 @@
         <v>70</v>
       </c>
       <c r="D231" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E231" s="22">
         <v>44049</v>
@@ -10282,7 +10355,7 @@
         <v>44054</v>
       </c>
       <c r="G232" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10290,10 +10363,10 @@
         <v>229</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D233" s="19" t="s">
         <v>89</v>
@@ -10305,7 +10378,7 @@
         <v>44054</v>
       </c>
       <c r="G233" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10328,7 +10401,7 @@
         <v>44059</v>
       </c>
       <c r="G234" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10336,13 +10409,13 @@
         <v>231</v>
       </c>
       <c r="B235" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C235" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D235" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="C235" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D235" s="19" t="s">
-        <v>330</v>
       </c>
       <c r="E235" s="22">
         <v>44050</v>
@@ -10357,13 +10430,13 @@
         <v>232</v>
       </c>
       <c r="B236" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D236" s="19" t="s">
         <v>331</v>
-      </c>
-      <c r="C236" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="D236" s="19" t="s">
-        <v>333</v>
       </c>
       <c r="E236" s="22">
         <v>44050</v>
@@ -10378,13 +10451,13 @@
         <v>233</v>
       </c>
       <c r="B237" s="34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D237" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E237" s="22">
         <v>44050</v>
@@ -10393,7 +10466,7 @@
         <v>44063</v>
       </c>
       <c r="G237" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10401,7 +10474,7 @@
         <v>234</v>
       </c>
       <c r="B238" s="34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C238" s="19" t="s">
         <v>70</v>
@@ -10422,7 +10495,7 @@
         <v>235</v>
       </c>
       <c r="B239" s="34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C239" s="19" t="s">
         <v>67</v>
@@ -10458,7 +10531,7 @@
         <v>44068</v>
       </c>
       <c r="G240" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="241" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10481,7 +10554,7 @@
         <v>44061</v>
       </c>
       <c r="G241" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10504,7 +10577,7 @@
         <v>44061</v>
       </c>
       <c r="G242" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10512,13 +10585,13 @@
         <v>239</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E243" s="22">
         <v>44051</v>
@@ -10533,13 +10606,13 @@
         <v>240</v>
       </c>
       <c r="B244" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C244" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="C244" s="19" t="s">
-        <v>344</v>
-      </c>
       <c r="D244" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E244" s="22">
         <v>44051</v>
@@ -10554,13 +10627,13 @@
         <v>241</v>
       </c>
       <c r="B245" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D245" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="C245" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D245" s="19" t="s">
-        <v>345</v>
       </c>
       <c r="E245" s="22">
         <v>44051</v>
@@ -10575,13 +10648,13 @@
         <v>242</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C246" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D246" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E246" s="22">
         <v>44051</v>
@@ -10590,7 +10663,7 @@
         <v>44062</v>
       </c>
       <c r="G246" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10598,13 +10671,13 @@
         <v>243</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D247" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E247" s="22">
         <v>44051</v>
@@ -10613,7 +10686,7 @@
         <v>44057</v>
       </c>
       <c r="G247" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="248" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10636,7 +10709,7 @@
         <v>44056</v>
       </c>
       <c r="G248" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="249" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10659,7 +10732,7 @@
         <v>44059</v>
       </c>
       <c r="G249" s="21" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10682,7 +10755,7 @@
         <v>44071</v>
       </c>
       <c r="G250" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="251" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10690,13 +10763,13 @@
         <v>247</v>
       </c>
       <c r="B251" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C251" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D251" s="25" t="s">
         <v>353</v>
-      </c>
-      <c r="C251" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="D251" s="25" t="s">
-        <v>355</v>
       </c>
       <c r="E251" s="26">
         <v>44053</v>
@@ -10705,7 +10778,7 @@
         <v>44064</v>
       </c>
       <c r="G251" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="252" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10713,13 +10786,13 @@
         <v>248</v>
       </c>
       <c r="B252" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C252" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D252" s="25" t="s">
         <v>353</v>
-      </c>
-      <c r="C252" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="D252" s="25" t="s">
-        <v>355</v>
       </c>
       <c r="E252" s="26">
         <v>44053</v>
@@ -10728,7 +10801,7 @@
         <v>44059</v>
       </c>
       <c r="G252" s="29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10736,13 +10809,13 @@
         <v>249</v>
       </c>
       <c r="B253" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C253" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D253" s="25" t="s">
         <v>353</v>
-      </c>
-      <c r="C253" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="D253" s="25" t="s">
-        <v>355</v>
       </c>
       <c r="E253" s="26">
         <v>44053</v>
@@ -10757,7 +10830,7 @@
         <v>250</v>
       </c>
       <c r="B254" s="36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>70</v>
@@ -10772,7 +10845,7 @@
         <v>44065</v>
       </c>
       <c r="G254" s="29" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -10780,7 +10853,7 @@
         <v>251</v>
       </c>
       <c r="B255" s="36" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C255" s="25" t="s">
         <v>67</v>
@@ -10795,7 +10868,7 @@
         <v>44060</v>
       </c>
       <c r="G255" s="29" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="256" spans="1:7" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10806,10 +10879,10 @@
         <v>73</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E256" s="26">
         <v>44054</v>
@@ -10818,7 +10891,7 @@
         <v>44062</v>
       </c>
       <c r="G256" s="29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10826,7 +10899,7 @@
         <v>253</v>
       </c>
       <c r="B257" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C257" s="19" t="s">
         <v>70</v>
@@ -10847,13 +10920,13 @@
         <v>254</v>
       </c>
       <c r="B258" s="34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C258" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D258" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E258" s="22">
         <v>44055</v>
@@ -10862,7 +10935,7 @@
         <v>44064</v>
       </c>
       <c r="G258" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10870,13 +10943,13 @@
         <v>255</v>
       </c>
       <c r="B259" s="34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C259" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D259" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E259" s="22">
         <v>44055</v>
@@ -10885,7 +10958,7 @@
         <v>44085</v>
       </c>
       <c r="G259" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="260" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10893,13 +10966,13 @@
         <v>256</v>
       </c>
       <c r="B260" s="34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C260" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D260" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E260" s="22">
         <v>44055</v>
@@ -10908,7 +10981,7 @@
         <v>44068</v>
       </c>
       <c r="G260" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10916,7 +10989,7 @@
         <v>257</v>
       </c>
       <c r="B261" s="34" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C261" s="19" t="s">
         <v>70</v>
@@ -10931,7 +11004,7 @@
         <v>44062</v>
       </c>
       <c r="G261" s="21" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10939,7 +11012,7 @@
         <v>258</v>
       </c>
       <c r="B262" s="34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C262" s="19" t="s">
         <v>67</v>
@@ -10954,7 +11027,7 @@
         <v>44058</v>
       </c>
       <c r="G262" s="21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10962,7 +11035,7 @@
         <v>259</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="C263" s="19" t="s">
         <v>67</v>
@@ -10977,7 +11050,7 @@
         <v>44058</v>
       </c>
       <c r="G263" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10985,7 +11058,7 @@
         <v>260</v>
       </c>
       <c r="B264" s="34" t="s">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="C264" s="19" t="s">
         <v>70</v>
@@ -11000,7 +11073,7 @@
         <v>44060</v>
       </c>
       <c r="G264" s="21" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11008,13 +11081,13 @@
         <v>261</v>
       </c>
       <c r="B265" s="34" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C265" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D265" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E265" s="22">
         <v>44055</v>
@@ -11023,7 +11096,7 @@
         <v>44062</v>
       </c>
       <c r="G265" s="21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11058,7 +11131,7 @@
         <v>67</v>
       </c>
       <c r="D267" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E267" s="22">
         <v>44056</v>
@@ -11088,7 +11161,7 @@
         <v>44062</v>
       </c>
       <c r="G268" s="21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11111,7 +11184,7 @@
         <v>44062</v>
       </c>
       <c r="G269" s="21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="44" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11125,7 +11198,7 @@
         <v>67</v>
       </c>
       <c r="D270" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E270" s="22">
         <v>44057</v>
@@ -11155,7 +11228,7 @@
         <v>44075</v>
       </c>
       <c r="G271" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11178,7 +11251,7 @@
         <v>44067</v>
       </c>
       <c r="G272" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11201,7 +11274,7 @@
         <v>44069</v>
       </c>
       <c r="G273" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11209,13 +11282,13 @@
         <v>270</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D274" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E274" s="22">
         <v>44059</v>
@@ -11224,7 +11297,7 @@
         <v>44090</v>
       </c>
       <c r="G274" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11232,13 +11305,13 @@
         <v>271</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D275" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E275" s="22">
         <v>44059</v>
@@ -11247,7 +11320,7 @@
         <v>44067</v>
       </c>
       <c r="G275" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11255,13 +11328,13 @@
         <v>272</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D276" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E276" s="22">
         <v>44059</v>
@@ -11270,7 +11343,7 @@
         <v>44069</v>
       </c>
       <c r="G276" s="21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11293,7 +11366,7 @@
         <v>44067</v>
       </c>
       <c r="G277" s="21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11316,7 +11389,7 @@
         <v>44067</v>
       </c>
       <c r="G278" s="21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11339,7 +11412,7 @@
         <v>44069</v>
       </c>
       <c r="G279" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11362,7 +11435,7 @@
         <v>44069</v>
       </c>
       <c r="G280" s="21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11376,7 +11449,7 @@
         <v>70</v>
       </c>
       <c r="D281" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E281" s="22">
         <v>44059</v>
@@ -11397,7 +11470,7 @@
         <v>70</v>
       </c>
       <c r="D282" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E282" s="22">
         <v>44060</v>
@@ -11406,7 +11479,7 @@
         <v>44069</v>
       </c>
       <c r="G282" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="283" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11414,13 +11487,13 @@
         <v>279</v>
       </c>
       <c r="B283" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E283" s="22">
         <v>44061</v>
@@ -11435,10 +11508,10 @@
         <v>280</v>
       </c>
       <c r="B284" s="34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>89</v>
@@ -11450,7 +11523,7 @@
         <v>44069</v>
       </c>
       <c r="G284" s="21" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11473,7 +11546,7 @@
         <v>44062</v>
       </c>
       <c r="G285" s="21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11496,7 +11569,7 @@
         <v>44077</v>
       </c>
       <c r="G286" s="21" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11519,7 +11592,7 @@
         <v>44070</v>
       </c>
       <c r="G287" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11542,7 +11615,7 @@
         <v>44070</v>
       </c>
       <c r="G288" s="21" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="289" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11550,10 +11623,10 @@
         <v>285</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D289" s="18" t="s">
         <v>89</v>
@@ -11565,7 +11638,7 @@
         <v>44068</v>
       </c>
       <c r="G289" s="21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="290" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11588,7 +11661,7 @@
         <v>44075</v>
       </c>
       <c r="G290" s="21" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="291" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11596,13 +11669,13 @@
         <v>287</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C291" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D291" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E291" s="22">
         <v>44064</v>
@@ -11611,7 +11684,7 @@
         <v>44067</v>
       </c>
       <c r="G291" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="292" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11634,7 +11707,7 @@
         <v>44074</v>
       </c>
       <c r="G292" s="21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="293" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11657,7 +11730,7 @@
         <v>44072</v>
       </c>
       <c r="G293" s="21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="294" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11671,14 +11744,14 @@
         <v>67</v>
       </c>
       <c r="D294" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E294" s="22">
         <v>44068</v>
       </c>
       <c r="F294" s="18"/>
       <c r="G294" s="21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11689,17 +11762,17 @@
         <v>97</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E295" s="22">
         <v>44068</v>
       </c>
       <c r="F295" s="18"/>
       <c r="G295" s="21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11713,14 +11786,14 @@
         <v>70</v>
       </c>
       <c r="D296" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E296" s="22">
         <v>44068</v>
       </c>
       <c r="F296" s="18"/>
       <c r="G296" s="21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="297" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11734,14 +11807,14 @@
         <v>67</v>
       </c>
       <c r="D297" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E297" s="22">
         <v>44069</v>
       </c>
       <c r="F297" s="18"/>
       <c r="G297" s="21" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11755,7 +11828,7 @@
         <v>70</v>
       </c>
       <c r="D298" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E298" s="22">
         <v>44069</v>
@@ -11764,7 +11837,7 @@
         <v>44075</v>
       </c>
       <c r="G298" s="21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11787,7 +11860,7 @@
         <v>44079</v>
       </c>
       <c r="G299" s="21" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="300" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11810,7 +11883,7 @@
         <v>44079</v>
       </c>
       <c r="G300" s="21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="301" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11833,7 +11906,7 @@
         <v>44082</v>
       </c>
       <c r="G301" s="21" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="302" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11856,7 +11929,7 @@
         <v>44080</v>
       </c>
       <c r="G302" s="21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="303" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11879,7 +11952,7 @@
         <v>44080</v>
       </c>
       <c r="G303" s="21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="304" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11923,7 +11996,7 @@
         <v>44076</v>
       </c>
       <c r="G305" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="306" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11937,7 +12010,7 @@
         <v>70</v>
       </c>
       <c r="D306" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E306" s="20">
         <v>44071</v>
@@ -11946,7 +12019,7 @@
         <v>44081</v>
       </c>
       <c r="G306" s="21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11960,7 +12033,7 @@
         <v>70</v>
       </c>
       <c r="D307" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E307" s="20">
         <v>44072</v>
@@ -11969,7 +12042,7 @@
         <v>44078</v>
       </c>
       <c r="G307" s="21" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="308" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11977,13 +12050,13 @@
         <v>304</v>
       </c>
       <c r="B308" s="36" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C308" s="25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D308" s="27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E308" s="37">
         <v>44075</v>
@@ -11998,13 +12071,13 @@
         <v>305</v>
       </c>
       <c r="B309" s="36" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C309" s="25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D309" s="27" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E309" s="37">
         <v>44075</v>
@@ -12013,7 +12086,7 @@
         <v>44084</v>
       </c>
       <c r="G309" s="29" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="310" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12042,7 +12115,7 @@
         <v>307</v>
       </c>
       <c r="B311" s="36" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C311" s="25" t="s">
         <v>70</v>
@@ -12057,7 +12130,7 @@
         <v>44081</v>
       </c>
       <c r="G311" s="29" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="312" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12086,13 +12159,13 @@
         <v>309</v>
       </c>
       <c r="B313" s="36" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C313" s="25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D313" s="27" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E313" s="37">
         <v>44078</v>
@@ -12107,13 +12180,13 @@
         <v>310</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C314" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D314" s="18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E314" s="20">
         <v>44080</v>
@@ -12134,7 +12207,7 @@
         <v>67</v>
       </c>
       <c r="D315" s="18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E315" s="20">
         <v>44081</v>
@@ -12149,7 +12222,7 @@
         <v>312</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C316" s="19" t="s">
         <v>70</v>
@@ -12164,7 +12237,7 @@
         <v>44091</v>
       </c>
       <c r="G316" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="317" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12172,7 +12245,7 @@
         <v>313</v>
       </c>
       <c r="B317" s="34" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C317" s="19" t="s">
         <v>67</v>
@@ -12187,7 +12260,7 @@
         <v>44091</v>
       </c>
       <c r="G317" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="318" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12195,7 +12268,7 @@
         <v>314</v>
       </c>
       <c r="B318" s="34" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C318" s="19" t="s">
         <v>67</v>
@@ -12210,7 +12283,7 @@
         <v>44091</v>
       </c>
       <c r="G318" s="21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="319" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12218,7 +12291,7 @@
         <v>315</v>
       </c>
       <c r="B319" s="34" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C319" s="19" t="s">
         <v>67</v>
@@ -12233,7 +12306,7 @@
         <v>44091</v>
       </c>
       <c r="G319" s="21" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="320" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12241,20 +12314,20 @@
         <v>316</v>
       </c>
       <c r="B320" s="34" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C320" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D320" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E320" s="20">
         <v>44082</v>
       </c>
       <c r="F320" s="18"/>
       <c r="G320" s="21" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="321" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12262,10 +12335,10 @@
         <v>317</v>
       </c>
       <c r="B321" s="34" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D321" s="18" t="s">
         <v>120</v>
@@ -12275,7 +12348,7 @@
       </c>
       <c r="F321" s="18"/>
       <c r="G321" s="24" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="322" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12283,10 +12356,10 @@
         <v>318</v>
       </c>
       <c r="B322" s="34" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D322" s="18" t="s">
         <v>120</v>
@@ -12296,7 +12369,7 @@
       </c>
       <c r="F322" s="18"/>
       <c r="G322" s="24" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="323" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12304,10 +12377,10 @@
         <v>319</v>
       </c>
       <c r="B323" s="34" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D323" s="18" t="s">
         <v>120</v>
@@ -12317,7 +12390,7 @@
       </c>
       <c r="F323" s="18"/>
       <c r="G323" s="24" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="324" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12331,14 +12404,14 @@
         <v>70</v>
       </c>
       <c r="D324" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E324" s="20">
         <v>44084</v>
       </c>
       <c r="F324" s="18"/>
       <c r="G324" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="325" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12352,14 +12425,16 @@
         <v>70</v>
       </c>
       <c r="D325" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E325" s="20">
         <v>44084</v>
       </c>
-      <c r="F325" s="18"/>
+      <c r="F325" s="20">
+        <v>44093</v>
+      </c>
       <c r="G325" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="326" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12373,14 +12448,14 @@
         <v>70</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E326" s="20">
         <v>44084</v>
       </c>
       <c r="F326" s="18"/>
       <c r="G326" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="327" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12401,7 +12476,7 @@
       </c>
       <c r="F327" s="18"/>
       <c r="G327" s="21" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="328" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12415,7 +12490,7 @@
         <v>70</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E328" s="20">
         <v>44085</v>
@@ -12431,10 +12506,10 @@
         <v>81</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E329" s="20">
         <v>44085</v>
@@ -12449,20 +12524,20 @@
         <v>326</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C330" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E330" s="20">
         <v>44085</v>
       </c>
       <c r="F330" s="18"/>
       <c r="G330" s="21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="331" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12473,17 +12548,17 @@
         <v>83</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E331" s="20">
         <v>44085</v>
       </c>
       <c r="F331" s="18"/>
       <c r="G331" s="21" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="332" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12491,20 +12566,20 @@
         <v>328</v>
       </c>
       <c r="B332" s="34" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E332" s="20">
         <v>44085</v>
       </c>
       <c r="F332" s="18"/>
       <c r="G332" s="21" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="333" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12525,7 +12600,7 @@
       </c>
       <c r="F333" s="18"/>
       <c r="G333" s="21" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="334" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12546,7 +12621,7 @@
       </c>
       <c r="F334" s="18"/>
       <c r="G334" s="21" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="335" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12567,7 +12642,7 @@
       </c>
       <c r="F335" s="18"/>
       <c r="G335" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="336" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12588,7 +12663,7 @@
       </c>
       <c r="F336" s="18"/>
       <c r="G336" s="21" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="337" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12609,7 +12684,7 @@
       </c>
       <c r="F337" s="18"/>
       <c r="G337" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="338" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12630,7 +12705,7 @@
       </c>
       <c r="F338" s="18"/>
       <c r="G338" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="339" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12651,7 +12726,7 @@
       </c>
       <c r="F339" s="18"/>
       <c r="G339" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="340" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12674,7 +12749,7 @@
         <v>44092</v>
       </c>
       <c r="G340" s="21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="341" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12688,14 +12763,14 @@
         <v>67</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E341" s="20">
         <v>44086</v>
       </c>
       <c r="F341" s="18"/>
       <c r="G341" s="21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="342" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12716,7 +12791,7 @@
       </c>
       <c r="F342" s="18"/>
       <c r="G342" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="343" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12730,14 +12805,14 @@
         <v>70</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E343" s="20">
         <v>44088</v>
       </c>
       <c r="F343" s="18"/>
       <c r="G343" s="21" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="344" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12751,14 +12826,14 @@
         <v>70</v>
       </c>
       <c r="D344" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E344" s="20">
         <v>44088</v>
       </c>
       <c r="F344" s="18"/>
       <c r="G344" s="21" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="345" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12779,7 +12854,7 @@
       </c>
       <c r="F345" s="18"/>
       <c r="G345" s="21" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="346" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12800,7 +12875,7 @@
       </c>
       <c r="F346" s="18"/>
       <c r="G346" s="21" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="347" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12821,7 +12896,7 @@
       </c>
       <c r="F347" s="18"/>
       <c r="G347" s="21" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="348" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12842,7 +12917,7 @@
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="21" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="349" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12863,7 +12938,7 @@
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="21" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="350" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12884,7 +12959,7 @@
       </c>
       <c r="F350" s="18"/>
       <c r="G350" s="21" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="351" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12905,7 +12980,7 @@
       </c>
       <c r="F351" s="18"/>
       <c r="G351" s="21" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="352" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12926,7 +13001,7 @@
       </c>
       <c r="F352" s="18"/>
       <c r="G352" s="21" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="353" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12947,7 +13022,7 @@
       </c>
       <c r="F353" s="18"/>
       <c r="G353" s="21" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="354" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12968,7 +13043,7 @@
       </c>
       <c r="F354" s="18"/>
       <c r="G354" s="21" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="355" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12989,7 +13064,7 @@
       </c>
       <c r="F355" s="18"/>
       <c r="G355" s="21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="356" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13010,7 +13085,7 @@
       </c>
       <c r="F356" s="18"/>
       <c r="G356" s="21" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="357" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13031,7 +13106,7 @@
       </c>
       <c r="F357" s="18"/>
       <c r="G357" s="21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="358" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13039,7 +13114,7 @@
         <v>354</v>
       </c>
       <c r="B358" s="34" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C358" s="19" t="s">
         <v>67</v>
@@ -13052,7 +13127,7 @@
       </c>
       <c r="F358" s="18"/>
       <c r="G358" s="21" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="359" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13073,7 +13148,7 @@
       </c>
       <c r="F359" s="18"/>
       <c r="G359" s="21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="360" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13094,7 +13169,7 @@
       </c>
       <c r="F360" s="18"/>
       <c r="G360" s="21" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="361" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13115,7 +13190,7 @@
       </c>
       <c r="F361" s="18"/>
       <c r="G361" s="21" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="362" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13136,7 +13211,7 @@
       </c>
       <c r="F362" s="18"/>
       <c r="G362" s="21" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="363" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13157,7 +13232,7 @@
       </c>
       <c r="F363" s="18"/>
       <c r="G363" s="21" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="364" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13178,7 +13253,7 @@
       </c>
       <c r="F364" s="18"/>
       <c r="G364" s="21" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="365" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13199,7 +13274,7 @@
       </c>
       <c r="F365" s="18"/>
       <c r="G365" s="21" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="366" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13220,7 +13295,7 @@
       </c>
       <c r="F366" s="18"/>
       <c r="G366" s="21" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="367" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13241,7 +13316,7 @@
       </c>
       <c r="F367" s="18"/>
       <c r="G367" s="21" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="368" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13262,7 +13337,7 @@
       </c>
       <c r="F368" s="18"/>
       <c r="G368" s="21" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="369" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13283,7 +13358,7 @@
       </c>
       <c r="F369" s="18"/>
       <c r="G369" s="21" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13291,7 +13366,7 @@
         <v>366</v>
       </c>
       <c r="B370" s="34" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C370" s="19" t="s">
         <v>70</v>
@@ -13304,7 +13379,7 @@
       </c>
       <c r="F370" s="18"/>
       <c r="G370" s="21" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="371" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13350,13 +13425,13 @@
         <v>369</v>
       </c>
       <c r="B373" s="34" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D373" s="18" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E373" s="20">
         <v>44090</v>
@@ -13382,7 +13457,7 @@
       </c>
       <c r="F374" s="18"/>
       <c r="G374" s="21" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="375" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13403,7 +13478,7 @@
       </c>
       <c r="F375" s="18"/>
       <c r="G375" s="24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="376" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13424,7 +13499,7 @@
       </c>
       <c r="F376" s="18"/>
       <c r="G376" s="24" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="377" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13432,7 +13507,7 @@
         <v>373</v>
       </c>
       <c r="B377" s="34" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C377" s="19" t="s">
         <v>70</v>
@@ -13445,7 +13520,7 @@
       </c>
       <c r="F377" s="18"/>
       <c r="G377" s="21" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="378" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13466,7 +13541,7 @@
       </c>
       <c r="F378" s="18"/>
       <c r="G378" s="21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="379" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13487,45 +13562,230 @@
       </c>
       <c r="F379" s="18"/>
       <c r="G379" s="24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A380" s="18">
+        <v>376</v>
+      </c>
+      <c r="B380" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="C380" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D380" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="E380" s="20">
+        <v>44092</v>
+      </c>
+      <c r="F380" s="18"/>
+      <c r="G380" s="24" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="380" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A380" s="52">
-        <v>376</v>
-      </c>
-      <c r="B380" s="53" t="s">
+    <row r="381" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A381" s="52">
+        <v>377</v>
+      </c>
+      <c r="B381" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C381" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D381" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E381" s="55">
+        <v>44093</v>
+      </c>
+      <c r="F381" s="52"/>
+      <c r="G381" s="56" t="s">
         <v>503</v>
       </c>
-      <c r="C380" s="54" t="s">
+    </row>
+    <row r="382" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A382" s="52">
+        <v>378</v>
+      </c>
+      <c r="B382" s="53" t="s">
+        <v>504</v>
+      </c>
+      <c r="C382" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D380" s="52" t="s">
+      <c r="D382" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E382" s="55">
+        <v>44093</v>
+      </c>
+      <c r="F382" s="52"/>
+      <c r="G382" s="56" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A383" s="52">
+        <v>379</v>
+      </c>
+      <c r="B383" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C383" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D383" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E383" s="55">
+        <v>44093</v>
+      </c>
+      <c r="F383" s="52"/>
+      <c r="G383" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A384" s="52">
+        <v>380</v>
+      </c>
+      <c r="B384" s="53" t="s">
+        <v>507</v>
+      </c>
+      <c r="C384" s="54" t="s">
+        <v>508</v>
+      </c>
+      <c r="D384" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E384" s="55">
+        <v>44093</v>
+      </c>
+      <c r="F384" s="52"/>
+      <c r="G384" s="56" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A385" s="52">
+        <v>381</v>
+      </c>
+      <c r="B385" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="C385" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="D385" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E385" s="55">
+        <v>44093</v>
+      </c>
+      <c r="F385" s="52"/>
+      <c r="G385" s="56"/>
+    </row>
+    <row r="386" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A386" s="52">
+        <v>382</v>
+      </c>
+      <c r="B386" s="53" t="s">
+        <v>507</v>
+      </c>
+      <c r="C386" s="54" t="s">
+        <v>508</v>
+      </c>
+      <c r="D386" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E386" s="55">
+        <v>44093</v>
+      </c>
+      <c r="F386" s="52"/>
+      <c r="G386" s="56" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A387" s="52">
+        <v>383</v>
+      </c>
+      <c r="B387" s="53" t="s">
+        <v>507</v>
+      </c>
+      <c r="C387" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="D387" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E387" s="55">
+        <v>44093</v>
+      </c>
+      <c r="F387" s="52"/>
+      <c r="G387" s="56" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A388" s="52">
+        <v>384</v>
+      </c>
+      <c r="B388" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C388" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="D388" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E388" s="55">
+        <v>44093</v>
+      </c>
+      <c r="F388" s="52"/>
+      <c r="G388" s="56" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A389" s="52">
+        <v>385</v>
+      </c>
+      <c r="B389" s="53" t="s">
         <v>504</v>
       </c>
-      <c r="E380" s="55">
-        <v>44092</v>
-      </c>
-      <c r="F380" s="52"/>
-      <c r="G380" s="56" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A381" s="58" t="s">
+      <c r="C389" s="54" t="s">
+        <v>508</v>
+      </c>
+      <c r="D389" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="E389" s="55">
+        <v>44093</v>
+      </c>
+      <c r="F389" s="52"/>
+      <c r="G389" s="56"/>
+    </row>
+    <row r="390" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A390" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B381" s="58"/>
-      <c r="C381" s="58"/>
-      <c r="D381" s="58"/>
-      <c r="E381" s="58"/>
-      <c r="F381" s="58"/>
-      <c r="G381" s="58"/>
+      <c r="B390" s="58"/>
+      <c r="C390" s="58"/>
+      <c r="D390" s="58"/>
+      <c r="E390" s="58"/>
+      <c r="F390" s="58"/>
+      <c r="G390" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A381:G381"/>
+    <mergeCell ref="A390:G390"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -13535,7 +13795,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="6" man="1"/>
     <brk id="78" max="6" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200919\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\◎◎患者情報◎◎\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$390</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$392</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="532">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -3775,6 +3775,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>退院済み</t>
+    <rPh sb="0" eb="2">
+      <t>タイイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院済み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手持ち資料</t>
+    <rPh sb="0" eb="2">
+      <t>テモ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院者数</t>
+    <rPh sb="0" eb="2">
+      <t>タイイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症患者</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンジャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明</t>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経路不明者(総数）</t>
+    <rPh sb="0" eb="2">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>※宇都宮市123例目</t>
     <rPh sb="1" eb="5">
       <t>ウツノミヤシ</t>
@@ -3785,6 +3858,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -3809,6 +3889,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>感染対策G↓</t>
+    <rPh sb="0" eb="2">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に確認する</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -3851,6 +3948,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>No.309・310の知人</t>
     <rPh sb="11" eb="13">
       <t>チジン</t>
@@ -3962,6 +4066,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>No.328の家族</t>
     <rPh sb="7" eb="9">
       <t>カゾク</t>
@@ -4042,6 +4153,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>No.333の子</t>
     <rPh sb="7" eb="8">
       <t>コ</t>
@@ -4119,6 +4237,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>No.359の子</t>
     <rPh sb="7" eb="8">
       <t>コ</t>
@@ -4424,13 +4549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鹿沼市</t>
-    <rPh sb="0" eb="3">
-      <t>カヌマシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.364･370の同僚</t>
     <rPh sb="11" eb="13">
       <t>ドウリョウ</t>
@@ -4454,6 +4572,23 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.323の知人、No.329の同僚</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.374の接触者</t>
+    <rPh sb="7" eb="10">
+      <t>セッショクシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4462,7 +4597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4542,6 +4677,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4569,7 +4711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4618,13 +4760,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4778,7 +4931,46 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4795,6 +4987,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5097,11 +5295,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G390"/>
+  <dimension ref="A1:O393"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:O1048576"/>
+      <pane ySplit="2" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G390" sqref="G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5111,21 +5309,29 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.75" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="49" customWidth="1"/>
+    <col min="15" max="15" width="14.25" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5147,8 +5353,10 @@
       <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5170,8 +5378,12 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I18" si="0">IF(COUNT(F3)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5193,8 +5405,12 @@
       <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5216,8 +5432,12 @@
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5239,8 +5459,12 @@
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5262,8 +5486,12 @@
       <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5285,8 +5513,12 @@
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5308,8 +5540,12 @@
       <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5331,8 +5567,12 @@
       <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5354,8 +5594,12 @@
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5377,8 +5621,12 @@
       <c r="G12" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -5400,8 +5648,12 @@
       <c r="G13" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -5423,8 +5675,12 @@
       <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5446,8 +5702,15 @@
       <c r="G15" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -5467,8 +5730,15 @@
         <v>43948</v>
       </c>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5490,8 +5760,12 @@
       <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5513,8 +5787,12 @@
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5534,18 +5812,25 @@
         <v>43969</v>
       </c>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="59">
+      <c r="I19" s="1" t="str">
+        <f>IF(COUNT(F19)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="74">
         <v>18</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="74" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="8">
@@ -5554,24 +5839,28 @@
       <c r="F20" s="8">
         <v>43959</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="76" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="I20" s="71" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="14">
         <v>43973</v>
       </c>
       <c r="F21" s="8">
         <v>43990</v>
       </c>
-      <c r="G21" s="62"/>
-    </row>
-    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="77"/>
+      <c r="I21" s="71"/>
+    </row>
+    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5593,8 +5882,15 @@
       <c r="G22" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I22" s="1" t="str">
+        <f>IF(COUNT(F22)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="N22" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5614,8 +5910,15 @@
         <v>43949</v>
       </c>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I23" s="1" t="str">
+        <f t="shared" ref="I23:I56" si="1">IF(COUNT(F23)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5637,8 +5940,12 @@
       <c r="G24" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5660,8 +5967,12 @@
       <c r="G25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5683,8 +5994,12 @@
       <c r="G26" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5706,8 +6021,12 @@
       <c r="G27" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5729,8 +6048,12 @@
       <c r="G28" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5752,8 +6075,12 @@
       <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5775,8 +6102,12 @@
       <c r="G30" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5798,8 +6129,12 @@
       <c r="G31" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5819,8 +6154,15 @@
         <v>43940</v>
       </c>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N32" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5840,8 +6182,15 @@
         <v>43970</v>
       </c>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N33" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5861,8 +6210,15 @@
         <v>43978</v>
       </c>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N34" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -5884,8 +6240,12 @@
       <c r="G35" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -5907,8 +6267,12 @@
       <c r="G36" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -5928,8 +6292,15 @@
         <v>43949</v>
       </c>
       <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N37" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -5949,8 +6320,15 @@
         <v>43945</v>
       </c>
       <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N38" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -5972,8 +6350,12 @@
       <c r="G39" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -5993,8 +6375,15 @@
         <v>43963</v>
       </c>
       <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N40" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6016,8 +6405,12 @@
       <c r="G41" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6037,8 +6430,15 @@
         <v>43960</v>
       </c>
       <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N42" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6060,8 +6460,15 @@
       <c r="G43" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N43" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6083,8 +6490,12 @@
       <c r="G44" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6106,8 +6517,12 @@
       <c r="G45" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6127,8 +6542,15 @@
         <v>43960</v>
       </c>
       <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N46" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6150,8 +6572,12 @@
       <c r="G47" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6173,8 +6599,12 @@
       <c r="G48" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6194,8 +6624,15 @@
         <v>43953</v>
       </c>
       <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N49" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6217,8 +6654,12 @@
       <c r="G50" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6240,8 +6681,12 @@
       <c r="G51" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -6263,8 +6708,12 @@
       <c r="G52" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -6284,8 +6733,15 @@
         <v>43962</v>
       </c>
       <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N53" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -6307,8 +6763,12 @@
       <c r="G54" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -6330,8 +6790,12 @@
       <c r="G55" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -6351,8 +6815,15 @@
         <v>43985</v>
       </c>
       <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N56" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -6372,8 +6843,15 @@
         <v>43970</v>
       </c>
       <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I57" s="1" t="str">
+        <f t="shared" ref="I57:I122" si="2">IF(COUNT(F57)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="N57" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -6396,7 +6874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -6418,8 +6896,15 @@
       <c r="G59" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N59" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -6441,8 +6926,12 @@
       <c r="G60" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -6464,8 +6953,15 @@
       <c r="G61" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N61" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -6487,8 +6983,15 @@
       <c r="G62" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N62" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -6510,8 +7013,12 @@
       <c r="G63" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -6533,8 +7040,12 @@
       <c r="G64" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -6556,8 +7067,12 @@
       <c r="G65" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -6579,8 +7094,12 @@
       <c r="G66" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -6602,8 +7121,12 @@
       <c r="G67" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I67" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -6625,8 +7148,12 @@
       <c r="G68" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -6648,8 +7175,14 @@
       <c r="G69" s="15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+    </row>
+    <row r="70" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -6669,8 +7202,16 @@
         <v>43993</v>
       </c>
       <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>67</v>
       </c>
@@ -6692,8 +7233,14 @@
       <c r="G71" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+    </row>
+    <row r="72" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16">
         <v>68</v>
       </c>
@@ -6715,8 +7262,14 @@
       <c r="G72" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I72" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+    </row>
+    <row r="73" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="16">
         <v>69</v>
       </c>
@@ -6738,8 +7291,14 @@
       <c r="G73" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I73" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+    </row>
+    <row r="74" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -6761,8 +7320,14 @@
       <c r="G74" s="17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+    </row>
+    <row r="75" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="16">
         <v>71</v>
       </c>
@@ -6784,8 +7349,14 @@
       <c r="G75" s="17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I75" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+    </row>
+    <row r="76" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="16">
         <v>72</v>
       </c>
@@ -6807,8 +7378,14 @@
       <c r="G76" s="17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I76" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+    </row>
+    <row r="77" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16">
         <v>73</v>
       </c>
@@ -6830,8 +7407,14 @@
       <c r="G77" s="17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I77" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+    </row>
+    <row r="78" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -6853,8 +7436,14 @@
       <c r="G78" s="17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I78" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+    </row>
+    <row r="79" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -6876,8 +7465,14 @@
       <c r="G79" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I79" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+    </row>
+    <row r="80" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -6899,8 +7494,14 @@
       <c r="G80" s="17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I80" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+    </row>
+    <row r="81" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -6920,8 +7521,16 @@
         <v>44021</v>
       </c>
       <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I81" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -6941,8 +7550,16 @@
         <v>44021</v>
       </c>
       <c r="G82" s="17"/>
-    </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I82" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -6964,8 +7581,14 @@
       <c r="G83" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I83" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+    </row>
+    <row r="84" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -6987,8 +7610,14 @@
       <c r="G84" s="17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I84" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+    </row>
+    <row r="85" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -7010,8 +7639,14 @@
       <c r="G85" s="17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I85" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+    </row>
+    <row r="86" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -7033,8 +7668,14 @@
       <c r="G86" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I86" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+    </row>
+    <row r="87" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -7056,8 +7697,14 @@
       <c r="G87" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I87" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+    </row>
+    <row r="88" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -7079,8 +7726,14 @@
       <c r="G88" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I88" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+    </row>
+    <row r="89" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -7102,8 +7755,14 @@
       <c r="G89" s="15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+    </row>
+    <row r="90" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -7125,8 +7784,14 @@
       <c r="G90" s="15" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I90" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+    </row>
+    <row r="91" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="18">
         <v>87</v>
       </c>
@@ -7148,8 +7813,14 @@
       <c r="G91" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I91" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+    </row>
+    <row r="92" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="18">
         <v>88</v>
       </c>
@@ -7171,8 +7842,14 @@
       <c r="G92" s="21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I92" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+    </row>
+    <row r="93" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="19">
         <v>89</v>
       </c>
@@ -7194,8 +7871,14 @@
       <c r="G93" s="21" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I93" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+    </row>
+    <row r="94" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="19">
         <v>90</v>
       </c>
@@ -7217,8 +7900,14 @@
       <c r="G94" s="21" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I94" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+    </row>
+    <row r="95" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -7238,8 +7927,16 @@
         <v>44033</v>
       </c>
       <c r="G95" s="23"/>
-    </row>
-    <row r="96" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I95" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="18">
         <v>92</v>
       </c>
@@ -7261,8 +7958,14 @@
       <c r="G96" s="21" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+    </row>
+    <row r="97" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>93</v>
       </c>
@@ -7282,8 +7985,16 @@
         <v>44037</v>
       </c>
       <c r="G97" s="23"/>
-    </row>
-    <row r="98" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I97" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="19">
         <v>94</v>
       </c>
@@ -7305,8 +8016,14 @@
       <c r="G98" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+    </row>
+    <row r="99" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="19">
         <v>95</v>
       </c>
@@ -7328,8 +8045,14 @@
       <c r="G99" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+    </row>
+    <row r="100" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="19">
         <v>96</v>
       </c>
@@ -7351,8 +8074,14 @@
       <c r="G100" s="21" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I100" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+    </row>
+    <row r="101" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="19">
         <v>97</v>
       </c>
@@ -7374,8 +8103,14 @@
       <c r="G101" s="24" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+    </row>
+    <row r="102" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="19">
         <v>98</v>
       </c>
@@ -7397,8 +8132,14 @@
       <c r="G102" s="21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M102" s="49"/>
+      <c r="N102" s="49"/>
+    </row>
+    <row r="103" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="25">
         <v>99</v>
       </c>
@@ -7420,8 +8161,14 @@
       <c r="G103" s="28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I103" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+    </row>
+    <row r="104" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="25">
         <v>100</v>
       </c>
@@ -7443,8 +8190,14 @@
       <c r="G104" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I104" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M104" s="49"/>
+      <c r="N104" s="49"/>
+    </row>
+    <row r="105" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="25">
         <v>101</v>
       </c>
@@ -7466,8 +8219,14 @@
       <c r="G105" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I105" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M105" s="49"/>
+      <c r="N105" s="49"/>
+    </row>
+    <row r="106" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="25">
         <v>102</v>
       </c>
@@ -7489,8 +8248,14 @@
       <c r="G106" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I106" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M106" s="49"/>
+      <c r="N106" s="49"/>
+    </row>
+    <row r="107" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="25">
         <v>103</v>
       </c>
@@ -7512,8 +8277,14 @@
       <c r="G107" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I107" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M107" s="49"/>
+      <c r="N107" s="49"/>
+    </row>
+    <row r="108" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="19">
         <v>104</v>
       </c>
@@ -7533,8 +8304,16 @@
         <v>44042</v>
       </c>
       <c r="G108" s="21"/>
-    </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I108" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M108" s="49"/>
+      <c r="N108" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="30">
         <v>105</v>
       </c>
@@ -7556,8 +8335,14 @@
       <c r="G109" s="32" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I109" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M109" s="49"/>
+      <c r="N109" s="49"/>
+    </row>
+    <row r="110" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="19">
         <v>106</v>
       </c>
@@ -7579,8 +8364,14 @@
       <c r="G110" s="21" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I110" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M110" s="49"/>
+      <c r="N110" s="49"/>
+    </row>
+    <row r="111" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="19">
         <v>107</v>
       </c>
@@ -7602,8 +8393,16 @@
       <c r="G111" s="21" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I111" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="19">
         <v>108</v>
       </c>
@@ -7625,8 +8424,14 @@
       <c r="G112" s="21" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I112" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M112" s="49"/>
+      <c r="N112" s="49"/>
+    </row>
+    <row r="113" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="19">
         <v>109</v>
       </c>
@@ -7648,8 +8453,14 @@
       <c r="G113" s="24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I113" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M113" s="49"/>
+      <c r="N113" s="49"/>
+    </row>
+    <row r="114" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="19">
         <v>110</v>
       </c>
@@ -7671,8 +8482,16 @@
       <c r="G114" s="21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I114" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M114" s="49"/>
+      <c r="N114" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="19">
         <v>111</v>
       </c>
@@ -7694,8 +8513,14 @@
       <c r="G115" s="21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I115" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+    </row>
+    <row r="116" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="19">
         <v>112</v>
       </c>
@@ -7717,8 +8542,14 @@
       <c r="G116" s="21" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I116" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+    </row>
+    <row r="117" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="19">
         <v>113</v>
       </c>
@@ -7740,8 +8571,14 @@
       <c r="G117" s="21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I117" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M117" s="49"/>
+      <c r="N117" s="49"/>
+    </row>
+    <row r="118" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="19">
         <v>114</v>
       </c>
@@ -7763,8 +8600,14 @@
       <c r="G118" s="21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I118" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M118" s="49"/>
+      <c r="N118" s="49"/>
+    </row>
+    <row r="119" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="19">
         <v>115</v>
       </c>
@@ -7786,8 +8629,14 @@
       <c r="G119" s="21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I119" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M119" s="49"/>
+      <c r="N119" s="49"/>
+    </row>
+    <row r="120" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="19">
         <v>116</v>
       </c>
@@ -7809,8 +8658,14 @@
       <c r="G120" s="21" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I120" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M120" s="49"/>
+      <c r="N120" s="49"/>
+    </row>
+    <row r="121" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="19">
         <v>117</v>
       </c>
@@ -7832,8 +8687,14 @@
       <c r="G121" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I121" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M121" s="49"/>
+      <c r="N121" s="49"/>
+    </row>
+    <row r="122" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="19">
         <v>118</v>
       </c>
@@ -7855,8 +8716,14 @@
       <c r="G122" s="21" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I122" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M122" s="49"/>
+      <c r="N122" s="49"/>
+    </row>
+    <row r="123" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="25">
         <v>119</v>
       </c>
@@ -7878,8 +8745,12 @@
       <c r="G123" s="29" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I123" s="1" t="str">
+        <f t="shared" ref="I123:I186" si="3">IF(COUNT(F123)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="25">
         <v>120</v>
       </c>
@@ -7901,8 +8772,12 @@
       <c r="G124" s="29" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="25">
         <v>121</v>
       </c>
@@ -7924,8 +8799,12 @@
       <c r="G125" s="29" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I125" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="25">
         <v>122</v>
       </c>
@@ -7947,8 +8826,12 @@
       <c r="G126" s="29" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I126" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="25">
         <v>123</v>
       </c>
@@ -7970,8 +8853,12 @@
       <c r="G127" s="29" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I127" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="25">
         <v>124</v>
       </c>
@@ -7993,8 +8880,12 @@
       <c r="G128" s="29" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I128" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="19">
         <v>125</v>
       </c>
@@ -8016,8 +8907,14 @@
       <c r="G129" s="21" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I129" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M129" s="49"/>
+      <c r="N129" s="49"/>
+    </row>
+    <row r="130" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="19">
         <v>126</v>
       </c>
@@ -8039,8 +8936,14 @@
       <c r="G130" s="21" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I130" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M130" s="49"/>
+      <c r="N130" s="49"/>
+    </row>
+    <row r="131" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="19">
         <v>127</v>
       </c>
@@ -8062,8 +8965,14 @@
       <c r="G131" s="21" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I131" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M131" s="49"/>
+      <c r="N131" s="49"/>
+    </row>
+    <row r="132" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="19">
         <v>128</v>
       </c>
@@ -8085,8 +8994,14 @@
       <c r="G132" s="24" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I132" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M132" s="49"/>
+      <c r="N132" s="49"/>
+    </row>
+    <row r="133" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="19">
         <v>129</v>
       </c>
@@ -8108,8 +9023,14 @@
       <c r="G133" s="24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I133" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M133" s="49"/>
+      <c r="N133" s="49"/>
+    </row>
+    <row r="134" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="19">
         <v>130</v>
       </c>
@@ -8131,8 +9052,14 @@
       <c r="G134" s="24" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I134" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M134" s="49"/>
+      <c r="N134" s="49"/>
+    </row>
+    <row r="135" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="19">
         <v>131</v>
       </c>
@@ -8154,8 +9081,14 @@
       <c r="G135" s="21" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I135" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M135" s="49"/>
+      <c r="N135" s="49"/>
+    </row>
+    <row r="136" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="19">
         <v>132</v>
       </c>
@@ -8177,8 +9110,14 @@
       <c r="G136" s="21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I136" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M136" s="49"/>
+      <c r="N136" s="49"/>
+    </row>
+    <row r="137" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="19">
         <v>133</v>
       </c>
@@ -8198,8 +9137,16 @@
         <v>44043</v>
       </c>
       <c r="G137" s="35"/>
-    </row>
-    <row r="138" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I137" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M137" s="49"/>
+      <c r="N137" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="19">
         <v>134</v>
       </c>
@@ -8221,8 +9168,14 @@
       <c r="G138" s="21" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I138" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M138" s="49"/>
+      <c r="N138" s="49"/>
+    </row>
+    <row r="139" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="19">
         <v>135</v>
       </c>
@@ -8244,8 +9197,14 @@
       <c r="G139" s="21" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I139" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M139" s="49"/>
+      <c r="N139" s="49"/>
+    </row>
+    <row r="140" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="19">
         <v>136</v>
       </c>
@@ -8267,8 +9226,14 @@
       <c r="G140" s="21" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I140" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M140" s="49"/>
+      <c r="N140" s="49"/>
+    </row>
+    <row r="141" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="19">
         <v>137</v>
       </c>
@@ -8290,8 +9255,14 @@
       <c r="G141" s="21" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I141" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M141" s="49"/>
+      <c r="N141" s="49"/>
+    </row>
+    <row r="142" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="19">
         <v>138</v>
       </c>
@@ -8313,8 +9284,14 @@
       <c r="G142" s="21" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I142" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M142" s="49"/>
+      <c r="N142" s="49"/>
+    </row>
+    <row r="143" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="19">
         <v>139</v>
       </c>
@@ -8336,8 +9313,16 @@
       <c r="G143" s="21" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I143" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M143" s="49"/>
+      <c r="N143" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="19">
         <v>140</v>
       </c>
@@ -8359,8 +9344,14 @@
       <c r="G144" s="21" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I144" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M144" s="49"/>
+      <c r="N144" s="49"/>
+    </row>
+    <row r="145" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="19">
         <v>141</v>
       </c>
@@ -8382,8 +9373,14 @@
       <c r="G145" s="21" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I145" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M145" s="49"/>
+      <c r="N145" s="49"/>
+    </row>
+    <row r="146" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="19">
         <v>142</v>
       </c>
@@ -8405,8 +9402,16 @@
       <c r="G146" s="21" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I146" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M146" s="49"/>
+      <c r="N146" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="19">
         <v>143</v>
       </c>
@@ -8426,8 +9431,16 @@
         <v>44042</v>
       </c>
       <c r="G147" s="21"/>
-    </row>
-    <row r="148" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I147" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M147" s="49"/>
+      <c r="N147" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="19">
         <v>144</v>
       </c>
@@ -8449,8 +9462,14 @@
       <c r="G148" s="21" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I148" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M148" s="49"/>
+      <c r="N148" s="49"/>
+    </row>
+    <row r="149" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="19">
         <v>145</v>
       </c>
@@ -8470,8 +9489,16 @@
         <v>44054</v>
       </c>
       <c r="G149" s="21"/>
-    </row>
-    <row r="150" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I149" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M149" s="49"/>
+      <c r="N149" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="19">
         <v>146</v>
       </c>
@@ -8491,8 +9518,16 @@
         <v>44049</v>
       </c>
       <c r="G150" s="21"/>
-    </row>
-    <row r="151" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I150" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M150" s="49"/>
+      <c r="N150" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="19">
         <v>147</v>
       </c>
@@ -8512,8 +9547,16 @@
         <v>44044</v>
       </c>
       <c r="G151" s="21"/>
-    </row>
-    <row r="152" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I151" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M151" s="49"/>
+      <c r="N151" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="19">
         <v>148</v>
       </c>
@@ -8533,8 +9576,16 @@
         <v>44044</v>
       </c>
       <c r="G152" s="21"/>
-    </row>
-    <row r="153" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I152" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M152" s="49"/>
+      <c r="N152" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="19">
         <v>149</v>
       </c>
@@ -8556,8 +9607,14 @@
       <c r="G153" s="21" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I153" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M153" s="49"/>
+      <c r="N153" s="49"/>
+    </row>
+    <row r="154" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="19">
         <v>150</v>
       </c>
@@ -8579,8 +9636,14 @@
       <c r="G154" s="21" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I154" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M154" s="49"/>
+      <c r="N154" s="49"/>
+    </row>
+    <row r="155" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="19">
         <v>151</v>
       </c>
@@ -8602,8 +9665,16 @@
       <c r="G155" s="21" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I155" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M155" s="49"/>
+      <c r="N155" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="25">
         <v>152</v>
       </c>
@@ -8625,8 +9696,14 @@
       <c r="G156" s="29" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I156" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M156" s="49"/>
+      <c r="N156" s="49"/>
+    </row>
+    <row r="157" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="25">
         <v>153</v>
       </c>
@@ -8648,8 +9725,14 @@
       <c r="G157" s="29" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I157" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M157" s="49"/>
+      <c r="N157" s="49"/>
+    </row>
+    <row r="158" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="25">
         <v>154</v>
       </c>
@@ -8671,8 +9754,14 @@
       <c r="G158" s="29" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I158" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M158" s="49"/>
+      <c r="N158" s="49"/>
+    </row>
+    <row r="159" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="25">
         <v>155</v>
       </c>
@@ -8694,8 +9783,14 @@
       <c r="G159" s="29" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I159" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M159" s="49"/>
+      <c r="N159" s="49"/>
+    </row>
+    <row r="160" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="25">
         <v>156</v>
       </c>
@@ -8717,8 +9812,14 @@
       <c r="G160" s="29" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I160" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M160" s="49"/>
+      <c r="N160" s="49"/>
+    </row>
+    <row r="161" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="25">
         <v>157</v>
       </c>
@@ -8740,8 +9841,14 @@
       <c r="G161" s="29" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I161" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M161" s="49"/>
+      <c r="N161" s="49"/>
+    </row>
+    <row r="162" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="25">
         <v>158</v>
       </c>
@@ -8763,8 +9870,16 @@
       <c r="G162" s="29" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I162" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M162" s="49"/>
+      <c r="N162" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="25">
         <v>159</v>
       </c>
@@ -8786,8 +9901,16 @@
       <c r="G163" s="29" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I163" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M163" s="49"/>
+      <c r="N163" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="25">
         <v>160</v>
       </c>
@@ -8809,8 +9932,14 @@
       <c r="G164" s="29" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I164" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M164" s="49"/>
+      <c r="N164" s="49"/>
+    </row>
+    <row r="165" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="25">
         <v>161</v>
       </c>
@@ -8832,8 +9961,14 @@
       <c r="G165" s="29" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I165" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M165" s="49"/>
+      <c r="N165" s="49"/>
+    </row>
+    <row r="166" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="25">
         <v>162</v>
       </c>
@@ -8855,8 +9990,14 @@
       <c r="G166" s="29" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I166" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M166" s="49"/>
+      <c r="N166" s="49"/>
+    </row>
+    <row r="167" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="25">
         <v>163</v>
       </c>
@@ -8878,8 +10019,14 @@
       <c r="G167" s="29" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I167" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M167" s="49"/>
+      <c r="N167" s="49"/>
+    </row>
+    <row r="168" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="19">
         <v>164</v>
       </c>
@@ -8901,8 +10048,14 @@
       <c r="G168" s="21" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I168" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M168" s="49"/>
+      <c r="N168" s="49"/>
+    </row>
+    <row r="169" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="19">
         <v>165</v>
       </c>
@@ -8924,8 +10077,14 @@
       <c r="G169" s="21" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I169" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M169" s="49"/>
+      <c r="N169" s="49"/>
+    </row>
+    <row r="170" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="19">
         <v>166</v>
       </c>
@@ -8947,8 +10106,16 @@
       <c r="G170" s="21" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I170" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M170" s="49"/>
+      <c r="N170" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="19">
         <v>167</v>
       </c>
@@ -8970,8 +10137,16 @@
       <c r="G171" s="21" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I171" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M171" s="49"/>
+      <c r="N171" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="19">
         <v>168</v>
       </c>
@@ -8993,8 +10168,16 @@
       <c r="G172" s="21" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I172" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M172" s="49"/>
+      <c r="N172" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="19">
         <v>169</v>
       </c>
@@ -9016,8 +10199,16 @@
       <c r="G173" s="21" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I173" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M173" s="49"/>
+      <c r="N173" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="19">
         <v>170</v>
       </c>
@@ -9039,8 +10230,14 @@
       <c r="G174" s="21" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I174" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M174" s="49"/>
+      <c r="N174" s="49"/>
+    </row>
+    <row r="175" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="19">
         <v>171</v>
       </c>
@@ -9062,8 +10259,14 @@
       <c r="G175" s="21" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I175" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M175" s="49"/>
+      <c r="N175" s="49"/>
+    </row>
+    <row r="176" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="19">
         <v>172</v>
       </c>
@@ -9083,8 +10286,16 @@
         <v>44055</v>
       </c>
       <c r="G176" s="21"/>
-    </row>
-    <row r="177" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I176" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M176" s="49"/>
+      <c r="N176" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="19">
         <v>173</v>
       </c>
@@ -9106,8 +10317,14 @@
       <c r="G177" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I177" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M177" s="49"/>
+      <c r="N177" s="49"/>
+    </row>
+    <row r="178" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="19">
         <v>174</v>
       </c>
@@ -9129,8 +10346,14 @@
       <c r="G178" s="21" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I178" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M178" s="49"/>
+      <c r="N178" s="49"/>
+    </row>
+    <row r="179" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="19">
         <v>175</v>
       </c>
@@ -9152,8 +10375,14 @@
       <c r="G179" s="21" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I179" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M179" s="49"/>
+      <c r="N179" s="49"/>
+    </row>
+    <row r="180" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="19">
         <v>176</v>
       </c>
@@ -9175,8 +10404,14 @@
       <c r="G180" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I180" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M180" s="49"/>
+      <c r="N180" s="49"/>
+    </row>
+    <row r="181" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="19">
         <v>177</v>
       </c>
@@ -9198,8 +10433,14 @@
       <c r="G181" s="21" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I181" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M181" s="49"/>
+      <c r="N181" s="49"/>
+    </row>
+    <row r="182" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="19">
         <v>178</v>
       </c>
@@ -9221,8 +10462,14 @@
       <c r="G182" s="21" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I182" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M182" s="49"/>
+      <c r="N182" s="49"/>
+    </row>
+    <row r="183" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="19">
         <v>179</v>
       </c>
@@ -9244,8 +10491,14 @@
       <c r="G183" s="21" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I183" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M183" s="49"/>
+      <c r="N183" s="49"/>
+    </row>
+    <row r="184" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="19">
         <v>180</v>
       </c>
@@ -9267,8 +10520,14 @@
       <c r="G184" s="21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I184" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M184" s="49"/>
+      <c r="N184" s="49"/>
+    </row>
+    <row r="185" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="19">
         <v>181</v>
       </c>
@@ -9290,8 +10549,14 @@
       <c r="G185" s="21" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I185" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M185" s="49"/>
+      <c r="N185" s="49"/>
+    </row>
+    <row r="186" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="19">
         <v>182</v>
       </c>
@@ -9313,8 +10578,14 @@
       <c r="G186" s="21" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I186" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M186" s="49"/>
+      <c r="N186" s="49"/>
+    </row>
+    <row r="187" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="19">
         <v>183</v>
       </c>
@@ -9336,8 +10607,14 @@
       <c r="G187" s="21" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I187" s="1" t="str">
+        <f t="shared" ref="I187:I250" si="4">IF(COUNT(F187)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="M187" s="49"/>
+      <c r="N187" s="49"/>
+    </row>
+    <row r="188" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="19">
         <v>184</v>
       </c>
@@ -9359,8 +10636,16 @@
       <c r="G188" s="21" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I188" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M188" s="49"/>
+      <c r="N188" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="19">
         <v>185</v>
       </c>
@@ -9382,8 +10667,16 @@
       <c r="G189" s="21" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I189" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M189" s="49"/>
+      <c r="N189" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="19">
         <v>186</v>
       </c>
@@ -9403,8 +10696,16 @@
         <v>44054</v>
       </c>
       <c r="G190" s="21"/>
-    </row>
-    <row r="191" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I190" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M190" s="49"/>
+      <c r="N190" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="19">
         <v>187</v>
       </c>
@@ -9426,8 +10727,16 @@
       <c r="G191" s="21" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I191" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M191" s="49"/>
+      <c r="N191" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="19">
         <v>188</v>
       </c>
@@ -9449,8 +10758,14 @@
       <c r="G192" s="21" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I192" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M192" s="49"/>
+      <c r="N192" s="49"/>
+    </row>
+    <row r="193" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="19">
         <v>189</v>
       </c>
@@ -9472,8 +10787,14 @@
       <c r="G193" s="21" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I193" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M193" s="49"/>
+      <c r="N193" s="49"/>
+    </row>
+    <row r="194" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="19">
         <v>190</v>
       </c>
@@ -9495,8 +10816,14 @@
       <c r="G194" s="21" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I194" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M194" s="49"/>
+      <c r="N194" s="49"/>
+    </row>
+    <row r="195" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="19">
         <v>191</v>
       </c>
@@ -9518,8 +10845,14 @@
       <c r="G195" s="21" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I195" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M195" s="49"/>
+      <c r="N195" s="49"/>
+    </row>
+    <row r="196" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="19">
         <v>192</v>
       </c>
@@ -9541,8 +10874,14 @@
       <c r="G196" s="21" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I196" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M196" s="49"/>
+      <c r="N196" s="49"/>
+    </row>
+    <row r="197" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="19">
         <v>193</v>
       </c>
@@ -9564,8 +10903,14 @@
       <c r="G197" s="21" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I197" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M197" s="49"/>
+      <c r="N197" s="49"/>
+    </row>
+    <row r="198" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="19">
         <v>194</v>
       </c>
@@ -9585,8 +10930,16 @@
         <v>44058</v>
       </c>
       <c r="G198" s="21"/>
-    </row>
-    <row r="199" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I198" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M198" s="49"/>
+      <c r="N198" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="19">
         <v>195</v>
       </c>
@@ -9608,8 +10961,16 @@
       <c r="G199" s="21" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I199" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M199" s="49"/>
+      <c r="N199" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="19">
         <v>196</v>
       </c>
@@ -9631,8 +10992,14 @@
       <c r="G200" s="21" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I200" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M200" s="49"/>
+      <c r="N200" s="49"/>
+    </row>
+    <row r="201" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="19">
         <v>197</v>
       </c>
@@ -9654,8 +11021,16 @@
       <c r="G201" s="21" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I201" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M201" s="49"/>
+      <c r="N201" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="19">
         <v>198</v>
       </c>
@@ -9677,8 +11052,14 @@
       <c r="G202" s="21" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I202" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M202" s="49"/>
+      <c r="N202" s="49"/>
+    </row>
+    <row r="203" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="19">
         <v>199</v>
       </c>
@@ -9700,8 +11081,16 @@
       <c r="G203" s="21" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I203" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M203" s="49"/>
+      <c r="N203" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="19">
         <v>200</v>
       </c>
@@ -9719,8 +11108,16 @@
       </c>
       <c r="F204" s="20"/>
       <c r="G204" s="21"/>
-    </row>
-    <row r="205" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I204" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M204" s="49"/>
+      <c r="N204" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="19">
         <v>201</v>
       </c>
@@ -9742,8 +11139,16 @@
       <c r="G205" s="21" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I205" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M205" s="49"/>
+      <c r="N205" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="19">
         <v>202</v>
       </c>
@@ -9765,8 +11170,16 @@
       <c r="G206" s="21" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I206" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M206" s="49"/>
+      <c r="N206" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="19">
         <v>203</v>
       </c>
@@ -9788,8 +11201,14 @@
       <c r="G207" s="21" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I207" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M207" s="49"/>
+      <c r="N207" s="49"/>
+    </row>
+    <row r="208" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="19">
         <v>204</v>
       </c>
@@ -9811,8 +11230,14 @@
       <c r="G208" s="21" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I208" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M208" s="49"/>
+      <c r="N208" s="49"/>
+    </row>
+    <row r="209" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="19">
         <v>205</v>
       </c>
@@ -9834,8 +11259,14 @@
       <c r="G209" s="21" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I209" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M209" s="49"/>
+      <c r="N209" s="49"/>
+    </row>
+    <row r="210" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="19">
         <v>206</v>
       </c>
@@ -9857,8 +11288,14 @@
       <c r="G210" s="21" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I210" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M210" s="49"/>
+      <c r="N210" s="49"/>
+    </row>
+    <row r="211" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="19">
         <v>207</v>
       </c>
@@ -9880,8 +11317,16 @@
       <c r="G211" s="21" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I211" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M211" s="49"/>
+      <c r="N211" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="19">
         <v>208</v>
       </c>
@@ -9903,8 +11348,16 @@
       <c r="G212" s="21" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I212" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M212" s="49"/>
+      <c r="N212" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="19">
         <v>209</v>
       </c>
@@ -9926,8 +11379,16 @@
       <c r="G213" s="21" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I213" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M213" s="49"/>
+      <c r="N213" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="19">
         <v>210</v>
       </c>
@@ -9949,8 +11410,16 @@
       <c r="G214" s="21" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I214" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M214" s="49"/>
+      <c r="N214" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="19">
         <v>211</v>
       </c>
@@ -9972,8 +11441,14 @@
       <c r="G215" s="21" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I215" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M215" s="49"/>
+      <c r="N215" s="49"/>
+    </row>
+    <row r="216" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="19">
         <v>212</v>
       </c>
@@ -9995,8 +11470,16 @@
       <c r="G216" s="21" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I216" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M216" s="49"/>
+      <c r="N216" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="19">
         <v>213</v>
       </c>
@@ -10018,8 +11501,16 @@
       <c r="G217" s="21" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I217" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M217" s="49"/>
+      <c r="N217" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="19">
         <v>214</v>
       </c>
@@ -10041,8 +11532,14 @@
       <c r="G218" s="21" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I218" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M218" s="49"/>
+      <c r="N218" s="49"/>
+    </row>
+    <row r="219" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="19">
         <v>215</v>
       </c>
@@ -10064,8 +11561,14 @@
       <c r="G219" s="21" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I219" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M219" s="49"/>
+      <c r="N219" s="49"/>
+    </row>
+    <row r="220" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="19">
         <v>216</v>
       </c>
@@ -10085,8 +11588,16 @@
         <v>44076</v>
       </c>
       <c r="G220" s="21"/>
-    </row>
-    <row r="221" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I220" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M220" s="49"/>
+      <c r="N220" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="19">
         <v>217</v>
       </c>
@@ -10106,8 +11617,16 @@
         <v>44072</v>
       </c>
       <c r="G221" s="21"/>
-    </row>
-    <row r="222" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I221" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M221" s="49"/>
+      <c r="N221" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="19">
         <v>218</v>
       </c>
@@ -10129,8 +11648,16 @@
       <c r="G222" s="21" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I222" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M222" s="49"/>
+      <c r="N222" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="19">
         <v>219</v>
       </c>
@@ -10152,8 +11679,16 @@
       <c r="G223" s="21" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I223" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M223" s="49"/>
+      <c r="N223" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="19">
         <v>220</v>
       </c>
@@ -10175,8 +11710,14 @@
       <c r="G224" s="21" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I224" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M224" s="49"/>
+      <c r="N224" s="49"/>
+    </row>
+    <row r="225" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="19">
         <v>221</v>
       </c>
@@ -10198,8 +11739,14 @@
       <c r="G225" s="21" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I225" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M225" s="49"/>
+      <c r="N225" s="49"/>
+    </row>
+    <row r="226" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="19">
         <v>222</v>
       </c>
@@ -10221,8 +11768,14 @@
       <c r="G226" s="21" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I226" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M226" s="49"/>
+      <c r="N226" s="49"/>
+    </row>
+    <row r="227" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="19">
         <v>223</v>
       </c>
@@ -10244,8 +11797,14 @@
       <c r="G227" s="21" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I227" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M227" s="49"/>
+      <c r="N227" s="49"/>
+    </row>
+    <row r="228" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="19">
         <v>224</v>
       </c>
@@ -10267,8 +11826,16 @@
       <c r="G228" s="21" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I228" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M228" s="49"/>
+      <c r="N228" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="19">
         <v>225</v>
       </c>
@@ -10290,8 +11857,14 @@
       <c r="G229" s="21" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I229" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M229" s="49"/>
+      <c r="N229" s="49"/>
+    </row>
+    <row r="230" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="19">
         <v>226</v>
       </c>
@@ -10313,8 +11886,14 @@
       <c r="G230" s="21" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I230" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M230" s="49"/>
+      <c r="N230" s="49"/>
+    </row>
+    <row r="231" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="19">
         <v>227</v>
       </c>
@@ -10334,8 +11913,16 @@
         <v>44068</v>
       </c>
       <c r="G231" s="21"/>
-    </row>
-    <row r="232" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I231" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M231" s="49"/>
+      <c r="N231" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="19">
         <v>228</v>
       </c>
@@ -10357,8 +11944,16 @@
       <c r="G232" s="21" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I232" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M232" s="49"/>
+      <c r="N232" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="19">
         <v>229</v>
       </c>
@@ -10380,8 +11975,16 @@
       <c r="G233" s="21" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I233" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M233" s="49"/>
+      <c r="N233" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="19">
         <v>230</v>
       </c>
@@ -10403,8 +12006,14 @@
       <c r="G234" s="21" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I234" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M234" s="49"/>
+      <c r="N234" s="49"/>
+    </row>
+    <row r="235" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="19">
         <v>231</v>
       </c>
@@ -10424,8 +12033,16 @@
         <v>44062</v>
       </c>
       <c r="G235" s="21"/>
-    </row>
-    <row r="236" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I235" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M235" s="49"/>
+      <c r="N235" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="19">
         <v>232</v>
       </c>
@@ -10445,8 +12062,16 @@
         <v>44060</v>
       </c>
       <c r="G236" s="21"/>
-    </row>
-    <row r="237" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I236" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M236" s="49"/>
+      <c r="N236" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="19">
         <v>233</v>
       </c>
@@ -10468,8 +12093,14 @@
       <c r="G237" s="21" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I237" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M237" s="49"/>
+      <c r="N237" s="49"/>
+    </row>
+    <row r="238" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="19">
         <v>234</v>
       </c>
@@ -10489,8 +12120,16 @@
         <v>44057</v>
       </c>
       <c r="G238" s="21"/>
-    </row>
-    <row r="239" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I238" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M238" s="49"/>
+      <c r="N238" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="19">
         <v>235</v>
       </c>
@@ -10510,8 +12149,16 @@
         <v>44057</v>
       </c>
       <c r="G239" s="21"/>
-    </row>
-    <row r="240" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I239" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M239" s="49"/>
+      <c r="N239" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="19">
         <v>236</v>
       </c>
@@ -10533,8 +12180,16 @@
       <c r="G240" s="21" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I240" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M240" s="49"/>
+      <c r="N240" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="19">
         <v>237</v>
       </c>
@@ -10556,8 +12211,14 @@
       <c r="G241" s="21" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I241" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M241" s="49"/>
+      <c r="N241" s="49"/>
+    </row>
+    <row r="242" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="19">
         <v>238</v>
       </c>
@@ -10579,8 +12240,14 @@
       <c r="G242" s="21" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I242" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M242" s="49"/>
+      <c r="N242" s="49"/>
+    </row>
+    <row r="243" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="19">
         <v>239</v>
       </c>
@@ -10600,8 +12267,16 @@
         <v>44056</v>
       </c>
       <c r="G243" s="21"/>
-    </row>
-    <row r="244" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I243" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M243" s="49"/>
+      <c r="N243" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="19">
         <v>240</v>
       </c>
@@ -10621,8 +12296,16 @@
         <v>44059</v>
       </c>
       <c r="G244" s="21"/>
-    </row>
-    <row r="245" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I244" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M244" s="49"/>
+      <c r="N244" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="19">
         <v>241</v>
       </c>
@@ -10642,8 +12325,16 @@
         <v>44063</v>
       </c>
       <c r="G245" s="21"/>
-    </row>
-    <row r="246" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I245" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M245" s="49"/>
+      <c r="N245" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="19">
         <v>242</v>
       </c>
@@ -10665,8 +12356,14 @@
       <c r="G246" s="21" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I246" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M246" s="49"/>
+      <c r="N246" s="49"/>
+    </row>
+    <row r="247" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="19">
         <v>243</v>
       </c>
@@ -10688,8 +12385,14 @@
       <c r="G247" s="21" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I247" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M247" s="49"/>
+      <c r="N247" s="49"/>
+    </row>
+    <row r="248" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="19">
         <v>244</v>
       </c>
@@ -10711,8 +12414,16 @@
       <c r="G248" s="21" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I248" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M248" s="49"/>
+      <c r="N248" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="19">
         <v>245</v>
       </c>
@@ -10734,8 +12445,14 @@
       <c r="G249" s="21" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I249" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M249" s="49"/>
+      <c r="N249" s="49"/>
+    </row>
+    <row r="250" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="19">
         <v>246</v>
       </c>
@@ -10757,8 +12474,16 @@
       <c r="G250" s="21" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I250" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M250" s="49"/>
+      <c r="N250" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="25">
         <v>247</v>
       </c>
@@ -10780,8 +12505,14 @@
       <c r="G251" s="29" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I251" s="1" t="str">
+        <f t="shared" ref="I251:I313" si="5">IF(COUNT(F251)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="M251" s="49"/>
+      <c r="N251" s="49"/>
+    </row>
+    <row r="252" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="25">
         <v>248</v>
       </c>
@@ -10803,8 +12534,14 @@
       <c r="G252" s="29" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I252" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M252" s="49"/>
+      <c r="N252" s="49"/>
+    </row>
+    <row r="253" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="25">
         <v>249</v>
       </c>
@@ -10824,8 +12561,16 @@
         <v>44060</v>
       </c>
       <c r="G253" s="29"/>
-    </row>
-    <row r="254" spans="1:7" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I253" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M253" s="49"/>
+      <c r="N253" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="25">
         <v>250</v>
       </c>
@@ -10847,8 +12592,14 @@
       <c r="G254" s="29" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I254" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M254" s="49"/>
+      <c r="N254" s="49"/>
+    </row>
+    <row r="255" spans="1:14" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="25">
         <v>251</v>
       </c>
@@ -10870,8 +12621,14 @@
       <c r="G255" s="29" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I255" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M255" s="49"/>
+      <c r="N255" s="49"/>
+    </row>
+    <row r="256" spans="1:14" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="25">
         <v>252</v>
       </c>
@@ -10893,8 +12650,14 @@
       <c r="G256" s="29" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I256" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M256" s="49"/>
+      <c r="N256" s="49"/>
+    </row>
+    <row r="257" spans="1:14" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="19">
         <v>253</v>
       </c>
@@ -10914,8 +12677,16 @@
         <v>44063</v>
       </c>
       <c r="G257" s="21"/>
-    </row>
-    <row r="258" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I257" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M257" s="49"/>
+      <c r="N257" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="19">
         <v>254</v>
       </c>
@@ -10937,8 +12708,14 @@
       <c r="G258" s="21" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I258" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M258" s="49"/>
+      <c r="N258" s="49"/>
+    </row>
+    <row r="259" spans="1:14" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="19">
         <v>255</v>
       </c>
@@ -10960,8 +12737,14 @@
       <c r="G259" s="21" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I259" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M259" s="49"/>
+      <c r="N259" s="49"/>
+    </row>
+    <row r="260" spans="1:14" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="19">
         <v>256</v>
       </c>
@@ -10983,8 +12766,14 @@
       <c r="G260" s="21" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I260" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M260" s="49"/>
+      <c r="N260" s="49"/>
+    </row>
+    <row r="261" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="19">
         <v>257</v>
       </c>
@@ -11006,8 +12795,16 @@
       <c r="G261" s="21" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I261" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M261" s="49"/>
+      <c r="N261" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="19">
         <v>258</v>
       </c>
@@ -11029,8 +12826,14 @@
       <c r="G262" s="21" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I262" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M262" s="49"/>
+      <c r="N262" s="49"/>
+    </row>
+    <row r="263" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="19">
         <v>259</v>
       </c>
@@ -11052,8 +12855,14 @@
       <c r="G263" s="21" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I263" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M263" s="49"/>
+      <c r="N263" s="49"/>
+    </row>
+    <row r="264" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="19">
         <v>260</v>
       </c>
@@ -11075,8 +12884,14 @@
       <c r="G264" s="21" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I264" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M264" s="49"/>
+      <c r="N264" s="49"/>
+    </row>
+    <row r="265" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="19">
         <v>261</v>
       </c>
@@ -11098,8 +12913,14 @@
       <c r="G265" s="21" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I265" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M265" s="49"/>
+      <c r="N265" s="49"/>
+    </row>
+    <row r="266" spans="1:14" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="19">
         <v>262</v>
       </c>
@@ -11119,8 +12940,16 @@
         <v>44068</v>
       </c>
       <c r="G266" s="21"/>
-    </row>
-    <row r="267" spans="1:7" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I266" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M266" s="49"/>
+      <c r="N266" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="19">
         <v>263</v>
       </c>
@@ -11140,8 +12969,16 @@
         <v>44069</v>
       </c>
       <c r="G267" s="21"/>
-    </row>
-    <row r="268" spans="1:7" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I267" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M267" s="49"/>
+      <c r="N267" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="19">
         <v>264</v>
       </c>
@@ -11163,8 +13000,16 @@
       <c r="G268" s="21" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I268" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M268" s="49"/>
+      <c r="N268" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="19">
         <v>265</v>
       </c>
@@ -11186,8 +13031,16 @@
       <c r="G269" s="21" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" s="44" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I269" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M269" s="49"/>
+      <c r="N269" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" s="44" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="19">
         <v>266</v>
       </c>
@@ -11207,8 +13060,16 @@
         <v>44062</v>
       </c>
       <c r="G270" s="21"/>
-    </row>
-    <row r="271" spans="1:7" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I270" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M270" s="49"/>
+      <c r="N270" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="19">
         <v>267</v>
       </c>
@@ -11230,8 +13091,14 @@
       <c r="G271" s="21" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I271" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M271" s="49"/>
+      <c r="N271" s="49"/>
+    </row>
+    <row r="272" spans="1:14" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="19">
         <v>268</v>
       </c>
@@ -11253,8 +13120,14 @@
       <c r="G272" s="21" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I272" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M272" s="49"/>
+      <c r="N272" s="49"/>
+    </row>
+    <row r="273" spans="1:14" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="19">
         <v>269</v>
       </c>
@@ -11276,8 +13149,14 @@
       <c r="G273" s="21" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I273" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M273" s="49"/>
+      <c r="N273" s="49"/>
+    </row>
+    <row r="274" spans="1:14" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="19">
         <v>270</v>
       </c>
@@ -11299,8 +13178,14 @@
       <c r="G274" s="21" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I274" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M274" s="49"/>
+      <c r="N274" s="49"/>
+    </row>
+    <row r="275" spans="1:14" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="19">
         <v>271</v>
       </c>
@@ -11322,8 +13207,14 @@
       <c r="G275" s="21" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I275" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M275" s="49"/>
+      <c r="N275" s="49"/>
+    </row>
+    <row r="276" spans="1:14" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="19">
         <v>272</v>
       </c>
@@ -11345,8 +13236,14 @@
       <c r="G276" s="21" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I276" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M276" s="49"/>
+      <c r="N276" s="49"/>
+    </row>
+    <row r="277" spans="1:14" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="19">
         <v>273</v>
       </c>
@@ -11368,8 +13265,15 @@
       <c r="G277" s="21" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I277" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N277" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="19">
         <v>274</v>
       </c>
@@ -11391,8 +13295,15 @@
       <c r="G278" s="21" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I278" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N278" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="19">
         <v>275</v>
       </c>
@@ -11414,8 +13325,12 @@
       <c r="G279" s="21" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I279" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="19">
         <v>276</v>
       </c>
@@ -11437,8 +13352,12 @@
       <c r="G280" s="21" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I280" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="19">
         <v>277</v>
       </c>
@@ -11458,8 +13377,15 @@
         <v>44068</v>
       </c>
       <c r="G281" s="21"/>
-    </row>
-    <row r="282" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I281" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N281" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="19">
         <v>278</v>
       </c>
@@ -11481,8 +13407,12 @@
       <c r="G282" s="21" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I282" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="19">
         <v>279</v>
       </c>
@@ -11502,8 +13432,15 @@
         <v>44076</v>
       </c>
       <c r="G283" s="21"/>
-    </row>
-    <row r="284" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I283" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N283" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="19">
         <v>280</v>
       </c>
@@ -11525,8 +13462,12 @@
       <c r="G284" s="21" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I284" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="19">
         <v>281</v>
       </c>
@@ -11548,8 +13489,12 @@
       <c r="G285" s="21" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I285" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="19">
         <v>282</v>
       </c>
@@ -11571,8 +13516,15 @@
       <c r="G286" s="21" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I286" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N286" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="19">
         <v>283</v>
       </c>
@@ -11594,8 +13546,12 @@
       <c r="G287" s="21" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I287" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="19">
         <v>284</v>
       </c>
@@ -11617,8 +13573,12 @@
       <c r="G288" s="21" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I288" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="19">
         <v>285</v>
       </c>
@@ -11640,8 +13600,15 @@
       <c r="G289" s="21" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I289" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N289" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="19">
         <v>286</v>
       </c>
@@ -11663,8 +13630,12 @@
       <c r="G290" s="21" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I290" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="19">
         <v>287</v>
       </c>
@@ -11686,8 +13657,12 @@
       <c r="G291" s="21" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I291" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="19">
         <v>288</v>
       </c>
@@ -11709,8 +13684,15 @@
       <c r="G292" s="21" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I292" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N292" s="50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="19">
         <v>289</v>
       </c>
@@ -11732,8 +13714,15 @@
       <c r="G293" s="21" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I293" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N293" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="19">
         <v>290</v>
       </c>
@@ -11753,8 +13742,12 @@
       <c r="G294" s="21" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I294" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="19">
         <v>291</v>
       </c>
@@ -11774,8 +13767,12 @@
       <c r="G295" s="21" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I295" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="19">
         <v>292</v>
       </c>
@@ -11795,8 +13792,12 @@
       <c r="G296" s="21" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I296" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="19">
         <v>293</v>
       </c>
@@ -11816,8 +13817,12 @@
       <c r="G297" s="21" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I297" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="19">
         <v>294</v>
       </c>
@@ -11839,8 +13844,12 @@
       <c r="G298" s="21" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I298" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="18">
         <v>295</v>
       </c>
@@ -11862,8 +13871,15 @@
       <c r="G299" s="21" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I299" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N299" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="18">
         <v>296</v>
       </c>
@@ -11885,8 +13901,15 @@
       <c r="G300" s="21" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I300" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N300" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="18">
         <v>297</v>
       </c>
@@ -11908,8 +13931,15 @@
       <c r="G301" s="21" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I301" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N301" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="18">
         <v>298</v>
       </c>
@@ -11931,8 +13961,12 @@
       <c r="G302" s="21" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I302" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="18">
         <v>299</v>
       </c>
@@ -11954,8 +13988,12 @@
       <c r="G303" s="21" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I303" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="18">
         <v>300</v>
       </c>
@@ -11975,8 +14013,15 @@
         <v>44082</v>
       </c>
       <c r="G304" s="21"/>
-    </row>
-    <row r="305" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I304" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N304" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="18">
         <v>301</v>
       </c>
@@ -11998,8 +14043,15 @@
       <c r="G305" s="21" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I305" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="N305" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="18">
         <v>302</v>
       </c>
@@ -12021,8 +14073,16 @@
       <c r="G306" s="21" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I306" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M306" s="54"/>
+      <c r="N306" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="18">
         <v>303</v>
       </c>
@@ -12044,8 +14104,13 @@
       <c r="G307" s="21" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I307" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M307" s="54"/>
+    </row>
+    <row r="308" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="27">
         <v>304</v>
       </c>
@@ -12065,8 +14130,16 @@
         <v>44081</v>
       </c>
       <c r="G308" s="29"/>
-    </row>
-    <row r="309" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I308" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M308" s="54"/>
+      <c r="N308" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="27">
         <v>305</v>
       </c>
@@ -12088,8 +14161,13 @@
       <c r="G309" s="29" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I309" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M309" s="54"/>
+    </row>
+    <row r="310" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="27">
         <v>306</v>
       </c>
@@ -12109,8 +14187,16 @@
         <v>44082</v>
       </c>
       <c r="G310" s="29"/>
-    </row>
-    <row r="311" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I310" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="M310" s="54"/>
+      <c r="N310" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="27">
         <v>307</v>
       </c>
@@ -12130,10 +14216,18 @@
         <v>44081</v>
       </c>
       <c r="G311" s="29" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+      <c r="I311" s="1" t="str">
+        <f>IF(COUNT(F311)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="M311" s="54"/>
+      <c r="N311" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="27">
         <v>308</v>
       </c>
@@ -12153,19 +14247,28 @@
         <v>44085</v>
       </c>
       <c r="G312" s="29"/>
-    </row>
-    <row r="313" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I312" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="L312" s="54"/>
+      <c r="M312" s="54"/>
+      <c r="N312" s="50" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="27">
         <v>309</v>
       </c>
       <c r="B313" s="36" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="C313" s="25" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="D313" s="27" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E313" s="37">
         <v>44078</v>
@@ -12174,19 +14277,28 @@
         <v>44088</v>
       </c>
       <c r="G313" s="29"/>
-    </row>
-    <row r="314" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I313" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+      <c r="L313" s="54"/>
+      <c r="M313" s="54"/>
+      <c r="N313" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="18">
         <v>310</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C314" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D314" s="18" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E314" s="20">
         <v>44080</v>
@@ -12195,8 +14307,17 @@
         <v>44086</v>
       </c>
       <c r="G314" s="21"/>
-    </row>
-    <row r="315" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I314" s="1" t="str">
+        <f t="shared" ref="I314:I319" si="6">IF(COUNT(F314)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="L314" s="54"/>
+      <c r="M314" s="54"/>
+      <c r="N314" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="18">
         <v>311</v>
       </c>
@@ -12207,7 +14328,7 @@
         <v>67</v>
       </c>
       <c r="D315" s="18" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="E315" s="20">
         <v>44081</v>
@@ -12216,8 +14337,17 @@
         <v>44091</v>
       </c>
       <c r="G315" s="21"/>
-    </row>
-    <row r="316" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I315" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+      <c r="L315" s="54"/>
+      <c r="M315" s="54"/>
+      <c r="N315" s="50" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="18">
         <v>312</v>
       </c>
@@ -12237,10 +14367,16 @@
         <v>44091</v>
       </c>
       <c r="G316" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+      <c r="I316" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+      <c r="L316" s="54"/>
+      <c r="M316" s="54"/>
+    </row>
+    <row r="317" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="18">
         <v>313</v>
       </c>
@@ -12260,15 +14396,21 @@
         <v>44091</v>
       </c>
       <c r="G317" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+      <c r="I317" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+      <c r="L317" s="54"/>
+      <c r="M317" s="54"/>
+    </row>
+    <row r="318" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="18">
         <v>314</v>
       </c>
       <c r="B318" s="34" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C318" s="19" t="s">
         <v>67</v>
@@ -12283,10 +14425,16 @@
         <v>44091</v>
       </c>
       <c r="G318" s="21" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>455</v>
+      </c>
+      <c r="I318" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+      <c r="L318" s="54"/>
+      <c r="M318" s="54"/>
+    </row>
+    <row r="319" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="18">
         <v>315</v>
       </c>
@@ -12306,15 +14454,21 @@
         <v>44091</v>
       </c>
       <c r="G319" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+      <c r="I319" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+      <c r="L319" s="54"/>
+      <c r="M319" s="54"/>
+    </row>
+    <row r="320" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="18">
         <v>316</v>
       </c>
       <c r="B320" s="34" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C320" s="19" t="s">
         <v>70</v>
@@ -12327,18 +14481,21 @@
       </c>
       <c r="F320" s="18"/>
       <c r="G320" s="21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+      <c r="I320" s="1"/>
+      <c r="L320" s="54"/>
+      <c r="M320" s="54"/>
+    </row>
+    <row r="321" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="18">
         <v>317</v>
       </c>
       <c r="B321" s="34" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D321" s="18" t="s">
         <v>120</v>
@@ -12348,18 +14505,21 @@
       </c>
       <c r="F321" s="18"/>
       <c r="G321" s="24" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>463</v>
+      </c>
+      <c r="I321" s="1"/>
+      <c r="L321" s="54"/>
+      <c r="M321" s="54"/>
+    </row>
+    <row r="322" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="18">
         <v>318</v>
       </c>
       <c r="B322" s="34" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D322" s="18" t="s">
         <v>120</v>
@@ -12369,18 +14529,21 @@
       </c>
       <c r="F322" s="18"/>
       <c r="G322" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>464</v>
+      </c>
+      <c r="I322" s="1"/>
+      <c r="L322" s="54"/>
+      <c r="M322" s="54"/>
+    </row>
+    <row r="323" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="18">
         <v>319</v>
       </c>
       <c r="B323" s="34" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D323" s="18" t="s">
         <v>120</v>
@@ -12390,10 +14553,13 @@
       </c>
       <c r="F323" s="18"/>
       <c r="G323" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>464</v>
+      </c>
+      <c r="I323" s="1"/>
+      <c r="L323" s="54"/>
+      <c r="M323" s="54"/>
+    </row>
+    <row r="324" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="18">
         <v>320</v>
       </c>
@@ -12411,10 +14577,13 @@
       </c>
       <c r="F324" s="18"/>
       <c r="G324" s="24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+      <c r="I324" s="1"/>
+      <c r="L324" s="54"/>
+      <c r="M324" s="54"/>
+    </row>
+    <row r="325" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="18">
         <v>321</v>
       </c>
@@ -12434,10 +14603,13 @@
         <v>44093</v>
       </c>
       <c r="G325" s="24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+      <c r="I325" s="1"/>
+      <c r="L325" s="54"/>
+      <c r="M325" s="54"/>
+    </row>
+    <row r="326" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="18">
         <v>322</v>
       </c>
@@ -12455,10 +14627,13 @@
       </c>
       <c r="F326" s="18"/>
       <c r="G326" s="24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+      <c r="I326" s="1"/>
+      <c r="L326" s="54"/>
+      <c r="M326" s="54"/>
+    </row>
+    <row r="327" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="18">
         <v>323</v>
       </c>
@@ -12476,10 +14651,16 @@
       </c>
       <c r="F327" s="18"/>
       <c r="G327" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+      <c r="I327" s="1"/>
+      <c r="J327" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="L327" s="54"/>
+      <c r="M327" s="54"/>
+    </row>
+    <row r="328" spans="1:15" s="56" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="18">
         <v>324</v>
       </c>
@@ -12497,8 +14678,19 @@
       </c>
       <c r="F328" s="18"/>
       <c r="G328" s="21"/>
-    </row>
-    <row r="329" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I328" s="57"/>
+      <c r="J328" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="L328" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="M328" s="58"/>
+      <c r="N328" s="56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="18">
         <v>325</v>
       </c>
@@ -12506,10 +14698,10 @@
         <v>81</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="E329" s="20">
         <v>44085</v>
@@ -12518,19 +14710,36 @@
         <v>44092</v>
       </c>
       <c r="G329" s="21"/>
-    </row>
-    <row r="330" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I329" s="1" t="str">
+        <f t="shared" ref="I329" si="7">IF(COUNT(F329)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="J329" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="L329" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="M329" s="54"/>
+      <c r="N329" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="O329" s="51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="18">
         <v>326</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C330" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="E330" s="20">
         <v>44085</v>
@@ -12539,8 +14748,19 @@
       <c r="G330" s="21" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I330" s="1"/>
+      <c r="J330" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="L330" s="52">
+        <v>200</v>
+      </c>
+      <c r="M330" s="54"/>
+      <c r="O330" s="55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="18">
         <v>327</v>
       </c>
@@ -12548,41 +14768,64 @@
         <v>83</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="E331" s="20">
         <v>44085</v>
       </c>
       <c r="F331" s="18"/>
       <c r="G331" s="21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>474</v>
+      </c>
+      <c r="I331" s="1"/>
+      <c r="J331" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="L331" s="52"/>
+      <c r="M331" s="54"/>
+      <c r="N331" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="O331" s="52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="18">
         <v>328</v>
       </c>
       <c r="B332" s="34" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="E332" s="20">
         <v>44085</v>
       </c>
       <c r="F332" s="18"/>
       <c r="G332" s="21" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+      <c r="I332" s="1"/>
+      <c r="J332" s="53">
+        <f>COUNTIF(I3:I392,J331)</f>
+        <v>312</v>
+      </c>
+      <c r="L332" s="53"/>
+      <c r="M332" s="54"/>
+      <c r="O332" s="53">
+        <f>COUNTIF(N3:N373,O331)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="18">
         <v>329</v>
       </c>
@@ -12600,10 +14843,17 @@
       </c>
       <c r="F333" s="18"/>
       <c r="G333" s="21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>476</v>
+      </c>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+      <c r="K333" s="1"/>
+      <c r="L333" s="1"/>
+      <c r="M333" s="1"/>
+      <c r="N333" s="49"/>
+      <c r="O333" s="1"/>
+    </row>
+    <row r="334" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A334" s="18">
         <v>330</v>
       </c>
@@ -12621,10 +14871,17 @@
       </c>
       <c r="F334" s="18"/>
       <c r="G334" s="21" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>499</v>
+      </c>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+      <c r="K334" s="1"/>
+      <c r="L334" s="1"/>
+      <c r="M334" s="1"/>
+      <c r="N334" s="49"/>
+      <c r="O334" s="1"/>
+    </row>
+    <row r="335" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A335" s="18">
         <v>331</v>
       </c>
@@ -12642,10 +14899,17 @@
       </c>
       <c r="F335" s="18"/>
       <c r="G335" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+      <c r="K335" s="1"/>
+      <c r="L335" s="1"/>
+      <c r="M335" s="1"/>
+      <c r="N335" s="49"/>
+      <c r="O335" s="1"/>
+    </row>
+    <row r="336" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="18">
         <v>332</v>
       </c>
@@ -12663,10 +14927,17 @@
       </c>
       <c r="F336" s="18"/>
       <c r="G336" s="21" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>477</v>
+      </c>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+      <c r="K336" s="1"/>
+      <c r="L336" s="1"/>
+      <c r="M336" s="1"/>
+      <c r="N336" s="49"/>
+      <c r="O336" s="1"/>
+    </row>
+    <row r="337" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="18">
         <v>333</v>
       </c>
@@ -12684,10 +14955,17 @@
       </c>
       <c r="F337" s="18"/>
       <c r="G337" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+      <c r="K337" s="1"/>
+      <c r="L337" s="1"/>
+      <c r="M337" s="1"/>
+      <c r="N337" s="49"/>
+      <c r="O337" s="1"/>
+    </row>
+    <row r="338" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="18">
         <v>334</v>
       </c>
@@ -12705,10 +14983,17 @@
       </c>
       <c r="F338" s="18"/>
       <c r="G338" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+      <c r="K338" s="1"/>
+      <c r="L338" s="1"/>
+      <c r="M338" s="1"/>
+      <c r="N338" s="49"/>
+      <c r="O338" s="1"/>
+    </row>
+    <row r="339" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="18">
         <v>335</v>
       </c>
@@ -12726,10 +15011,17 @@
       </c>
       <c r="F339" s="18"/>
       <c r="G339" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="M339" s="1"/>
+      <c r="N339" s="49"/>
+      <c r="O339" s="1"/>
+    </row>
+    <row r="340" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="18">
         <v>336</v>
       </c>
@@ -12749,10 +15041,20 @@
         <v>44092</v>
       </c>
       <c r="G340" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+      <c r="I340" s="1" t="str">
+        <f t="shared" ref="I340" si="8">IF(COUNT(F340)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+      <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
+      <c r="N340" s="49"/>
+      <c r="O340" s="1"/>
+    </row>
+    <row r="341" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="18">
         <v>337</v>
       </c>
@@ -12770,10 +15072,17 @@
       </c>
       <c r="F341" s="18"/>
       <c r="G341" s="21" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>478</v>
+      </c>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+      <c r="K341" s="1"/>
+      <c r="L341" s="1"/>
+      <c r="M341" s="1"/>
+      <c r="N341" s="49"/>
+      <c r="O341" s="1"/>
+    </row>
+    <row r="342" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="18">
         <v>338</v>
       </c>
@@ -12793,8 +15102,15 @@
       <c r="G342" s="21" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
+      <c r="K342" s="1"/>
+      <c r="L342" s="1"/>
+      <c r="M342" s="1"/>
+      <c r="N342" s="49"/>
+      <c r="O342" s="1"/>
+    </row>
+    <row r="343" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="18">
         <v>339</v>
       </c>
@@ -12812,10 +15128,17 @@
       </c>
       <c r="F343" s="18"/>
       <c r="G343" s="21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+      <c r="K343" s="1"/>
+      <c r="L343" s="1"/>
+      <c r="M343" s="1"/>
+      <c r="N343" s="59"/>
+      <c r="O343" s="1"/>
+    </row>
+    <row r="344" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="18">
         <v>340</v>
       </c>
@@ -12833,10 +15156,19 @@
       </c>
       <c r="F344" s="18"/>
       <c r="G344" s="21" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1"/>
+      <c r="K344" s="1"/>
+      <c r="L344" s="1"/>
+      <c r="M344" s="1"/>
+      <c r="N344" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="O344" s="1"/>
+    </row>
+    <row r="345" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="18">
         <v>341</v>
       </c>
@@ -12854,10 +15186,17 @@
       </c>
       <c r="F345" s="18"/>
       <c r="G345" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>492</v>
+      </c>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+      <c r="K345" s="1"/>
+      <c r="L345" s="1"/>
+      <c r="M345" s="1"/>
+      <c r="N345" s="59"/>
+      <c r="O345" s="1"/>
+    </row>
+    <row r="346" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="18">
         <v>342</v>
       </c>
@@ -12875,10 +15214,17 @@
       </c>
       <c r="F346" s="18"/>
       <c r="G346" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>479</v>
+      </c>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
+      <c r="K346" s="1"/>
+      <c r="L346" s="1"/>
+      <c r="M346" s="1"/>
+      <c r="N346" s="59"/>
+      <c r="O346" s="1"/>
+    </row>
+    <row r="347" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="18">
         <v>343</v>
       </c>
@@ -12896,10 +15242,17 @@
       </c>
       <c r="F347" s="18"/>
       <c r="G347" s="21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>501</v>
+      </c>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1"/>
+      <c r="K347" s="1"/>
+      <c r="L347" s="1"/>
+      <c r="M347" s="1"/>
+      <c r="N347" s="59"/>
+      <c r="O347" s="1"/>
+    </row>
+    <row r="348" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="18">
         <v>344</v>
       </c>
@@ -12917,10 +15270,17 @@
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>489</v>
+      </c>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+      <c r="K348" s="1"/>
+      <c r="L348" s="1"/>
+      <c r="M348" s="1"/>
+      <c r="N348" s="59"/>
+      <c r="O348" s="1"/>
+    </row>
+    <row r="349" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="18">
         <v>345</v>
       </c>
@@ -12938,10 +15298,17 @@
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>502</v>
+      </c>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="M349" s="1"/>
+      <c r="N349" s="59"/>
+      <c r="O349" s="1"/>
+    </row>
+    <row r="350" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="18">
         <v>346</v>
       </c>
@@ -12959,10 +15326,17 @@
       </c>
       <c r="F350" s="18"/>
       <c r="G350" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>480</v>
+      </c>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+      <c r="K350" s="1"/>
+      <c r="L350" s="1"/>
+      <c r="M350" s="1"/>
+      <c r="N350" s="59"/>
+      <c r="O350" s="1"/>
+    </row>
+    <row r="351" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="18">
         <v>347</v>
       </c>
@@ -12980,10 +15354,17 @@
       </c>
       <c r="F351" s="18"/>
       <c r="G351" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+      <c r="K351" s="1"/>
+      <c r="L351" s="1"/>
+      <c r="M351" s="1"/>
+      <c r="N351" s="59"/>
+      <c r="O351" s="1"/>
+    </row>
+    <row r="352" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="18">
         <v>348</v>
       </c>
@@ -13001,10 +15382,17 @@
       </c>
       <c r="F352" s="18"/>
       <c r="G352" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+      <c r="K352" s="1"/>
+      <c r="L352" s="1"/>
+      <c r="M352" s="1"/>
+      <c r="N352" s="59"/>
+      <c r="O352" s="1"/>
+    </row>
+    <row r="353" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="18">
         <v>349</v>
       </c>
@@ -13022,10 +15410,17 @@
       </c>
       <c r="F353" s="18"/>
       <c r="G353" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1"/>
+      <c r="N353" s="59"/>
+      <c r="O353" s="1"/>
+    </row>
+    <row r="354" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" s="18">
         <v>350</v>
       </c>
@@ -13043,10 +15438,17 @@
       </c>
       <c r="F354" s="18"/>
       <c r="G354" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>503</v>
+      </c>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1"/>
+      <c r="N354" s="59"/>
+      <c r="O354" s="1"/>
+    </row>
+    <row r="355" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A355" s="18">
         <v>351</v>
       </c>
@@ -13064,10 +15466,17 @@
       </c>
       <c r="F355" s="18"/>
       <c r="G355" s="21" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>484</v>
+      </c>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+      <c r="K355" s="1"/>
+      <c r="L355" s="1"/>
+      <c r="M355" s="1"/>
+      <c r="N355" s="59"/>
+      <c r="O355" s="1"/>
+    </row>
+    <row r="356" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="18">
         <v>352</v>
       </c>
@@ -13085,10 +15494,17 @@
       </c>
       <c r="F356" s="18"/>
       <c r="G356" s="21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>490</v>
+      </c>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+      <c r="K356" s="1"/>
+      <c r="L356" s="1"/>
+      <c r="M356" s="1"/>
+      <c r="N356" s="59"/>
+      <c r="O356" s="1"/>
+    </row>
+    <row r="357" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="18">
         <v>353</v>
       </c>
@@ -13106,10 +15522,17 @@
       </c>
       <c r="F357" s="18"/>
       <c r="G357" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>491</v>
+      </c>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="59"/>
+      <c r="O357" s="1"/>
+    </row>
+    <row r="358" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="18">
         <v>354</v>
       </c>
@@ -13127,10 +15550,17 @@
       </c>
       <c r="F358" s="18"/>
       <c r="G358" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+      <c r="K358" s="1"/>
+      <c r="L358" s="1"/>
+      <c r="M358" s="1"/>
+      <c r="N358" s="59"/>
+      <c r="O358" s="1"/>
+    </row>
+    <row r="359" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="18">
         <v>355</v>
       </c>
@@ -13148,10 +15578,17 @@
       </c>
       <c r="F359" s="18"/>
       <c r="G359" s="21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>487</v>
+      </c>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+      <c r="K359" s="1"/>
+      <c r="L359" s="1"/>
+      <c r="M359" s="1"/>
+      <c r="N359" s="59"/>
+      <c r="O359" s="1"/>
+    </row>
+    <row r="360" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="18">
         <v>356</v>
       </c>
@@ -13169,10 +15606,17 @@
       </c>
       <c r="F360" s="18"/>
       <c r="G360" s="21" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+      <c r="K360" s="1"/>
+      <c r="L360" s="1"/>
+      <c r="M360" s="1"/>
+      <c r="N360" s="59"/>
+      <c r="O360" s="1"/>
+    </row>
+    <row r="361" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="18">
         <v>357</v>
       </c>
@@ -13190,10 +15634,17 @@
       </c>
       <c r="F361" s="18"/>
       <c r="G361" s="21" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+      <c r="K361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="M361" s="1"/>
+      <c r="N361" s="59"/>
+      <c r="O361" s="1"/>
+    </row>
+    <row r="362" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="18">
         <v>358</v>
       </c>
@@ -13211,10 +15662,17 @@
       </c>
       <c r="F362" s="18"/>
       <c r="G362" s="21" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>505</v>
+      </c>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+      <c r="L362" s="1"/>
+      <c r="M362" s="1"/>
+      <c r="N362" s="59"/>
+      <c r="O362" s="1"/>
+    </row>
+    <row r="363" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="18">
         <v>359</v>
       </c>
@@ -13232,10 +15690,17 @@
       </c>
       <c r="F363" s="18"/>
       <c r="G363" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="M363" s="1"/>
+      <c r="N363" s="59"/>
+      <c r="O363" s="1"/>
+    </row>
+    <row r="364" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="18">
         <v>360</v>
       </c>
@@ -13253,10 +15718,17 @@
       </c>
       <c r="F364" s="18"/>
       <c r="G364" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+      <c r="K364" s="1"/>
+      <c r="L364" s="1"/>
+      <c r="M364" s="1"/>
+      <c r="N364" s="60"/>
+      <c r="O364" s="1"/>
+    </row>
+    <row r="365" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="18">
         <v>361</v>
       </c>
@@ -13274,10 +15746,17 @@
       </c>
       <c r="F365" s="18"/>
       <c r="G365" s="21" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>495</v>
+      </c>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
+      <c r="K365" s="1"/>
+      <c r="L365" s="1"/>
+      <c r="M365" s="1"/>
+      <c r="N365" s="60"/>
+      <c r="O365" s="1"/>
+    </row>
+    <row r="366" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="18">
         <v>362</v>
       </c>
@@ -13295,10 +15774,17 @@
       </c>
       <c r="F366" s="18"/>
       <c r="G366" s="21" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>498</v>
+      </c>
+      <c r="I366" s="1"/>
+      <c r="J366" s="1"/>
+      <c r="K366" s="1"/>
+      <c r="L366" s="1"/>
+      <c r="M366" s="1"/>
+      <c r="N366" s="60"/>
+      <c r="O366" s="1"/>
+    </row>
+    <row r="367" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="18">
         <v>363</v>
       </c>
@@ -13316,10 +15802,17 @@
       </c>
       <c r="F367" s="18"/>
       <c r="G367" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+      <c r="I367" s="1"/>
+      <c r="J367" s="1"/>
+      <c r="K367" s="1"/>
+      <c r="L367" s="1"/>
+      <c r="M367" s="1"/>
+      <c r="N367" s="60"/>
+      <c r="O367" s="1"/>
+    </row>
+    <row r="368" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="18">
         <v>364</v>
       </c>
@@ -13337,10 +15830,17 @@
       </c>
       <c r="F368" s="18"/>
       <c r="G368" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+      <c r="K368" s="1"/>
+      <c r="L368" s="1"/>
+      <c r="M368" s="1"/>
+      <c r="N368" s="60"/>
+      <c r="O368" s="1"/>
+    </row>
+    <row r="369" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="18">
         <v>365</v>
       </c>
@@ -13358,15 +15858,22 @@
       </c>
       <c r="F369" s="18"/>
       <c r="G369" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+      <c r="I369" s="1"/>
+      <c r="J369" s="1"/>
+      <c r="K369" s="1"/>
+      <c r="L369" s="1"/>
+      <c r="M369" s="1"/>
+      <c r="N369" s="60"/>
+      <c r="O369" s="1"/>
+    </row>
+    <row r="370" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="18">
         <v>366</v>
       </c>
       <c r="B370" s="34" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C370" s="19" t="s">
         <v>70</v>
@@ -13379,10 +15886,17 @@
       </c>
       <c r="F370" s="18"/>
       <c r="G370" s="21" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>496</v>
+      </c>
+      <c r="I370" s="1"/>
+      <c r="J370" s="1"/>
+      <c r="K370" s="1"/>
+      <c r="L370" s="1"/>
+      <c r="M370" s="1"/>
+      <c r="N370" s="60"/>
+      <c r="O370" s="1"/>
+    </row>
+    <row r="371" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="18">
         <v>367</v>
       </c>
@@ -13400,8 +15914,17 @@
       </c>
       <c r="F371" s="18"/>
       <c r="G371" s="21"/>
-    </row>
-    <row r="372" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I371" s="1"/>
+      <c r="J371" s="1"/>
+      <c r="K371" s="1"/>
+      <c r="L371" s="1"/>
+      <c r="M371" s="1"/>
+      <c r="N371" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="O371" s="1"/>
+    </row>
+    <row r="372" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="18">
         <v>368</v>
       </c>
@@ -13419,27 +15942,45 @@
       </c>
       <c r="F372" s="18"/>
       <c r="G372" s="21"/>
-    </row>
-    <row r="373" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
+      <c r="K372" s="1"/>
+      <c r="L372" s="1"/>
+      <c r="M372" s="1"/>
+      <c r="N372" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="O372" s="1"/>
+    </row>
+    <row r="373" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="18">
         <v>369</v>
       </c>
       <c r="B373" s="34" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="D373" s="18" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="E373" s="20">
         <v>44090</v>
       </c>
       <c r="F373" s="18"/>
       <c r="G373" s="21"/>
-    </row>
-    <row r="374" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I373" s="1"/>
+      <c r="J373" s="1"/>
+      <c r="K373" s="1"/>
+      <c r="L373" s="1"/>
+      <c r="M373" s="1"/>
+      <c r="N373" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="O373" s="1"/>
+    </row>
+    <row r="374" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="18">
         <v>370</v>
       </c>
@@ -13457,10 +15998,17 @@
       </c>
       <c r="F374" s="18"/>
       <c r="G374" s="21" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>509</v>
+      </c>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+      <c r="K374" s="1"/>
+      <c r="L374" s="1"/>
+      <c r="M374" s="1"/>
+      <c r="N374" s="63"/>
+      <c r="O374" s="1"/>
+    </row>
+    <row r="375" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="18">
         <v>371</v>
       </c>
@@ -13478,10 +16026,17 @@
       </c>
       <c r="F375" s="18"/>
       <c r="G375" s="24" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>513</v>
+      </c>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+      <c r="K375" s="1"/>
+      <c r="L375" s="1"/>
+      <c r="M375" s="1"/>
+      <c r="N375" s="63"/>
+      <c r="O375" s="1"/>
+    </row>
+    <row r="376" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="18">
         <v>372</v>
       </c>
@@ -13499,10 +16054,17 @@
       </c>
       <c r="F376" s="18"/>
       <c r="G376" s="24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>511</v>
+      </c>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+      <c r="K376" s="1"/>
+      <c r="L376" s="1"/>
+      <c r="M376" s="1"/>
+      <c r="N376" s="63"/>
+      <c r="O376" s="1"/>
+    </row>
+    <row r="377" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="18">
         <v>373</v>
       </c>
@@ -13520,10 +16082,17 @@
       </c>
       <c r="F377" s="18"/>
       <c r="G377" s="21" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>510</v>
+      </c>
+      <c r="I377" s="1"/>
+      <c r="J377" s="1"/>
+      <c r="K377" s="1"/>
+      <c r="L377" s="1"/>
+      <c r="M377" s="1"/>
+      <c r="N377" s="63"/>
+      <c r="O377" s="1"/>
+    </row>
+    <row r="378" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="18">
         <v>374</v>
       </c>
@@ -13541,10 +16110,17 @@
       </c>
       <c r="F378" s="18"/>
       <c r="G378" s="21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>512</v>
+      </c>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+      <c r="K378" s="1"/>
+      <c r="L378" s="1"/>
+      <c r="M378" s="1"/>
+      <c r="N378" s="63"/>
+      <c r="O378" s="1"/>
+    </row>
+    <row r="379" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="18">
         <v>375</v>
       </c>
@@ -13562,230 +16138,358 @@
       </c>
       <c r="F379" s="18"/>
       <c r="G379" s="24" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+      <c r="I379" s="1"/>
+      <c r="J379" s="1"/>
+      <c r="K379" s="1"/>
+      <c r="L379" s="1"/>
+      <c r="M379" s="1"/>
+      <c r="N379" s="64"/>
+      <c r="O379" s="1"/>
+    </row>
+    <row r="380" spans="1:15" s="56" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="18">
         <v>376</v>
       </c>
       <c r="B380" s="34" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="C380" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D380" s="18" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="E380" s="20">
         <v>44092</v>
       </c>
       <c r="F380" s="18"/>
       <c r="G380" s="24" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A381" s="52">
+        <v>517</v>
+      </c>
+      <c r="I380" s="57"/>
+      <c r="J380" s="57"/>
+      <c r="K380" s="57"/>
+      <c r="L380" s="57"/>
+      <c r="M380" s="57"/>
+      <c r="O380" s="57"/>
+    </row>
+    <row r="381" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A381" s="27">
         <v>377</v>
       </c>
-      <c r="B381" s="53" t="s">
+      <c r="B381" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C381" s="54" t="s">
+      <c r="C381" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D381" s="52" t="s">
+      <c r="D381" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E381" s="55">
+      <c r="E381" s="37">
         <v>44093</v>
       </c>
-      <c r="F381" s="52"/>
-      <c r="G381" s="56" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A382" s="52">
+      <c r="F381" s="27"/>
+      <c r="G381" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="I381" s="70"/>
+      <c r="J381" s="70"/>
+      <c r="K381" s="70"/>
+      <c r="L381" s="70"/>
+      <c r="M381" s="70"/>
+      <c r="O381" s="70"/>
+    </row>
+    <row r="382" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A382" s="27">
         <v>378</v>
       </c>
-      <c r="B382" s="53" t="s">
-        <v>504</v>
-      </c>
-      <c r="C382" s="54" t="s">
+      <c r="B382" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="C382" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D382" s="52" t="s">
+      <c r="D382" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E382" s="55">
+      <c r="E382" s="37">
         <v>44093</v>
       </c>
-      <c r="F382" s="52"/>
-      <c r="G382" s="56" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A383" s="52">
+      <c r="F382" s="27"/>
+      <c r="G382" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="I382" s="70"/>
+      <c r="J382" s="70"/>
+      <c r="K382" s="70"/>
+      <c r="L382" s="70"/>
+      <c r="M382" s="70"/>
+      <c r="O382" s="70"/>
+    </row>
+    <row r="383" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A383" s="27">
         <v>379</v>
       </c>
-      <c r="B383" s="53" t="s">
+      <c r="B383" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C383" s="54" t="s">
+      <c r="C383" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D383" s="52" t="s">
+      <c r="D383" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E383" s="55">
+      <c r="E383" s="37">
         <v>44093</v>
       </c>
-      <c r="F383" s="52"/>
-      <c r="G383" s="56" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A384" s="52">
+      <c r="F383" s="27"/>
+      <c r="G383" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="I383" s="70"/>
+      <c r="J383" s="70"/>
+      <c r="K383" s="70"/>
+      <c r="L383" s="70"/>
+      <c r="M383" s="70"/>
+      <c r="O383" s="70"/>
+    </row>
+    <row r="384" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A384" s="27">
         <v>380</v>
       </c>
-      <c r="B384" s="53" t="s">
-        <v>507</v>
-      </c>
-      <c r="C384" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="D384" s="52" t="s">
+      <c r="B384" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="C384" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D384" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E384" s="55">
+      <c r="E384" s="37">
         <v>44093</v>
       </c>
-      <c r="F384" s="52"/>
-      <c r="G384" s="56" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A385" s="52">
+      <c r="F384" s="27"/>
+      <c r="G384" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="I384" s="70"/>
+      <c r="J384" s="70"/>
+      <c r="K384" s="70"/>
+      <c r="L384" s="70"/>
+      <c r="M384" s="70"/>
+      <c r="O384" s="70"/>
+    </row>
+    <row r="385" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A385" s="27">
         <v>381</v>
       </c>
-      <c r="B385" s="53" t="s">
-        <v>509</v>
-      </c>
-      <c r="C385" s="54" t="s">
-        <v>510</v>
-      </c>
-      <c r="D385" s="52" t="s">
+      <c r="B385" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C385" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D385" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E385" s="55">
+      <c r="E385" s="37">
         <v>44093</v>
       </c>
-      <c r="F385" s="52"/>
-      <c r="G385" s="56"/>
-    </row>
-    <row r="386" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A386" s="52">
+      <c r="F385" s="27"/>
+      <c r="G385" s="28"/>
+      <c r="I385" s="70"/>
+      <c r="J385" s="70"/>
+      <c r="K385" s="70"/>
+      <c r="L385" s="70"/>
+      <c r="M385" s="70"/>
+      <c r="O385" s="70"/>
+    </row>
+    <row r="386" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A386" s="27">
         <v>382</v>
       </c>
-      <c r="B386" s="53" t="s">
-        <v>507</v>
-      </c>
-      <c r="C386" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="D386" s="52" t="s">
+      <c r="B386" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="C386" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D386" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E386" s="55">
+      <c r="E386" s="37">
         <v>44093</v>
       </c>
-      <c r="F386" s="52"/>
-      <c r="G386" s="56" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A387" s="52">
+      <c r="F386" s="27"/>
+      <c r="G386" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="I386" s="70"/>
+      <c r="J386" s="70"/>
+      <c r="K386" s="70"/>
+      <c r="L386" s="70"/>
+      <c r="M386" s="70"/>
+      <c r="O386" s="70"/>
+    </row>
+    <row r="387" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A387" s="27">
         <v>383</v>
       </c>
-      <c r="B387" s="53" t="s">
-        <v>507</v>
-      </c>
-      <c r="C387" s="54" t="s">
-        <v>510</v>
-      </c>
-      <c r="D387" s="52" t="s">
+      <c r="B387" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="C387" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D387" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E387" s="55">
+      <c r="E387" s="37">
         <v>44093</v>
       </c>
-      <c r="F387" s="52"/>
-      <c r="G387" s="56" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A388" s="52">
+      <c r="F387" s="27"/>
+      <c r="G387" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="I387" s="70"/>
+      <c r="J387" s="70"/>
+      <c r="K387" s="70"/>
+      <c r="L387" s="70"/>
+      <c r="M387" s="70"/>
+      <c r="O387" s="70"/>
+    </row>
+    <row r="388" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A388" s="27">
         <v>384</v>
       </c>
-      <c r="B388" s="53" t="s">
+      <c r="B388" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C388" s="54" t="s">
-        <v>510</v>
-      </c>
-      <c r="D388" s="52" t="s">
+      <c r="C388" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D388" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E388" s="55">
+      <c r="E388" s="37">
         <v>44093</v>
       </c>
-      <c r="F388" s="52"/>
-      <c r="G388" s="56" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A389" s="52">
+      <c r="F388" s="27"/>
+      <c r="G388" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="I388" s="70"/>
+      <c r="J388" s="70"/>
+      <c r="K388" s="70"/>
+      <c r="L388" s="70"/>
+      <c r="M388" s="70"/>
+      <c r="O388" s="70"/>
+    </row>
+    <row r="389" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A389" s="27">
         <v>385</v>
       </c>
-      <c r="B389" s="53" t="s">
-        <v>504</v>
-      </c>
-      <c r="C389" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="D389" s="52" t="s">
-        <v>512</v>
-      </c>
-      <c r="E389" s="55">
+      <c r="B389" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C389" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D389" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E389" s="37">
         <v>44093</v>
       </c>
-      <c r="F389" s="52"/>
-      <c r="G389" s="56"/>
-    </row>
-    <row r="390" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A390" s="58" t="s">
+      <c r="F389" s="27"/>
+      <c r="G389" s="28"/>
+      <c r="I389" s="70"/>
+      <c r="J389" s="70"/>
+      <c r="K389" s="70"/>
+      <c r="L389" s="70"/>
+      <c r="M389" s="70"/>
+      <c r="O389" s="70"/>
+    </row>
+    <row r="390" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A390" s="65">
+        <v>386</v>
+      </c>
+      <c r="B390" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C390" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D390" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E390" s="68">
+        <v>44094</v>
+      </c>
+      <c r="F390" s="65"/>
+      <c r="G390" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="I390" s="70"/>
+      <c r="J390" s="70"/>
+      <c r="K390" s="70"/>
+      <c r="L390" s="70"/>
+      <c r="M390" s="70"/>
+      <c r="O390" s="70"/>
+    </row>
+    <row r="391" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A391" s="65">
+        <v>387</v>
+      </c>
+      <c r="B391" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C391" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D391" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E391" s="68">
+        <v>44094</v>
+      </c>
+      <c r="F391" s="65"/>
+      <c r="G391" s="69" t="s">
+        <v>530</v>
+      </c>
+      <c r="I391" s="70"/>
+      <c r="J391" s="70"/>
+      <c r="K391" s="70"/>
+      <c r="L391" s="70"/>
+      <c r="M391" s="70"/>
+      <c r="O391" s="70"/>
+    </row>
+    <row r="392" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A392" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B390" s="58"/>
-      <c r="C390" s="58"/>
-      <c r="D390" s="58"/>
-      <c r="E390" s="58"/>
-      <c r="F390" s="58"/>
-      <c r="G390" s="58"/>
+      <c r="B392" s="73"/>
+      <c r="C392" s="73"/>
+      <c r="D392" s="73"/>
+      <c r="E392" s="73"/>
+      <c r="F392" s="73"/>
+      <c r="G392" s="73"/>
+    </row>
+    <row r="393" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I393" s="1" t="str">
+        <f t="shared" ref="I393" si="9">IF(COUNT(F393)&gt;=1,"退院済み","")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A390:G390"/>
+    <mergeCell ref="A392:G392"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\◎◎患者情報◎◎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200920\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="517">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -3775,79 +3775,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>退院済み</t>
-    <rPh sb="0" eb="2">
-      <t>タイイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院済み</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手持ち資料</t>
-    <rPh sb="0" eb="2">
-      <t>テモ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院者数</t>
-    <rPh sb="0" eb="2">
-      <t>タイイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症患者</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンジャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明</t>
-  </si>
-  <si>
-    <t>不明</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経路不明者(総数）</t>
-    <rPh sb="0" eb="2">
-      <t>ケイロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※宇都宮市123例目</t>
     <rPh sb="1" eb="5">
       <t>ウツノミヤシ</t>
@@ -3858,13 +3785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不明</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -3889,23 +3809,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>感染対策G↓</t>
-    <rPh sb="0" eb="2">
-      <t>カンセン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>に確認する</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -3948,13 +3851,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不明</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.309・310の知人</t>
     <rPh sb="11" eb="13">
       <t>チジン</t>
@@ -4066,13 +3962,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不明</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.328の家族</t>
     <rPh sb="7" eb="9">
       <t>カゾク</t>
@@ -4153,13 +4042,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不明</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.333の子</t>
     <rPh sb="7" eb="8">
       <t>コ</t>
@@ -4233,13 +4115,6 @@
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4597,7 +4472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4677,13 +4552,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4711,7 +4579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4760,24 +4628,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4931,46 +4788,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4987,12 +4805,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5295,11 +5107,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O393"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G390" sqref="G390"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5309,29 +5121,21 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="49" customWidth="1"/>
-    <col min="15" max="15" width="14.25" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5353,10 +5157,8 @@
       <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5378,12 +5180,8 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I18" si="0">IF(COUNT(F3)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5405,12 +5203,8 @@
       <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5432,12 +5226,8 @@
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5459,12 +5249,8 @@
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5486,12 +5272,8 @@
       <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5513,12 +5295,8 @@
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5540,12 +5318,8 @@
       <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5567,12 +5341,8 @@
       <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5594,12 +5364,8 @@
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5621,12 +5387,8 @@
       <c r="G12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -5648,12 +5410,8 @@
       <c r="G13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -5675,12 +5433,8 @@
       <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5702,15 +5456,8 @@
       <c r="G15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N15" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -5730,15 +5477,8 @@
         <v>43948</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N16" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5760,12 +5500,8 @@
       <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5787,12 +5523,8 @@
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5812,25 +5544,18 @@
         <v>43969</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="I19" s="1" t="str">
-        <f>IF(COUNT(F19)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="N19" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="74">
+    </row>
+    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="59">
         <v>18</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="59" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="8">
@@ -5839,28 +5564,24 @@
       <c r="F20" s="8">
         <v>43959</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="71" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="14">
         <v>43973</v>
       </c>
       <c r="F21" s="8">
         <v>43990</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="I21" s="71"/>
-    </row>
-    <row r="22" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="62"/>
+    </row>
+    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5882,15 +5603,8 @@
       <c r="G22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="1" t="str">
-        <f>IF(COUNT(F22)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="N22" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5910,15 +5624,8 @@
         <v>43949</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="I23" s="1" t="str">
-        <f t="shared" ref="I23:I56" si="1">IF(COUNT(F23)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="N23" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5940,12 +5647,8 @@
       <c r="G24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5967,12 +5670,8 @@
       <c r="G25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5994,12 +5693,8 @@
       <c r="G26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6021,12 +5716,8 @@
       <c r="G27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6048,12 +5739,8 @@
       <c r="G28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6075,12 +5762,8 @@
       <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6102,12 +5785,8 @@
       <c r="G30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6129,12 +5808,8 @@
       <c r="G31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6154,15 +5829,8 @@
         <v>43940</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="I32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N32" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6182,15 +5850,8 @@
         <v>43970</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="I33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N33" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6210,15 +5871,8 @@
         <v>43978</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="I34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N34" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6240,12 +5894,8 @@
       <c r="G35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6267,12 +5917,8 @@
       <c r="G36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6292,15 +5938,8 @@
         <v>43949</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="I37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N37" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6320,15 +5959,8 @@
         <v>43945</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="I38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N38" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6350,12 +5982,8 @@
       <c r="G39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6375,15 +6003,8 @@
         <v>43963</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="I40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N40" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6405,12 +6026,8 @@
       <c r="G41" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6430,15 +6047,8 @@
         <v>43960</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="I42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N42" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6460,15 +6070,8 @@
       <c r="G43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N43" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6490,12 +6093,8 @@
       <c r="G44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6517,12 +6116,8 @@
       <c r="G45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6542,15 +6137,8 @@
         <v>43960</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="I46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N46" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6572,12 +6160,8 @@
       <c r="G47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6599,12 +6183,8 @@
       <c r="G48" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6624,15 +6204,8 @@
         <v>43953</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="I49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N49" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6654,12 +6227,8 @@
       <c r="G50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6681,12 +6250,8 @@
       <c r="G51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -6708,12 +6273,8 @@
       <c r="G52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -6733,15 +6294,8 @@
         <v>43962</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="I53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N53" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -6763,12 +6317,8 @@
       <c r="G54" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -6790,12 +6340,8 @@
       <c r="G55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -6815,15 +6361,8 @@
         <v>43985</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="I56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N56" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -6843,15 +6382,8 @@
         <v>43970</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="I57" s="1" t="str">
-        <f t="shared" ref="I57:I122" si="2">IF(COUNT(F57)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="N57" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -6874,7 +6406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -6896,15 +6428,8 @@
       <c r="G59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N59" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -6926,12 +6451,8 @@
       <c r="G60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -6953,15 +6474,8 @@
       <c r="G61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N61" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -6983,15 +6497,8 @@
       <c r="G62" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N62" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -7013,12 +6520,8 @@
       <c r="G63" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -7040,12 +6543,8 @@
       <c r="G64" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -7067,12 +6566,8 @@
       <c r="G65" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -7094,12 +6589,8 @@
       <c r="G66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -7121,12 +6612,8 @@
       <c r="G67" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -7148,12 +6635,8 @@
       <c r="G68" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -7175,14 +6658,8 @@
       <c r="G69" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-    </row>
-    <row r="70" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -7202,16 +6679,8 @@
         <v>43993</v>
       </c>
       <c r="G70" s="15"/>
-      <c r="I70" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>67</v>
       </c>
@@ -7233,14 +6702,8 @@
       <c r="G71" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-    </row>
-    <row r="72" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16">
         <v>68</v>
       </c>
@@ -7262,14 +6725,8 @@
       <c r="G72" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I72" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-    </row>
-    <row r="73" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="16">
         <v>69</v>
       </c>
@@ -7291,14 +6748,8 @@
       <c r="G73" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-    </row>
-    <row r="74" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -7320,14 +6771,8 @@
       <c r="G74" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="I74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-    </row>
-    <row r="75" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="16">
         <v>71</v>
       </c>
@@ -7349,14 +6794,8 @@
       <c r="G75" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-    </row>
-    <row r="76" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="16">
         <v>72</v>
       </c>
@@ -7378,14 +6817,8 @@
       <c r="G76" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-    </row>
-    <row r="77" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16">
         <v>73</v>
       </c>
@@ -7407,14 +6840,8 @@
       <c r="G77" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I77" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M77" s="49"/>
-      <c r="N77" s="49"/>
-    </row>
-    <row r="78" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -7436,14 +6863,8 @@
       <c r="G78" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
-    </row>
-    <row r="79" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -7465,14 +6886,8 @@
       <c r="G79" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I79" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M79" s="49"/>
-      <c r="N79" s="49"/>
-    </row>
-    <row r="80" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -7494,14 +6909,8 @@
       <c r="G80" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="I80" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-    </row>
-    <row r="81" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -7521,16 +6930,8 @@
         <v>44021</v>
       </c>
       <c r="G81" s="17"/>
-      <c r="I81" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M81" s="49"/>
-      <c r="N81" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -7550,16 +6951,8 @@
         <v>44021</v>
       </c>
       <c r="G82" s="17"/>
-      <c r="I82" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M82" s="49"/>
-      <c r="N82" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -7581,14 +6974,8 @@
       <c r="G83" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="I83" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M83" s="49"/>
-      <c r="N83" s="49"/>
-    </row>
-    <row r="84" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -7610,14 +6997,8 @@
       <c r="G84" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="I84" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M84" s="49"/>
-      <c r="N84" s="49"/>
-    </row>
-    <row r="85" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -7639,14 +7020,8 @@
       <c r="G85" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I85" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M85" s="49"/>
-      <c r="N85" s="49"/>
-    </row>
-    <row r="86" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -7668,14 +7043,8 @@
       <c r="G86" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="I86" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M86" s="49"/>
-      <c r="N86" s="49"/>
-    </row>
-    <row r="87" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -7697,14 +7066,8 @@
       <c r="G87" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I87" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M87" s="49"/>
-      <c r="N87" s="49"/>
-    </row>
-    <row r="88" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -7726,14 +7089,8 @@
       <c r="G88" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="I88" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M88" s="49"/>
-      <c r="N88" s="49"/>
-    </row>
-    <row r="89" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -7755,14 +7112,8 @@
       <c r="G89" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I89" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M89" s="49"/>
-      <c r="N89" s="49"/>
-    </row>
-    <row r="90" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -7784,14 +7135,8 @@
       <c r="G90" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I90" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M90" s="49"/>
-      <c r="N90" s="49"/>
-    </row>
-    <row r="91" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="18">
         <v>87</v>
       </c>
@@ -7813,14 +7158,8 @@
       <c r="G91" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I91" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M91" s="49"/>
-      <c r="N91" s="49"/>
-    </row>
-    <row r="92" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="18">
         <v>88</v>
       </c>
@@ -7842,14 +7181,8 @@
       <c r="G92" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I92" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M92" s="49"/>
-      <c r="N92" s="49"/>
-    </row>
-    <row r="93" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="19">
         <v>89</v>
       </c>
@@ -7871,14 +7204,8 @@
       <c r="G93" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="I93" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M93" s="49"/>
-      <c r="N93" s="49"/>
-    </row>
-    <row r="94" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="19">
         <v>90</v>
       </c>
@@ -7900,14 +7227,8 @@
       <c r="G94" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="I94" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M94" s="49"/>
-      <c r="N94" s="49"/>
-    </row>
-    <row r="95" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -7927,16 +7248,8 @@
         <v>44033</v>
       </c>
       <c r="G95" s="23"/>
-      <c r="I95" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M95" s="49"/>
-      <c r="N95" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="18">
         <v>92</v>
       </c>
@@ -7958,14 +7271,8 @@
       <c r="G96" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="I96" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M96" s="49"/>
-      <c r="N96" s="49"/>
-    </row>
-    <row r="97" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>93</v>
       </c>
@@ -7985,16 +7292,8 @@
         <v>44037</v>
       </c>
       <c r="G97" s="23"/>
-      <c r="I97" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M97" s="49"/>
-      <c r="N97" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="19">
         <v>94</v>
       </c>
@@ -8016,14 +7315,8 @@
       <c r="G98" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I98" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M98" s="49"/>
-      <c r="N98" s="49"/>
-    </row>
-    <row r="99" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="19">
         <v>95</v>
       </c>
@@ -8045,14 +7338,8 @@
       <c r="G99" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I99" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M99" s="49"/>
-      <c r="N99" s="49"/>
-    </row>
-    <row r="100" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="19">
         <v>96</v>
       </c>
@@ -8074,14 +7361,8 @@
       <c r="G100" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I100" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M100" s="49"/>
-      <c r="N100" s="49"/>
-    </row>
-    <row r="101" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="19">
         <v>97</v>
       </c>
@@ -8103,14 +7384,8 @@
       <c r="G101" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="I101" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M101" s="49"/>
-      <c r="N101" s="49"/>
-    </row>
-    <row r="102" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="19">
         <v>98</v>
       </c>
@@ -8132,14 +7407,8 @@
       <c r="G102" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I102" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M102" s="49"/>
-      <c r="N102" s="49"/>
-    </row>
-    <row r="103" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="25">
         <v>99</v>
       </c>
@@ -8161,14 +7430,8 @@
       <c r="G103" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I103" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M103" s="49"/>
-      <c r="N103" s="49"/>
-    </row>
-    <row r="104" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="25">
         <v>100</v>
       </c>
@@ -8190,14 +7453,8 @@
       <c r="G104" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I104" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M104" s="49"/>
-      <c r="N104" s="49"/>
-    </row>
-    <row r="105" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="25">
         <v>101</v>
       </c>
@@ -8219,14 +7476,8 @@
       <c r="G105" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I105" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M105" s="49"/>
-      <c r="N105" s="49"/>
-    </row>
-    <row r="106" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="25">
         <v>102</v>
       </c>
@@ -8248,14 +7499,8 @@
       <c r="G106" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I106" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M106" s="49"/>
-      <c r="N106" s="49"/>
-    </row>
-    <row r="107" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="25">
         <v>103</v>
       </c>
@@ -8277,14 +7522,8 @@
       <c r="G107" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I107" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M107" s="49"/>
-      <c r="N107" s="49"/>
-    </row>
-    <row r="108" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="19">
         <v>104</v>
       </c>
@@ -8304,16 +7543,8 @@
         <v>44042</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="I108" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M108" s="49"/>
-      <c r="N108" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="30">
         <v>105</v>
       </c>
@@ -8335,14 +7566,8 @@
       <c r="G109" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I109" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M109" s="49"/>
-      <c r="N109" s="49"/>
-    </row>
-    <row r="110" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="19">
         <v>106</v>
       </c>
@@ -8364,14 +7589,8 @@
       <c r="G110" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I110" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M110" s="49"/>
-      <c r="N110" s="49"/>
-    </row>
-    <row r="111" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="19">
         <v>107</v>
       </c>
@@ -8393,16 +7612,8 @@
       <c r="G111" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I111" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M111" s="49"/>
-      <c r="N111" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="19">
         <v>108</v>
       </c>
@@ -8424,14 +7635,8 @@
       <c r="G112" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="I112" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M112" s="49"/>
-      <c r="N112" s="49"/>
-    </row>
-    <row r="113" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="19">
         <v>109</v>
       </c>
@@ -8453,14 +7658,8 @@
       <c r="G113" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="I113" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M113" s="49"/>
-      <c r="N113" s="49"/>
-    </row>
-    <row r="114" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="19">
         <v>110</v>
       </c>
@@ -8482,16 +7681,8 @@
       <c r="G114" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I114" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M114" s="49"/>
-      <c r="N114" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="19">
         <v>111</v>
       </c>
@@ -8513,14 +7704,8 @@
       <c r="G115" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I115" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M115" s="49"/>
-      <c r="N115" s="49"/>
-    </row>
-    <row r="116" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="19">
         <v>112</v>
       </c>
@@ -8542,14 +7727,8 @@
       <c r="G116" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I116" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M116" s="49"/>
-      <c r="N116" s="49"/>
-    </row>
-    <row r="117" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="19">
         <v>113</v>
       </c>
@@ -8571,14 +7750,8 @@
       <c r="G117" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="I117" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M117" s="49"/>
-      <c r="N117" s="49"/>
-    </row>
-    <row r="118" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="19">
         <v>114</v>
       </c>
@@ -8600,14 +7773,8 @@
       <c r="G118" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="I118" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M118" s="49"/>
-      <c r="N118" s="49"/>
-    </row>
-    <row r="119" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="19">
         <v>115</v>
       </c>
@@ -8629,14 +7796,8 @@
       <c r="G119" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="I119" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M119" s="49"/>
-      <c r="N119" s="49"/>
-    </row>
-    <row r="120" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="19">
         <v>116</v>
       </c>
@@ -8658,14 +7819,8 @@
       <c r="G120" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I120" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M120" s="49"/>
-      <c r="N120" s="49"/>
-    </row>
-    <row r="121" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="19">
         <v>117</v>
       </c>
@@ -8687,14 +7842,8 @@
       <c r="G121" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="I121" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M121" s="49"/>
-      <c r="N121" s="49"/>
-    </row>
-    <row r="122" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="19">
         <v>118</v>
       </c>
@@ -8716,14 +7865,8 @@
       <c r="G122" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="I122" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M122" s="49"/>
-      <c r="N122" s="49"/>
-    </row>
-    <row r="123" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="25">
         <v>119</v>
       </c>
@@ -8745,12 +7888,8 @@
       <c r="G123" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="I123" s="1" t="str">
-        <f t="shared" ref="I123:I186" si="3">IF(COUNT(F123)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="25">
         <v>120</v>
       </c>
@@ -8772,12 +7911,8 @@
       <c r="G124" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I124" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="25">
         <v>121</v>
       </c>
@@ -8799,12 +7934,8 @@
       <c r="G125" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="I125" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="25">
         <v>122</v>
       </c>
@@ -8826,12 +7957,8 @@
       <c r="G126" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="I126" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="25">
         <v>123</v>
       </c>
@@ -8853,12 +7980,8 @@
       <c r="G127" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="I127" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="25">
         <v>124</v>
       </c>
@@ -8880,12 +8003,8 @@
       <c r="G128" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="I128" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="19">
         <v>125</v>
       </c>
@@ -8907,14 +8026,8 @@
       <c r="G129" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="I129" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M129" s="49"/>
-      <c r="N129" s="49"/>
-    </row>
-    <row r="130" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="130" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="19">
         <v>126</v>
       </c>
@@ -8936,14 +8049,8 @@
       <c r="G130" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="I130" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M130" s="49"/>
-      <c r="N130" s="49"/>
-    </row>
-    <row r="131" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="19">
         <v>127</v>
       </c>
@@ -8965,14 +8072,8 @@
       <c r="G131" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="I131" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M131" s="49"/>
-      <c r="N131" s="49"/>
-    </row>
-    <row r="132" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="19">
         <v>128</v>
       </c>
@@ -8994,14 +8095,8 @@
       <c r="G132" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="I132" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M132" s="49"/>
-      <c r="N132" s="49"/>
-    </row>
-    <row r="133" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="19">
         <v>129</v>
       </c>
@@ -9023,14 +8118,8 @@
       <c r="G133" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="I133" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M133" s="49"/>
-      <c r="N133" s="49"/>
-    </row>
-    <row r="134" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="134" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="19">
         <v>130</v>
       </c>
@@ -9052,14 +8141,8 @@
       <c r="G134" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="I134" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M134" s="49"/>
-      <c r="N134" s="49"/>
-    </row>
-    <row r="135" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="135" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="19">
         <v>131</v>
       </c>
@@ -9081,14 +8164,8 @@
       <c r="G135" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="I135" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M135" s="49"/>
-      <c r="N135" s="49"/>
-    </row>
-    <row r="136" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="136" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="19">
         <v>132</v>
       </c>
@@ -9110,14 +8187,8 @@
       <c r="G136" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="I136" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M136" s="49"/>
-      <c r="N136" s="49"/>
-    </row>
-    <row r="137" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="137" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="19">
         <v>133</v>
       </c>
@@ -9137,16 +8208,8 @@
         <v>44043</v>
       </c>
       <c r="G137" s="35"/>
-      <c r="I137" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M137" s="49"/>
-      <c r="N137" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="19">
         <v>134</v>
       </c>
@@ -9168,14 +8231,8 @@
       <c r="G138" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="I138" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M138" s="49"/>
-      <c r="N138" s="49"/>
-    </row>
-    <row r="139" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="19">
         <v>135</v>
       </c>
@@ -9197,14 +8254,8 @@
       <c r="G139" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="I139" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M139" s="49"/>
-      <c r="N139" s="49"/>
-    </row>
-    <row r="140" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="19">
         <v>136</v>
       </c>
@@ -9226,14 +8277,8 @@
       <c r="G140" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="I140" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M140" s="49"/>
-      <c r="N140" s="49"/>
-    </row>
-    <row r="141" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="141" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="19">
         <v>137</v>
       </c>
@@ -9255,14 +8300,8 @@
       <c r="G141" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I141" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M141" s="49"/>
-      <c r="N141" s="49"/>
-    </row>
-    <row r="142" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="142" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="19">
         <v>138</v>
       </c>
@@ -9284,14 +8323,8 @@
       <c r="G142" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="I142" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M142" s="49"/>
-      <c r="N142" s="49"/>
-    </row>
-    <row r="143" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="143" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="19">
         <v>139</v>
       </c>
@@ -9313,16 +8346,8 @@
       <c r="G143" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I143" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M143" s="49"/>
-      <c r="N143" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="144" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="19">
         <v>140</v>
       </c>
@@ -9344,14 +8369,8 @@
       <c r="G144" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I144" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M144" s="49"/>
-      <c r="N144" s="49"/>
-    </row>
-    <row r="145" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="145" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="19">
         <v>141</v>
       </c>
@@ -9373,14 +8392,8 @@
       <c r="G145" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="I145" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M145" s="49"/>
-      <c r="N145" s="49"/>
-    </row>
-    <row r="146" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="19">
         <v>142</v>
       </c>
@@ -9402,16 +8415,8 @@
       <c r="G146" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="I146" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M146" s="49"/>
-      <c r="N146" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="147" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="19">
         <v>143</v>
       </c>
@@ -9431,16 +8436,8 @@
         <v>44042</v>
       </c>
       <c r="G147" s="21"/>
-      <c r="I147" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M147" s="49"/>
-      <c r="N147" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="148" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="19">
         <v>144</v>
       </c>
@@ -9462,14 +8459,8 @@
       <c r="G148" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="I148" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M148" s="49"/>
-      <c r="N148" s="49"/>
-    </row>
-    <row r="149" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="19">
         <v>145</v>
       </c>
@@ -9489,16 +8480,8 @@
         <v>44054</v>
       </c>
       <c r="G149" s="21"/>
-      <c r="I149" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M149" s="49"/>
-      <c r="N149" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="150" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="19">
         <v>146</v>
       </c>
@@ -9518,16 +8501,8 @@
         <v>44049</v>
       </c>
       <c r="G150" s="21"/>
-      <c r="I150" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M150" s="49"/>
-      <c r="N150" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="19">
         <v>147</v>
       </c>
@@ -9547,16 +8522,8 @@
         <v>44044</v>
       </c>
       <c r="G151" s="21"/>
-      <c r="I151" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M151" s="49"/>
-      <c r="N151" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="19">
         <v>148</v>
       </c>
@@ -9576,16 +8543,8 @@
         <v>44044</v>
       </c>
       <c r="G152" s="21"/>
-      <c r="I152" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M152" s="49"/>
-      <c r="N152" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="19">
         <v>149</v>
       </c>
@@ -9607,14 +8566,8 @@
       <c r="G153" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="I153" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M153" s="49"/>
-      <c r="N153" s="49"/>
-    </row>
-    <row r="154" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="154" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="19">
         <v>150</v>
       </c>
@@ -9636,14 +8589,8 @@
       <c r="G154" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="I154" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M154" s="49"/>
-      <c r="N154" s="49"/>
-    </row>
-    <row r="155" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="155" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="19">
         <v>151</v>
       </c>
@@ -9665,16 +8612,8 @@
       <c r="G155" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="I155" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M155" s="49"/>
-      <c r="N155" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="156" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="25">
         <v>152</v>
       </c>
@@ -9696,14 +8635,8 @@
       <c r="G156" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="I156" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M156" s="49"/>
-      <c r="N156" s="49"/>
-    </row>
-    <row r="157" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="157" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="25">
         <v>153</v>
       </c>
@@ -9725,14 +8658,8 @@
       <c r="G157" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="I157" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M157" s="49"/>
-      <c r="N157" s="49"/>
-    </row>
-    <row r="158" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="158" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="25">
         <v>154</v>
       </c>
@@ -9754,14 +8681,8 @@
       <c r="G158" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="I158" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M158" s="49"/>
-      <c r="N158" s="49"/>
-    </row>
-    <row r="159" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="159" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="25">
         <v>155</v>
       </c>
@@ -9783,14 +8704,8 @@
       <c r="G159" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="I159" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M159" s="49"/>
-      <c r="N159" s="49"/>
-    </row>
-    <row r="160" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="160" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="25">
         <v>156</v>
       </c>
@@ -9812,14 +8727,8 @@
       <c r="G160" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="I160" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M160" s="49"/>
-      <c r="N160" s="49"/>
-    </row>
-    <row r="161" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="161" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="25">
         <v>157</v>
       </c>
@@ -9841,14 +8750,8 @@
       <c r="G161" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="I161" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M161" s="49"/>
-      <c r="N161" s="49"/>
-    </row>
-    <row r="162" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="162" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="25">
         <v>158</v>
       </c>
@@ -9870,16 +8773,8 @@
       <c r="G162" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="I162" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M162" s="49"/>
-      <c r="N162" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="163" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="25">
         <v>159</v>
       </c>
@@ -9901,16 +8796,8 @@
       <c r="G163" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="I163" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M163" s="49"/>
-      <c r="N163" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="164" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="25">
         <v>160</v>
       </c>
@@ -9932,14 +8819,8 @@
       <c r="G164" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="I164" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M164" s="49"/>
-      <c r="N164" s="49"/>
-    </row>
-    <row r="165" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="165" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="25">
         <v>161</v>
       </c>
@@ -9961,14 +8842,8 @@
       <c r="G165" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="I165" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M165" s="49"/>
-      <c r="N165" s="49"/>
-    </row>
-    <row r="166" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="166" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="25">
         <v>162</v>
       </c>
@@ -9990,14 +8865,8 @@
       <c r="G166" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="I166" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M166" s="49"/>
-      <c r="N166" s="49"/>
-    </row>
-    <row r="167" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="167" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="25">
         <v>163</v>
       </c>
@@ -10019,14 +8888,8 @@
       <c r="G167" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I167" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M167" s="49"/>
-      <c r="N167" s="49"/>
-    </row>
-    <row r="168" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="168" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="19">
         <v>164</v>
       </c>
@@ -10048,14 +8911,8 @@
       <c r="G168" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I168" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M168" s="49"/>
-      <c r="N168" s="49"/>
-    </row>
-    <row r="169" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="169" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="19">
         <v>165</v>
       </c>
@@ -10077,14 +8934,8 @@
       <c r="G169" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I169" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M169" s="49"/>
-      <c r="N169" s="49"/>
-    </row>
-    <row r="170" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="170" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="19">
         <v>166</v>
       </c>
@@ -10106,16 +8957,8 @@
       <c r="G170" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="I170" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M170" s="49"/>
-      <c r="N170" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="171" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="19">
         <v>167</v>
       </c>
@@ -10137,16 +8980,8 @@
       <c r="G171" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="I171" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M171" s="49"/>
-      <c r="N171" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="172" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="19">
         <v>168</v>
       </c>
@@ -10168,16 +9003,8 @@
       <c r="G172" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="I172" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M172" s="49"/>
-      <c r="N172" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="173" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="19">
         <v>169</v>
       </c>
@@ -10199,16 +9026,8 @@
       <c r="G173" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I173" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M173" s="49"/>
-      <c r="N173" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="174" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="19">
         <v>170</v>
       </c>
@@ -10230,14 +9049,8 @@
       <c r="G174" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="I174" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M174" s="49"/>
-      <c r="N174" s="49"/>
-    </row>
-    <row r="175" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="175" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="19">
         <v>171</v>
       </c>
@@ -10259,14 +9072,8 @@
       <c r="G175" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="I175" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M175" s="49"/>
-      <c r="N175" s="49"/>
-    </row>
-    <row r="176" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="176" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="19">
         <v>172</v>
       </c>
@@ -10286,16 +9093,8 @@
         <v>44055</v>
       </c>
       <c r="G176" s="21"/>
-      <c r="I176" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M176" s="49"/>
-      <c r="N176" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="177" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="19">
         <v>173</v>
       </c>
@@ -10317,14 +9116,8 @@
       <c r="G177" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="I177" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M177" s="49"/>
-      <c r="N177" s="49"/>
-    </row>
-    <row r="178" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="178" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="19">
         <v>174</v>
       </c>
@@ -10346,14 +9139,8 @@
       <c r="G178" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="I178" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M178" s="49"/>
-      <c r="N178" s="49"/>
-    </row>
-    <row r="179" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="179" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="19">
         <v>175</v>
       </c>
@@ -10375,14 +9162,8 @@
       <c r="G179" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="I179" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M179" s="49"/>
-      <c r="N179" s="49"/>
-    </row>
-    <row r="180" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="180" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="19">
         <v>176</v>
       </c>
@@ -10404,14 +9185,8 @@
       <c r="G180" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="I180" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M180" s="49"/>
-      <c r="N180" s="49"/>
-    </row>
-    <row r="181" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="181" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="19">
         <v>177</v>
       </c>
@@ -10433,14 +9208,8 @@
       <c r="G181" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="I181" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M181" s="49"/>
-      <c r="N181" s="49"/>
-    </row>
-    <row r="182" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="182" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="19">
         <v>178</v>
       </c>
@@ -10462,14 +9231,8 @@
       <c r="G182" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="I182" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M182" s="49"/>
-      <c r="N182" s="49"/>
-    </row>
-    <row r="183" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="19">
         <v>179</v>
       </c>
@@ -10491,14 +9254,8 @@
       <c r="G183" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="I183" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M183" s="49"/>
-      <c r="N183" s="49"/>
-    </row>
-    <row r="184" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="184" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="19">
         <v>180</v>
       </c>
@@ -10520,14 +9277,8 @@
       <c r="G184" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="I184" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M184" s="49"/>
-      <c r="N184" s="49"/>
-    </row>
-    <row r="185" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="19">
         <v>181</v>
       </c>
@@ -10549,14 +9300,8 @@
       <c r="G185" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="I185" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M185" s="49"/>
-      <c r="N185" s="49"/>
-    </row>
-    <row r="186" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="186" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="19">
         <v>182</v>
       </c>
@@ -10578,14 +9323,8 @@
       <c r="G186" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="I186" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M186" s="49"/>
-      <c r="N186" s="49"/>
-    </row>
-    <row r="187" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="19">
         <v>183</v>
       </c>
@@ -10607,14 +9346,8 @@
       <c r="G187" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I187" s="1" t="str">
-        <f t="shared" ref="I187:I250" si="4">IF(COUNT(F187)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="M187" s="49"/>
-      <c r="N187" s="49"/>
-    </row>
-    <row r="188" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="188" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="19">
         <v>184</v>
       </c>
@@ -10636,16 +9369,8 @@
       <c r="G188" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="I188" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M188" s="49"/>
-      <c r="N188" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="19">
         <v>185</v>
       </c>
@@ -10667,16 +9392,8 @@
       <c r="G189" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="I189" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M189" s="49"/>
-      <c r="N189" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="190" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="19">
         <v>186</v>
       </c>
@@ -10696,16 +9413,8 @@
         <v>44054</v>
       </c>
       <c r="G190" s="21"/>
-      <c r="I190" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M190" s="49"/>
-      <c r="N190" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="19">
         <v>187</v>
       </c>
@@ -10727,16 +9436,8 @@
       <c r="G191" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I191" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M191" s="49"/>
-      <c r="N191" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="19">
         <v>188</v>
       </c>
@@ -10758,14 +9459,8 @@
       <c r="G192" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="I192" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M192" s="49"/>
-      <c r="N192" s="49"/>
-    </row>
-    <row r="193" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="193" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="19">
         <v>189</v>
       </c>
@@ -10787,14 +9482,8 @@
       <c r="G193" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="I193" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M193" s="49"/>
-      <c r="N193" s="49"/>
-    </row>
-    <row r="194" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="19">
         <v>190</v>
       </c>
@@ -10816,14 +9505,8 @@
       <c r="G194" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I194" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M194" s="49"/>
-      <c r="N194" s="49"/>
-    </row>
-    <row r="195" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="19">
         <v>191</v>
       </c>
@@ -10845,14 +9528,8 @@
       <c r="G195" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="I195" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M195" s="49"/>
-      <c r="N195" s="49"/>
-    </row>
-    <row r="196" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="19">
         <v>192</v>
       </c>
@@ -10874,14 +9551,8 @@
       <c r="G196" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="I196" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M196" s="49"/>
-      <c r="N196" s="49"/>
-    </row>
-    <row r="197" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="19">
         <v>193</v>
       </c>
@@ -10903,14 +9574,8 @@
       <c r="G197" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="I197" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M197" s="49"/>
-      <c r="N197" s="49"/>
-    </row>
-    <row r="198" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="19">
         <v>194</v>
       </c>
@@ -10930,16 +9595,8 @@
         <v>44058</v>
       </c>
       <c r="G198" s="21"/>
-      <c r="I198" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M198" s="49"/>
-      <c r="N198" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="19">
         <v>195</v>
       </c>
@@ -10961,16 +9618,8 @@
       <c r="G199" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="I199" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M199" s="49"/>
-      <c r="N199" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="19">
         <v>196</v>
       </c>
@@ -10992,14 +9641,8 @@
       <c r="G200" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I200" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M200" s="49"/>
-      <c r="N200" s="49"/>
-    </row>
-    <row r="201" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="19">
         <v>197</v>
       </c>
@@ -11021,16 +9664,8 @@
       <c r="G201" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="I201" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M201" s="49"/>
-      <c r="N201" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="19">
         <v>198</v>
       </c>
@@ -11052,14 +9687,8 @@
       <c r="G202" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I202" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M202" s="49"/>
-      <c r="N202" s="49"/>
-    </row>
-    <row r="203" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="203" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="19">
         <v>199</v>
       </c>
@@ -11081,16 +9710,8 @@
       <c r="G203" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I203" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M203" s="49"/>
-      <c r="N203" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="204" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="19">
         <v>200</v>
       </c>
@@ -11108,16 +9729,8 @@
       </c>
       <c r="F204" s="20"/>
       <c r="G204" s="21"/>
-      <c r="I204" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M204" s="49"/>
-      <c r="N204" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="205" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="19">
         <v>201</v>
       </c>
@@ -11139,16 +9752,8 @@
       <c r="G205" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I205" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M205" s="49"/>
-      <c r="N205" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="19">
         <v>202</v>
       </c>
@@ -11170,16 +9775,8 @@
       <c r="G206" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="I206" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M206" s="49"/>
-      <c r="N206" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="207" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="19">
         <v>203</v>
       </c>
@@ -11201,14 +9798,8 @@
       <c r="G207" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I207" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M207" s="49"/>
-      <c r="N207" s="49"/>
-    </row>
-    <row r="208" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="19">
         <v>204</v>
       </c>
@@ -11230,14 +9821,8 @@
       <c r="G208" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="I208" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M208" s="49"/>
-      <c r="N208" s="49"/>
-    </row>
-    <row r="209" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="209" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="19">
         <v>205</v>
       </c>
@@ -11259,14 +9844,8 @@
       <c r="G209" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="I209" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M209" s="49"/>
-      <c r="N209" s="49"/>
-    </row>
-    <row r="210" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="210" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="19">
         <v>206</v>
       </c>
@@ -11288,14 +9867,8 @@
       <c r="G210" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I210" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M210" s="49"/>
-      <c r="N210" s="49"/>
-    </row>
-    <row r="211" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="211" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="19">
         <v>207</v>
       </c>
@@ -11317,16 +9890,8 @@
       <c r="G211" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="I211" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M211" s="49"/>
-      <c r="N211" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="212" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="19">
         <v>208</v>
       </c>
@@ -11348,16 +9913,8 @@
       <c r="G212" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="I212" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M212" s="49"/>
-      <c r="N212" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="213" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="19">
         <v>209</v>
       </c>
@@ -11379,16 +9936,8 @@
       <c r="G213" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="I213" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M213" s="49"/>
-      <c r="N213" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="214" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="19">
         <v>210</v>
       </c>
@@ -11410,16 +9959,8 @@
       <c r="G214" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="I214" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M214" s="49"/>
-      <c r="N214" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="215" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="19">
         <v>211</v>
       </c>
@@ -11441,14 +9982,8 @@
       <c r="G215" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="I215" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M215" s="49"/>
-      <c r="N215" s="49"/>
-    </row>
-    <row r="216" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="19">
         <v>212</v>
       </c>
@@ -11470,16 +10005,8 @@
       <c r="G216" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="I216" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M216" s="49"/>
-      <c r="N216" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="217" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="19">
         <v>213</v>
       </c>
@@ -11501,16 +10028,8 @@
       <c r="G217" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="I217" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M217" s="49"/>
-      <c r="N217" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="19">
         <v>214</v>
       </c>
@@ -11532,14 +10051,8 @@
       <c r="G218" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="I218" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M218" s="49"/>
-      <c r="N218" s="49"/>
-    </row>
-    <row r="219" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="219" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="19">
         <v>215</v>
       </c>
@@ -11561,14 +10074,8 @@
       <c r="G219" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="I219" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M219" s="49"/>
-      <c r="N219" s="49"/>
-    </row>
-    <row r="220" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="220" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="19">
         <v>216</v>
       </c>
@@ -11588,16 +10095,8 @@
         <v>44076</v>
       </c>
       <c r="G220" s="21"/>
-      <c r="I220" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M220" s="49"/>
-      <c r="N220" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="19">
         <v>217</v>
       </c>
@@ -11617,16 +10116,8 @@
         <v>44072</v>
       </c>
       <c r="G221" s="21"/>
-      <c r="I221" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M221" s="49"/>
-      <c r="N221" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="222" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="19">
         <v>218</v>
       </c>
@@ -11648,16 +10139,8 @@
       <c r="G222" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="I222" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M222" s="49"/>
-      <c r="N222" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="223" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="19">
         <v>219</v>
       </c>
@@ -11679,16 +10162,8 @@
       <c r="G223" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="I223" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M223" s="49"/>
-      <c r="N223" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="224" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="19">
         <v>220</v>
       </c>
@@ -11710,14 +10185,8 @@
       <c r="G224" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="I224" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M224" s="49"/>
-      <c r="N224" s="49"/>
-    </row>
-    <row r="225" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="225" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="19">
         <v>221</v>
       </c>
@@ -11739,14 +10208,8 @@
       <c r="G225" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="I225" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M225" s="49"/>
-      <c r="N225" s="49"/>
-    </row>
-    <row r="226" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="19">
         <v>222</v>
       </c>
@@ -11768,14 +10231,8 @@
       <c r="G226" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="I226" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M226" s="49"/>
-      <c r="N226" s="49"/>
-    </row>
-    <row r="227" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="227" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="19">
         <v>223</v>
       </c>
@@ -11797,14 +10254,8 @@
       <c r="G227" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="I227" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M227" s="49"/>
-      <c r="N227" s="49"/>
-    </row>
-    <row r="228" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="228" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="19">
         <v>224</v>
       </c>
@@ -11826,16 +10277,8 @@
       <c r="G228" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="I228" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M228" s="49"/>
-      <c r="N228" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="229" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="19">
         <v>225</v>
       </c>
@@ -11857,14 +10300,8 @@
       <c r="G229" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="I229" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M229" s="49"/>
-      <c r="N229" s="49"/>
-    </row>
-    <row r="230" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="230" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="19">
         <v>226</v>
       </c>
@@ -11886,14 +10323,8 @@
       <c r="G230" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="I230" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M230" s="49"/>
-      <c r="N230" s="49"/>
-    </row>
-    <row r="231" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="231" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="19">
         <v>227</v>
       </c>
@@ -11913,16 +10344,8 @@
         <v>44068</v>
       </c>
       <c r="G231" s="21"/>
-      <c r="I231" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M231" s="49"/>
-      <c r="N231" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="19">
         <v>228</v>
       </c>
@@ -11944,16 +10367,8 @@
       <c r="G232" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="I232" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M232" s="49"/>
-      <c r="N232" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="233" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="19">
         <v>229</v>
       </c>
@@ -11975,16 +10390,8 @@
       <c r="G233" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="I233" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M233" s="49"/>
-      <c r="N233" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="234" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="19">
         <v>230</v>
       </c>
@@ -12006,14 +10413,8 @@
       <c r="G234" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="I234" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M234" s="49"/>
-      <c r="N234" s="49"/>
-    </row>
-    <row r="235" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="235" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="19">
         <v>231</v>
       </c>
@@ -12033,16 +10434,8 @@
         <v>44062</v>
       </c>
       <c r="G235" s="21"/>
-      <c r="I235" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M235" s="49"/>
-      <c r="N235" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="236" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="19">
         <v>232</v>
       </c>
@@ -12062,16 +10455,8 @@
         <v>44060</v>
       </c>
       <c r="G236" s="21"/>
-      <c r="I236" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M236" s="49"/>
-      <c r="N236" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="237" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="19">
         <v>233</v>
       </c>
@@ -12093,14 +10478,8 @@
       <c r="G237" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="I237" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M237" s="49"/>
-      <c r="N237" s="49"/>
-    </row>
-    <row r="238" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="238" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="19">
         <v>234</v>
       </c>
@@ -12120,16 +10499,8 @@
         <v>44057</v>
       </c>
       <c r="G238" s="21"/>
-      <c r="I238" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M238" s="49"/>
-      <c r="N238" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="239" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="19">
         <v>235</v>
       </c>
@@ -12149,16 +10520,8 @@
         <v>44057</v>
       </c>
       <c r="G239" s="21"/>
-      <c r="I239" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M239" s="49"/>
-      <c r="N239" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="240" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="19">
         <v>236</v>
       </c>
@@ -12180,16 +10543,8 @@
       <c r="G240" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="I240" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M240" s="49"/>
-      <c r="N240" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="241" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="19">
         <v>237</v>
       </c>
@@ -12211,14 +10566,8 @@
       <c r="G241" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="I241" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M241" s="49"/>
-      <c r="N241" s="49"/>
-    </row>
-    <row r="242" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="242" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="19">
         <v>238</v>
       </c>
@@ -12240,14 +10589,8 @@
       <c r="G242" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="I242" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M242" s="49"/>
-      <c r="N242" s="49"/>
-    </row>
-    <row r="243" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="19">
         <v>239</v>
       </c>
@@ -12267,16 +10610,8 @@
         <v>44056</v>
       </c>
       <c r="G243" s="21"/>
-      <c r="I243" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M243" s="49"/>
-      <c r="N243" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="244" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="19">
         <v>240</v>
       </c>
@@ -12296,16 +10631,8 @@
         <v>44059</v>
       </c>
       <c r="G244" s="21"/>
-      <c r="I244" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M244" s="49"/>
-      <c r="N244" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="245" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="19">
         <v>241</v>
       </c>
@@ -12325,16 +10652,8 @@
         <v>44063</v>
       </c>
       <c r="G245" s="21"/>
-      <c r="I245" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M245" s="49"/>
-      <c r="N245" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="246" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="19">
         <v>242</v>
       </c>
@@ -12356,14 +10675,8 @@
       <c r="G246" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="I246" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M246" s="49"/>
-      <c r="N246" s="49"/>
-    </row>
-    <row r="247" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="247" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="19">
         <v>243</v>
       </c>
@@ -12385,14 +10698,8 @@
       <c r="G247" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="I247" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M247" s="49"/>
-      <c r="N247" s="49"/>
-    </row>
-    <row r="248" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="248" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="19">
         <v>244</v>
       </c>
@@ -12414,16 +10721,8 @@
       <c r="G248" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="I248" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M248" s="49"/>
-      <c r="N248" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="249" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="19">
         <v>245</v>
       </c>
@@ -12445,14 +10744,8 @@
       <c r="G249" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="I249" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M249" s="49"/>
-      <c r="N249" s="49"/>
-    </row>
-    <row r="250" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="250" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="19">
         <v>246</v>
       </c>
@@ -12474,16 +10767,8 @@
       <c r="G250" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="I250" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M250" s="49"/>
-      <c r="N250" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="251" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="25">
         <v>247</v>
       </c>
@@ -12505,14 +10790,8 @@
       <c r="G251" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="I251" s="1" t="str">
-        <f t="shared" ref="I251:I313" si="5">IF(COUNT(F251)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="M251" s="49"/>
-      <c r="N251" s="49"/>
-    </row>
-    <row r="252" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="252" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="25">
         <v>248</v>
       </c>
@@ -12534,14 +10813,8 @@
       <c r="G252" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="I252" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M252" s="49"/>
-      <c r="N252" s="49"/>
-    </row>
-    <row r="253" spans="1:14" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="253" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="25">
         <v>249</v>
       </c>
@@ -12561,16 +10834,8 @@
         <v>44060</v>
       </c>
       <c r="G253" s="29"/>
-      <c r="I253" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M253" s="49"/>
-      <c r="N253" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="254" spans="1:7" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="25">
         <v>250</v>
       </c>
@@ -12592,14 +10857,8 @@
       <c r="G254" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="I254" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M254" s="49"/>
-      <c r="N254" s="49"/>
-    </row>
-    <row r="255" spans="1:14" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="255" spans="1:7" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="25">
         <v>251</v>
       </c>
@@ -12621,14 +10880,8 @@
       <c r="G255" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="I255" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M255" s="49"/>
-      <c r="N255" s="49"/>
-    </row>
-    <row r="256" spans="1:14" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="256" spans="1:7" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="25">
         <v>252</v>
       </c>
@@ -12650,14 +10903,8 @@
       <c r="G256" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="I256" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M256" s="49"/>
-      <c r="N256" s="49"/>
-    </row>
-    <row r="257" spans="1:14" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="257" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="19">
         <v>253</v>
       </c>
@@ -12677,16 +10924,8 @@
         <v>44063</v>
       </c>
       <c r="G257" s="21"/>
-      <c r="I257" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M257" s="49"/>
-      <c r="N257" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="258" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="19">
         <v>254</v>
       </c>
@@ -12708,14 +10947,8 @@
       <c r="G258" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="I258" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M258" s="49"/>
-      <c r="N258" s="49"/>
-    </row>
-    <row r="259" spans="1:14" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="259" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="19">
         <v>255</v>
       </c>
@@ -12737,14 +10970,8 @@
       <c r="G259" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="I259" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M259" s="49"/>
-      <c r="N259" s="49"/>
-    </row>
-    <row r="260" spans="1:14" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="260" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="19">
         <v>256</v>
       </c>
@@ -12766,14 +10993,8 @@
       <c r="G260" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="I260" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M260" s="49"/>
-      <c r="N260" s="49"/>
-    </row>
-    <row r="261" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="261" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="19">
         <v>257</v>
       </c>
@@ -12795,16 +11016,8 @@
       <c r="G261" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="I261" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M261" s="49"/>
-      <c r="N261" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="262" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="19">
         <v>258</v>
       </c>
@@ -12826,14 +11039,8 @@
       <c r="G262" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="I262" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M262" s="49"/>
-      <c r="N262" s="49"/>
-    </row>
-    <row r="263" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="263" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="19">
         <v>259</v>
       </c>
@@ -12855,14 +11062,8 @@
       <c r="G263" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="I263" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M263" s="49"/>
-      <c r="N263" s="49"/>
-    </row>
-    <row r="264" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="264" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="19">
         <v>260</v>
       </c>
@@ -12884,14 +11085,8 @@
       <c r="G264" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="I264" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M264" s="49"/>
-      <c r="N264" s="49"/>
-    </row>
-    <row r="265" spans="1:14" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="265" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="19">
         <v>261</v>
       </c>
@@ -12913,14 +11108,8 @@
       <c r="G265" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="I265" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M265" s="49"/>
-      <c r="N265" s="49"/>
-    </row>
-    <row r="266" spans="1:14" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="266" spans="1:7" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="19">
         <v>262</v>
       </c>
@@ -12940,16 +11129,8 @@
         <v>44068</v>
       </c>
       <c r="G266" s="21"/>
-      <c r="I266" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M266" s="49"/>
-      <c r="N266" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="267" spans="1:7" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="19">
         <v>263</v>
       </c>
@@ -12969,16 +11150,8 @@
         <v>44069</v>
       </c>
       <c r="G267" s="21"/>
-      <c r="I267" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M267" s="49"/>
-      <c r="N267" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="268" spans="1:7" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="19">
         <v>264</v>
       </c>
@@ -13000,16 +11173,8 @@
       <c r="G268" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="I268" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M268" s="49"/>
-      <c r="N268" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="269" spans="1:7" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="19">
         <v>265</v>
       </c>
@@ -13031,16 +11196,8 @@
       <c r="G269" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="I269" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M269" s="49"/>
-      <c r="N269" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" s="44" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="270" spans="1:7" s="44" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="19">
         <v>266</v>
       </c>
@@ -13060,16 +11217,8 @@
         <v>44062</v>
       </c>
       <c r="G270" s="21"/>
-      <c r="I270" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M270" s="49"/>
-      <c r="N270" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="271" spans="1:7" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="19">
         <v>267</v>
       </c>
@@ -13091,14 +11240,8 @@
       <c r="G271" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="I271" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M271" s="49"/>
-      <c r="N271" s="49"/>
-    </row>
-    <row r="272" spans="1:14" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="272" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="19">
         <v>268</v>
       </c>
@@ -13120,14 +11263,8 @@
       <c r="G272" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="I272" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M272" s="49"/>
-      <c r="N272" s="49"/>
-    </row>
-    <row r="273" spans="1:14" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="273" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="19">
         <v>269</v>
       </c>
@@ -13149,14 +11286,8 @@
       <c r="G273" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="I273" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M273" s="49"/>
-      <c r="N273" s="49"/>
-    </row>
-    <row r="274" spans="1:14" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="274" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="19">
         <v>270</v>
       </c>
@@ -13178,14 +11309,8 @@
       <c r="G274" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="I274" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M274" s="49"/>
-      <c r="N274" s="49"/>
-    </row>
-    <row r="275" spans="1:14" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="275" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="19">
         <v>271</v>
       </c>
@@ -13207,14 +11332,8 @@
       <c r="G275" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="I275" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M275" s="49"/>
-      <c r="N275" s="49"/>
-    </row>
-    <row r="276" spans="1:14" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="276" spans="1:7" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="19">
         <v>272</v>
       </c>
@@ -13236,14 +11355,8 @@
       <c r="G276" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="I276" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M276" s="49"/>
-      <c r="N276" s="49"/>
-    </row>
-    <row r="277" spans="1:14" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="277" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="19">
         <v>273</v>
       </c>
@@ -13265,15 +11378,8 @@
       <c r="G277" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="I277" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N277" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="278" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="19">
         <v>274</v>
       </c>
@@ -13295,15 +11401,8 @@
       <c r="G278" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="I278" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N278" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="279" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="19">
         <v>275</v>
       </c>
@@ -13325,12 +11424,8 @@
       <c r="G279" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="I279" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="280" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="19">
         <v>276</v>
       </c>
@@ -13352,12 +11447,8 @@
       <c r="G280" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="I280" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="281" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="19">
         <v>277</v>
       </c>
@@ -13377,15 +11468,8 @@
         <v>44068</v>
       </c>
       <c r="G281" s="21"/>
-      <c r="I281" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N281" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="282" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="19">
         <v>278</v>
       </c>
@@ -13407,12 +11491,8 @@
       <c r="G282" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="I282" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="283" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="19">
         <v>279</v>
       </c>
@@ -13432,15 +11512,8 @@
         <v>44076</v>
       </c>
       <c r="G283" s="21"/>
-      <c r="I283" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N283" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="284" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="19">
         <v>280</v>
       </c>
@@ -13462,12 +11535,8 @@
       <c r="G284" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="I284" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="285" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="19">
         <v>281</v>
       </c>
@@ -13489,12 +11558,8 @@
       <c r="G285" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="I285" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="286" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="19">
         <v>282</v>
       </c>
@@ -13516,15 +11581,8 @@
       <c r="G286" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="I286" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N286" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="287" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="19">
         <v>283</v>
       </c>
@@ -13546,12 +11604,8 @@
       <c r="G287" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="I287" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="288" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="19">
         <v>284</v>
       </c>
@@ -13573,12 +11627,8 @@
       <c r="G288" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="I288" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="289" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="19">
         <v>285</v>
       </c>
@@ -13600,15 +11650,8 @@
       <c r="G289" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="I289" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N289" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="290" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="19">
         <v>286</v>
       </c>
@@ -13630,12 +11673,8 @@
       <c r="G290" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="I290" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="291" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="19">
         <v>287</v>
       </c>
@@ -13657,12 +11696,8 @@
       <c r="G291" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="I291" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="292" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="19">
         <v>288</v>
       </c>
@@ -13684,15 +11719,8 @@
       <c r="G292" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="I292" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N292" s="50" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="293" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="19">
         <v>289</v>
       </c>
@@ -13714,15 +11742,8 @@
       <c r="G293" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="I293" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N293" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="294" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="19">
         <v>290</v>
       </c>
@@ -13742,12 +11763,8 @@
       <c r="G294" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I294" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="295" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="19">
         <v>291</v>
       </c>
@@ -13767,12 +11784,8 @@
       <c r="G295" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I295" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="296" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="19">
         <v>292</v>
       </c>
@@ -13792,12 +11805,8 @@
       <c r="G296" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I296" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="297" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="19">
         <v>293</v>
       </c>
@@ -13817,12 +11826,8 @@
       <c r="G297" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="I297" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="298" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="19">
         <v>294</v>
       </c>
@@ -13844,12 +11849,8 @@
       <c r="G298" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="I298" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="299" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="18">
         <v>295</v>
       </c>
@@ -13871,15 +11872,8 @@
       <c r="G299" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="I299" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N299" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="300" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="18">
         <v>296</v>
       </c>
@@ -13901,15 +11895,8 @@
       <c r="G300" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="I300" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N300" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="301" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="18">
         <v>297</v>
       </c>
@@ -13931,15 +11918,8 @@
       <c r="G301" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="I301" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N301" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="302" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="302" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="18">
         <v>298</v>
       </c>
@@ -13961,12 +11941,8 @@
       <c r="G302" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="I302" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="303" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="18">
         <v>299</v>
       </c>
@@ -13988,12 +11964,8 @@
       <c r="G303" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="I303" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="304" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="18">
         <v>300</v>
       </c>
@@ -14013,15 +11985,8 @@
         <v>44082</v>
       </c>
       <c r="G304" s="21"/>
-      <c r="I304" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N304" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="305" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="18">
         <v>301</v>
       </c>
@@ -14043,15 +12008,8 @@
       <c r="G305" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="I305" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="N305" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="306" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="18">
         <v>302</v>
       </c>
@@ -14073,16 +12031,8 @@
       <c r="G306" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="I306" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M306" s="54"/>
-      <c r="N306" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="307" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="18">
         <v>303</v>
       </c>
@@ -14104,13 +12054,8 @@
       <c r="G307" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="I307" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M307" s="54"/>
-    </row>
-    <row r="308" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="308" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="27">
         <v>304</v>
       </c>
@@ -14130,16 +12075,8 @@
         <v>44081</v>
       </c>
       <c r="G308" s="29"/>
-      <c r="I308" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M308" s="54"/>
-      <c r="N308" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="309" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="309" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="27">
         <v>305</v>
       </c>
@@ -14161,13 +12098,8 @@
       <c r="G309" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="I309" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M309" s="54"/>
-    </row>
-    <row r="310" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="310" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="27">
         <v>306</v>
       </c>
@@ -14187,16 +12119,8 @@
         <v>44082</v>
       </c>
       <c r="G310" s="29"/>
-      <c r="I310" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="M310" s="54"/>
-      <c r="N310" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="311" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="27">
         <v>307</v>
       </c>
@@ -14216,18 +12140,10 @@
         <v>44081</v>
       </c>
       <c r="G311" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="I311" s="1" t="str">
-        <f>IF(COUNT(F311)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="M311" s="54"/>
-      <c r="N311" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="27">
         <v>308</v>
       </c>
@@ -14247,28 +12163,19 @@
         <v>44085</v>
       </c>
       <c r="G312" s="29"/>
-      <c r="I312" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="L312" s="54"/>
-      <c r="M312" s="54"/>
-      <c r="N312" s="50" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="313" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="27">
         <v>309</v>
       </c>
       <c r="B313" s="36" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C313" s="25" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D313" s="27" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E313" s="37">
         <v>44078</v>
@@ -14277,28 +12184,19 @@
         <v>44088</v>
       </c>
       <c r="G313" s="29"/>
-      <c r="I313" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-      <c r="L313" s="54"/>
-      <c r="M313" s="54"/>
-      <c r="N313" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="314" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="18">
         <v>310</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C314" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D314" s="18" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E314" s="20">
         <v>44080</v>
@@ -14307,17 +12205,8 @@
         <v>44086</v>
       </c>
       <c r="G314" s="21"/>
-      <c r="I314" s="1" t="str">
-        <f t="shared" ref="I314:I319" si="6">IF(COUNT(F314)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="L314" s="54"/>
-      <c r="M314" s="54"/>
-      <c r="N314" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="315" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="18">
         <v>311</v>
       </c>
@@ -14328,7 +12217,7 @@
         <v>67</v>
       </c>
       <c r="D315" s="18" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E315" s="20">
         <v>44081</v>
@@ -14337,17 +12226,8 @@
         <v>44091</v>
       </c>
       <c r="G315" s="21"/>
-      <c r="I315" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-      <c r="L315" s="54"/>
-      <c r="M315" s="54"/>
-      <c r="N315" s="50" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="316" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="18">
         <v>312</v>
       </c>
@@ -14367,16 +12247,10 @@
         <v>44091</v>
       </c>
       <c r="G316" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="I316" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-      <c r="L316" s="54"/>
-      <c r="M316" s="54"/>
-    </row>
-    <row r="317" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="18">
         <v>313</v>
       </c>
@@ -14396,21 +12270,15 @@
         <v>44091</v>
       </c>
       <c r="G317" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="I317" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-      <c r="L317" s="54"/>
-      <c r="M317" s="54"/>
-    </row>
-    <row r="318" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="18">
         <v>314</v>
       </c>
       <c r="B318" s="34" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C318" s="19" t="s">
         <v>67</v>
@@ -14425,16 +12293,10 @@
         <v>44091</v>
       </c>
       <c r="G318" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="I318" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-      <c r="L318" s="54"/>
-      <c r="M318" s="54"/>
-    </row>
-    <row r="319" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="18">
         <v>315</v>
       </c>
@@ -14454,21 +12316,15 @@
         <v>44091</v>
       </c>
       <c r="G319" s="21" t="s">
-        <v>454</v>
-      </c>
-      <c r="I319" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-      <c r="L319" s="54"/>
-      <c r="M319" s="54"/>
-    </row>
-    <row r="320" spans="1:14" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="18">
         <v>316</v>
       </c>
       <c r="B320" s="34" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C320" s="19" t="s">
         <v>70</v>
@@ -14481,21 +12337,18 @@
       </c>
       <c r="F320" s="18"/>
       <c r="G320" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="I320" s="1"/>
-      <c r="L320" s="54"/>
-      <c r="M320" s="54"/>
-    </row>
-    <row r="321" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="18">
         <v>317</v>
       </c>
       <c r="B321" s="34" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D321" s="18" t="s">
         <v>120</v>
@@ -14505,21 +12358,18 @@
       </c>
       <c r="F321" s="18"/>
       <c r="G321" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="I321" s="1"/>
-      <c r="L321" s="54"/>
-      <c r="M321" s="54"/>
-    </row>
-    <row r="322" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="18">
         <v>318</v>
       </c>
       <c r="B322" s="34" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D322" s="18" t="s">
         <v>120</v>
@@ -14529,21 +12379,18 @@
       </c>
       <c r="F322" s="18"/>
       <c r="G322" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="I322" s="1"/>
-      <c r="L322" s="54"/>
-      <c r="M322" s="54"/>
-    </row>
-    <row r="323" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="18">
         <v>319</v>
       </c>
       <c r="B323" s="34" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D323" s="18" t="s">
         <v>120</v>
@@ -14553,13 +12400,10 @@
       </c>
       <c r="F323" s="18"/>
       <c r="G323" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="I323" s="1"/>
-      <c r="L323" s="54"/>
-      <c r="M323" s="54"/>
-    </row>
-    <row r="324" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="18">
         <v>320</v>
       </c>
@@ -14577,13 +12421,10 @@
       </c>
       <c r="F324" s="18"/>
       <c r="G324" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="I324" s="1"/>
-      <c r="L324" s="54"/>
-      <c r="M324" s="54"/>
-    </row>
-    <row r="325" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="18">
         <v>321</v>
       </c>
@@ -14603,13 +12444,10 @@
         <v>44093</v>
       </c>
       <c r="G325" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="I325" s="1"/>
-      <c r="L325" s="54"/>
-      <c r="M325" s="54"/>
-    </row>
-    <row r="326" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="18">
         <v>322</v>
       </c>
@@ -14627,13 +12465,10 @@
       </c>
       <c r="F326" s="18"/>
       <c r="G326" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="I326" s="1"/>
-      <c r="L326" s="54"/>
-      <c r="M326" s="54"/>
-    </row>
-    <row r="327" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="18">
         <v>323</v>
       </c>
@@ -14651,16 +12486,10 @@
       </c>
       <c r="F327" s="18"/>
       <c r="G327" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="I327" s="1"/>
-      <c r="J327" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="L327" s="54"/>
-      <c r="M327" s="54"/>
-    </row>
-    <row r="328" spans="1:15" s="56" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="18">
         <v>324</v>
       </c>
@@ -14678,19 +12507,8 @@
       </c>
       <c r="F328" s="18"/>
       <c r="G328" s="21"/>
-      <c r="I328" s="57"/>
-      <c r="J328" s="50" t="s">
-        <v>450</v>
-      </c>
-      <c r="L328" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="M328" s="58"/>
-      <c r="N328" s="56" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="329" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="18">
         <v>325</v>
       </c>
@@ -14698,10 +12516,10 @@
         <v>81</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E329" s="20">
         <v>44085</v>
@@ -14710,36 +12528,19 @@
         <v>44092</v>
       </c>
       <c r="G329" s="21"/>
-      <c r="I329" s="1" t="str">
-        <f t="shared" ref="I329" si="7">IF(COUNT(F329)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="J329" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="L329" s="52" t="s">
-        <v>440</v>
-      </c>
-      <c r="M329" s="54"/>
-      <c r="N329" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="O329" s="51" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="330" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="330" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="18">
         <v>326</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C330" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E330" s="20">
         <v>44085</v>
@@ -14748,19 +12549,8 @@
       <c r="G330" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I330" s="1"/>
-      <c r="J330" s="52" t="s">
-        <v>439</v>
-      </c>
-      <c r="L330" s="52">
-        <v>200</v>
-      </c>
-      <c r="M330" s="54"/>
-      <c r="O330" s="55" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="331" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="18">
         <v>327</v>
       </c>
@@ -14768,64 +12558,41 @@
         <v>83</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E331" s="20">
         <v>44085</v>
       </c>
       <c r="F331" s="18"/>
       <c r="G331" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="I331" s="1"/>
-      <c r="J331" s="52" t="s">
-        <v>436</v>
-      </c>
-      <c r="L331" s="52"/>
-      <c r="M331" s="54"/>
-      <c r="N331" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="O331" s="52" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="332" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="18">
         <v>328</v>
       </c>
       <c r="B332" s="34" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E332" s="20">
         <v>44085</v>
       </c>
       <c r="F332" s="18"/>
       <c r="G332" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="I332" s="1"/>
-      <c r="J332" s="53">
-        <f>COUNTIF(I3:I392,J331)</f>
-        <v>312</v>
-      </c>
-      <c r="L332" s="53"/>
-      <c r="M332" s="54"/>
-      <c r="O332" s="53">
-        <f>COUNTIF(N3:N373,O331)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="333" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="18">
         <v>329</v>
       </c>
@@ -14843,17 +12610,10 @@
       </c>
       <c r="F333" s="18"/>
       <c r="G333" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
-      <c r="K333" s="1"/>
-      <c r="L333" s="1"/>
-      <c r="M333" s="1"/>
-      <c r="N333" s="49"/>
-      <c r="O333" s="1"/>
-    </row>
-    <row r="334" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A334" s="18">
         <v>330</v>
       </c>
@@ -14871,17 +12631,10 @@
       </c>
       <c r="F334" s="18"/>
       <c r="G334" s="21" t="s">
-        <v>499</v>
-      </c>
-      <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
-      <c r="K334" s="1"/>
-      <c r="L334" s="1"/>
-      <c r="M334" s="1"/>
-      <c r="N334" s="49"/>
-      <c r="O334" s="1"/>
-    </row>
-    <row r="335" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A335" s="18">
         <v>331</v>
       </c>
@@ -14899,17 +12652,10 @@
       </c>
       <c r="F335" s="18"/>
       <c r="G335" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="I335" s="1"/>
-      <c r="J335" s="1"/>
-      <c r="K335" s="1"/>
-      <c r="L335" s="1"/>
-      <c r="M335" s="1"/>
-      <c r="N335" s="49"/>
-      <c r="O335" s="1"/>
-    </row>
-    <row r="336" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="18">
         <v>332</v>
       </c>
@@ -14927,17 +12673,10 @@
       </c>
       <c r="F336" s="18"/>
       <c r="G336" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="I336" s="1"/>
-      <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="1"/>
-      <c r="M336" s="1"/>
-      <c r="N336" s="49"/>
-      <c r="O336" s="1"/>
-    </row>
-    <row r="337" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="18">
         <v>333</v>
       </c>
@@ -14955,17 +12694,10 @@
       </c>
       <c r="F337" s="18"/>
       <c r="G337" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
-      <c r="M337" s="1"/>
-      <c r="N337" s="49"/>
-      <c r="O337" s="1"/>
-    </row>
-    <row r="338" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="18">
         <v>334</v>
       </c>
@@ -14983,17 +12715,10 @@
       </c>
       <c r="F338" s="18"/>
       <c r="G338" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="I338" s="1"/>
-      <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="1"/>
-      <c r="M338" s="1"/>
-      <c r="N338" s="49"/>
-      <c r="O338" s="1"/>
-    </row>
-    <row r="339" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="18">
         <v>335</v>
       </c>
@@ -15011,17 +12736,10 @@
       </c>
       <c r="F339" s="18"/>
       <c r="G339" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
-      <c r="M339" s="1"/>
-      <c r="N339" s="49"/>
-      <c r="O339" s="1"/>
-    </row>
-    <row r="340" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="18">
         <v>336</v>
       </c>
@@ -15041,20 +12759,10 @@
         <v>44092</v>
       </c>
       <c r="G340" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="I340" s="1" t="str">
-        <f t="shared" ref="I340" si="8">IF(COUNT(F340)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-      <c r="J340" s="1"/>
-      <c r="K340" s="1"/>
-      <c r="L340" s="1"/>
-      <c r="M340" s="1"/>
-      <c r="N340" s="49"/>
-      <c r="O340" s="1"/>
-    </row>
-    <row r="341" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="18">
         <v>337</v>
       </c>
@@ -15072,17 +12780,10 @@
       </c>
       <c r="F341" s="18"/>
       <c r="G341" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="I341" s="1"/>
-      <c r="J341" s="1"/>
-      <c r="K341" s="1"/>
-      <c r="L341" s="1"/>
-      <c r="M341" s="1"/>
-      <c r="N341" s="49"/>
-      <c r="O341" s="1"/>
-    </row>
-    <row r="342" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="18">
         <v>338</v>
       </c>
@@ -15102,15 +12803,8 @@
       <c r="G342" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I342" s="1"/>
-      <c r="J342" s="1"/>
-      <c r="K342" s="1"/>
-      <c r="L342" s="1"/>
-      <c r="M342" s="1"/>
-      <c r="N342" s="49"/>
-      <c r="O342" s="1"/>
-    </row>
-    <row r="343" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="343" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="18">
         <v>339</v>
       </c>
@@ -15128,17 +12822,10 @@
       </c>
       <c r="F343" s="18"/>
       <c r="G343" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="I343" s="1"/>
-      <c r="J343" s="1"/>
-      <c r="K343" s="1"/>
-      <c r="L343" s="1"/>
-      <c r="M343" s="1"/>
-      <c r="N343" s="59"/>
-      <c r="O343" s="1"/>
-    </row>
-    <row r="344" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="18">
         <v>340</v>
       </c>
@@ -15156,19 +12843,10 @@
       </c>
       <c r="F344" s="18"/>
       <c r="G344" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="I344" s="1"/>
-      <c r="J344" s="1"/>
-      <c r="K344" s="1"/>
-      <c r="L344" s="1"/>
-      <c r="M344" s="1"/>
-      <c r="N344" s="59" t="s">
-        <v>485</v>
-      </c>
-      <c r="O344" s="1"/>
-    </row>
-    <row r="345" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="18">
         <v>341</v>
       </c>
@@ -15186,17 +12864,10 @@
       </c>
       <c r="F345" s="18"/>
       <c r="G345" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="I345" s="1"/>
-      <c r="J345" s="1"/>
-      <c r="K345" s="1"/>
-      <c r="L345" s="1"/>
-      <c r="M345" s="1"/>
-      <c r="N345" s="59"/>
-      <c r="O345" s="1"/>
-    </row>
-    <row r="346" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="18">
         <v>342</v>
       </c>
@@ -15214,17 +12885,10 @@
       </c>
       <c r="F346" s="18"/>
       <c r="G346" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="I346" s="1"/>
-      <c r="J346" s="1"/>
-      <c r="K346" s="1"/>
-      <c r="L346" s="1"/>
-      <c r="M346" s="1"/>
-      <c r="N346" s="59"/>
-      <c r="O346" s="1"/>
-    </row>
-    <row r="347" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="18">
         <v>343</v>
       </c>
@@ -15242,17 +12906,10 @@
       </c>
       <c r="F347" s="18"/>
       <c r="G347" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
-      <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
-      <c r="M347" s="1"/>
-      <c r="N347" s="59"/>
-      <c r="O347" s="1"/>
-    </row>
-    <row r="348" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="18">
         <v>344</v>
       </c>
@@ -15270,17 +12927,10 @@
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="I348" s="1"/>
-      <c r="J348" s="1"/>
-      <c r="K348" s="1"/>
-      <c r="L348" s="1"/>
-      <c r="M348" s="1"/>
-      <c r="N348" s="59"/>
-      <c r="O348" s="1"/>
-    </row>
-    <row r="349" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="18">
         <v>345</v>
       </c>
@@ -15298,17 +12948,10 @@
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="I349" s="1"/>
-      <c r="J349" s="1"/>
-      <c r="K349" s="1"/>
-      <c r="L349" s="1"/>
-      <c r="M349" s="1"/>
-      <c r="N349" s="59"/>
-      <c r="O349" s="1"/>
-    </row>
-    <row r="350" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="18">
         <v>346</v>
       </c>
@@ -15326,17 +12969,10 @@
       </c>
       <c r="F350" s="18"/>
       <c r="G350" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="I350" s="1"/>
-      <c r="J350" s="1"/>
-      <c r="K350" s="1"/>
-      <c r="L350" s="1"/>
-      <c r="M350" s="1"/>
-      <c r="N350" s="59"/>
-      <c r="O350" s="1"/>
-    </row>
-    <row r="351" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="18">
         <v>347</v>
       </c>
@@ -15354,17 +12990,10 @@
       </c>
       <c r="F351" s="18"/>
       <c r="G351" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="I351" s="1"/>
-      <c r="J351" s="1"/>
-      <c r="K351" s="1"/>
-      <c r="L351" s="1"/>
-      <c r="M351" s="1"/>
-      <c r="N351" s="59"/>
-      <c r="O351" s="1"/>
-    </row>
-    <row r="352" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="18">
         <v>348</v>
       </c>
@@ -15382,17 +13011,10 @@
       </c>
       <c r="F352" s="18"/>
       <c r="G352" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="I352" s="1"/>
-      <c r="J352" s="1"/>
-      <c r="K352" s="1"/>
-      <c r="L352" s="1"/>
-      <c r="M352" s="1"/>
-      <c r="N352" s="59"/>
-      <c r="O352" s="1"/>
-    </row>
-    <row r="353" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="18">
         <v>349</v>
       </c>
@@ -15410,17 +13032,10 @@
       </c>
       <c r="F353" s="18"/>
       <c r="G353" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="I353" s="1"/>
-      <c r="J353" s="1"/>
-      <c r="K353" s="1"/>
-      <c r="L353" s="1"/>
-      <c r="M353" s="1"/>
-      <c r="N353" s="59"/>
-      <c r="O353" s="1"/>
-    </row>
-    <row r="354" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" s="18">
         <v>350</v>
       </c>
@@ -15438,17 +13053,10 @@
       </c>
       <c r="F354" s="18"/>
       <c r="G354" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="I354" s="1"/>
-      <c r="J354" s="1"/>
-      <c r="K354" s="1"/>
-      <c r="L354" s="1"/>
-      <c r="M354" s="1"/>
-      <c r="N354" s="59"/>
-      <c r="O354" s="1"/>
-    </row>
-    <row r="355" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A355" s="18">
         <v>351</v>
       </c>
@@ -15466,17 +13074,10 @@
       </c>
       <c r="F355" s="18"/>
       <c r="G355" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="I355" s="1"/>
-      <c r="J355" s="1"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
-      <c r="M355" s="1"/>
-      <c r="N355" s="59"/>
-      <c r="O355" s="1"/>
-    </row>
-    <row r="356" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="18">
         <v>352</v>
       </c>
@@ -15494,17 +13095,10 @@
       </c>
       <c r="F356" s="18"/>
       <c r="G356" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="I356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
-      <c r="M356" s="1"/>
-      <c r="N356" s="59"/>
-      <c r="O356" s="1"/>
-    </row>
-    <row r="357" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="18">
         <v>353</v>
       </c>
@@ -15522,17 +13116,10 @@
       </c>
       <c r="F357" s="18"/>
       <c r="G357" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="I357" s="1"/>
-      <c r="J357" s="1"/>
-      <c r="K357" s="1"/>
-      <c r="L357" s="1"/>
-      <c r="M357" s="1"/>
-      <c r="N357" s="59"/>
-      <c r="O357" s="1"/>
-    </row>
-    <row r="358" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="18">
         <v>354</v>
       </c>
@@ -15550,17 +13137,10 @@
       </c>
       <c r="F358" s="18"/>
       <c r="G358" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="1"/>
-      <c r="M358" s="1"/>
-      <c r="N358" s="59"/>
-      <c r="O358" s="1"/>
-    </row>
-    <row r="359" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="18">
         <v>355</v>
       </c>
@@ -15578,17 +13158,10 @@
       </c>
       <c r="F359" s="18"/>
       <c r="G359" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="I359" s="1"/>
-      <c r="J359" s="1"/>
-      <c r="K359" s="1"/>
-      <c r="L359" s="1"/>
-      <c r="M359" s="1"/>
-      <c r="N359" s="59"/>
-      <c r="O359" s="1"/>
-    </row>
-    <row r="360" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="18">
         <v>356</v>
       </c>
@@ -15606,17 +13179,10 @@
       </c>
       <c r="F360" s="18"/>
       <c r="G360" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="I360" s="1"/>
-      <c r="J360" s="1"/>
-      <c r="K360" s="1"/>
-      <c r="L360" s="1"/>
-      <c r="M360" s="1"/>
-      <c r="N360" s="59"/>
-      <c r="O360" s="1"/>
-    </row>
-    <row r="361" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="18">
         <v>357</v>
       </c>
@@ -15634,17 +13200,10 @@
       </c>
       <c r="F361" s="18"/>
       <c r="G361" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="I361" s="1"/>
-      <c r="J361" s="1"/>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1"/>
-      <c r="M361" s="1"/>
-      <c r="N361" s="59"/>
-      <c r="O361" s="1"/>
-    </row>
-    <row r="362" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="18">
         <v>358</v>
       </c>
@@ -15662,17 +13221,10 @@
       </c>
       <c r="F362" s="18"/>
       <c r="G362" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="I362" s="1"/>
-      <c r="J362" s="1"/>
-      <c r="K362" s="1"/>
-      <c r="L362" s="1"/>
-      <c r="M362" s="1"/>
-      <c r="N362" s="59"/>
-      <c r="O362" s="1"/>
-    </row>
-    <row r="363" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="18">
         <v>359</v>
       </c>
@@ -15690,17 +13242,10 @@
       </c>
       <c r="F363" s="18"/>
       <c r="G363" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="I363" s="1"/>
-      <c r="J363" s="1"/>
-      <c r="K363" s="1"/>
-      <c r="L363" s="1"/>
-      <c r="M363" s="1"/>
-      <c r="N363" s="59"/>
-      <c r="O363" s="1"/>
-    </row>
-    <row r="364" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="18">
         <v>360</v>
       </c>
@@ -15718,17 +13263,10 @@
       </c>
       <c r="F364" s="18"/>
       <c r="G364" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="I364" s="1"/>
-      <c r="J364" s="1"/>
-      <c r="K364" s="1"/>
-      <c r="L364" s="1"/>
-      <c r="M364" s="1"/>
-      <c r="N364" s="60"/>
-      <c r="O364" s="1"/>
-    </row>
-    <row r="365" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="18">
         <v>361</v>
       </c>
@@ -15746,17 +13284,10 @@
       </c>
       <c r="F365" s="18"/>
       <c r="G365" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="I365" s="1"/>
-      <c r="J365" s="1"/>
-      <c r="K365" s="1"/>
-      <c r="L365" s="1"/>
-      <c r="M365" s="1"/>
-      <c r="N365" s="60"/>
-      <c r="O365" s="1"/>
-    </row>
-    <row r="366" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="18">
         <v>362</v>
       </c>
@@ -15774,17 +13305,10 @@
       </c>
       <c r="F366" s="18"/>
       <c r="G366" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="I366" s="1"/>
-      <c r="J366" s="1"/>
-      <c r="K366" s="1"/>
-      <c r="L366" s="1"/>
-      <c r="M366" s="1"/>
-      <c r="N366" s="60"/>
-      <c r="O366" s="1"/>
-    </row>
-    <row r="367" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="18">
         <v>363</v>
       </c>
@@ -15802,17 +13326,10 @@
       </c>
       <c r="F367" s="18"/>
       <c r="G367" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="I367" s="1"/>
-      <c r="J367" s="1"/>
-      <c r="K367" s="1"/>
-      <c r="L367" s="1"/>
-      <c r="M367" s="1"/>
-      <c r="N367" s="60"/>
-      <c r="O367" s="1"/>
-    </row>
-    <row r="368" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="18">
         <v>364</v>
       </c>
@@ -15830,17 +13347,10 @@
       </c>
       <c r="F368" s="18"/>
       <c r="G368" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="I368" s="1"/>
-      <c r="J368" s="1"/>
-      <c r="K368" s="1"/>
-      <c r="L368" s="1"/>
-      <c r="M368" s="1"/>
-      <c r="N368" s="60"/>
-      <c r="O368" s="1"/>
-    </row>
-    <row r="369" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="18">
         <v>365</v>
       </c>
@@ -15858,22 +13368,15 @@
       </c>
       <c r="F369" s="18"/>
       <c r="G369" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="I369" s="1"/>
-      <c r="J369" s="1"/>
-      <c r="K369" s="1"/>
-      <c r="L369" s="1"/>
-      <c r="M369" s="1"/>
-      <c r="N369" s="60"/>
-      <c r="O369" s="1"/>
-    </row>
-    <row r="370" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="18">
         <v>366</v>
       </c>
       <c r="B370" s="34" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C370" s="19" t="s">
         <v>70</v>
@@ -15886,17 +13389,10 @@
       </c>
       <c r="F370" s="18"/>
       <c r="G370" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="I370" s="1"/>
-      <c r="J370" s="1"/>
-      <c r="K370" s="1"/>
-      <c r="L370" s="1"/>
-      <c r="M370" s="1"/>
-      <c r="N370" s="60"/>
-      <c r="O370" s="1"/>
-    </row>
-    <row r="371" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="18">
         <v>367</v>
       </c>
@@ -15914,17 +13410,8 @@
       </c>
       <c r="F371" s="18"/>
       <c r="G371" s="21"/>
-      <c r="I371" s="1"/>
-      <c r="J371" s="1"/>
-      <c r="K371" s="1"/>
-      <c r="L371" s="1"/>
-      <c r="M371" s="1"/>
-      <c r="N371" s="60" t="s">
-        <v>494</v>
-      </c>
-      <c r="O371" s="1"/>
-    </row>
-    <row r="372" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="372" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="18">
         <v>368</v>
       </c>
@@ -15942,45 +13429,27 @@
       </c>
       <c r="F372" s="18"/>
       <c r="G372" s="21"/>
-      <c r="I372" s="1"/>
-      <c r="J372" s="1"/>
-      <c r="K372" s="1"/>
-      <c r="L372" s="1"/>
-      <c r="M372" s="1"/>
-      <c r="N372" s="62" t="s">
-        <v>442</v>
-      </c>
-      <c r="O372" s="1"/>
-    </row>
-    <row r="373" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="373" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="18">
         <v>369</v>
       </c>
       <c r="B373" s="34" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="D373" s="18" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="E373" s="20">
         <v>44090</v>
       </c>
       <c r="F373" s="18"/>
       <c r="G373" s="21"/>
-      <c r="I373" s="1"/>
-      <c r="J373" s="1"/>
-      <c r="K373" s="1"/>
-      <c r="L373" s="1"/>
-      <c r="M373" s="1"/>
-      <c r="N373" s="61" t="s">
-        <v>442</v>
-      </c>
-      <c r="O373" s="1"/>
-    </row>
-    <row r="374" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="374" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="18">
         <v>370</v>
       </c>
@@ -15998,17 +13467,10 @@
       </c>
       <c r="F374" s="18"/>
       <c r="G374" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="I374" s="1"/>
-      <c r="J374" s="1"/>
-      <c r="K374" s="1"/>
-      <c r="L374" s="1"/>
-      <c r="M374" s="1"/>
-      <c r="N374" s="63"/>
-      <c r="O374" s="1"/>
-    </row>
-    <row r="375" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="18">
         <v>371</v>
       </c>
@@ -16026,17 +13488,10 @@
       </c>
       <c r="F375" s="18"/>
       <c r="G375" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="I375" s="1"/>
-      <c r="J375" s="1"/>
-      <c r="K375" s="1"/>
-      <c r="L375" s="1"/>
-      <c r="M375" s="1"/>
-      <c r="N375" s="63"/>
-      <c r="O375" s="1"/>
-    </row>
-    <row r="376" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="18">
         <v>372</v>
       </c>
@@ -16054,17 +13509,10 @@
       </c>
       <c r="F376" s="18"/>
       <c r="G376" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="I376" s="1"/>
-      <c r="J376" s="1"/>
-      <c r="K376" s="1"/>
-      <c r="L376" s="1"/>
-      <c r="M376" s="1"/>
-      <c r="N376" s="63"/>
-      <c r="O376" s="1"/>
-    </row>
-    <row r="377" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="18">
         <v>373</v>
       </c>
@@ -16082,17 +13530,10 @@
       </c>
       <c r="F377" s="18"/>
       <c r="G377" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="I377" s="1"/>
-      <c r="J377" s="1"/>
-      <c r="K377" s="1"/>
-      <c r="L377" s="1"/>
-      <c r="M377" s="1"/>
-      <c r="N377" s="63"/>
-      <c r="O377" s="1"/>
-    </row>
-    <row r="378" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="18">
         <v>374</v>
       </c>
@@ -16110,17 +13551,10 @@
       </c>
       <c r="F378" s="18"/>
       <c r="G378" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="I378" s="1"/>
-      <c r="J378" s="1"/>
-      <c r="K378" s="1"/>
-      <c r="L378" s="1"/>
-      <c r="M378" s="1"/>
-      <c r="N378" s="63"/>
-      <c r="O378" s="1"/>
-    </row>
-    <row r="379" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="18">
         <v>375</v>
       </c>
@@ -16138,44 +13572,31 @@
       </c>
       <c r="F379" s="18"/>
       <c r="G379" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="I379" s="1"/>
-      <c r="J379" s="1"/>
-      <c r="K379" s="1"/>
-      <c r="L379" s="1"/>
-      <c r="M379" s="1"/>
-      <c r="N379" s="64"/>
-      <c r="O379" s="1"/>
-    </row>
-    <row r="380" spans="1:15" s="56" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="18">
         <v>376</v>
       </c>
       <c r="B380" s="34" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C380" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D380" s="18" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="E380" s="20">
         <v>44092</v>
       </c>
       <c r="F380" s="18"/>
       <c r="G380" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="I380" s="57"/>
-      <c r="J380" s="57"/>
-      <c r="K380" s="57"/>
-      <c r="L380" s="57"/>
-      <c r="M380" s="57"/>
-      <c r="O380" s="57"/>
-    </row>
-    <row r="381" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="27">
         <v>377</v>
       </c>
@@ -16193,21 +13614,15 @@
       </c>
       <c r="F381" s="27"/>
       <c r="G381" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="I381" s="70"/>
-      <c r="J381" s="70"/>
-      <c r="K381" s="70"/>
-      <c r="L381" s="70"/>
-      <c r="M381" s="70"/>
-      <c r="O381" s="70"/>
-    </row>
-    <row r="382" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="27">
         <v>378</v>
       </c>
       <c r="B382" s="36" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C382" s="25" t="s">
         <v>67</v>
@@ -16220,16 +13635,10 @@
       </c>
       <c r="F382" s="27"/>
       <c r="G382" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="I382" s="70"/>
-      <c r="J382" s="70"/>
-      <c r="K382" s="70"/>
-      <c r="L382" s="70"/>
-      <c r="M382" s="70"/>
-      <c r="O382" s="70"/>
-    </row>
-    <row r="383" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="27">
         <v>379</v>
       </c>
@@ -16247,24 +13656,18 @@
       </c>
       <c r="F383" s="27"/>
       <c r="G383" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="I383" s="70"/>
-      <c r="J383" s="70"/>
-      <c r="K383" s="70"/>
-      <c r="L383" s="70"/>
-      <c r="M383" s="70"/>
-      <c r="O383" s="70"/>
-    </row>
-    <row r="384" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="27">
         <v>380</v>
       </c>
       <c r="B384" s="36" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C384" s="25" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D384" s="27" t="s">
         <v>134</v>
@@ -16274,24 +13677,18 @@
       </c>
       <c r="F384" s="27"/>
       <c r="G384" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="I384" s="70"/>
-      <c r="J384" s="70"/>
-      <c r="K384" s="70"/>
-      <c r="L384" s="70"/>
-      <c r="M384" s="70"/>
-      <c r="O384" s="70"/>
-    </row>
-    <row r="385" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="27">
         <v>381</v>
       </c>
       <c r="B385" s="36" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C385" s="25" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="D385" s="27" t="s">
         <v>134</v>
@@ -16301,22 +13698,16 @@
       </c>
       <c r="F385" s="27"/>
       <c r="G385" s="28"/>
-      <c r="I385" s="70"/>
-      <c r="J385" s="70"/>
-      <c r="K385" s="70"/>
-      <c r="L385" s="70"/>
-      <c r="M385" s="70"/>
-      <c r="O385" s="70"/>
-    </row>
-    <row r="386" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="386" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="27">
         <v>382</v>
       </c>
       <c r="B386" s="36" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C386" s="25" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D386" s="27" t="s">
         <v>134</v>
@@ -16326,24 +13717,18 @@
       </c>
       <c r="F386" s="27"/>
       <c r="G386" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="I386" s="70"/>
-      <c r="J386" s="70"/>
-      <c r="K386" s="70"/>
-      <c r="L386" s="70"/>
-      <c r="M386" s="70"/>
-      <c r="O386" s="70"/>
-    </row>
-    <row r="387" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="27">
         <v>383</v>
       </c>
       <c r="B387" s="36" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C387" s="25" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="D387" s="27" t="s">
         <v>134</v>
@@ -16353,16 +13738,10 @@
       </c>
       <c r="F387" s="27"/>
       <c r="G387" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="I387" s="70"/>
-      <c r="J387" s="70"/>
-      <c r="K387" s="70"/>
-      <c r="L387" s="70"/>
-      <c r="M387" s="70"/>
-      <c r="O387" s="70"/>
-    </row>
-    <row r="388" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="27">
         <v>384</v>
       </c>
@@ -16380,16 +13759,10 @@
       </c>
       <c r="F388" s="27"/>
       <c r="G388" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="I388" s="70"/>
-      <c r="J388" s="70"/>
-      <c r="K388" s="70"/>
-      <c r="L388" s="70"/>
-      <c r="M388" s="70"/>
-      <c r="O388" s="70"/>
-    </row>
-    <row r="389" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="27">
         <v>385</v>
       </c>
@@ -16407,87 +13780,62 @@
       </c>
       <c r="F389" s="27"/>
       <c r="G389" s="28"/>
-      <c r="I389" s="70"/>
-      <c r="J389" s="70"/>
-      <c r="K389" s="70"/>
-      <c r="L389" s="70"/>
-      <c r="M389" s="70"/>
-      <c r="O389" s="70"/>
-    </row>
-    <row r="390" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A390" s="65">
+    </row>
+    <row r="390" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A390" s="52">
         <v>386</v>
       </c>
-      <c r="B390" s="66" t="s">
+      <c r="B390" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C390" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="D390" s="65" t="s">
+      <c r="C390" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D390" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E390" s="68">
+      <c r="E390" s="55">
         <v>44094</v>
       </c>
-      <c r="F390" s="65"/>
-      <c r="G390" s="69" t="s">
-        <v>531</v>
-      </c>
-      <c r="I390" s="70"/>
-      <c r="J390" s="70"/>
-      <c r="K390" s="70"/>
-      <c r="L390" s="70"/>
-      <c r="M390" s="70"/>
-      <c r="O390" s="70"/>
-    </row>
-    <row r="391" spans="1:15" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A391" s="65">
+      <c r="F390" s="52"/>
+      <c r="G390" s="56" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A391" s="52">
         <v>387</v>
       </c>
-      <c r="B391" s="66" t="s">
+      <c r="B391" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C391" s="67" t="s">
+      <c r="C391" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D391" s="65" t="s">
+      <c r="D391" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E391" s="68">
+      <c r="E391" s="55">
         <v>44094</v>
       </c>
-      <c r="F391" s="65"/>
-      <c r="G391" s="69" t="s">
-        <v>530</v>
-      </c>
-      <c r="I391" s="70"/>
-      <c r="J391" s="70"/>
-      <c r="K391" s="70"/>
-      <c r="L391" s="70"/>
-      <c r="M391" s="70"/>
-      <c r="O391" s="70"/>
-    </row>
-    <row r="392" spans="1:15" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A392" s="73" t="s">
+      <c r="F391" s="52"/>
+      <c r="G391" s="56" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A392" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B392" s="73"/>
-      <c r="C392" s="73"/>
-      <c r="D392" s="73"/>
-      <c r="E392" s="73"/>
-      <c r="F392" s="73"/>
-      <c r="G392" s="73"/>
-    </row>
-    <row r="393" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I393" s="1" t="str">
-        <f t="shared" ref="I393" si="9">IF(COUNT(F393)&gt;=1,"退院済み","")</f>
-        <v/>
-      </c>
+      <c r="B392" s="58"/>
+      <c r="C392" s="58"/>
+      <c r="D392" s="58"/>
+      <c r="E392" s="58"/>
+      <c r="F392" s="58"/>
+      <c r="G392" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I20:I21"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A392:G392"/>
     <mergeCell ref="A20:A21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200920\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0264687\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$392</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$405</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="540">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -4464,6 +4464,146 @@
     <t>No.374の接触者</t>
     <rPh sb="7" eb="10">
       <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐野市</t>
+    <rPh sb="0" eb="3">
+      <t>サノシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿沼市</t>
+    <rPh sb="0" eb="3">
+      <t>カヌマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.379の知人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.380の妻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.386の妻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.399の母</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.380・390の孫、No.391の子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.382・383の子、No.338の妹</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.380・390の子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.384・395の姉</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.384・394の妹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.385・398・399の同級生</t>
+    <rPh sb="15" eb="18">
+      <t>ドウキュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.385・397・399の同級生</t>
+    <rPh sb="15" eb="18">
+      <t>ドウキュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.385・397・398の同級生</t>
+    <rPh sb="15" eb="18">
+      <t>ドウキュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5107,11 +5247,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G405"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:AO1048576"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12778,7 +12918,9 @@
       <c r="E341" s="20">
         <v>44086</v>
       </c>
-      <c r="F341" s="18"/>
+      <c r="F341" s="20">
+        <v>44095</v>
+      </c>
       <c r="G341" s="21" t="s">
         <v>465</v>
       </c>
@@ -13782,62 +13924,335 @@
       <c r="G389" s="28"/>
     </row>
     <row r="390" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A390" s="52">
+      <c r="A390" s="27">
         <v>386</v>
       </c>
-      <c r="B390" s="53" t="s">
+      <c r="B390" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C390" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D390" s="52" t="s">
+      <c r="C390" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D390" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E390" s="55">
+      <c r="E390" s="37">
         <v>44094</v>
       </c>
-      <c r="F390" s="52"/>
-      <c r="G390" s="56" t="s">
+      <c r="F390" s="27"/>
+      <c r="G390" s="28" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="391" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A391" s="52">
+      <c r="A391" s="27">
         <v>387</v>
       </c>
-      <c r="B391" s="53" t="s">
+      <c r="B391" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C391" s="54" t="s">
+      <c r="C391" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D391" s="52" t="s">
+      <c r="D391" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E391" s="55">
+      <c r="E391" s="37">
         <v>44094</v>
       </c>
-      <c r="F391" s="52"/>
-      <c r="G391" s="56" t="s">
+      <c r="F391" s="27"/>
+      <c r="G391" s="28" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A392" s="58" t="s">
+    <row r="392" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A392" s="52">
+        <v>388</v>
+      </c>
+      <c r="B392" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C392" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="D392" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E392" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F392" s="52"/>
+      <c r="G392" s="56" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A393" s="52">
+        <v>389</v>
+      </c>
+      <c r="B393" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C393" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="D393" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E393" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F393" s="52"/>
+      <c r="G393" s="56" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A394" s="52">
+        <v>390</v>
+      </c>
+      <c r="B394" s="53" t="s">
+        <v>520</v>
+      </c>
+      <c r="C394" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="D394" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E394" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F394" s="52"/>
+      <c r="G394" s="56" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A395" s="52">
+        <v>391</v>
+      </c>
+      <c r="B395" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C395" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="D395" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E395" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F395" s="52"/>
+      <c r="G395" s="56" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A396" s="52">
+        <v>392</v>
+      </c>
+      <c r="B396" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C396" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D396" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E396" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F396" s="52"/>
+      <c r="G396" s="56" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A397" s="52">
+        <v>393</v>
+      </c>
+      <c r="B397" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C397" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D397" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E397" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F397" s="52"/>
+      <c r="G397" s="56" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A398" s="52">
+        <v>394</v>
+      </c>
+      <c r="B398" s="53" t="s">
+        <v>520</v>
+      </c>
+      <c r="C398" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="D398" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E398" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F398" s="52"/>
+      <c r="G398" s="56" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A399" s="52">
+        <v>395</v>
+      </c>
+      <c r="B399" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="C399" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="D399" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E399" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F399" s="52"/>
+      <c r="G399" s="56" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A400" s="52">
+        <v>396</v>
+      </c>
+      <c r="B400" s="53" t="s">
+        <v>522</v>
+      </c>
+      <c r="C400" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="D400" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E400" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F400" s="52"/>
+      <c r="G400" s="56" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A401" s="52">
+        <v>397</v>
+      </c>
+      <c r="B401" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="C401" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="D401" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="E401" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F401" s="52"/>
+      <c r="G401" s="56" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A402" s="52">
+        <v>398</v>
+      </c>
+      <c r="B402" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="C402" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="D402" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="E402" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F402" s="52"/>
+      <c r="G402" s="56" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A403" s="52">
+        <v>399</v>
+      </c>
+      <c r="B403" s="53" t="s">
+        <v>524</v>
+      </c>
+      <c r="C403" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="D403" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="E403" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F403" s="52"/>
+      <c r="G403" s="56" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A404" s="52">
+        <v>400</v>
+      </c>
+      <c r="B404" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="C404" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="D404" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="E404" s="55">
+        <v>44095</v>
+      </c>
+      <c r="F404" s="52"/>
+      <c r="G404" s="56" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A405" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B392" s="58"/>
-      <c r="C392" s="58"/>
-      <c r="D392" s="58"/>
-      <c r="E392" s="58"/>
-      <c r="F392" s="58"/>
-      <c r="G392" s="58"/>
+      <c r="B405" s="58"/>
+      <c r="C405" s="58"/>
+      <c r="D405" s="58"/>
+      <c r="E405" s="58"/>
+      <c r="F405" s="58"/>
+      <c r="G405" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A392:G392"/>
+    <mergeCell ref="A405:G405"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -13847,7 +14262,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="6" man="1"/>
     <brk id="78" max="6" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0264687\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200922\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$405</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$407</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="544">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -4601,7 +4601,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.385・397・398の同級生</t>
+    <t>10歳未満</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小山市</t>
+    <rPh sb="0" eb="3">
+      <t>オヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足利市</t>
+    <rPh sb="0" eb="3">
+      <t>アシカガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.385・397・398の同級生、No.400の子</t>
     <rPh sb="15" eb="18">
       <t>ドウキュウセイ</t>
     </rPh>
@@ -5247,11 +5272,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G405"/>
+  <dimension ref="A1:G407"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A406" sqref="A406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5261,7 +5286,8 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.75" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -12645,7 +12671,9 @@
       <c r="E328" s="20">
         <v>44085</v>
       </c>
-      <c r="F328" s="18"/>
+      <c r="F328" s="20">
+        <v>44096</v>
+      </c>
       <c r="G328" s="21"/>
     </row>
     <row r="329" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13966,293 +13994,331 @@
       </c>
     </row>
     <row r="392" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A392" s="52">
+      <c r="A392" s="27">
         <v>388</v>
       </c>
-      <c r="B392" s="53" t="s">
+      <c r="B392" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="C392" s="54" t="s">
+      <c r="C392" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="D392" s="52" t="s">
+      <c r="D392" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="E392" s="55">
+      <c r="E392" s="37">
         <v>44095</v>
       </c>
-      <c r="F392" s="52"/>
-      <c r="G392" s="56" t="s">
+      <c r="F392" s="27"/>
+      <c r="G392" s="28" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="393" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A393" s="52">
+      <c r="A393" s="27">
         <v>389</v>
       </c>
-      <c r="B393" s="53" t="s">
+      <c r="B393" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C393" s="54" t="s">
+      <c r="C393" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D393" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="E393" s="37">
+        <v>44095</v>
+      </c>
+      <c r="F393" s="27"/>
+      <c r="G393" s="28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A394" s="27">
+        <v>390</v>
+      </c>
+      <c r="B394" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="C394" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="D393" s="52" t="s">
+      <c r="D394" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="E393" s="55">
+      <c r="E394" s="37">
         <v>44095</v>
       </c>
-      <c r="F393" s="52"/>
-      <c r="G393" s="56" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A394" s="52">
-        <v>390</v>
-      </c>
-      <c r="B394" s="53" t="s">
+      <c r="F394" s="27"/>
+      <c r="G394" s="28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A395" s="27">
+        <v>391</v>
+      </c>
+      <c r="B395" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="C395" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="D395" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="E395" s="37">
+        <v>44095</v>
+      </c>
+      <c r="F395" s="27"/>
+      <c r="G395" s="28" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A396" s="27">
+        <v>392</v>
+      </c>
+      <c r="B396" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C396" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D396" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="E396" s="37">
+        <v>44095</v>
+      </c>
+      <c r="F396" s="27"/>
+      <c r="G396" s="28" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A397" s="27">
+        <v>393</v>
+      </c>
+      <c r="B397" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C397" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D397" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="E397" s="37">
+        <v>44095</v>
+      </c>
+      <c r="F397" s="27"/>
+      <c r="G397" s="28" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A398" s="27">
+        <v>394</v>
+      </c>
+      <c r="B398" s="36" t="s">
         <v>520</v>
       </c>
-      <c r="C394" s="54" t="s">
+      <c r="C398" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="D394" s="52" t="s">
+      <c r="D398" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="E394" s="55">
+      <c r="E398" s="37">
         <v>44095</v>
       </c>
-      <c r="F394" s="52"/>
-      <c r="G394" s="56" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A395" s="52">
-        <v>391</v>
-      </c>
-      <c r="B395" s="53" t="s">
-        <v>521</v>
-      </c>
-      <c r="C395" s="54" t="s">
+      <c r="F398" s="27"/>
+      <c r="G398" s="28" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A399" s="27">
+        <v>395</v>
+      </c>
+      <c r="B399" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="C399" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="D395" s="52" t="s">
+      <c r="D399" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="E395" s="55">
+      <c r="E399" s="37">
         <v>44095</v>
       </c>
-      <c r="F395" s="52"/>
-      <c r="G395" s="56" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A396" s="52">
-        <v>392</v>
-      </c>
-      <c r="B396" s="53" t="s">
-        <v>517</v>
-      </c>
-      <c r="C396" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D396" s="52" t="s">
+      <c r="F399" s="27"/>
+      <c r="G399" s="28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A400" s="27">
+        <v>396</v>
+      </c>
+      <c r="B400" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="C400" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="D400" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="E396" s="55">
+      <c r="E400" s="37">
         <v>44095</v>
       </c>
-      <c r="F396" s="52"/>
-      <c r="G396" s="56" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A397" s="52">
-        <v>393</v>
-      </c>
-      <c r="B397" s="53" t="s">
-        <v>517</v>
-      </c>
-      <c r="C397" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D397" s="52" t="s">
-        <v>519</v>
-      </c>
-      <c r="E397" s="55">
+      <c r="F400" s="27"/>
+      <c r="G400" s="28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A401" s="27">
+        <v>397</v>
+      </c>
+      <c r="B401" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C401" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D401" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="E401" s="37">
         <v>44095</v>
       </c>
-      <c r="F397" s="52"/>
-      <c r="G397" s="56" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A398" s="52">
-        <v>394</v>
-      </c>
-      <c r="B398" s="53" t="s">
-        <v>520</v>
-      </c>
-      <c r="C398" s="54" t="s">
-        <v>518</v>
-      </c>
-      <c r="D398" s="52" t="s">
-        <v>519</v>
-      </c>
-      <c r="E398" s="55">
+      <c r="F401" s="27"/>
+      <c r="G401" s="28" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A402" s="27">
+        <v>398</v>
+      </c>
+      <c r="B402" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C402" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D402" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="E402" s="37">
         <v>44095</v>
       </c>
-      <c r="F398" s="52"/>
-      <c r="G398" s="56" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A399" s="52">
-        <v>395</v>
-      </c>
-      <c r="B399" s="53" t="s">
-        <v>522</v>
-      </c>
-      <c r="C399" s="54" t="s">
-        <v>518</v>
-      </c>
-      <c r="D399" s="52" t="s">
-        <v>519</v>
-      </c>
-      <c r="E399" s="55">
+      <c r="F402" s="27"/>
+      <c r="G402" s="28" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A403" s="27">
+        <v>399</v>
+      </c>
+      <c r="B403" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C403" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D403" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="E403" s="37">
         <v>44095</v>
       </c>
-      <c r="F399" s="52"/>
-      <c r="G399" s="56" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A400" s="52">
-        <v>396</v>
-      </c>
-      <c r="B400" s="53" t="s">
-        <v>522</v>
-      </c>
-      <c r="C400" s="54" t="s">
-        <v>518</v>
-      </c>
-      <c r="D400" s="52" t="s">
-        <v>519</v>
-      </c>
-      <c r="E400" s="55">
+      <c r="F403" s="27"/>
+      <c r="G403" s="28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A404" s="27">
+        <v>400</v>
+      </c>
+      <c r="B404" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="C404" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D404" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="E404" s="37">
         <v>44095</v>
       </c>
-      <c r="F400" s="52"/>
-      <c r="G400" s="56" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A401" s="52">
-        <v>397</v>
-      </c>
-      <c r="B401" s="53" t="s">
-        <v>524</v>
-      </c>
-      <c r="C401" s="54" t="s">
-        <v>530</v>
-      </c>
-      <c r="D401" s="52" t="s">
-        <v>525</v>
-      </c>
-      <c r="E401" s="55">
+      <c r="F404" s="27"/>
+      <c r="G404" s="28" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A405" s="52">
+        <v>401</v>
+      </c>
+      <c r="B405" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="C405" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D405" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="E405" s="55">
         <v>44095</v>
       </c>
-      <c r="F401" s="52"/>
-      <c r="G401" s="56" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A402" s="52">
-        <v>398</v>
-      </c>
-      <c r="B402" s="53" t="s">
-        <v>524</v>
-      </c>
-      <c r="C402" s="54" t="s">
-        <v>530</v>
-      </c>
-      <c r="D402" s="52" t="s">
-        <v>525</v>
-      </c>
-      <c r="E402" s="55">
-        <v>44095</v>
-      </c>
-      <c r="F402" s="52"/>
-      <c r="G402" s="56" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A403" s="52">
-        <v>399</v>
-      </c>
-      <c r="B403" s="53" t="s">
-        <v>524</v>
-      </c>
-      <c r="C403" s="54" t="s">
-        <v>530</v>
-      </c>
-      <c r="D403" s="52" t="s">
-        <v>525</v>
-      </c>
-      <c r="E403" s="55">
-        <v>44095</v>
-      </c>
-      <c r="F403" s="52"/>
-      <c r="G403" s="56" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A404" s="52">
-        <v>400</v>
-      </c>
-      <c r="B404" s="53" t="s">
-        <v>531</v>
-      </c>
-      <c r="C404" s="54" t="s">
-        <v>523</v>
-      </c>
-      <c r="D404" s="52" t="s">
-        <v>525</v>
-      </c>
-      <c r="E404" s="55">
-        <v>44095</v>
-      </c>
-      <c r="F404" s="52"/>
-      <c r="G404" s="56" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A405" s="58" t="s">
+      <c r="F405" s="52"/>
+      <c r="G405" s="56"/>
+    </row>
+    <row r="406" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A406" s="52">
+        <v>402</v>
+      </c>
+      <c r="B406" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C406" s="54" t="s">
+        <v>540</v>
+      </c>
+      <c r="D406" s="52" t="s">
+        <v>542</v>
+      </c>
+      <c r="E406" s="55">
+        <v>44096</v>
+      </c>
+      <c r="F406" s="52"/>
+      <c r="G406" s="56"/>
+    </row>
+    <row r="407" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A407" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B405" s="58"/>
-      <c r="C405" s="58"/>
-      <c r="D405" s="58"/>
-      <c r="E405" s="58"/>
-      <c r="F405" s="58"/>
-      <c r="G405" s="58"/>
+      <c r="B407" s="58"/>
+      <c r="C407" s="58"/>
+      <c r="D407" s="58"/>
+      <c r="E407" s="58"/>
+      <c r="F407" s="58"/>
+      <c r="G407" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A405:G405"/>
+    <mergeCell ref="A407:G407"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -14262,7 +14328,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="6" man="1"/>
     <brk id="78" max="6" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200922\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\06_県政記者クラブ発表\20200923(陽性403～)\記者会見\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$407</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$413</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="547">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -4629,6 +4629,33 @@
     <t>No.385・397・398の同級生、No.400の子</t>
     <rPh sb="15" eb="18">
       <t>ドウキュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.399の弟・400の子</t>
+    <rPh sb="7" eb="8">
+      <t>オトウト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.355の夫、No.335・356の父</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.380・384・394・395の同僚</t>
+    <rPh sb="19" eb="21">
+      <t>ドウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5272,11 +5299,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G407"/>
+  <dimension ref="A1:G413"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A406" sqref="A406"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5286,8 +5313,7 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -12522,7 +12548,9 @@
       <c r="E321" s="20">
         <v>44083</v>
       </c>
-      <c r="F321" s="18"/>
+      <c r="F321" s="20">
+        <v>44097</v>
+      </c>
       <c r="G321" s="24" t="s">
         <v>451</v>
       </c>
@@ -12543,7 +12571,9 @@
       <c r="E322" s="20">
         <v>44083</v>
       </c>
-      <c r="F322" s="18"/>
+      <c r="F322" s="20">
+        <v>44097</v>
+      </c>
       <c r="G322" s="24" t="s">
         <v>452</v>
       </c>
@@ -12564,7 +12594,9 @@
       <c r="E323" s="20">
         <v>44083</v>
       </c>
-      <c r="F323" s="18"/>
+      <c r="F323" s="20">
+        <v>44097</v>
+      </c>
       <c r="G323" s="24" t="s">
         <v>452</v>
       </c>
@@ -12839,7 +12871,9 @@
       <c r="E336" s="20">
         <v>44086</v>
       </c>
-      <c r="F336" s="18"/>
+      <c r="F336" s="20">
+        <v>44097</v>
+      </c>
       <c r="G336" s="21" t="s">
         <v>464</v>
       </c>
@@ -12881,7 +12915,9 @@
       <c r="E338" s="20">
         <v>44086</v>
       </c>
-      <c r="F338" s="18"/>
+      <c r="F338" s="20">
+        <v>44097</v>
+      </c>
       <c r="G338" s="21" t="s">
         <v>485</v>
       </c>
@@ -12902,7 +12938,9 @@
       <c r="E339" s="20">
         <v>44086</v>
       </c>
-      <c r="F339" s="18"/>
+      <c r="F339" s="20">
+        <v>44097</v>
+      </c>
       <c r="G339" s="21" t="s">
         <v>485</v>
       </c>
@@ -13242,7 +13280,9 @@
       <c r="E355" s="20">
         <v>44088</v>
       </c>
-      <c r="F355" s="18"/>
+      <c r="F355" s="20">
+        <v>44097</v>
+      </c>
       <c r="G355" s="21" t="s">
         <v>471</v>
       </c>
@@ -13284,7 +13324,9 @@
       <c r="E357" s="20">
         <v>44088</v>
       </c>
-      <c r="F357" s="18"/>
+      <c r="F357" s="20">
+        <v>44097</v>
+      </c>
       <c r="G357" s="21" t="s">
         <v>477</v>
       </c>
@@ -13305,7 +13347,9 @@
       <c r="E358" s="20">
         <v>44088</v>
       </c>
-      <c r="F358" s="18"/>
+      <c r="F358" s="20">
+        <v>44097</v>
+      </c>
       <c r="G358" s="21" t="s">
         <v>472</v>
       </c>
@@ -13473,7 +13517,9 @@
       <c r="E366" s="20">
         <v>44089</v>
       </c>
-      <c r="F366" s="18"/>
+      <c r="F366" s="20">
+        <v>44097</v>
+      </c>
       <c r="G366" s="21" t="s">
         <v>483</v>
       </c>
@@ -14267,58 +14313,178 @@
       </c>
     </row>
     <row r="405" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A405" s="52">
+      <c r="A405" s="18">
         <v>401</v>
       </c>
-      <c r="B405" s="53" t="s">
+      <c r="B405" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="C405" s="52" t="s">
+      <c r="C405" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D405" s="50" t="s">
+      <c r="D405" s="51" t="s">
         <v>541</v>
       </c>
-      <c r="E405" s="55">
+      <c r="E405" s="20">
         <v>44095</v>
       </c>
-      <c r="F405" s="52"/>
-      <c r="G405" s="56"/>
+      <c r="F405" s="18"/>
+      <c r="G405" s="24"/>
     </row>
     <row r="406" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A406" s="52">
+      <c r="A406" s="18">
         <v>402</v>
       </c>
-      <c r="B406" s="53" t="s">
+      <c r="B406" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C406" s="54" t="s">
+      <c r="C406" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="D406" s="52" t="s">
+      <c r="D406" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="E406" s="55">
+      <c r="E406" s="20">
         <v>44096</v>
       </c>
-      <c r="F406" s="52"/>
-      <c r="G406" s="56"/>
-    </row>
-    <row r="407" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A407" s="58" t="s">
+      <c r="F406" s="18"/>
+      <c r="G406" s="24"/>
+    </row>
+    <row r="407" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A407" s="52">
+        <v>403</v>
+      </c>
+      <c r="B407" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C407" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D407" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E407" s="55">
+        <v>44097</v>
+      </c>
+      <c r="F407" s="52"/>
+      <c r="G407" s="56"/>
+    </row>
+    <row r="408" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A408" s="52">
+        <v>404</v>
+      </c>
+      <c r="B408" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C408" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D408" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E408" s="55">
+        <v>44097</v>
+      </c>
+      <c r="F408" s="52"/>
+      <c r="G408" s="56"/>
+    </row>
+    <row r="409" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A409" s="52">
+        <v>405</v>
+      </c>
+      <c r="B409" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C409" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D409" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E409" s="55">
+        <v>44097</v>
+      </c>
+      <c r="F409" s="52"/>
+      <c r="G409" s="56" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A410" s="52">
+        <v>406</v>
+      </c>
+      <c r="B410" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C410" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D410" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E410" s="55">
+        <v>44097</v>
+      </c>
+      <c r="F410" s="52"/>
+      <c r="G410" s="56" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A411" s="52">
+        <v>407</v>
+      </c>
+      <c r="B411" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C411" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D411" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E411" s="55">
+        <v>44097</v>
+      </c>
+      <c r="F411" s="52"/>
+      <c r="G411" s="56" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A412" s="52">
+        <v>408</v>
+      </c>
+      <c r="B412" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C412" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D412" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E412" s="55">
+        <v>44097</v>
+      </c>
+      <c r="F412" s="52"/>
+      <c r="G412" s="56"/>
+    </row>
+    <row r="413" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A413" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B407" s="58"/>
-      <c r="C407" s="58"/>
-      <c r="D407" s="58"/>
-      <c r="E407" s="58"/>
-      <c r="F407" s="58"/>
-      <c r="G407" s="58"/>
+      <c r="B413" s="58"/>
+      <c r="C413" s="58"/>
+      <c r="D413" s="58"/>
+      <c r="E413" s="58"/>
+      <c r="F413" s="58"/>
+      <c r="G413" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A407:G407"/>
+    <mergeCell ref="A413:G413"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -14328,7 +14494,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="6" man="1"/>
     <brk id="78" max="6" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\06_県政記者クラブ発表\20200923(陽性403～)\記者会見\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200924\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$413</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$416</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="551">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -3775,6 +3775,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>退院済み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>※宇都宮市123例目</t>
     <rPh sb="1" eb="5">
       <t>ウツノミヤシ</t>
@@ -4655,6 +4659,30 @@
   <si>
     <t>No.380・384・394・395の同僚</t>
     <rPh sb="19" eb="21">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市124例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.364･370･372･380･384･394･395･406･407･411の同僚</t>
+    <rPh sb="43" eb="45">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.364･370･372･380･384･394･395･406･407･410の同僚</t>
+    <rPh sb="43" eb="45">
       <t>ドウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -4826,7 +4854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4997,6 +5025,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5299,11 +5330,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:P1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K406" sqref="K406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5313,21 +5344,23 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.75" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5350,7 +5383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5372,8 +5405,12 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I18" si="0">IF(COUNT(F3)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5395,8 +5432,12 @@
       <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5418,8 +5459,12 @@
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5441,8 +5486,12 @@
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5464,8 +5513,12 @@
       <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5487,8 +5540,12 @@
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5510,8 +5567,12 @@
       <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5533,8 +5594,12 @@
       <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5556,8 +5621,12 @@
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5579,8 +5648,12 @@
       <c r="G12" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -5602,8 +5675,12 @@
       <c r="G13" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -5625,8 +5702,12 @@
       <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5648,8 +5729,12 @@
       <c r="G15" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -5669,8 +5754,12 @@
         <v>43948</v>
       </c>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5692,8 +5781,12 @@
       <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5715,8 +5808,12 @@
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5736,18 +5833,22 @@
         <v>43969</v>
       </c>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="59">
+      <c r="I19" s="1" t="str">
+        <f>IF(COUNT(F19)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="60">
         <v>18</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="60" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="8">
@@ -5756,24 +5857,28 @@
       <c r="F20" s="8">
         <v>43959</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="I20" s="57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="14">
         <v>43973</v>
       </c>
       <c r="F21" s="8">
         <v>43990</v>
       </c>
-      <c r="G21" s="62"/>
-    </row>
-    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="63"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5795,8 +5900,12 @@
       <c r="G22" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I22" s="1" t="str">
+        <f>IF(COUNT(F22)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5816,8 +5925,12 @@
         <v>43949</v>
       </c>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I23" s="1" t="str">
+        <f t="shared" ref="I23:I56" si="1">IF(COUNT(F23)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5839,8 +5952,12 @@
       <c r="G24" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5862,8 +5979,12 @@
       <c r="G25" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5885,8 +6006,12 @@
       <c r="G26" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5908,8 +6033,12 @@
       <c r="G27" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5931,8 +6060,12 @@
       <c r="G28" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5954,8 +6087,12 @@
       <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5977,8 +6114,12 @@
       <c r="G30" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6000,8 +6141,12 @@
       <c r="G31" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6021,8 +6166,12 @@
         <v>43940</v>
       </c>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6042,8 +6191,12 @@
         <v>43970</v>
       </c>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6063,8 +6216,12 @@
         <v>43978</v>
       </c>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6086,8 +6243,12 @@
       <c r="G35" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6109,8 +6270,12 @@
       <c r="G36" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6130,8 +6295,12 @@
         <v>43949</v>
       </c>
       <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6151,8 +6320,12 @@
         <v>43945</v>
       </c>
       <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6174,8 +6347,12 @@
       <c r="G39" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6195,8 +6372,12 @@
         <v>43963</v>
       </c>
       <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6218,8 +6399,12 @@
       <c r="G41" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6239,8 +6424,12 @@
         <v>43960</v>
       </c>
       <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6262,8 +6451,12 @@
       <c r="G43" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6285,8 +6478,12 @@
       <c r="G44" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6308,8 +6505,12 @@
       <c r="G45" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6329,8 +6530,12 @@
         <v>43960</v>
       </c>
       <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6352,8 +6557,12 @@
       <c r="G47" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6375,8 +6584,12 @@
       <c r="G48" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6396,8 +6609,12 @@
         <v>43953</v>
       </c>
       <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6419,8 +6636,12 @@
       <c r="G50" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6442,8 +6663,12 @@
       <c r="G51" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -6465,8 +6690,12 @@
       <c r="G52" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -6486,8 +6715,12 @@
         <v>43962</v>
       </c>
       <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -6509,8 +6742,12 @@
       <c r="G54" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -6532,8 +6769,12 @@
       <c r="G55" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -6553,8 +6794,12 @@
         <v>43985</v>
       </c>
       <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -6574,8 +6819,12 @@
         <v>43970</v>
       </c>
       <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I57" s="1" t="str">
+        <f t="shared" ref="I57:I122" si="2">IF(COUNT(F57)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -6598,7 +6847,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -6620,8 +6869,12 @@
       <c r="G59" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -6643,8 +6896,12 @@
       <c r="G60" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -6666,8 +6923,12 @@
       <c r="G61" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -6689,8 +6950,12 @@
       <c r="G62" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -6712,8 +6977,12 @@
       <c r="G63" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -6735,8 +7004,12 @@
       <c r="G64" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -6758,8 +7031,12 @@
       <c r="G65" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -6781,8 +7058,12 @@
       <c r="G66" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -6804,8 +7085,12 @@
       <c r="G67" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I67" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -6827,8 +7112,12 @@
       <c r="G68" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -6850,8 +7139,12 @@
       <c r="G69" s="15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -6871,8 +7164,12 @@
         <v>43993</v>
       </c>
       <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>67</v>
       </c>
@@ -6894,8 +7191,12 @@
       <c r="G71" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16">
         <v>68</v>
       </c>
@@ -6917,8 +7218,12 @@
       <c r="G72" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I72" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="16">
         <v>69</v>
       </c>
@@ -6940,8 +7245,12 @@
       <c r="G73" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I73" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -6963,8 +7272,12 @@
       <c r="G74" s="17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="16">
         <v>71</v>
       </c>
@@ -6986,8 +7299,12 @@
       <c r="G75" s="17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I75" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="16">
         <v>72</v>
       </c>
@@ -7009,8 +7326,12 @@
       <c r="G76" s="17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I76" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16">
         <v>73</v>
       </c>
@@ -7032,8 +7353,12 @@
       <c r="G77" s="17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I77" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -7055,8 +7380,12 @@
       <c r="G78" s="17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I78" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -7078,8 +7407,12 @@
       <c r="G79" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I79" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -7101,8 +7434,12 @@
       <c r="G80" s="17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I80" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -7122,8 +7459,12 @@
         <v>44021</v>
       </c>
       <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I81" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -7143,8 +7484,12 @@
         <v>44021</v>
       </c>
       <c r="G82" s="17"/>
-    </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I82" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -7166,8 +7511,12 @@
       <c r="G83" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I83" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -7189,8 +7538,12 @@
       <c r="G84" s="17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I84" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -7212,8 +7565,12 @@
       <c r="G85" s="17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I85" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -7235,8 +7592,12 @@
       <c r="G86" s="17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I86" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -7258,8 +7619,12 @@
       <c r="G87" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I87" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -7281,8 +7646,12 @@
       <c r="G88" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I88" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -7304,8 +7673,12 @@
       <c r="G89" s="15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -7327,8 +7700,12 @@
       <c r="G90" s="15" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I90" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="18">
         <v>87</v>
       </c>
@@ -7350,8 +7727,12 @@
       <c r="G91" s="21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I91" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="18">
         <v>88</v>
       </c>
@@ -7373,8 +7754,12 @@
       <c r="G92" s="21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I92" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="19">
         <v>89</v>
       </c>
@@ -7396,8 +7781,12 @@
       <c r="G93" s="21" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I93" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="19">
         <v>90</v>
       </c>
@@ -7419,8 +7808,12 @@
       <c r="G94" s="21" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I94" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -7440,8 +7833,12 @@
         <v>44033</v>
       </c>
       <c r="G95" s="23"/>
-    </row>
-    <row r="96" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I95" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="18">
         <v>92</v>
       </c>
@@ -7463,8 +7860,12 @@
       <c r="G96" s="21" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>93</v>
       </c>
@@ -7484,8 +7885,12 @@
         <v>44037</v>
       </c>
       <c r="G97" s="23"/>
-    </row>
-    <row r="98" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I97" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="19">
         <v>94</v>
       </c>
@@ -7507,8 +7912,12 @@
       <c r="G98" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="19">
         <v>95</v>
       </c>
@@ -7530,8 +7939,12 @@
       <c r="G99" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="19">
         <v>96</v>
       </c>
@@ -7553,8 +7966,12 @@
       <c r="G100" s="21" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I100" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="19">
         <v>97</v>
       </c>
@@ -7576,8 +7993,12 @@
       <c r="G101" s="24" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="19">
         <v>98</v>
       </c>
@@ -7599,8 +8020,12 @@
       <c r="G102" s="21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="25">
         <v>99</v>
       </c>
@@ -7622,8 +8047,12 @@
       <c r="G103" s="28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I103" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="25">
         <v>100</v>
       </c>
@@ -7645,8 +8074,12 @@
       <c r="G104" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I104" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="25">
         <v>101</v>
       </c>
@@ -7668,8 +8101,12 @@
       <c r="G105" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I105" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="25">
         <v>102</v>
       </c>
@@ -7691,8 +8128,12 @@
       <c r="G106" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I106" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="25">
         <v>103</v>
       </c>
@@ -7714,8 +8155,12 @@
       <c r="G107" s="29" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I107" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="19">
         <v>104</v>
       </c>
@@ -7735,8 +8180,12 @@
         <v>44042</v>
       </c>
       <c r="G108" s="21"/>
-    </row>
-    <row r="109" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I108" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="30">
         <v>105</v>
       </c>
@@ -7758,8 +8207,12 @@
       <c r="G109" s="32" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I109" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="19">
         <v>106</v>
       </c>
@@ -7781,8 +8234,12 @@
       <c r="G110" s="21" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I110" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="19">
         <v>107</v>
       </c>
@@ -7804,8 +8261,12 @@
       <c r="G111" s="21" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I111" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="19">
         <v>108</v>
       </c>
@@ -7827,8 +8288,12 @@
       <c r="G112" s="21" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I112" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="19">
         <v>109</v>
       </c>
@@ -7850,8 +8315,12 @@
       <c r="G113" s="24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I113" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="19">
         <v>110</v>
       </c>
@@ -7873,8 +8342,12 @@
       <c r="G114" s="21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I114" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="19">
         <v>111</v>
       </c>
@@ -7896,8 +8369,12 @@
       <c r="G115" s="21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I115" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="19">
         <v>112</v>
       </c>
@@ -7919,8 +8396,12 @@
       <c r="G116" s="21" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I116" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="19">
         <v>113</v>
       </c>
@@ -7942,8 +8423,12 @@
       <c r="G117" s="21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I117" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="19">
         <v>114</v>
       </c>
@@ -7965,8 +8450,12 @@
       <c r="G118" s="21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I118" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="19">
         <v>115</v>
       </c>
@@ -7988,8 +8477,12 @@
       <c r="G119" s="21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I119" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="19">
         <v>116</v>
       </c>
@@ -8011,8 +8504,12 @@
       <c r="G120" s="21" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I120" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="19">
         <v>117</v>
       </c>
@@ -8034,8 +8531,12 @@
       <c r="G121" s="21" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I121" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="19">
         <v>118</v>
       </c>
@@ -8057,8 +8558,12 @@
       <c r="G122" s="21" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I122" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="25">
         <v>119</v>
       </c>
@@ -8080,8 +8585,12 @@
       <c r="G123" s="29" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I123" s="1" t="str">
+        <f t="shared" ref="I123:I186" si="3">IF(COUNT(F123)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="25">
         <v>120</v>
       </c>
@@ -8103,8 +8612,12 @@
       <c r="G124" s="29" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="25">
         <v>121</v>
       </c>
@@ -8126,8 +8639,12 @@
       <c r="G125" s="29" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I125" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="25">
         <v>122</v>
       </c>
@@ -8149,8 +8666,12 @@
       <c r="G126" s="29" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I126" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="25">
         <v>123</v>
       </c>
@@ -8172,8 +8693,12 @@
       <c r="G127" s="29" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I127" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="25">
         <v>124</v>
       </c>
@@ -8195,8 +8720,12 @@
       <c r="G128" s="29" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I128" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="19">
         <v>125</v>
       </c>
@@ -8218,8 +8747,12 @@
       <c r="G129" s="21" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I129" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="19">
         <v>126</v>
       </c>
@@ -8241,8 +8774,12 @@
       <c r="G130" s="21" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I130" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="19">
         <v>127</v>
       </c>
@@ -8264,8 +8801,12 @@
       <c r="G131" s="21" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I131" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="19">
         <v>128</v>
       </c>
@@ -8287,8 +8828,12 @@
       <c r="G132" s="24" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I132" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="19">
         <v>129</v>
       </c>
@@ -8310,8 +8855,12 @@
       <c r="G133" s="24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I133" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="19">
         <v>130</v>
       </c>
@@ -8333,8 +8882,12 @@
       <c r="G134" s="24" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I134" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="19">
         <v>131</v>
       </c>
@@ -8356,8 +8909,12 @@
       <c r="G135" s="21" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I135" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="19">
         <v>132</v>
       </c>
@@ -8379,8 +8936,12 @@
       <c r="G136" s="21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I136" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="19">
         <v>133</v>
       </c>
@@ -8400,8 +8961,12 @@
         <v>44043</v>
       </c>
       <c r="G137" s="35"/>
-    </row>
-    <row r="138" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I137" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="19">
         <v>134</v>
       </c>
@@ -8423,8 +8988,12 @@
       <c r="G138" s="21" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I138" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="19">
         <v>135</v>
       </c>
@@ -8446,8 +9015,12 @@
       <c r="G139" s="21" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I139" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="19">
         <v>136</v>
       </c>
@@ -8469,8 +9042,12 @@
       <c r="G140" s="21" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I140" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="19">
         <v>137</v>
       </c>
@@ -8492,8 +9069,12 @@
       <c r="G141" s="21" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I141" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="19">
         <v>138</v>
       </c>
@@ -8515,8 +9096,12 @@
       <c r="G142" s="21" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I142" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="19">
         <v>139</v>
       </c>
@@ -8538,8 +9123,12 @@
       <c r="G143" s="21" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I143" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="19">
         <v>140</v>
       </c>
@@ -8561,8 +9150,12 @@
       <c r="G144" s="21" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I144" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="19">
         <v>141</v>
       </c>
@@ -8584,8 +9177,12 @@
       <c r="G145" s="21" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I145" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="19">
         <v>142</v>
       </c>
@@ -8607,8 +9204,12 @@
       <c r="G146" s="21" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I146" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="19">
         <v>143</v>
       </c>
@@ -8628,8 +9229,12 @@
         <v>44042</v>
       </c>
       <c r="G147" s="21"/>
-    </row>
-    <row r="148" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I147" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="19">
         <v>144</v>
       </c>
@@ -8651,8 +9256,12 @@
       <c r="G148" s="21" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I148" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="19">
         <v>145</v>
       </c>
@@ -8672,8 +9281,12 @@
         <v>44054</v>
       </c>
       <c r="G149" s="21"/>
-    </row>
-    <row r="150" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I149" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="19">
         <v>146</v>
       </c>
@@ -8693,8 +9306,12 @@
         <v>44049</v>
       </c>
       <c r="G150" s="21"/>
-    </row>
-    <row r="151" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I150" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="19">
         <v>147</v>
       </c>
@@ -8714,8 +9331,12 @@
         <v>44044</v>
       </c>
       <c r="G151" s="21"/>
-    </row>
-    <row r="152" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I151" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="19">
         <v>148</v>
       </c>
@@ -8735,8 +9356,12 @@
         <v>44044</v>
       </c>
       <c r="G152" s="21"/>
-    </row>
-    <row r="153" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I152" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="19">
         <v>149</v>
       </c>
@@ -8758,8 +9383,12 @@
       <c r="G153" s="21" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I153" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="19">
         <v>150</v>
       </c>
@@ -8781,8 +9410,12 @@
       <c r="G154" s="21" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I154" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="19">
         <v>151</v>
       </c>
@@ -8804,8 +9437,12 @@
       <c r="G155" s="21" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I155" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="25">
         <v>152</v>
       </c>
@@ -8827,8 +9464,12 @@
       <c r="G156" s="29" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I156" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="25">
         <v>153</v>
       </c>
@@ -8850,8 +9491,12 @@
       <c r="G157" s="29" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I157" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="25">
         <v>154</v>
       </c>
@@ -8873,8 +9518,12 @@
       <c r="G158" s="29" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I158" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="25">
         <v>155</v>
       </c>
@@ -8896,8 +9545,12 @@
       <c r="G159" s="29" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I159" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="25">
         <v>156</v>
       </c>
@@ -8919,8 +9572,12 @@
       <c r="G160" s="29" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I160" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="25">
         <v>157</v>
       </c>
@@ -8942,8 +9599,12 @@
       <c r="G161" s="29" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I161" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="25">
         <v>158</v>
       </c>
@@ -8965,8 +9626,12 @@
       <c r="G162" s="29" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I162" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="25">
         <v>159</v>
       </c>
@@ -8988,8 +9653,12 @@
       <c r="G163" s="29" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I163" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="25">
         <v>160</v>
       </c>
@@ -9011,8 +9680,12 @@
       <c r="G164" s="29" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I164" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="25">
         <v>161</v>
       </c>
@@ -9034,8 +9707,12 @@
       <c r="G165" s="29" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I165" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="25">
         <v>162</v>
       </c>
@@ -9057,8 +9734,12 @@
       <c r="G166" s="29" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I166" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="25">
         <v>163</v>
       </c>
@@ -9080,8 +9761,12 @@
       <c r="G167" s="29" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I167" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="19">
         <v>164</v>
       </c>
@@ -9103,8 +9788,12 @@
       <c r="G168" s="21" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I168" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="19">
         <v>165</v>
       </c>
@@ -9126,8 +9815,12 @@
       <c r="G169" s="21" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I169" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="19">
         <v>166</v>
       </c>
@@ -9149,8 +9842,12 @@
       <c r="G170" s="21" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I170" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="19">
         <v>167</v>
       </c>
@@ -9172,8 +9869,12 @@
       <c r="G171" s="21" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I171" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="19">
         <v>168</v>
       </c>
@@ -9195,8 +9896,12 @@
       <c r="G172" s="21" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I172" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="19">
         <v>169</v>
       </c>
@@ -9218,8 +9923,12 @@
       <c r="G173" s="21" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I173" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="19">
         <v>170</v>
       </c>
@@ -9241,8 +9950,12 @@
       <c r="G174" s="21" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I174" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="19">
         <v>171</v>
       </c>
@@ -9264,8 +9977,12 @@
       <c r="G175" s="21" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I175" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="19">
         <v>172</v>
       </c>
@@ -9285,8 +10002,12 @@
         <v>44055</v>
       </c>
       <c r="G176" s="21"/>
-    </row>
-    <row r="177" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I176" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="19">
         <v>173</v>
       </c>
@@ -9308,8 +10029,12 @@
       <c r="G177" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I177" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="19">
         <v>174</v>
       </c>
@@ -9331,8 +10056,12 @@
       <c r="G178" s="21" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I178" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="19">
         <v>175</v>
       </c>
@@ -9354,8 +10083,12 @@
       <c r="G179" s="21" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I179" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="19">
         <v>176</v>
       </c>
@@ -9377,8 +10110,12 @@
       <c r="G180" s="21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I180" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="19">
         <v>177</v>
       </c>
@@ -9400,8 +10137,12 @@
       <c r="G181" s="21" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I181" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="19">
         <v>178</v>
       </c>
@@ -9423,8 +10164,12 @@
       <c r="G182" s="21" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I182" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="19">
         <v>179</v>
       </c>
@@ -9446,8 +10191,12 @@
       <c r="G183" s="21" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I183" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="19">
         <v>180</v>
       </c>
@@ -9469,8 +10218,12 @@
       <c r="G184" s="21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I184" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="19">
         <v>181</v>
       </c>
@@ -9492,8 +10245,12 @@
       <c r="G185" s="21" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I185" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="19">
         <v>182</v>
       </c>
@@ -9515,8 +10272,12 @@
       <c r="G186" s="21" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I186" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="19">
         <v>183</v>
       </c>
@@ -9538,8 +10299,12 @@
       <c r="G187" s="21" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I187" s="1" t="str">
+        <f t="shared" ref="I187:I250" si="4">IF(COUNT(F187)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="19">
         <v>184</v>
       </c>
@@ -9561,8 +10326,12 @@
       <c r="G188" s="21" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I188" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="19">
         <v>185</v>
       </c>
@@ -9584,8 +10353,12 @@
       <c r="G189" s="21" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I189" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="19">
         <v>186</v>
       </c>
@@ -9605,8 +10378,12 @@
         <v>44054</v>
       </c>
       <c r="G190" s="21"/>
-    </row>
-    <row r="191" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I190" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="19">
         <v>187</v>
       </c>
@@ -9628,8 +10405,12 @@
       <c r="G191" s="21" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I191" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="19">
         <v>188</v>
       </c>
@@ -9651,8 +10432,12 @@
       <c r="G192" s="21" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I192" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="19">
         <v>189</v>
       </c>
@@ -9674,8 +10459,12 @@
       <c r="G193" s="21" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I193" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="19">
         <v>190</v>
       </c>
@@ -9697,8 +10486,12 @@
       <c r="G194" s="21" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I194" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="19">
         <v>191</v>
       </c>
@@ -9720,8 +10513,12 @@
       <c r="G195" s="21" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I195" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="19">
         <v>192</v>
       </c>
@@ -9743,8 +10540,12 @@
       <c r="G196" s="21" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I196" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="19">
         <v>193</v>
       </c>
@@ -9766,8 +10567,12 @@
       <c r="G197" s="21" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I197" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="19">
         <v>194</v>
       </c>
@@ -9787,8 +10592,12 @@
         <v>44058</v>
       </c>
       <c r="G198" s="21"/>
-    </row>
-    <row r="199" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I198" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="19">
         <v>195</v>
       </c>
@@ -9810,8 +10619,12 @@
       <c r="G199" s="21" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I199" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="19">
         <v>196</v>
       </c>
@@ -9833,8 +10646,12 @@
       <c r="G200" s="21" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I200" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="19">
         <v>197</v>
       </c>
@@ -9856,8 +10673,12 @@
       <c r="G201" s="21" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I201" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="19">
         <v>198</v>
       </c>
@@ -9879,8 +10700,12 @@
       <c r="G202" s="21" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I202" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="19">
         <v>199</v>
       </c>
@@ -9902,8 +10727,12 @@
       <c r="G203" s="21" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I203" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="19">
         <v>200</v>
       </c>
@@ -9921,8 +10750,12 @@
       </c>
       <c r="F204" s="20"/>
       <c r="G204" s="21"/>
-    </row>
-    <row r="205" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I204" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="19">
         <v>201</v>
       </c>
@@ -9944,8 +10777,12 @@
       <c r="G205" s="21" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I205" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="19">
         <v>202</v>
       </c>
@@ -9967,8 +10804,12 @@
       <c r="G206" s="21" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I206" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="19">
         <v>203</v>
       </c>
@@ -9990,8 +10831,12 @@
       <c r="G207" s="21" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I207" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="19">
         <v>204</v>
       </c>
@@ -10013,8 +10858,12 @@
       <c r="G208" s="21" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I208" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="19">
         <v>205</v>
       </c>
@@ -10036,8 +10885,12 @@
       <c r="G209" s="21" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I209" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="19">
         <v>206</v>
       </c>
@@ -10059,8 +10912,12 @@
       <c r="G210" s="21" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I210" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="19">
         <v>207</v>
       </c>
@@ -10082,8 +10939,12 @@
       <c r="G211" s="21" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I211" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="19">
         <v>208</v>
       </c>
@@ -10105,8 +10966,12 @@
       <c r="G212" s="21" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I212" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="19">
         <v>209</v>
       </c>
@@ -10128,8 +10993,12 @@
       <c r="G213" s="21" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I213" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="19">
         <v>210</v>
       </c>
@@ -10151,8 +11020,12 @@
       <c r="G214" s="21" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I214" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="19">
         <v>211</v>
       </c>
@@ -10174,8 +11047,12 @@
       <c r="G215" s="21" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I215" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="19">
         <v>212</v>
       </c>
@@ -10197,8 +11074,12 @@
       <c r="G216" s="21" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I216" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="19">
         <v>213</v>
       </c>
@@ -10220,8 +11101,12 @@
       <c r="G217" s="21" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I217" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="19">
         <v>214</v>
       </c>
@@ -10243,8 +11128,12 @@
       <c r="G218" s="21" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I218" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="19">
         <v>215</v>
       </c>
@@ -10266,8 +11155,12 @@
       <c r="G219" s="21" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I219" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="19">
         <v>216</v>
       </c>
@@ -10287,8 +11180,12 @@
         <v>44076</v>
       </c>
       <c r="G220" s="21"/>
-    </row>
-    <row r="221" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I220" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="19">
         <v>217</v>
       </c>
@@ -10308,8 +11205,12 @@
         <v>44072</v>
       </c>
       <c r="G221" s="21"/>
-    </row>
-    <row r="222" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I221" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="19">
         <v>218</v>
       </c>
@@ -10331,8 +11232,12 @@
       <c r="G222" s="21" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I222" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="19">
         <v>219</v>
       </c>
@@ -10354,8 +11259,12 @@
       <c r="G223" s="21" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I223" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="19">
         <v>220</v>
       </c>
@@ -10377,8 +11286,12 @@
       <c r="G224" s="21" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I224" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="19">
         <v>221</v>
       </c>
@@ -10400,8 +11313,12 @@
       <c r="G225" s="21" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I225" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="19">
         <v>222</v>
       </c>
@@ -10423,8 +11340,12 @@
       <c r="G226" s="21" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I226" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="19">
         <v>223</v>
       </c>
@@ -10446,8 +11367,12 @@
       <c r="G227" s="21" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I227" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="19">
         <v>224</v>
       </c>
@@ -10469,8 +11394,12 @@
       <c r="G228" s="21" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I228" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="19">
         <v>225</v>
       </c>
@@ -10492,8 +11421,12 @@
       <c r="G229" s="21" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I229" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="19">
         <v>226</v>
       </c>
@@ -10515,8 +11448,12 @@
       <c r="G230" s="21" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I230" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="19">
         <v>227</v>
       </c>
@@ -10536,8 +11473,12 @@
         <v>44068</v>
       </c>
       <c r="G231" s="21"/>
-    </row>
-    <row r="232" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I231" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="19">
         <v>228</v>
       </c>
@@ -10559,8 +11500,12 @@
       <c r="G232" s="21" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I232" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="19">
         <v>229</v>
       </c>
@@ -10582,8 +11527,12 @@
       <c r="G233" s="21" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I233" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="19">
         <v>230</v>
       </c>
@@ -10605,8 +11554,12 @@
       <c r="G234" s="21" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I234" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="19">
         <v>231</v>
       </c>
@@ -10626,8 +11579,12 @@
         <v>44062</v>
       </c>
       <c r="G235" s="21"/>
-    </row>
-    <row r="236" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I235" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="19">
         <v>232</v>
       </c>
@@ -10647,8 +11604,12 @@
         <v>44060</v>
       </c>
       <c r="G236" s="21"/>
-    </row>
-    <row r="237" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I236" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="19">
         <v>233</v>
       </c>
@@ -10670,8 +11631,12 @@
       <c r="G237" s="21" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I237" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="19">
         <v>234</v>
       </c>
@@ -10691,8 +11656,12 @@
         <v>44057</v>
       </c>
       <c r="G238" s="21"/>
-    </row>
-    <row r="239" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I238" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="19">
         <v>235</v>
       </c>
@@ -10712,8 +11681,12 @@
         <v>44057</v>
       </c>
       <c r="G239" s="21"/>
-    </row>
-    <row r="240" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I239" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="19">
         <v>236</v>
       </c>
@@ -10735,8 +11708,12 @@
       <c r="G240" s="21" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I240" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="19">
         <v>237</v>
       </c>
@@ -10758,8 +11735,12 @@
       <c r="G241" s="21" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I241" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="19">
         <v>238</v>
       </c>
@@ -10781,8 +11762,12 @@
       <c r="G242" s="21" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I242" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="19">
         <v>239</v>
       </c>
@@ -10802,8 +11787,12 @@
         <v>44056</v>
       </c>
       <c r="G243" s="21"/>
-    </row>
-    <row r="244" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I243" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="19">
         <v>240</v>
       </c>
@@ -10823,8 +11812,12 @@
         <v>44059</v>
       </c>
       <c r="G244" s="21"/>
-    </row>
-    <row r="245" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I244" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="19">
         <v>241</v>
       </c>
@@ -10844,8 +11837,12 @@
         <v>44063</v>
       </c>
       <c r="G245" s="21"/>
-    </row>
-    <row r="246" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I245" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="19">
         <v>242</v>
       </c>
@@ -10867,8 +11864,12 @@
       <c r="G246" s="21" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I246" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="19">
         <v>243</v>
       </c>
@@ -10890,8 +11891,12 @@
       <c r="G247" s="21" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I247" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="19">
         <v>244</v>
       </c>
@@ -10913,8 +11918,12 @@
       <c r="G248" s="21" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I248" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="19">
         <v>245</v>
       </c>
@@ -10936,8 +11945,12 @@
       <c r="G249" s="21" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I249" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="19">
         <v>246</v>
       </c>
@@ -10959,8 +11972,12 @@
       <c r="G250" s="21" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I250" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="25">
         <v>247</v>
       </c>
@@ -10982,8 +11999,12 @@
       <c r="G251" s="29" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I251" s="1" t="str">
+        <f t="shared" ref="I251:I314" si="5">IF(COUNT(F251)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="25">
         <v>248</v>
       </c>
@@ -11005,8 +12026,12 @@
       <c r="G252" s="29" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I252" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="25">
         <v>249</v>
       </c>
@@ -11026,8 +12051,12 @@
         <v>44060</v>
       </c>
       <c r="G253" s="29"/>
-    </row>
-    <row r="254" spans="1:7" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I253" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="25">
         <v>250</v>
       </c>
@@ -11049,8 +12078,12 @@
       <c r="G254" s="29" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I254" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="25">
         <v>251</v>
       </c>
@@ -11072,8 +12105,12 @@
       <c r="G255" s="29" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I255" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="25">
         <v>252</v>
       </c>
@@ -11095,8 +12132,12 @@
       <c r="G256" s="29" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I256" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="19">
         <v>253</v>
       </c>
@@ -11116,8 +12157,12 @@
         <v>44063</v>
       </c>
       <c r="G257" s="21"/>
-    </row>
-    <row r="258" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I257" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="19">
         <v>254</v>
       </c>
@@ -11139,8 +12184,12 @@
       <c r="G258" s="21" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I258" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="19">
         <v>255</v>
       </c>
@@ -11162,8 +12211,12 @@
       <c r="G259" s="21" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I259" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="19">
         <v>256</v>
       </c>
@@ -11185,8 +12238,12 @@
       <c r="G260" s="21" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I260" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="19">
         <v>257</v>
       </c>
@@ -11208,8 +12265,12 @@
       <c r="G261" s="21" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I261" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="19">
         <v>258</v>
       </c>
@@ -11231,8 +12292,12 @@
       <c r="G262" s="21" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I262" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="19">
         <v>259</v>
       </c>
@@ -11254,8 +12319,12 @@
       <c r="G263" s="21" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I263" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="19">
         <v>260</v>
       </c>
@@ -11277,8 +12346,12 @@
       <c r="G264" s="21" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I264" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="19">
         <v>261</v>
       </c>
@@ -11300,8 +12373,12 @@
       <c r="G265" s="21" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I265" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="19">
         <v>262</v>
       </c>
@@ -11321,8 +12398,12 @@
         <v>44068</v>
       </c>
       <c r="G266" s="21"/>
-    </row>
-    <row r="267" spans="1:7" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I266" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="19">
         <v>263</v>
       </c>
@@ -11342,8 +12423,12 @@
         <v>44069</v>
       </c>
       <c r="G267" s="21"/>
-    </row>
-    <row r="268" spans="1:7" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I267" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="19">
         <v>264</v>
       </c>
@@ -11365,8 +12450,12 @@
       <c r="G268" s="21" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I268" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="19">
         <v>265</v>
       </c>
@@ -11388,8 +12477,12 @@
       <c r="G269" s="21" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" s="44" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I269" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" s="44" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="19">
         <v>266</v>
       </c>
@@ -11409,8 +12502,12 @@
         <v>44062</v>
       </c>
       <c r="G270" s="21"/>
-    </row>
-    <row r="271" spans="1:7" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I270" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="19">
         <v>267</v>
       </c>
@@ -11432,8 +12529,12 @@
       <c r="G271" s="21" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I271" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="19">
         <v>268</v>
       </c>
@@ -11455,8 +12556,12 @@
       <c r="G272" s="21" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I272" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="19">
         <v>269</v>
       </c>
@@ -11478,8 +12583,12 @@
       <c r="G273" s="21" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I273" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="19">
         <v>270</v>
       </c>
@@ -11501,8 +12610,12 @@
       <c r="G274" s="21" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I274" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="19">
         <v>271</v>
       </c>
@@ -11524,8 +12637,12 @@
       <c r="G275" s="21" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I275" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="19">
         <v>272</v>
       </c>
@@ -11547,8 +12664,12 @@
       <c r="G276" s="21" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I276" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="19">
         <v>273</v>
       </c>
@@ -11570,8 +12691,12 @@
       <c r="G277" s="21" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I277" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="19">
         <v>274</v>
       </c>
@@ -11593,8 +12718,12 @@
       <c r="G278" s="21" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I278" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="19">
         <v>275</v>
       </c>
@@ -11616,8 +12745,12 @@
       <c r="G279" s="21" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I279" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="19">
         <v>276</v>
       </c>
@@ -11639,8 +12772,12 @@
       <c r="G280" s="21" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I280" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="19">
         <v>277</v>
       </c>
@@ -11660,8 +12797,12 @@
         <v>44068</v>
       </c>
       <c r="G281" s="21"/>
-    </row>
-    <row r="282" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I281" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="19">
         <v>278</v>
       </c>
@@ -11683,8 +12824,12 @@
       <c r="G282" s="21" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I282" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="19">
         <v>279</v>
       </c>
@@ -11704,8 +12849,12 @@
         <v>44076</v>
       </c>
       <c r="G283" s="21"/>
-    </row>
-    <row r="284" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I283" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="19">
         <v>280</v>
       </c>
@@ -11727,8 +12876,12 @@
       <c r="G284" s="21" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I284" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="19">
         <v>281</v>
       </c>
@@ -11750,8 +12903,12 @@
       <c r="G285" s="21" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I285" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="19">
         <v>282</v>
       </c>
@@ -11773,8 +12930,12 @@
       <c r="G286" s="21" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I286" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="19">
         <v>283</v>
       </c>
@@ -11796,8 +12957,12 @@
       <c r="G287" s="21" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I287" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="19">
         <v>284</v>
       </c>
@@ -11819,8 +12984,12 @@
       <c r="G288" s="21" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I288" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="19">
         <v>285</v>
       </c>
@@ -11842,8 +13011,12 @@
       <c r="G289" s="21" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I289" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="19">
         <v>286</v>
       </c>
@@ -11865,8 +13038,12 @@
       <c r="G290" s="21" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I290" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="19">
         <v>287</v>
       </c>
@@ -11888,8 +13065,12 @@
       <c r="G291" s="21" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I291" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="19">
         <v>288</v>
       </c>
@@ -11911,8 +13092,12 @@
       <c r="G292" s="21" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I292" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="19">
         <v>289</v>
       </c>
@@ -11934,8 +13119,12 @@
       <c r="G293" s="21" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I293" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="19">
         <v>290</v>
       </c>
@@ -11955,8 +13144,12 @@
       <c r="G294" s="21" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I294" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="19">
         <v>291</v>
       </c>
@@ -11976,8 +13169,12 @@
       <c r="G295" s="21" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I295" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="19">
         <v>292</v>
       </c>
@@ -11997,8 +13194,12 @@
       <c r="G296" s="21" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I296" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="19">
         <v>293</v>
       </c>
@@ -12018,8 +13219,12 @@
       <c r="G297" s="21" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I297" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="19">
         <v>294</v>
       </c>
@@ -12041,8 +13246,12 @@
       <c r="G298" s="21" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I298" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="18">
         <v>295</v>
       </c>
@@ -12064,8 +13273,12 @@
       <c r="G299" s="21" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I299" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="18">
         <v>296</v>
       </c>
@@ -12087,8 +13300,12 @@
       <c r="G300" s="21" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I300" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="18">
         <v>297</v>
       </c>
@@ -12110,8 +13327,12 @@
       <c r="G301" s="21" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I301" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="18">
         <v>298</v>
       </c>
@@ -12133,8 +13354,12 @@
       <c r="G302" s="21" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I302" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="18">
         <v>299</v>
       </c>
@@ -12156,8 +13381,12 @@
       <c r="G303" s="21" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I303" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="18">
         <v>300</v>
       </c>
@@ -12177,8 +13406,12 @@
         <v>44082</v>
       </c>
       <c r="G304" s="21"/>
-    </row>
-    <row r="305" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I304" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="18">
         <v>301</v>
       </c>
@@ -12200,8 +13433,12 @@
       <c r="G305" s="21" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I305" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="18">
         <v>302</v>
       </c>
@@ -12223,8 +13460,12 @@
       <c r="G306" s="21" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I306" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="18">
         <v>303</v>
       </c>
@@ -12246,8 +13487,12 @@
       <c r="G307" s="21" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I307" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="27">
         <v>304</v>
       </c>
@@ -12267,8 +13512,12 @@
         <v>44081</v>
       </c>
       <c r="G308" s="29"/>
-    </row>
-    <row r="309" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I308" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="27">
         <v>305</v>
       </c>
@@ -12290,8 +13539,12 @@
       <c r="G309" s="29" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I309" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="27">
         <v>306</v>
       </c>
@@ -12311,8 +13564,12 @@
         <v>44082</v>
       </c>
       <c r="G310" s="29"/>
-    </row>
-    <row r="311" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I310" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="27">
         <v>307</v>
       </c>
@@ -12332,10 +13589,14 @@
         <v>44081</v>
       </c>
       <c r="G311" s="29" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>437</v>
+      </c>
+      <c r="I311" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="27">
         <v>308</v>
       </c>
@@ -12355,19 +13616,23 @@
         <v>44085</v>
       </c>
       <c r="G312" s="29"/>
-    </row>
-    <row r="313" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I312" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="27">
         <v>309</v>
       </c>
       <c r="B313" s="36" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C313" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D313" s="27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E313" s="37">
         <v>44078</v>
@@ -12376,19 +13641,23 @@
         <v>44088</v>
       </c>
       <c r="G313" s="29"/>
-    </row>
-    <row r="314" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I313" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="18">
         <v>310</v>
       </c>
       <c r="B314" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C314" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D314" s="18" t="s">
         <v>440</v>
-      </c>
-      <c r="C314" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D314" s="18" t="s">
-        <v>439</v>
       </c>
       <c r="E314" s="20">
         <v>44080</v>
@@ -12397,8 +13666,12 @@
         <v>44086</v>
       </c>
       <c r="G314" s="21"/>
-    </row>
-    <row r="315" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I314" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="18">
         <v>311</v>
       </c>
@@ -12409,7 +13682,7 @@
         <v>67</v>
       </c>
       <c r="D315" s="18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E315" s="20">
         <v>44081</v>
@@ -12418,8 +13691,12 @@
         <v>44091</v>
       </c>
       <c r="G315" s="21"/>
-    </row>
-    <row r="316" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I315" s="1" t="str">
+        <f t="shared" ref="I315:I378" si="6">IF(COUNT(F315)&gt;=1,"退院済み","")</f>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="18">
         <v>312</v>
       </c>
@@ -12439,10 +13716,14 @@
         <v>44091</v>
       </c>
       <c r="G316" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+      <c r="I316" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="18">
         <v>313</v>
       </c>
@@ -12462,15 +13743,19 @@
         <v>44091</v>
       </c>
       <c r="G317" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+      <c r="I317" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="18">
         <v>314</v>
       </c>
       <c r="B318" s="34" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C318" s="19" t="s">
         <v>67</v>
@@ -12485,10 +13770,14 @@
         <v>44091</v>
       </c>
       <c r="G318" s="21" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>445</v>
+      </c>
+      <c r="I318" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="18">
         <v>315</v>
       </c>
@@ -12508,15 +13797,19 @@
         <v>44091</v>
       </c>
       <c r="G319" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+      <c r="I319" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="18">
         <v>316</v>
       </c>
       <c r="B320" s="34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C320" s="19" t="s">
         <v>70</v>
@@ -12529,18 +13822,22 @@
       </c>
       <c r="F320" s="18"/>
       <c r="G320" s="21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>447</v>
+      </c>
+      <c r="I320" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="18">
         <v>317</v>
       </c>
       <c r="B321" s="34" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D321" s="18" t="s">
         <v>120</v>
@@ -12552,18 +13849,22 @@
         <v>44097</v>
       </c>
       <c r="G321" s="24" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+      <c r="I321" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="18">
         <v>318</v>
       </c>
       <c r="B322" s="34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D322" s="18" t="s">
         <v>120</v>
@@ -12575,18 +13876,22 @@
         <v>44097</v>
       </c>
       <c r="G322" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+      <c r="I322" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="18">
         <v>319</v>
       </c>
       <c r="B323" s="34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C323" s="19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D323" s="18" t="s">
         <v>120</v>
@@ -12598,10 +13903,14 @@
         <v>44097</v>
       </c>
       <c r="G323" s="24" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+      <c r="I323" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="18">
         <v>320</v>
       </c>
@@ -12619,10 +13928,14 @@
       </c>
       <c r="F324" s="18"/>
       <c r="G324" s="24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+      <c r="I324" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="18">
         <v>321</v>
       </c>
@@ -12642,10 +13955,14 @@
         <v>44093</v>
       </c>
       <c r="G325" s="24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+      <c r="I325" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="18">
         <v>322</v>
       </c>
@@ -12663,10 +13980,14 @@
       </c>
       <c r="F326" s="18"/>
       <c r="G326" s="24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+      <c r="I326" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="18">
         <v>323</v>
       </c>
@@ -12684,10 +14005,14 @@
       </c>
       <c r="F327" s="18"/>
       <c r="G327" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+      <c r="I327" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:9" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="18">
         <v>324</v>
       </c>
@@ -12707,8 +14032,12 @@
         <v>44096</v>
       </c>
       <c r="G328" s="21"/>
-    </row>
-    <row r="329" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I328" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="18">
         <v>325</v>
       </c>
@@ -12716,10 +14045,10 @@
         <v>81</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E329" s="20">
         <v>44085</v>
@@ -12728,19 +14057,23 @@
         <v>44092</v>
       </c>
       <c r="G329" s="21"/>
-    </row>
-    <row r="330" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I329" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="18">
         <v>326</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C330" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E330" s="20">
         <v>44085</v>
@@ -12749,8 +14082,12 @@
       <c r="G330" s="21" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I330" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="18">
         <v>327</v>
       </c>
@@ -12758,41 +14095,49 @@
         <v>83</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E331" s="20">
         <v>44085</v>
       </c>
       <c r="F331" s="18"/>
       <c r="G331" s="21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="I331" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="18">
         <v>328</v>
       </c>
       <c r="B332" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D332" s="18" t="s">
         <v>459</v>
-      </c>
-      <c r="C332" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="D332" s="18" t="s">
-        <v>458</v>
       </c>
       <c r="E332" s="20">
         <v>44085</v>
       </c>
       <c r="F332" s="18"/>
       <c r="G332" s="21" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>463</v>
+      </c>
+      <c r="I332" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="18">
         <v>329</v>
       </c>
@@ -12810,10 +14155,14 @@
       </c>
       <c r="F333" s="18"/>
       <c r="G333" s="21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>464</v>
+      </c>
+      <c r="I333" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A334" s="18">
         <v>330</v>
       </c>
@@ -12831,10 +14180,14 @@
       </c>
       <c r="F334" s="18"/>
       <c r="G334" s="21" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+      <c r="I334" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A335" s="18">
         <v>331</v>
       </c>
@@ -12852,10 +14205,14 @@
       </c>
       <c r="F335" s="18"/>
       <c r="G335" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+      <c r="I335" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="18">
         <v>332</v>
       </c>
@@ -12875,10 +14232,14 @@
         <v>44097</v>
       </c>
       <c r="G336" s="21" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+      <c r="I336" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="18">
         <v>333</v>
       </c>
@@ -12894,12 +14255,18 @@
       <c r="E337" s="20">
         <v>44086</v>
       </c>
-      <c r="F337" s="18"/>
+      <c r="F337" s="20">
+        <v>44095</v>
+      </c>
       <c r="G337" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+      <c r="I337" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="18">
         <v>334</v>
       </c>
@@ -12919,10 +14286,14 @@
         <v>44097</v>
       </c>
       <c r="G338" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+      <c r="I338" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="18">
         <v>335</v>
       </c>
@@ -12942,10 +14313,14 @@
         <v>44097</v>
       </c>
       <c r="G339" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+      <c r="I339" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="18">
         <v>336</v>
       </c>
@@ -12962,13 +14337,17 @@
         <v>44086</v>
       </c>
       <c r="F340" s="20">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="G340" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+      <c r="I340" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="18">
         <v>337</v>
       </c>
@@ -12988,10 +14367,14 @@
         <v>44095</v>
       </c>
       <c r="G341" s="21" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>466</v>
+      </c>
+      <c r="I341" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="18">
         <v>338</v>
       </c>
@@ -13007,12 +14390,18 @@
       <c r="E342" s="20">
         <v>44086</v>
       </c>
-      <c r="F342" s="18"/>
+      <c r="F342" s="20">
+        <v>44092</v>
+      </c>
       <c r="G342" s="21" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I342" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="18">
         <v>339</v>
       </c>
@@ -13028,12 +14417,18 @@
       <c r="E343" s="20">
         <v>44088</v>
       </c>
-      <c r="F343" s="18"/>
+      <c r="F343" s="20">
+        <v>44096</v>
+      </c>
       <c r="G343" s="21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>470</v>
+      </c>
+      <c r="I343" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="18">
         <v>340</v>
       </c>
@@ -13049,12 +14444,18 @@
       <c r="E344" s="20">
         <v>44088</v>
       </c>
-      <c r="F344" s="18"/>
+      <c r="F344" s="20">
+        <v>44096</v>
+      </c>
       <c r="G344" s="21" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>471</v>
+      </c>
+      <c r="I344" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="18">
         <v>341</v>
       </c>
@@ -13072,10 +14473,14 @@
       </c>
       <c r="F345" s="18"/>
       <c r="G345" s="21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>479</v>
+      </c>
+      <c r="I345" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="18">
         <v>342</v>
       </c>
@@ -13093,10 +14498,14 @@
       </c>
       <c r="F346" s="18"/>
       <c r="G346" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+      <c r="I346" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="18">
         <v>343</v>
       </c>
@@ -13114,10 +14523,14 @@
       </c>
       <c r="F347" s="18"/>
       <c r="G347" s="21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>487</v>
+      </c>
+      <c r="I347" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="18">
         <v>344</v>
       </c>
@@ -13135,10 +14548,14 @@
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>476</v>
+      </c>
+      <c r="I348" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="18">
         <v>345</v>
       </c>
@@ -13156,10 +14573,14 @@
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+      <c r="I349" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="18">
         <v>346</v>
       </c>
@@ -13177,10 +14598,14 @@
       </c>
       <c r="F350" s="18"/>
       <c r="G350" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+      <c r="I350" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="18">
         <v>347</v>
       </c>
@@ -13198,10 +14623,14 @@
       </c>
       <c r="F351" s="18"/>
       <c r="G351" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+      <c r="I351" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="18">
         <v>348</v>
       </c>
@@ -13219,10 +14648,14 @@
       </c>
       <c r="F352" s="18"/>
       <c r="G352" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+      <c r="I352" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="18">
         <v>349</v>
       </c>
@@ -13240,10 +14673,14 @@
       </c>
       <c r="F353" s="18"/>
       <c r="G353" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+      <c r="I353" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" s="18">
         <v>350</v>
       </c>
@@ -13261,10 +14698,14 @@
       </c>
       <c r="F354" s="18"/>
       <c r="G354" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>489</v>
+      </c>
+      <c r="I354" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A355" s="18">
         <v>351</v>
       </c>
@@ -13284,10 +14725,14 @@
         <v>44097</v>
       </c>
       <c r="G355" s="21" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>472</v>
+      </c>
+      <c r="I355" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="18">
         <v>352</v>
       </c>
@@ -13305,10 +14750,14 @@
       </c>
       <c r="F356" s="18"/>
       <c r="G356" s="21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>477</v>
+      </c>
+      <c r="I356" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="18">
         <v>353</v>
       </c>
@@ -13328,10 +14777,14 @@
         <v>44097</v>
       </c>
       <c r="G357" s="21" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>478</v>
+      </c>
+      <c r="I357" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="18">
         <v>354</v>
       </c>
@@ -13351,10 +14804,14 @@
         <v>44097</v>
       </c>
       <c r="G358" s="21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+      <c r="I358" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="18">
         <v>355</v>
       </c>
@@ -13372,10 +14829,14 @@
       </c>
       <c r="F359" s="18"/>
       <c r="G359" s="21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>474</v>
+      </c>
+      <c r="I359" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="18">
         <v>356</v>
       </c>
@@ -13393,10 +14854,14 @@
       </c>
       <c r="F360" s="18"/>
       <c r="G360" s="21" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+      <c r="I360" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="18">
         <v>357</v>
       </c>
@@ -13412,12 +14877,18 @@
       <c r="E361" s="20">
         <v>44088</v>
       </c>
-      <c r="F361" s="18"/>
+      <c r="F361" s="20">
+        <v>44097</v>
+      </c>
       <c r="G361" s="21" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>490</v>
+      </c>
+      <c r="I361" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="18">
         <v>358</v>
       </c>
@@ -13435,10 +14906,14 @@
       </c>
       <c r="F362" s="18"/>
       <c r="G362" s="21" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>491</v>
+      </c>
+      <c r="I362" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="18">
         <v>359</v>
       </c>
@@ -13454,12 +14929,18 @@
       <c r="E363" s="20">
         <v>44088</v>
       </c>
-      <c r="F363" s="18"/>
+      <c r="F363" s="20">
+        <v>44098</v>
+      </c>
       <c r="G363" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+      <c r="I363" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="18">
         <v>360</v>
       </c>
@@ -13477,10 +14958,14 @@
       </c>
       <c r="F364" s="18"/>
       <c r="G364" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+      <c r="I364" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="18">
         <v>361</v>
       </c>
@@ -13496,12 +14981,18 @@
       <c r="E365" s="20">
         <v>44089</v>
       </c>
-      <c r="F365" s="18"/>
+      <c r="F365" s="20">
+        <v>44098</v>
+      </c>
       <c r="G365" s="21" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+      <c r="I365" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="18">
         <v>362</v>
       </c>
@@ -13521,10 +15012,14 @@
         <v>44097</v>
       </c>
       <c r="G366" s="21" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>484</v>
+      </c>
+      <c r="I366" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>退院済み</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="18">
         <v>363</v>
       </c>
@@ -13542,10 +15037,14 @@
       </c>
       <c r="F367" s="18"/>
       <c r="G367" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+      <c r="I367" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="18">
         <v>364</v>
       </c>
@@ -13563,10 +15062,14 @@
       </c>
       <c r="F368" s="18"/>
       <c r="G368" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+      <c r="I368" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="18">
         <v>365</v>
       </c>
@@ -13584,15 +15087,19 @@
       </c>
       <c r="F369" s="18"/>
       <c r="G369" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+      <c r="I369" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="18">
         <v>366</v>
       </c>
       <c r="B370" s="34" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C370" s="19" t="s">
         <v>70</v>
@@ -13605,10 +15112,14 @@
       </c>
       <c r="F370" s="18"/>
       <c r="G370" s="21" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+      <c r="I370" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="18">
         <v>367</v>
       </c>
@@ -13626,8 +15137,12 @@
       </c>
       <c r="F371" s="18"/>
       <c r="G371" s="21"/>
-    </row>
-    <row r="372" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I371" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="18">
         <v>368</v>
       </c>
@@ -13645,27 +15160,35 @@
       </c>
       <c r="F372" s="18"/>
       <c r="G372" s="21"/>
-    </row>
-    <row r="373" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I372" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="18">
         <v>369</v>
       </c>
       <c r="B373" s="34" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C373" s="19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D373" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E373" s="20">
         <v>44090</v>
       </c>
       <c r="F373" s="18"/>
       <c r="G373" s="21"/>
-    </row>
-    <row r="374" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I373" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="18">
         <v>370</v>
       </c>
@@ -13683,10 +15206,14 @@
       </c>
       <c r="F374" s="18"/>
       <c r="G374" s="21" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>495</v>
+      </c>
+      <c r="I374" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="18">
         <v>371</v>
       </c>
@@ -13704,10 +15231,14 @@
       </c>
       <c r="F375" s="18"/>
       <c r="G375" s="24" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>499</v>
+      </c>
+      <c r="I375" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="18">
         <v>372</v>
       </c>
@@ -13725,10 +15256,14 @@
       </c>
       <c r="F376" s="18"/>
       <c r="G376" s="24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+      <c r="I376" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="18">
         <v>373</v>
       </c>
@@ -13746,10 +15281,14 @@
       </c>
       <c r="F377" s="18"/>
       <c r="G377" s="21" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>496</v>
+      </c>
+      <c r="I377" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="18">
         <v>374</v>
       </c>
@@ -13767,10 +15306,14 @@
       </c>
       <c r="F378" s="18"/>
       <c r="G378" s="21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>498</v>
+      </c>
+      <c r="I378" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="18">
         <v>375</v>
       </c>
@@ -13788,31 +15331,39 @@
       </c>
       <c r="F379" s="18"/>
       <c r="G379" s="24" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+      <c r="I379" s="1" t="str">
+        <f t="shared" ref="I379:I406" si="7">IF(COUNT(F379)&gt;=1,"退院済み","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:9" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="18">
         <v>376</v>
       </c>
       <c r="B380" s="34" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C380" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D380" s="18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E380" s="20">
         <v>44092</v>
       </c>
       <c r="F380" s="18"/>
       <c r="G380" s="24" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>503</v>
+      </c>
+      <c r="I380" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="27">
         <v>377</v>
       </c>
@@ -13830,15 +15381,19 @@
       </c>
       <c r="F381" s="27"/>
       <c r="G381" s="28" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+      <c r="I381" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="27">
         <v>378</v>
       </c>
       <c r="B382" s="36" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C382" s="25" t="s">
         <v>67</v>
@@ -13851,10 +15406,14 @@
       </c>
       <c r="F382" s="27"/>
       <c r="G382" s="28" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>506</v>
+      </c>
+      <c r="I382" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="27">
         <v>379</v>
       </c>
@@ -13872,18 +15431,22 @@
       </c>
       <c r="F383" s="27"/>
       <c r="G383" s="28" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>507</v>
+      </c>
+      <c r="I383" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="27">
         <v>380</v>
       </c>
       <c r="B384" s="36" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C384" s="25" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D384" s="27" t="s">
         <v>134</v>
@@ -13893,18 +15456,22 @@
       </c>
       <c r="F384" s="27"/>
       <c r="G384" s="28" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>513</v>
+      </c>
+      <c r="I384" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="27">
         <v>381</v>
       </c>
       <c r="B385" s="36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C385" s="25" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D385" s="27" t="s">
         <v>134</v>
@@ -13914,16 +15481,20 @@
       </c>
       <c r="F385" s="27"/>
       <c r="G385" s="28"/>
-    </row>
-    <row r="386" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I385" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="27">
         <v>382</v>
       </c>
       <c r="B386" s="36" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C386" s="25" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D386" s="27" t="s">
         <v>134</v>
@@ -13933,18 +15504,22 @@
       </c>
       <c r="F386" s="27"/>
       <c r="G386" s="28" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+      <c r="I386" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="27">
         <v>383</v>
       </c>
       <c r="B387" s="36" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C387" s="25" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D387" s="27" t="s">
         <v>134</v>
@@ -13954,10 +15529,14 @@
       </c>
       <c r="F387" s="27"/>
       <c r="G387" s="28" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>515</v>
+      </c>
+      <c r="I387" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="27">
         <v>384</v>
       </c>
@@ -13975,10 +15554,14 @@
       </c>
       <c r="F388" s="27"/>
       <c r="G388" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>512</v>
+      </c>
+      <c r="I388" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="27">
         <v>385</v>
       </c>
@@ -13996,8 +15579,12 @@
       </c>
       <c r="F389" s="27"/>
       <c r="G389" s="28"/>
-    </row>
-    <row r="390" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I389" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="27">
         <v>386</v>
       </c>
@@ -14015,10 +15602,14 @@
       </c>
       <c r="F390" s="27"/>
       <c r="G390" s="28" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>517</v>
+      </c>
+      <c r="I390" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="27">
         <v>387</v>
       </c>
@@ -14036,31 +15627,39 @@
       </c>
       <c r="F391" s="27"/>
       <c r="G391" s="28" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>516</v>
+      </c>
+      <c r="I391" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="27">
         <v>388</v>
       </c>
       <c r="B392" s="36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C392" s="25" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D392" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E392" s="37">
         <v>44095</v>
       </c>
       <c r="F392" s="27"/>
       <c r="G392" s="28" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>534</v>
+      </c>
+      <c r="I392" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="27">
         <v>389</v>
       </c>
@@ -14071,267 +15670,319 @@
         <v>70</v>
       </c>
       <c r="D393" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E393" s="37">
         <v>44095</v>
       </c>
       <c r="F393" s="27"/>
       <c r="G393" s="28" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+      <c r="I393" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="27">
         <v>390</v>
       </c>
       <c r="B394" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="C394" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="D394" s="27" t="s">
         <v>520</v>
-      </c>
-      <c r="C394" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="D394" s="27" t="s">
-        <v>519</v>
       </c>
       <c r="E394" s="37">
         <v>44095</v>
       </c>
       <c r="F394" s="27"/>
       <c r="G394" s="28" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+      <c r="I394" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="27">
         <v>391</v>
       </c>
       <c r="B395" s="36" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C395" s="25" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D395" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E395" s="37">
         <v>44095</v>
       </c>
       <c r="F395" s="27"/>
       <c r="G395" s="28" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>535</v>
+      </c>
+      <c r="I395" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="27">
         <v>392</v>
       </c>
       <c r="B396" s="36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C396" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E396" s="37">
         <v>44095</v>
       </c>
       <c r="F396" s="27"/>
       <c r="G396" s="28" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>533</v>
+      </c>
+      <c r="I396" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A397" s="27">
         <v>393</v>
       </c>
       <c r="B397" s="36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C397" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D397" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E397" s="37">
         <v>44095</v>
       </c>
       <c r="F397" s="27"/>
       <c r="G397" s="28" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>533</v>
+      </c>
+      <c r="I397" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" s="27">
         <v>394</v>
       </c>
       <c r="B398" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="C398" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="D398" s="27" t="s">
         <v>520</v>
-      </c>
-      <c r="C398" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="D398" s="27" t="s">
-        <v>519</v>
       </c>
       <c r="E398" s="37">
         <v>44095</v>
       </c>
       <c r="F398" s="27"/>
       <c r="G398" s="28" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>536</v>
+      </c>
+      <c r="I398" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" s="27">
         <v>395</v>
       </c>
       <c r="B399" s="36" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C399" s="25" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D399" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E399" s="37">
         <v>44095</v>
       </c>
       <c r="F399" s="27"/>
       <c r="G399" s="28" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>537</v>
+      </c>
+      <c r="I399" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A400" s="27">
         <v>396</v>
       </c>
       <c r="B400" s="36" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C400" s="25" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D400" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E400" s="37">
         <v>44095</v>
       </c>
       <c r="F400" s="27"/>
       <c r="G400" s="28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>529</v>
+      </c>
+      <c r="I400" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A401" s="27">
         <v>397</v>
       </c>
       <c r="B401" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C401" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D401" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E401" s="37">
         <v>44095</v>
       </c>
       <c r="F401" s="27"/>
       <c r="G401" s="28" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>538</v>
+      </c>
+      <c r="I401" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" s="27">
         <v>398</v>
       </c>
       <c r="B402" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C402" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D402" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E402" s="37">
         <v>44095</v>
       </c>
       <c r="F402" s="27"/>
       <c r="G402" s="28" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>539</v>
+      </c>
+      <c r="I402" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" s="27">
         <v>399</v>
       </c>
       <c r="B403" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C403" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D403" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E403" s="37">
         <v>44095</v>
       </c>
       <c r="F403" s="27"/>
       <c r="G403" s="28" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>544</v>
+      </c>
+      <c r="I403" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" s="27">
         <v>400</v>
       </c>
       <c r="B404" s="36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C404" s="25" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D404" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E404" s="37">
         <v>44095</v>
       </c>
       <c r="F404" s="27"/>
       <c r="G404" s="28" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>530</v>
+      </c>
+      <c r="I404" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" s="18">
         <v>401</v>
       </c>
       <c r="B405" s="34" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C405" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D405" s="51" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E405" s="20">
         <v>44095</v>
       </c>
       <c r="F405" s="18"/>
       <c r="G405" s="24"/>
-    </row>
-    <row r="406" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I405" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" s="18">
         <v>402</v>
       </c>
@@ -14339,152 +15990,235 @@
         <v>81</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D406" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E406" s="20">
         <v>44096</v>
       </c>
       <c r="F406" s="18"/>
       <c r="G406" s="24"/>
-    </row>
-    <row r="407" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A407" s="52">
+      <c r="I406" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A407" s="18">
         <v>403</v>
       </c>
-      <c r="B407" s="53" t="s">
+      <c r="B407" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C407" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D407" s="52" t="s">
+      <c r="C407" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D407" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E407" s="55">
+      <c r="E407" s="20">
         <v>44097</v>
       </c>
-      <c r="F407" s="52"/>
-      <c r="G407" s="56"/>
-    </row>
-    <row r="408" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A408" s="52">
+      <c r="F407" s="18"/>
+      <c r="G407" s="24"/>
+      <c r="I407" s="1"/>
+    </row>
+    <row r="408" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A408" s="18">
         <v>404</v>
       </c>
-      <c r="B408" s="53" t="s">
+      <c r="B408" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C408" s="54" t="s">
+      <c r="C408" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D408" s="52" t="s">
+      <c r="D408" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E408" s="55">
+      <c r="E408" s="20">
         <v>44097</v>
       </c>
-      <c r="F408" s="52"/>
-      <c r="G408" s="56"/>
-    </row>
-    <row r="409" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A409" s="52">
+      <c r="F408" s="18"/>
+      <c r="G408" s="24"/>
+      <c r="I408" s="1"/>
+    </row>
+    <row r="409" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A409" s="18">
         <v>405</v>
       </c>
-      <c r="B409" s="53" t="s">
+      <c r="B409" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C409" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D409" s="52" t="s">
+      <c r="C409" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D409" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E409" s="55">
+      <c r="E409" s="20">
         <v>44097</v>
       </c>
-      <c r="F409" s="52"/>
-      <c r="G409" s="56" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A410" s="52">
+      <c r="F409" s="18"/>
+      <c r="G409" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="I409" s="1"/>
+    </row>
+    <row r="410" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A410" s="18">
         <v>406</v>
       </c>
-      <c r="B410" s="53" t="s">
+      <c r="B410" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C410" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D410" s="52" t="s">
+      <c r="C410" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D410" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E410" s="55">
+      <c r="E410" s="20">
         <v>44097</v>
       </c>
-      <c r="F410" s="52"/>
-      <c r="G410" s="56" t="s">
+      <c r="F410" s="18"/>
+      <c r="G410" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="I410" s="1"/>
+    </row>
+    <row r="411" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A411" s="18">
+        <v>407</v>
+      </c>
+      <c r="B411" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C411" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D411" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E411" s="20">
+        <v>44097</v>
+      </c>
+      <c r="F411" s="18"/>
+      <c r="G411" s="24" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A411" s="52">
-        <v>407</v>
-      </c>
-      <c r="B411" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C411" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D411" s="52" t="s">
+      <c r="I411" s="1"/>
+    </row>
+    <row r="412" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A412" s="18">
+        <v>408</v>
+      </c>
+      <c r="B412" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C412" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D412" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E411" s="55">
+      <c r="E412" s="20">
         <v>44097</v>
       </c>
-      <c r="F411" s="52"/>
-      <c r="G411" s="56" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A412" s="52">
-        <v>408</v>
-      </c>
-      <c r="B412" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C412" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D412" s="52" t="s">
+      <c r="F412" s="18"/>
+      <c r="G412" s="24"/>
+      <c r="I412" s="1"/>
+    </row>
+    <row r="413" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A413" s="52">
+        <v>409</v>
+      </c>
+      <c r="B413" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C413" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D413" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E412" s="55">
+      <c r="E413" s="55">
         <v>44097</v>
       </c>
-      <c r="F412" s="52"/>
-      <c r="G412" s="56"/>
-    </row>
-    <row r="413" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A413" s="58" t="s">
+      <c r="F413" s="52"/>
+      <c r="G413" s="56" t="s">
+        <v>548</v>
+      </c>
+      <c r="I413" s="1"/>
+    </row>
+    <row r="414" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A414" s="52">
+        <v>410</v>
+      </c>
+      <c r="B414" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C414" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D414" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E414" s="55">
+        <v>44098</v>
+      </c>
+      <c r="F414" s="52"/>
+      <c r="G414" s="56" t="s">
+        <v>549</v>
+      </c>
+      <c r="I414" s="1"/>
+    </row>
+    <row r="415" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A415" s="52">
+        <v>411</v>
+      </c>
+      <c r="B415" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C415" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D415" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E415" s="55">
+        <v>44098</v>
+      </c>
+      <c r="F415" s="52"/>
+      <c r="G415" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="I415" s="1"/>
+    </row>
+    <row r="416" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A416" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B413" s="58"/>
-      <c r="C413" s="58"/>
-      <c r="D413" s="58"/>
-      <c r="E413" s="58"/>
-      <c r="F413" s="58"/>
-      <c r="G413" s="58"/>
+      <c r="B416" s="59"/>
+      <c r="C416" s="59"/>
+      <c r="D416" s="59"/>
+      <c r="E416" s="59"/>
+      <c r="F416" s="59"/>
+      <c r="G416" s="59"/>
+    </row>
+    <row r="417" spans="9:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I417" s="1" t="str">
+        <f t="shared" ref="I417" si="8">IF(COUNT(F417)&gt;=1,"退院済み","")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A413:G413"/>
+    <mergeCell ref="A416:G416"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200924\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200926\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$416</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$432</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="576">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -3775,10 +3775,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>退院済み</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※宇都宮市123例目</t>
     <rPh sb="1" eb="5">
       <t>ウツノミヤシ</t>
@@ -4684,6 +4680,212 @@
     <t>No.364･370･372･380･384･394･395･406･407･410の同僚</t>
     <rPh sb="43" eb="45">
       <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市125例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市126例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10才未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足利市</t>
+    <rPh sb="0" eb="3">
+      <t>アシカガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.415の弟</t>
+    <rPh sb="7" eb="8">
+      <t>オトウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐野市</t>
+    <rPh sb="0" eb="3">
+      <t>サノシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿沼市</t>
+    <rPh sb="0" eb="3">
+      <t>カヌマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.408の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.364･370･372･380･384･394･395･406･407･410･411･423･424の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.364･370･372･380･384･394･395･406･407･410･411･422･424の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.364･370･372･380･384･394･395･406･407･410･411･422･423の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.416の姉</t>
+    <rPh sb="7" eb="8">
+      <t>アネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9/25発生届取下げのため削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.419の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.364･370･372･380･384･394･395･406･407･410･411･422･423･424の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.420の夫、他県での陽性判明者との接触あり</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県での陽性判明者との接触あり　※宇都宮市127例目</t>
+    <rPh sb="0" eb="2">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4854,7 +5056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5026,8 +5228,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5062,6 +5267,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>840441</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="112059" y="115252500"/>
+          <a:ext cx="3910853" cy="11206"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5330,11 +5585,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:G432"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K406" sqref="K406"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L415" sqref="L415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5344,23 +5599,21 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5383,7 +5636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -5405,12 +5658,8 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I18" si="0">IF(COUNT(F3)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -5432,12 +5681,8 @@
       <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -5459,12 +5704,8 @@
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -5486,12 +5727,8 @@
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -5513,12 +5750,8 @@
       <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5540,12 +5773,8 @@
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -5567,12 +5796,8 @@
       <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -5594,12 +5819,8 @@
       <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -5621,12 +5842,8 @@
       <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -5648,12 +5865,8 @@
       <c r="G12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -5675,12 +5888,8 @@
       <c r="G13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -5702,12 +5911,8 @@
       <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5729,12 +5934,8 @@
       <c r="G15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -5754,12 +5955,8 @@
         <v>43948</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5781,12 +5978,8 @@
       <c r="G17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5808,12 +6001,8 @@
       <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5833,22 +6022,18 @@
         <v>43969</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="I19" s="1" t="str">
-        <f>IF(COUNT(F19)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="60">
+    </row>
+    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="61">
         <v>18</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="61" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="8">
@@ -5857,28 +6042,24 @@
       <c r="F20" s="8">
         <v>43959</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="57" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="14">
         <v>43973</v>
       </c>
       <c r="F21" s="8">
         <v>43990</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="64"/>
+    </row>
+    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5900,12 +6081,8 @@
       <c r="G22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="1" t="str">
-        <f>IF(COUNT(F22)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5925,12 +6102,8 @@
         <v>43949</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="I23" s="1" t="str">
-        <f t="shared" ref="I23:I56" si="1">IF(COUNT(F23)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5952,12 +6125,8 @@
       <c r="G24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -5979,12 +6148,8 @@
       <c r="G25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6006,12 +6171,8 @@
       <c r="G26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6033,12 +6194,8 @@
       <c r="G27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6060,12 +6217,8 @@
       <c r="G28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6087,12 +6240,8 @@
       <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6114,12 +6263,8 @@
       <c r="G30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6141,12 +6286,8 @@
       <c r="G31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6166,12 +6307,8 @@
         <v>43940</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="I32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6191,12 +6328,8 @@
         <v>43970</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="I33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6216,12 +6349,8 @@
         <v>43978</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="I34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -6243,12 +6372,8 @@
       <c r="G35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -6270,12 +6395,8 @@
       <c r="G36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6295,12 +6416,8 @@
         <v>43949</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="I37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -6320,12 +6437,8 @@
         <v>43945</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="I38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -6347,12 +6460,8 @@
       <c r="G39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -6372,12 +6481,8 @@
         <v>43963</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="I40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -6399,12 +6504,8 @@
       <c r="G41" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -6424,12 +6525,8 @@
         <v>43960</v>
       </c>
       <c r="G42" s="4"/>
-      <c r="I42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -6451,12 +6548,8 @@
       <c r="G43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -6478,12 +6571,8 @@
       <c r="G44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -6505,12 +6594,8 @@
       <c r="G45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -6530,12 +6615,8 @@
         <v>43960</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="I46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -6557,12 +6638,8 @@
       <c r="G47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -6584,12 +6661,8 @@
       <c r="G48" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -6609,12 +6682,8 @@
         <v>43953</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="I49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -6636,12 +6705,8 @@
       <c r="G50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -6663,12 +6728,8 @@
       <c r="G51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -6690,12 +6751,8 @@
       <c r="G52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -6715,12 +6772,8 @@
         <v>43962</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="I53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -6742,12 +6795,8 @@
       <c r="G54" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -6769,12 +6818,8 @@
       <c r="G55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -6794,12 +6839,8 @@
         <v>43985</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="I56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -6819,12 +6860,8 @@
         <v>43970</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="I57" s="1" t="str">
-        <f t="shared" ref="I57:I122" si="2">IF(COUNT(F57)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>55</v>
       </c>
@@ -6847,7 +6884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -6869,12 +6906,8 @@
       <c r="G59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -6896,12 +6929,8 @@
       <c r="G60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -6923,12 +6952,8 @@
       <c r="G61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -6950,12 +6975,8 @@
       <c r="G62" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -6977,12 +6998,8 @@
       <c r="G63" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -7004,12 +7021,8 @@
       <c r="G64" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -7031,12 +7044,8 @@
       <c r="G65" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -7058,12 +7067,8 @@
       <c r="G66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -7085,12 +7090,8 @@
       <c r="G67" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -7112,12 +7113,8 @@
       <c r="G68" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -7139,12 +7136,8 @@
       <c r="G69" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -7164,12 +7157,8 @@
         <v>43993</v>
       </c>
       <c r="G70" s="15"/>
-      <c r="I70" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>67</v>
       </c>
@@ -7191,12 +7180,8 @@
       <c r="G71" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16">
         <v>68</v>
       </c>
@@ -7218,12 +7203,8 @@
       <c r="G72" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I72" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="16">
         <v>69</v>
       </c>
@@ -7245,12 +7226,8 @@
       <c r="G73" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>70</v>
       </c>
@@ -7272,12 +7249,8 @@
       <c r="G74" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="I74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="16">
         <v>71</v>
       </c>
@@ -7299,12 +7272,8 @@
       <c r="G75" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="16">
         <v>72</v>
       </c>
@@ -7326,12 +7295,8 @@
       <c r="G76" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16">
         <v>73</v>
       </c>
@@ -7353,12 +7318,8 @@
       <c r="G77" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I77" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>74</v>
       </c>
@@ -7380,12 +7341,8 @@
       <c r="G78" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>75</v>
       </c>
@@ -7407,12 +7364,8 @@
       <c r="G79" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I79" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>76</v>
       </c>
@@ -7434,12 +7387,8 @@
       <c r="G80" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="I80" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>77</v>
       </c>
@@ -7459,12 +7408,8 @@
         <v>44021</v>
       </c>
       <c r="G81" s="17"/>
-      <c r="I81" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>78</v>
       </c>
@@ -7484,12 +7429,8 @@
         <v>44021</v>
       </c>
       <c r="G82" s="17"/>
-      <c r="I82" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>79</v>
       </c>
@@ -7511,12 +7452,8 @@
       <c r="G83" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="I83" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>80</v>
       </c>
@@ -7538,12 +7475,8 @@
       <c r="G84" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="I84" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>81</v>
       </c>
@@ -7565,12 +7498,8 @@
       <c r="G85" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="I85" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>82</v>
       </c>
@@ -7592,12 +7521,8 @@
       <c r="G86" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="I86" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>83</v>
       </c>
@@ -7619,12 +7544,8 @@
       <c r="G87" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I87" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>84</v>
       </c>
@@ -7646,12 +7567,8 @@
       <c r="G88" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="I88" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>85</v>
       </c>
@@ -7673,12 +7590,8 @@
       <c r="G89" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I89" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>86</v>
       </c>
@@ -7700,12 +7613,8 @@
       <c r="G90" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I90" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="18">
         <v>87</v>
       </c>
@@ -7727,12 +7636,8 @@
       <c r="G91" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="I91" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="18">
         <v>88</v>
       </c>
@@ -7754,12 +7659,8 @@
       <c r="G92" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="I92" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="19">
         <v>89</v>
       </c>
@@ -7781,12 +7682,8 @@
       <c r="G93" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="I93" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="19">
         <v>90</v>
       </c>
@@ -7808,12 +7705,8 @@
       <c r="G94" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="I94" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>91</v>
       </c>
@@ -7833,12 +7726,8 @@
         <v>44033</v>
       </c>
       <c r="G95" s="23"/>
-      <c r="I95" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="18">
         <v>92</v>
       </c>
@@ -7860,12 +7749,8 @@
       <c r="G96" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="I96" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="18">
         <v>93</v>
       </c>
@@ -7885,12 +7770,8 @@
         <v>44037</v>
       </c>
       <c r="G97" s="23"/>
-      <c r="I97" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="19">
         <v>94</v>
       </c>
@@ -7912,12 +7793,8 @@
       <c r="G98" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I98" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="19">
         <v>95</v>
       </c>
@@ -7939,12 +7816,8 @@
       <c r="G99" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I99" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="19">
         <v>96</v>
       </c>
@@ -7966,12 +7839,8 @@
       <c r="G100" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I100" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="19">
         <v>97</v>
       </c>
@@ -7993,12 +7862,8 @@
       <c r="G101" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="I101" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="19">
         <v>98</v>
       </c>
@@ -8020,12 +7885,8 @@
       <c r="G102" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I102" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="25">
         <v>99</v>
       </c>
@@ -8047,12 +7908,8 @@
       <c r="G103" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I103" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="25">
         <v>100</v>
       </c>
@@ -8074,12 +7931,8 @@
       <c r="G104" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I104" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="25">
         <v>101</v>
       </c>
@@ -8101,12 +7954,8 @@
       <c r="G105" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I105" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="25">
         <v>102</v>
       </c>
@@ -8128,12 +7977,8 @@
       <c r="G106" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I106" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="25">
         <v>103</v>
       </c>
@@ -8155,12 +8000,8 @@
       <c r="G107" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I107" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="19">
         <v>104</v>
       </c>
@@ -8180,12 +8021,8 @@
         <v>44042</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="I108" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="30">
         <v>105</v>
       </c>
@@ -8207,12 +8044,8 @@
       <c r="G109" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="I109" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="19">
         <v>106</v>
       </c>
@@ -8234,12 +8067,8 @@
       <c r="G110" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="I110" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="19">
         <v>107</v>
       </c>
@@ -8261,12 +8090,8 @@
       <c r="G111" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="I111" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="19">
         <v>108</v>
       </c>
@@ -8288,12 +8113,8 @@
       <c r="G112" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="I112" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="19">
         <v>109</v>
       </c>
@@ -8315,12 +8136,8 @@
       <c r="G113" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="I113" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="19">
         <v>110</v>
       </c>
@@ -8342,12 +8159,8 @@
       <c r="G114" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="I114" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="19">
         <v>111</v>
       </c>
@@ -8369,12 +8182,8 @@
       <c r="G115" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I115" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="19">
         <v>112</v>
       </c>
@@ -8396,12 +8205,8 @@
       <c r="G116" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="I116" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="19">
         <v>113</v>
       </c>
@@ -8423,12 +8228,8 @@
       <c r="G117" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="I117" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="19">
         <v>114</v>
       </c>
@@ -8450,12 +8251,8 @@
       <c r="G118" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="I118" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="19">
         <v>115</v>
       </c>
@@ -8477,12 +8274,8 @@
       <c r="G119" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="I119" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="19">
         <v>116</v>
       </c>
@@ -8504,12 +8297,8 @@
       <c r="G120" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I120" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="19">
         <v>117</v>
       </c>
@@ -8531,12 +8320,8 @@
       <c r="G121" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="I121" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="19">
         <v>118</v>
       </c>
@@ -8558,12 +8343,8 @@
       <c r="G122" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="I122" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="25">
         <v>119</v>
       </c>
@@ -8585,12 +8366,8 @@
       <c r="G123" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="I123" s="1" t="str">
-        <f t="shared" ref="I123:I186" si="3">IF(COUNT(F123)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="25">
         <v>120</v>
       </c>
@@ -8612,12 +8389,8 @@
       <c r="G124" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I124" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="25">
         <v>121</v>
       </c>
@@ -8639,12 +8412,8 @@
       <c r="G125" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="I125" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="25">
         <v>122</v>
       </c>
@@ -8666,12 +8435,8 @@
       <c r="G126" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="I126" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="25">
         <v>123</v>
       </c>
@@ -8693,12 +8458,8 @@
       <c r="G127" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="I127" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:7" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="25">
         <v>124</v>
       </c>
@@ -8720,12 +8481,8 @@
       <c r="G128" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="I128" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="19">
         <v>125</v>
       </c>
@@ -8747,12 +8504,8 @@
       <c r="G129" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="I129" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="130" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="19">
         <v>126</v>
       </c>
@@ -8774,12 +8527,8 @@
       <c r="G130" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="I130" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="19">
         <v>127</v>
       </c>
@@ -8801,12 +8550,8 @@
       <c r="G131" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="I131" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="19">
         <v>128</v>
       </c>
@@ -8828,12 +8573,8 @@
       <c r="G132" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="I132" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="19">
         <v>129</v>
       </c>
@@ -8855,12 +8596,8 @@
       <c r="G133" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="I133" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="134" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="19">
         <v>130</v>
       </c>
@@ -8882,12 +8619,8 @@
       <c r="G134" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="I134" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="135" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="19">
         <v>131</v>
       </c>
@@ -8909,12 +8642,8 @@
       <c r="G135" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="I135" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="136" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="19">
         <v>132</v>
       </c>
@@ -8936,12 +8665,8 @@
       <c r="G136" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="I136" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="137" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="19">
         <v>133</v>
       </c>
@@ -8961,12 +8686,8 @@
         <v>44043</v>
       </c>
       <c r="G137" s="35"/>
-      <c r="I137" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="19">
         <v>134</v>
       </c>
@@ -8988,12 +8709,8 @@
       <c r="G138" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="I138" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="19">
         <v>135</v>
       </c>
@@ -9015,12 +8732,8 @@
       <c r="G139" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="I139" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="19">
         <v>136</v>
       </c>
@@ -9042,12 +8755,8 @@
       <c r="G140" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="I140" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="141" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="19">
         <v>137</v>
       </c>
@@ -9069,12 +8778,8 @@
       <c r="G141" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="I141" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="142" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="19">
         <v>138</v>
       </c>
@@ -9096,12 +8801,8 @@
       <c r="G142" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="I142" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="143" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="19">
         <v>139</v>
       </c>
@@ -9123,12 +8824,8 @@
       <c r="G143" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I143" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="144" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="19">
         <v>140</v>
       </c>
@@ -9150,12 +8847,8 @@
       <c r="G144" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I144" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="145" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="19">
         <v>141</v>
       </c>
@@ -9177,12 +8870,8 @@
       <c r="G145" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="I145" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="19">
         <v>142</v>
       </c>
@@ -9204,12 +8893,8 @@
       <c r="G146" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="I146" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="147" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="19">
         <v>143</v>
       </c>
@@ -9229,12 +8914,8 @@
         <v>44042</v>
       </c>
       <c r="G147" s="21"/>
-      <c r="I147" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="148" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="19">
         <v>144</v>
       </c>
@@ -9256,12 +8937,8 @@
       <c r="G148" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="I148" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="19">
         <v>145</v>
       </c>
@@ -9281,12 +8958,8 @@
         <v>44054</v>
       </c>
       <c r="G149" s="21"/>
-      <c r="I149" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="150" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="19">
         <v>146</v>
       </c>
@@ -9306,12 +8979,8 @@
         <v>44049</v>
       </c>
       <c r="G150" s="21"/>
-      <c r="I150" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="19">
         <v>147</v>
       </c>
@@ -9331,12 +9000,8 @@
         <v>44044</v>
       </c>
       <c r="G151" s="21"/>
-      <c r="I151" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="19">
         <v>148</v>
       </c>
@@ -9356,12 +9021,8 @@
         <v>44044</v>
       </c>
       <c r="G152" s="21"/>
-      <c r="I152" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="19">
         <v>149</v>
       </c>
@@ -9383,12 +9044,8 @@
       <c r="G153" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="I153" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="154" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="19">
         <v>150</v>
       </c>
@@ -9410,12 +9067,8 @@
       <c r="G154" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="I154" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="155" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="19">
         <v>151</v>
       </c>
@@ -9437,12 +9090,8 @@
       <c r="G155" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="I155" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="156" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="25">
         <v>152</v>
       </c>
@@ -9464,12 +9113,8 @@
       <c r="G156" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="I156" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="157" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="25">
         <v>153</v>
       </c>
@@ -9491,12 +9136,8 @@
       <c r="G157" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="I157" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="158" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="25">
         <v>154</v>
       </c>
@@ -9518,12 +9159,8 @@
       <c r="G158" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="I158" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="159" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="25">
         <v>155</v>
       </c>
@@ -9545,12 +9182,8 @@
       <c r="G159" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="I159" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="160" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="25">
         <v>156</v>
       </c>
@@ -9572,12 +9205,8 @@
       <c r="G160" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="I160" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="161" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="25">
         <v>157</v>
       </c>
@@ -9599,12 +9228,8 @@
       <c r="G161" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="I161" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="162" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="25">
         <v>158</v>
       </c>
@@ -9626,12 +9251,8 @@
       <c r="G162" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="I162" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="163" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="25">
         <v>159</v>
       </c>
@@ -9653,12 +9274,8 @@
       <c r="G163" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="I163" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="164" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="25">
         <v>160</v>
       </c>
@@ -9680,12 +9297,8 @@
       <c r="G164" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="I164" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="165" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="25">
         <v>161</v>
       </c>
@@ -9707,12 +9320,8 @@
       <c r="G165" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="I165" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="166" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="25">
         <v>162</v>
       </c>
@@ -9734,12 +9343,8 @@
       <c r="G166" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="I166" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="167" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="25">
         <v>163</v>
       </c>
@@ -9761,12 +9366,8 @@
       <c r="G167" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I167" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="168" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="19">
         <v>164</v>
       </c>
@@ -9788,12 +9389,8 @@
       <c r="G168" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="I168" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="169" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="19">
         <v>165</v>
       </c>
@@ -9815,12 +9412,8 @@
       <c r="G169" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I169" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="170" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="19">
         <v>166</v>
       </c>
@@ -9842,12 +9435,8 @@
       <c r="G170" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="I170" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="171" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="19">
         <v>167</v>
       </c>
@@ -9869,12 +9458,8 @@
       <c r="G171" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="I171" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="172" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="19">
         <v>168</v>
       </c>
@@ -9896,12 +9481,8 @@
       <c r="G172" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="I172" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="173" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="19">
         <v>169</v>
       </c>
@@ -9923,12 +9504,8 @@
       <c r="G173" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="I173" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="174" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="19">
         <v>170</v>
       </c>
@@ -9950,12 +9527,8 @@
       <c r="G174" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="I174" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="175" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="19">
         <v>171</v>
       </c>
@@ -9977,12 +9550,8 @@
       <c r="G175" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="I175" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="176" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="19">
         <v>172</v>
       </c>
@@ -10002,12 +9571,8 @@
         <v>44055</v>
       </c>
       <c r="G176" s="21"/>
-      <c r="I176" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="177" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="19">
         <v>173</v>
       </c>
@@ -10029,12 +9594,8 @@
       <c r="G177" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="I177" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="178" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="19">
         <v>174</v>
       </c>
@@ -10056,12 +9617,8 @@
       <c r="G178" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="I178" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="179" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="19">
         <v>175</v>
       </c>
@@ -10083,12 +9640,8 @@
       <c r="G179" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="I179" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="180" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="19">
         <v>176</v>
       </c>
@@ -10110,12 +9663,8 @@
       <c r="G180" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="I180" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="181" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="19">
         <v>177</v>
       </c>
@@ -10137,12 +9686,8 @@
       <c r="G181" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="I181" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="182" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="19">
         <v>178</v>
       </c>
@@ -10164,12 +9709,8 @@
       <c r="G182" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="I182" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="19">
         <v>179</v>
       </c>
@@ -10191,12 +9732,8 @@
       <c r="G183" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="I183" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="184" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="19">
         <v>180</v>
       </c>
@@ -10218,12 +9755,8 @@
       <c r="G184" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="I184" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="19">
         <v>181</v>
       </c>
@@ -10245,12 +9778,8 @@
       <c r="G185" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="I185" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="186" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="19">
         <v>182</v>
       </c>
@@ -10272,12 +9801,8 @@
       <c r="G186" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="I186" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="19">
         <v>183</v>
       </c>
@@ -10299,12 +9824,8 @@
       <c r="G187" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I187" s="1" t="str">
-        <f t="shared" ref="I187:I250" si="4">IF(COUNT(F187)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="188" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="19">
         <v>184</v>
       </c>
@@ -10326,12 +9847,8 @@
       <c r="G188" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="I188" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="19">
         <v>185</v>
       </c>
@@ -10353,12 +9870,8 @@
       <c r="G189" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="I189" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="190" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="19">
         <v>186</v>
       </c>
@@ -10378,12 +9891,8 @@
         <v>44054</v>
       </c>
       <c r="G190" s="21"/>
-      <c r="I190" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="19">
         <v>187</v>
       </c>
@@ -10405,12 +9914,8 @@
       <c r="G191" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="I191" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="19">
         <v>188</v>
       </c>
@@ -10432,12 +9937,8 @@
       <c r="G192" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="I192" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="193" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="19">
         <v>189</v>
       </c>
@@ -10459,12 +9960,8 @@
       <c r="G193" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="I193" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="19">
         <v>190</v>
       </c>
@@ -10486,12 +9983,8 @@
       <c r="G194" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="I194" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="19">
         <v>191</v>
       </c>
@@ -10513,12 +10006,8 @@
       <c r="G195" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="I195" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="19">
         <v>192</v>
       </c>
@@ -10540,12 +10029,8 @@
       <c r="G196" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="I196" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="19">
         <v>193</v>
       </c>
@@ -10567,12 +10052,8 @@
       <c r="G197" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="I197" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="19">
         <v>194</v>
       </c>
@@ -10592,12 +10073,8 @@
         <v>44058</v>
       </c>
       <c r="G198" s="21"/>
-      <c r="I198" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="19">
         <v>195</v>
       </c>
@@ -10619,12 +10096,8 @@
       <c r="G199" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="I199" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="19">
         <v>196</v>
       </c>
@@ -10646,12 +10119,8 @@
       <c r="G200" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I200" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="19">
         <v>197</v>
       </c>
@@ -10673,12 +10142,8 @@
       <c r="G201" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="I201" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="19">
         <v>198</v>
       </c>
@@ -10700,12 +10165,8 @@
       <c r="G202" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I202" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="203" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="19">
         <v>199</v>
       </c>
@@ -10727,12 +10188,8 @@
       <c r="G203" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="I203" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="204" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="19">
         <v>200</v>
       </c>
@@ -10750,12 +10207,8 @@
       </c>
       <c r="F204" s="20"/>
       <c r="G204" s="21"/>
-      <c r="I204" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="205" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="19">
         <v>201</v>
       </c>
@@ -10777,12 +10230,8 @@
       <c r="G205" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I205" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="19">
         <v>202</v>
       </c>
@@ -10804,12 +10253,8 @@
       <c r="G206" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="I206" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="207" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="19">
         <v>203</v>
       </c>
@@ -10831,12 +10276,8 @@
       <c r="G207" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I207" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="19">
         <v>204</v>
       </c>
@@ -10858,12 +10299,8 @@
       <c r="G208" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="I208" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="209" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="19">
         <v>205</v>
       </c>
@@ -10885,12 +10322,8 @@
       <c r="G209" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="I209" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="210" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="19">
         <v>206</v>
       </c>
@@ -10912,12 +10345,8 @@
       <c r="G210" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="I210" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="211" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="19">
         <v>207</v>
       </c>
@@ -10939,12 +10368,8 @@
       <c r="G211" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="I211" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="212" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="19">
         <v>208</v>
       </c>
@@ -10966,12 +10391,8 @@
       <c r="G212" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="I212" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="213" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="19">
         <v>209</v>
       </c>
@@ -10993,12 +10414,8 @@
       <c r="G213" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="I213" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="214" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="19">
         <v>210</v>
       </c>
@@ -11020,12 +10437,8 @@
       <c r="G214" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="I214" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="215" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="19">
         <v>211</v>
       </c>
@@ -11047,12 +10460,8 @@
       <c r="G215" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="I215" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="19">
         <v>212</v>
       </c>
@@ -11074,12 +10483,8 @@
       <c r="G216" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="I216" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="217" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="19">
         <v>213</v>
       </c>
@@ -11101,12 +10506,8 @@
       <c r="G217" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="I217" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="19">
         <v>214</v>
       </c>
@@ -11128,12 +10529,8 @@
       <c r="G218" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="I218" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="219" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="19">
         <v>215</v>
       </c>
@@ -11155,12 +10552,8 @@
       <c r="G219" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="I219" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="220" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="19">
         <v>216</v>
       </c>
@@ -11180,12 +10573,8 @@
         <v>44076</v>
       </c>
       <c r="G220" s="21"/>
-      <c r="I220" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="19">
         <v>217</v>
       </c>
@@ -11205,12 +10594,8 @@
         <v>44072</v>
       </c>
       <c r="G221" s="21"/>
-      <c r="I221" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="222" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="19">
         <v>218</v>
       </c>
@@ -11232,12 +10617,8 @@
       <c r="G222" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="I222" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="223" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="19">
         <v>219</v>
       </c>
@@ -11259,12 +10640,8 @@
       <c r="G223" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="I223" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="224" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="19">
         <v>220</v>
       </c>
@@ -11286,12 +10663,8 @@
       <c r="G224" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="I224" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="225" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="19">
         <v>221</v>
       </c>
@@ -11313,12 +10686,8 @@
       <c r="G225" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="I225" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="19">
         <v>222</v>
       </c>
@@ -11340,12 +10709,8 @@
       <c r="G226" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="I226" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="227" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="19">
         <v>223</v>
       </c>
@@ -11367,12 +10732,8 @@
       <c r="G227" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="I227" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="228" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="19">
         <v>224</v>
       </c>
@@ -11394,12 +10755,8 @@
       <c r="G228" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="I228" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="229" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="19">
         <v>225</v>
       </c>
@@ -11421,12 +10778,8 @@
       <c r="G229" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="I229" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="230" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="19">
         <v>226</v>
       </c>
@@ -11448,12 +10801,8 @@
       <c r="G230" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="I230" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="231" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="19">
         <v>227</v>
       </c>
@@ -11473,12 +10822,8 @@
         <v>44068</v>
       </c>
       <c r="G231" s="21"/>
-      <c r="I231" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="19">
         <v>228</v>
       </c>
@@ -11500,12 +10845,8 @@
       <c r="G232" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="I232" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="233" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="19">
         <v>229</v>
       </c>
@@ -11527,12 +10868,8 @@
       <c r="G233" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="I233" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="234" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="19">
         <v>230</v>
       </c>
@@ -11554,12 +10891,8 @@
       <c r="G234" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="I234" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="235" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="19">
         <v>231</v>
       </c>
@@ -11579,12 +10912,8 @@
         <v>44062</v>
       </c>
       <c r="G235" s="21"/>
-      <c r="I235" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="236" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="19">
         <v>232</v>
       </c>
@@ -11604,12 +10933,8 @@
         <v>44060</v>
       </c>
       <c r="G236" s="21"/>
-      <c r="I236" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="237" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="19">
         <v>233</v>
       </c>
@@ -11631,12 +10956,8 @@
       <c r="G237" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="I237" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="238" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="19">
         <v>234</v>
       </c>
@@ -11656,12 +10977,8 @@
         <v>44057</v>
       </c>
       <c r="G238" s="21"/>
-      <c r="I238" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="239" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="19">
         <v>235</v>
       </c>
@@ -11681,12 +10998,8 @@
         <v>44057</v>
       </c>
       <c r="G239" s="21"/>
-      <c r="I239" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="240" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="19">
         <v>236</v>
       </c>
@@ -11708,12 +11021,8 @@
       <c r="G240" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="I240" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="241" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="19">
         <v>237</v>
       </c>
@@ -11735,12 +11044,8 @@
       <c r="G241" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="I241" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="242" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="19">
         <v>238</v>
       </c>
@@ -11762,12 +11067,8 @@
       <c r="G242" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="I242" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="19">
         <v>239</v>
       </c>
@@ -11787,12 +11088,8 @@
         <v>44056</v>
       </c>
       <c r="G243" s="21"/>
-      <c r="I243" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="244" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="19">
         <v>240</v>
       </c>
@@ -11812,12 +11109,8 @@
         <v>44059</v>
       </c>
       <c r="G244" s="21"/>
-      <c r="I244" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="245" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="19">
         <v>241</v>
       </c>
@@ -11837,12 +11130,8 @@
         <v>44063</v>
       </c>
       <c r="G245" s="21"/>
-      <c r="I245" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="246" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="19">
         <v>242</v>
       </c>
@@ -11864,12 +11153,8 @@
       <c r="G246" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="I246" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="247" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="19">
         <v>243</v>
       </c>
@@ -11891,12 +11176,8 @@
       <c r="G247" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="I247" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="248" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="19">
         <v>244</v>
       </c>
@@ -11918,12 +11199,8 @@
       <c r="G248" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="I248" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="249" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="19">
         <v>245</v>
       </c>
@@ -11945,12 +11222,8 @@
       <c r="G249" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="I249" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="250" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="19">
         <v>246</v>
       </c>
@@ -11972,12 +11245,8 @@
       <c r="G250" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="I250" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="251" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="25">
         <v>247</v>
       </c>
@@ -11999,12 +11268,8 @@
       <c r="G251" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="I251" s="1" t="str">
-        <f t="shared" ref="I251:I314" si="5">IF(COUNT(F251)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="252" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="25">
         <v>248</v>
       </c>
@@ -12026,12 +11291,8 @@
       <c r="G252" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="I252" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="253" spans="1:7" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="25">
         <v>249</v>
       </c>
@@ -12051,12 +11312,8 @@
         <v>44060</v>
       </c>
       <c r="G253" s="29"/>
-      <c r="I253" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="254" spans="1:7" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="25">
         <v>250</v>
       </c>
@@ -12078,12 +11335,8 @@
       <c r="G254" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="I254" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="255" spans="1:7" s="39" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="25">
         <v>251</v>
       </c>
@@ -12105,12 +11358,8 @@
       <c r="G255" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="I255" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="256" spans="1:7" s="39" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="25">
         <v>252</v>
       </c>
@@ -12132,12 +11381,8 @@
       <c r="G256" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="I256" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="257" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="19">
         <v>253</v>
       </c>
@@ -12157,12 +11402,8 @@
         <v>44063</v>
       </c>
       <c r="G257" s="21"/>
-      <c r="I257" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="258" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="19">
         <v>254</v>
       </c>
@@ -12184,12 +11425,8 @@
       <c r="G258" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="I258" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="259" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="19">
         <v>255</v>
       </c>
@@ -12211,12 +11448,8 @@
       <c r="G259" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="I259" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="260" spans="1:7" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="19">
         <v>256</v>
       </c>
@@ -12238,12 +11471,8 @@
       <c r="G260" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="I260" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="261" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="19">
         <v>257</v>
       </c>
@@ -12265,12 +11494,8 @@
       <c r="G261" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="I261" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="262" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="19">
         <v>258</v>
       </c>
@@ -12292,12 +11517,8 @@
       <c r="G262" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="I262" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="263" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="19">
         <v>259</v>
       </c>
@@ -12319,12 +11540,8 @@
       <c r="G263" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="I263" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="264" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="19">
         <v>260</v>
       </c>
@@ -12346,12 +11563,8 @@
       <c r="G264" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="I264" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="265" spans="1:7" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="19">
         <v>261</v>
       </c>
@@ -12373,12 +11586,8 @@
       <c r="G265" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="I265" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="266" spans="1:7" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="19">
         <v>262</v>
       </c>
@@ -12398,12 +11607,8 @@
         <v>44068</v>
       </c>
       <c r="G266" s="21"/>
-      <c r="I266" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="267" spans="1:7" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="19">
         <v>263</v>
       </c>
@@ -12423,12 +11628,8 @@
         <v>44069</v>
       </c>
       <c r="G267" s="21"/>
-      <c r="I267" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="268" spans="1:7" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="19">
         <v>264</v>
       </c>
@@ -12450,12 +11651,8 @@
       <c r="G268" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="I268" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="269" spans="1:7" s="43" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="19">
         <v>265</v>
       </c>
@@ -12477,12 +11674,8 @@
       <c r="G269" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="I269" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" s="44" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="270" spans="1:7" s="44" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="19">
         <v>266</v>
       </c>
@@ -12502,12 +11695,8 @@
         <v>44062</v>
       </c>
       <c r="G270" s="21"/>
-      <c r="I270" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="271" spans="1:7" s="45" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="19">
         <v>267</v>
       </c>
@@ -12529,12 +11718,8 @@
       <c r="G271" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="I271" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="272" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="19">
         <v>268</v>
       </c>
@@ -12556,12 +11741,8 @@
       <c r="G272" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="I272" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="273" spans="1:7" s="46" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A273" s="19">
         <v>269</v>
       </c>
@@ -12583,12 +11764,8 @@
       <c r="G273" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="I273" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="274" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A274" s="19">
         <v>270</v>
       </c>
@@ -12610,12 +11787,8 @@
       <c r="G274" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="I274" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="275" spans="1:7" s="47" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="19">
         <v>271</v>
       </c>
@@ -12637,12 +11810,8 @@
       <c r="G275" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="I275" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="276" spans="1:7" s="48" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="19">
         <v>272</v>
       </c>
@@ -12664,12 +11833,8 @@
       <c r="G276" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="I276" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="277" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="19">
         <v>273</v>
       </c>
@@ -12691,12 +11856,8 @@
       <c r="G277" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="I277" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="278" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="19">
         <v>274</v>
       </c>
@@ -12718,12 +11879,8 @@
       <c r="G278" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="I278" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="279" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="19">
         <v>275</v>
       </c>
@@ -12745,12 +11902,8 @@
       <c r="G279" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="I279" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="280" spans="1:7" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="19">
         <v>276</v>
       </c>
@@ -12772,12 +11925,8 @@
       <c r="G280" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="I280" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="281" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="19">
         <v>277</v>
       </c>
@@ -12797,12 +11946,8 @@
         <v>44068</v>
       </c>
       <c r="G281" s="21"/>
-      <c r="I281" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="282" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="19">
         <v>278</v>
       </c>
@@ -12824,12 +11969,8 @@
       <c r="G282" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="I282" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="283" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="19">
         <v>279</v>
       </c>
@@ -12849,12 +11990,8 @@
         <v>44076</v>
       </c>
       <c r="G283" s="21"/>
-      <c r="I283" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="284" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="19">
         <v>280</v>
       </c>
@@ -12876,12 +12013,8 @@
       <c r="G284" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="I284" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="285" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="19">
         <v>281</v>
       </c>
@@ -12903,12 +12036,8 @@
       <c r="G285" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="I285" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="286" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="19">
         <v>282</v>
       </c>
@@ -12930,12 +12059,8 @@
       <c r="G286" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="I286" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="287" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="19">
         <v>283</v>
       </c>
@@ -12957,12 +12082,8 @@
       <c r="G287" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="I287" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="288" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="19">
         <v>284</v>
       </c>
@@ -12984,12 +12105,8 @@
       <c r="G288" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="I288" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="289" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="19">
         <v>285</v>
       </c>
@@ -13011,12 +12128,8 @@
       <c r="G289" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="I289" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="290" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="19">
         <v>286</v>
       </c>
@@ -13038,12 +12151,8 @@
       <c r="G290" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="I290" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="291" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="19">
         <v>287</v>
       </c>
@@ -13065,12 +12174,8 @@
       <c r="G291" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="I291" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="292" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="19">
         <v>288</v>
       </c>
@@ -13092,12 +12197,8 @@
       <c r="G292" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="I292" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="293" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="19">
         <v>289</v>
       </c>
@@ -13119,12 +12220,8 @@
       <c r="G293" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="I293" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="294" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A294" s="19">
         <v>290</v>
       </c>
@@ -13144,12 +12241,8 @@
       <c r="G294" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I294" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="295" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A295" s="19">
         <v>291</v>
       </c>
@@ -13169,12 +12262,8 @@
       <c r="G295" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I295" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="296" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="19">
         <v>292</v>
       </c>
@@ -13194,12 +12283,8 @@
       <c r="G296" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I296" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="297" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="19">
         <v>293</v>
       </c>
@@ -13219,12 +12304,8 @@
       <c r="G297" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="I297" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="298" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="19">
         <v>294</v>
       </c>
@@ -13246,12 +12327,8 @@
       <c r="G298" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="I298" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="299" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="18">
         <v>295</v>
       </c>
@@ -13273,12 +12350,8 @@
       <c r="G299" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="I299" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="300" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="18">
         <v>296</v>
       </c>
@@ -13300,12 +12373,8 @@
       <c r="G300" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="I300" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="301" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="18">
         <v>297</v>
       </c>
@@ -13327,12 +12396,8 @@
       <c r="G301" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="I301" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="302" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="18">
         <v>298</v>
       </c>
@@ -13354,12 +12419,8 @@
       <c r="G302" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="I302" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="303" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="18">
         <v>299</v>
       </c>
@@ -13381,12 +12442,8 @@
       <c r="G303" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="I303" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="304" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="18">
         <v>300</v>
       </c>
@@ -13406,12 +12463,8 @@
         <v>44082</v>
       </c>
       <c r="G304" s="21"/>
-      <c r="I304" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="305" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="18">
         <v>301</v>
       </c>
@@ -13433,12 +12486,8 @@
       <c r="G305" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="I305" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="306" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="18">
         <v>302</v>
       </c>
@@ -13460,12 +12509,8 @@
       <c r="G306" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="I306" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="307" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="18">
         <v>303</v>
       </c>
@@ -13487,12 +12532,8 @@
       <c r="G307" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="I307" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="308" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="27">
         <v>304</v>
       </c>
@@ -13512,12 +12553,8 @@
         <v>44081</v>
       </c>
       <c r="G308" s="29"/>
-      <c r="I308" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="309" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="27">
         <v>305</v>
       </c>
@@ -13539,12 +12576,8 @@
       <c r="G309" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="I309" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="310" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="27">
         <v>306</v>
       </c>
@@ -13564,12 +12597,8 @@
         <v>44082</v>
       </c>
       <c r="G310" s="29"/>
-      <c r="I310" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="311" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="27">
         <v>307</v>
       </c>
@@ -13589,14 +12618,10 @@
         <v>44081</v>
       </c>
       <c r="G311" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="I311" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="27">
         <v>308</v>
       </c>
@@ -13616,23 +12641,19 @@
         <v>44085</v>
       </c>
       <c r="G312" s="29"/>
-      <c r="I312" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="313" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="27">
         <v>309</v>
       </c>
       <c r="B313" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="C313" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="C313" s="25" t="s">
+      <c r="D313" s="27" t="s">
         <v>439</v>
-      </c>
-      <c r="D313" s="27" t="s">
-        <v>440</v>
       </c>
       <c r="E313" s="37">
         <v>44078</v>
@@ -13641,23 +12662,19 @@
         <v>44088</v>
       </c>
       <c r="G313" s="29"/>
-      <c r="I313" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="314" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="18">
         <v>310</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C314" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D314" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E314" s="20">
         <v>44080</v>
@@ -13666,12 +12683,8 @@
         <v>44086</v>
       </c>
       <c r="G314" s="21"/>
-      <c r="I314" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="315" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="18">
         <v>311</v>
       </c>
@@ -13682,7 +12695,7 @@
         <v>67</v>
       </c>
       <c r="D315" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E315" s="20">
         <v>44081</v>
@@ -13691,12 +12704,8 @@
         <v>44091</v>
       </c>
       <c r="G315" s="21"/>
-      <c r="I315" s="1" t="str">
-        <f t="shared" ref="I315:I378" si="6">IF(COUNT(F315)&gt;=1,"退院済み","")</f>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="316" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="18">
         <v>312</v>
       </c>
@@ -13716,14 +12725,10 @@
         <v>44091</v>
       </c>
       <c r="G316" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="I316" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="18">
         <v>313</v>
       </c>
@@ -13743,19 +12748,15 @@
         <v>44091</v>
       </c>
       <c r="G317" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="I317" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="18">
         <v>314</v>
       </c>
       <c r="B318" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C318" s="19" t="s">
         <v>67</v>
@@ -13770,14 +12771,10 @@
         <v>44091</v>
       </c>
       <c r="G318" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="I318" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="18">
         <v>315</v>
       </c>
@@ -13797,19 +12794,15 @@
         <v>44091</v>
       </c>
       <c r="G319" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="I319" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="18">
         <v>316</v>
       </c>
       <c r="B320" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C320" s="19" t="s">
         <v>70</v>
@@ -13822,22 +12815,18 @@
       </c>
       <c r="F320" s="18"/>
       <c r="G320" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="I320" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="18">
         <v>317</v>
       </c>
       <c r="B321" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C321" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D321" s="18" t="s">
         <v>120</v>
@@ -13849,22 +12838,18 @@
         <v>44097</v>
       </c>
       <c r="G321" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="I321" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="18">
         <v>318</v>
       </c>
       <c r="B322" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C322" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D322" s="18" t="s">
         <v>120</v>
@@ -13876,22 +12861,18 @@
         <v>44097</v>
       </c>
       <c r="G322" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="I322" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="18">
         <v>319</v>
       </c>
       <c r="B323" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="C323" s="19" t="s">
         <v>449</v>
-      </c>
-      <c r="C323" s="19" t="s">
-        <v>450</v>
       </c>
       <c r="D323" s="18" t="s">
         <v>120</v>
@@ -13903,14 +12884,10 @@
         <v>44097</v>
       </c>
       <c r="G323" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="I323" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="18">
         <v>320</v>
       </c>
@@ -13928,14 +12905,10 @@
       </c>
       <c r="F324" s="18"/>
       <c r="G324" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="I324" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="18">
         <v>321</v>
       </c>
@@ -13955,14 +12928,10 @@
         <v>44093</v>
       </c>
       <c r="G325" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="I325" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="18">
         <v>322</v>
       </c>
@@ -13980,14 +12949,10 @@
       </c>
       <c r="F326" s="18"/>
       <c r="G326" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="I326" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="327" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="18">
         <v>323</v>
       </c>
@@ -14005,14 +12970,10 @@
       </c>
       <c r="F327" s="18"/>
       <c r="G327" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="I327" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="1:9" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="18">
         <v>324</v>
       </c>
@@ -14032,12 +12993,8 @@
         <v>44096</v>
       </c>
       <c r="G328" s="21"/>
-      <c r="I328" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="329" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="18">
         <v>325</v>
       </c>
@@ -14045,10 +13002,10 @@
         <v>81</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E329" s="20">
         <v>44085</v>
@@ -14057,37 +13014,31 @@
         <v>44092</v>
       </c>
       <c r="G329" s="21"/>
-      <c r="I329" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="330" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="18">
         <v>326</v>
       </c>
       <c r="B330" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D330" s="18" t="s">
         <v>456</v>
-      </c>
-      <c r="C330" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D330" s="18" t="s">
-        <v>457</v>
       </c>
       <c r="E330" s="20">
         <v>44085</v>
       </c>
-      <c r="F330" s="18"/>
+      <c r="F330" s="20">
+        <v>44097</v>
+      </c>
       <c r="G330" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="I330" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="331" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="18">
         <v>327</v>
       </c>
@@ -14095,49 +13046,45 @@
         <v>83</v>
       </c>
       <c r="C331" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D331" s="18" t="s">
         <v>458</v>
-      </c>
-      <c r="D331" s="18" t="s">
-        <v>459</v>
       </c>
       <c r="E331" s="20">
         <v>44085</v>
       </c>
-      <c r="F331" s="18"/>
+      <c r="F331" s="20">
+        <v>44098</v>
+      </c>
       <c r="G331" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="I331" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="18">
         <v>328</v>
       </c>
       <c r="B332" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E332" s="20">
         <v>44085</v>
       </c>
-      <c r="F332" s="18"/>
+      <c r="F332" s="20">
+        <v>44098</v>
+      </c>
       <c r="G332" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="I332" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="18">
         <v>329</v>
       </c>
@@ -14153,16 +13100,14 @@
       <c r="E333" s="20">
         <v>44086</v>
       </c>
-      <c r="F333" s="18"/>
+      <c r="F333" s="20">
+        <v>44098</v>
+      </c>
       <c r="G333" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="I333" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A334" s="18">
         <v>330</v>
       </c>
@@ -14178,16 +13123,14 @@
       <c r="E334" s="20">
         <v>44086</v>
       </c>
-      <c r="F334" s="18"/>
+      <c r="F334" s="20">
+        <v>44098</v>
+      </c>
       <c r="G334" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="I334" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A335" s="18">
         <v>331</v>
       </c>
@@ -14203,16 +13146,14 @@
       <c r="E335" s="20">
         <v>44086</v>
       </c>
-      <c r="F335" s="18"/>
+      <c r="F335" s="20">
+        <v>44098</v>
+      </c>
       <c r="G335" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="I335" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="18">
         <v>332</v>
       </c>
@@ -14232,14 +13173,10 @@
         <v>44097</v>
       </c>
       <c r="G336" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="I336" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="18">
         <v>333</v>
       </c>
@@ -14259,14 +13196,10 @@
         <v>44095</v>
       </c>
       <c r="G337" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="I337" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="18">
         <v>334</v>
       </c>
@@ -14286,14 +13219,10 @@
         <v>44097</v>
       </c>
       <c r="G338" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="I338" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="18">
         <v>335</v>
       </c>
@@ -14313,14 +13242,10 @@
         <v>44097</v>
       </c>
       <c r="G339" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="I339" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="18">
         <v>336</v>
       </c>
@@ -14340,14 +13265,10 @@
         <v>44095</v>
       </c>
       <c r="G340" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="I340" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="18">
         <v>337</v>
       </c>
@@ -14367,14 +13288,10 @@
         <v>44095</v>
       </c>
       <c r="G341" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="I341" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="18">
         <v>338</v>
       </c>
@@ -14396,12 +13313,8 @@
       <c r="G342" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I342" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="343" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="18">
         <v>339</v>
       </c>
@@ -14421,14 +13334,10 @@
         <v>44096</v>
       </c>
       <c r="G343" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="I343" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="18">
         <v>340</v>
       </c>
@@ -14448,14 +13357,10 @@
         <v>44096</v>
       </c>
       <c r="G344" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="I344" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="18">
         <v>341</v>
       </c>
@@ -14473,14 +13378,10 @@
       </c>
       <c r="F345" s="18"/>
       <c r="G345" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="I345" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="18">
         <v>342</v>
       </c>
@@ -14496,16 +13397,14 @@
       <c r="E346" s="20">
         <v>44088</v>
       </c>
-      <c r="F346" s="18"/>
+      <c r="F346" s="20">
+        <v>44100</v>
+      </c>
       <c r="G346" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="I346" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="347" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="18">
         <v>343</v>
       </c>
@@ -14521,16 +13420,14 @@
       <c r="E347" s="20">
         <v>44088</v>
       </c>
-      <c r="F347" s="18"/>
+      <c r="F347" s="20">
+        <v>44098</v>
+      </c>
       <c r="G347" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="I347" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="348" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="18">
         <v>344</v>
       </c>
@@ -14548,14 +13445,10 @@
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="I348" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="349" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="18">
         <v>345</v>
       </c>
@@ -14573,14 +13466,10 @@
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="I349" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="18">
         <v>346</v>
       </c>
@@ -14596,16 +13485,14 @@
       <c r="E350" s="20">
         <v>44088</v>
       </c>
-      <c r="F350" s="18"/>
+      <c r="F350" s="20">
+        <v>44098</v>
+      </c>
       <c r="G350" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="I350" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="18">
         <v>347</v>
       </c>
@@ -14621,16 +13508,14 @@
       <c r="E351" s="20">
         <v>44088</v>
       </c>
-      <c r="F351" s="18"/>
+      <c r="F351" s="20">
+        <v>44098</v>
+      </c>
       <c r="G351" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="I351" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="18">
         <v>348</v>
       </c>
@@ -14646,16 +13531,14 @@
       <c r="E352" s="20">
         <v>44088</v>
       </c>
-      <c r="F352" s="18"/>
+      <c r="F352" s="20">
+        <v>44098</v>
+      </c>
       <c r="G352" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="I352" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="18">
         <v>349</v>
       </c>
@@ -14671,16 +13554,14 @@
       <c r="E353" s="20">
         <v>44088</v>
       </c>
-      <c r="F353" s="18"/>
+      <c r="F353" s="20">
+        <v>44098</v>
+      </c>
       <c r="G353" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="I353" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" s="18">
         <v>350</v>
       </c>
@@ -14698,14 +13579,10 @@
       </c>
       <c r="F354" s="18"/>
       <c r="G354" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="I354" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A355" s="18">
         <v>351</v>
       </c>
@@ -14725,14 +13602,10 @@
         <v>44097</v>
       </c>
       <c r="G355" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="I355" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="18">
         <v>352</v>
       </c>
@@ -14750,14 +13623,10 @@
       </c>
       <c r="F356" s="18"/>
       <c r="G356" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="I356" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="18">
         <v>353</v>
       </c>
@@ -14777,14 +13646,10 @@
         <v>44097</v>
       </c>
       <c r="G357" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="I357" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="18">
         <v>354</v>
       </c>
@@ -14804,14 +13669,10 @@
         <v>44097</v>
       </c>
       <c r="G358" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="I358" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="18">
         <v>355</v>
       </c>
@@ -14829,14 +13690,10 @@
       </c>
       <c r="F359" s="18"/>
       <c r="G359" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="I359" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="18">
         <v>356</v>
       </c>
@@ -14854,14 +13711,10 @@
       </c>
       <c r="F360" s="18"/>
       <c r="G360" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="I360" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="18">
         <v>357</v>
       </c>
@@ -14881,14 +13734,10 @@
         <v>44097</v>
       </c>
       <c r="G361" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="I361" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="18">
         <v>358</v>
       </c>
@@ -14904,16 +13753,14 @@
       <c r="E362" s="20">
         <v>44088</v>
       </c>
-      <c r="F362" s="18"/>
+      <c r="F362" s="20">
+        <v>44098</v>
+      </c>
       <c r="G362" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="I362" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="18">
         <v>359</v>
       </c>
@@ -14933,14 +13780,10 @@
         <v>44098</v>
       </c>
       <c r="G363" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="I363" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="18">
         <v>360</v>
       </c>
@@ -14958,14 +13801,10 @@
       </c>
       <c r="F364" s="18"/>
       <c r="G364" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="I364" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="18">
         <v>361</v>
       </c>
@@ -14985,14 +13824,10 @@
         <v>44098</v>
       </c>
       <c r="G365" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="I365" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="18">
         <v>362</v>
       </c>
@@ -15012,14 +13847,10 @@
         <v>44097</v>
       </c>
       <c r="G366" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="I366" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>退院済み</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="18">
         <v>363</v>
       </c>
@@ -15037,14 +13868,10 @@
       </c>
       <c r="F367" s="18"/>
       <c r="G367" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="I367" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="18">
         <v>364</v>
       </c>
@@ -15062,14 +13889,10 @@
       </c>
       <c r="F368" s="18"/>
       <c r="G368" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="I368" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="18">
         <v>365</v>
       </c>
@@ -15087,19 +13910,15 @@
       </c>
       <c r="F369" s="18"/>
       <c r="G369" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="I369" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="18">
         <v>366</v>
       </c>
       <c r="B370" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C370" s="19" t="s">
         <v>70</v>
@@ -15112,14 +13931,10 @@
       </c>
       <c r="F370" s="18"/>
       <c r="G370" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="I370" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="18">
         <v>367</v>
       </c>
@@ -15137,12 +13952,8 @@
       </c>
       <c r="F371" s="18"/>
       <c r="G371" s="21"/>
-      <c r="I371" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="372" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="18">
         <v>368</v>
       </c>
@@ -15158,37 +13969,31 @@
       <c r="E372" s="20">
         <v>44089</v>
       </c>
-      <c r="F372" s="18"/>
+      <c r="F372" s="20">
+        <v>44098</v>
+      </c>
       <c r="G372" s="21"/>
-      <c r="I372" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="373" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="18">
         <v>369</v>
       </c>
       <c r="B373" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C373" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="C373" s="19" t="s">
+      <c r="D373" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="D373" s="18" t="s">
-        <v>494</v>
       </c>
       <c r="E373" s="20">
         <v>44090</v>
       </c>
       <c r="F373" s="18"/>
       <c r="G373" s="21"/>
-      <c r="I373" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="374" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="18">
         <v>370</v>
       </c>
@@ -15206,14 +14011,10 @@
       </c>
       <c r="F374" s="18"/>
       <c r="G374" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="I374" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="18">
         <v>371</v>
       </c>
@@ -15229,16 +14030,14 @@
       <c r="E375" s="20">
         <v>44091</v>
       </c>
-      <c r="F375" s="18"/>
+      <c r="F375" s="20">
+        <v>44100</v>
+      </c>
       <c r="G375" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="I375" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="18">
         <v>372</v>
       </c>
@@ -15256,14 +14055,10 @@
       </c>
       <c r="F376" s="18"/>
       <c r="G376" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="I376" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="18">
         <v>373</v>
       </c>
@@ -15281,14 +14076,10 @@
       </c>
       <c r="F377" s="18"/>
       <c r="G377" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="I377" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="18">
         <v>374</v>
       </c>
@@ -15304,16 +14095,14 @@
       <c r="E378" s="20">
         <v>44091</v>
       </c>
-      <c r="F378" s="18"/>
+      <c r="F378" s="20">
+        <v>44100</v>
+      </c>
       <c r="G378" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="I378" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="18">
         <v>375</v>
       </c>
@@ -15329,41 +14118,35 @@
       <c r="E379" s="20">
         <v>44091</v>
       </c>
-      <c r="F379" s="18"/>
+      <c r="F379" s="20">
+        <v>44100</v>
+      </c>
       <c r="G379" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="I379" s="1" t="str">
-        <f t="shared" ref="I379:I406" si="7">IF(COUNT(F379)&gt;=1,"退院済み","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:9" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" s="51" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="18">
         <v>376</v>
       </c>
       <c r="B380" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C380" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D380" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E380" s="20">
         <v>44092</v>
       </c>
       <c r="F380" s="18"/>
       <c r="G380" s="24" t="s">
-        <v>503</v>
-      </c>
-      <c r="I380" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="27">
         <v>377</v>
       </c>
@@ -15381,19 +14164,15 @@
       </c>
       <c r="F381" s="27"/>
       <c r="G381" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="I381" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="27">
         <v>378</v>
       </c>
       <c r="B382" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C382" s="25" t="s">
         <v>67</v>
@@ -15406,14 +14185,10 @@
       </c>
       <c r="F382" s="27"/>
       <c r="G382" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="I382" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="27">
         <v>379</v>
       </c>
@@ -15431,22 +14206,18 @@
       </c>
       <c r="F383" s="27"/>
       <c r="G383" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="I383" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="27">
         <v>380</v>
       </c>
       <c r="B384" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="C384" s="25" t="s">
         <v>508</v>
-      </c>
-      <c r="C384" s="25" t="s">
-        <v>509</v>
       </c>
       <c r="D384" s="27" t="s">
         <v>134</v>
@@ -15456,22 +14227,18 @@
       </c>
       <c r="F384" s="27"/>
       <c r="G384" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="I384" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="27">
         <v>381</v>
       </c>
       <c r="B385" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="C385" s="25" t="s">
         <v>510</v>
-      </c>
-      <c r="C385" s="25" t="s">
-        <v>511</v>
       </c>
       <c r="D385" s="27" t="s">
         <v>134</v>
@@ -15481,20 +14248,16 @@
       </c>
       <c r="F385" s="27"/>
       <c r="G385" s="28"/>
-      <c r="I385" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="386" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="27">
         <v>382</v>
       </c>
       <c r="B386" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="C386" s="25" t="s">
         <v>508</v>
-      </c>
-      <c r="C386" s="25" t="s">
-        <v>509</v>
       </c>
       <c r="D386" s="27" t="s">
         <v>134</v>
@@ -15504,22 +14267,18 @@
       </c>
       <c r="F386" s="27"/>
       <c r="G386" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="I386" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="27">
         <v>383</v>
       </c>
       <c r="B387" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C387" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D387" s="27" t="s">
         <v>134</v>
@@ -15527,16 +14286,14 @@
       <c r="E387" s="37">
         <v>44093</v>
       </c>
-      <c r="F387" s="27"/>
+      <c r="F387" s="37">
+        <v>44099</v>
+      </c>
       <c r="G387" s="28" t="s">
-        <v>515</v>
-      </c>
-      <c r="I387" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="27">
         <v>384</v>
       </c>
@@ -15554,14 +14311,10 @@
       </c>
       <c r="F388" s="27"/>
       <c r="G388" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="I388" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="27">
         <v>385</v>
       </c>
@@ -15579,12 +14332,8 @@
       </c>
       <c r="F389" s="27"/>
       <c r="G389" s="28"/>
-      <c r="I389" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="390" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="27">
         <v>386</v>
       </c>
@@ -15602,14 +14351,10 @@
       </c>
       <c r="F390" s="27"/>
       <c r="G390" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="I390" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="27">
         <v>387</v>
       </c>
@@ -15627,39 +14372,31 @@
       </c>
       <c r="F391" s="27"/>
       <c r="G391" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="I391" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="27">
         <v>388</v>
       </c>
       <c r="B392" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C392" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="C392" s="25" t="s">
+      <c r="D392" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="D392" s="27" t="s">
-        <v>520</v>
       </c>
       <c r="E392" s="37">
         <v>44095</v>
       </c>
       <c r="F392" s="27"/>
       <c r="G392" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="I392" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="27">
         <v>389</v>
       </c>
@@ -15670,319 +14407,275 @@
         <v>70</v>
       </c>
       <c r="D393" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E393" s="37">
         <v>44095</v>
       </c>
       <c r="F393" s="27"/>
       <c r="G393" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="I393" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="27">
         <v>390</v>
       </c>
       <c r="B394" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C394" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="D394" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="D394" s="27" t="s">
-        <v>520</v>
       </c>
       <c r="E394" s="37">
         <v>44095</v>
       </c>
       <c r="F394" s="27"/>
       <c r="G394" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="I394" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="27">
         <v>391</v>
       </c>
       <c r="B395" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C395" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="D395" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="D395" s="27" t="s">
-        <v>520</v>
       </c>
       <c r="E395" s="37">
         <v>44095</v>
       </c>
       <c r="F395" s="27"/>
       <c r="G395" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="I395" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="27">
         <v>392</v>
       </c>
       <c r="B396" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C396" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D396" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E396" s="37">
         <v>44095</v>
       </c>
       <c r="F396" s="27"/>
       <c r="G396" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="I396" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A397" s="27">
         <v>393</v>
       </c>
       <c r="B397" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C397" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D397" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E397" s="37">
         <v>44095</v>
       </c>
       <c r="F397" s="27"/>
       <c r="G397" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="I397" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" s="27">
         <v>394</v>
       </c>
       <c r="B398" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C398" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="D398" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="D398" s="27" t="s">
-        <v>520</v>
       </c>
       <c r="E398" s="37">
         <v>44095</v>
       </c>
       <c r="F398" s="27"/>
       <c r="G398" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="I398" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" s="27">
         <v>395</v>
       </c>
       <c r="B399" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C399" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="D399" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="D399" s="27" t="s">
-        <v>520</v>
       </c>
       <c r="E399" s="37">
         <v>44095</v>
       </c>
       <c r="F399" s="27"/>
       <c r="G399" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="I399" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A400" s="27">
         <v>396</v>
       </c>
       <c r="B400" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C400" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="D400" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="D400" s="27" t="s">
-        <v>520</v>
       </c>
       <c r="E400" s="37">
         <v>44095</v>
       </c>
       <c r="F400" s="27"/>
       <c r="G400" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="I400" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A401" s="27">
         <v>397</v>
       </c>
       <c r="B401" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C401" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D401" s="27" t="s">
         <v>525</v>
-      </c>
-      <c r="C401" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="D401" s="27" t="s">
-        <v>526</v>
       </c>
       <c r="E401" s="37">
         <v>44095</v>
       </c>
-      <c r="F401" s="27"/>
+      <c r="F401" s="37">
+        <v>44099</v>
+      </c>
       <c r="G401" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="I401" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" s="27">
         <v>398</v>
       </c>
       <c r="B402" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C402" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D402" s="27" t="s">
         <v>525</v>
-      </c>
-      <c r="C402" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="D402" s="27" t="s">
-        <v>526</v>
       </c>
       <c r="E402" s="37">
         <v>44095</v>
       </c>
-      <c r="F402" s="27"/>
+      <c r="F402" s="37">
+        <v>44099</v>
+      </c>
       <c r="G402" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="I402" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" s="27">
         <v>399</v>
       </c>
       <c r="B403" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C403" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D403" s="27" t="s">
         <v>525</v>
-      </c>
-      <c r="C403" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="D403" s="27" t="s">
-        <v>526</v>
       </c>
       <c r="E403" s="37">
         <v>44095</v>
       </c>
-      <c r="F403" s="27"/>
+      <c r="F403" s="37">
+        <v>44099</v>
+      </c>
       <c r="G403" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="I403" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" s="27">
         <v>400</v>
       </c>
       <c r="B404" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C404" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D404" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E404" s="37">
         <v>44095</v>
       </c>
       <c r="F404" s="27"/>
       <c r="G404" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="I404" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="405" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" s="18">
         <v>401</v>
       </c>
       <c r="B405" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C405" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D405" s="51" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E405" s="20">
         <v>44095</v>
       </c>
-      <c r="F405" s="18"/>
-      <c r="G405" s="24"/>
-      <c r="I405" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="406" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F405" s="57"/>
+      <c r="G405" s="58" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" s="18">
         <v>402</v>
       </c>
@@ -15990,22 +14683,18 @@
         <v>81</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D406" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E406" s="20">
         <v>44096</v>
       </c>
       <c r="F406" s="18"/>
       <c r="G406" s="24"/>
-      <c r="I406" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="407" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="407" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A407" s="18">
         <v>403</v>
       </c>
@@ -16021,11 +14710,12 @@
       <c r="E407" s="20">
         <v>44097</v>
       </c>
-      <c r="F407" s="18"/>
+      <c r="F407" s="20">
+        <v>44100</v>
+      </c>
       <c r="G407" s="24"/>
-      <c r="I407" s="1"/>
-    </row>
-    <row r="408" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="408" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A408" s="18">
         <v>404</v>
       </c>
@@ -16043,9 +14733,8 @@
       </c>
       <c r="F408" s="18"/>
       <c r="G408" s="24"/>
-      <c r="I408" s="1"/>
-    </row>
-    <row r="409" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="409" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A409" s="18">
         <v>405</v>
       </c>
@@ -16063,11 +14752,10 @@
       </c>
       <c r="F409" s="18"/>
       <c r="G409" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="I409" s="1"/>
-    </row>
-    <row r="410" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="18">
         <v>406</v>
       </c>
@@ -16085,11 +14773,10 @@
       </c>
       <c r="F410" s="18"/>
       <c r="G410" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="I410" s="1"/>
-    </row>
-    <row r="411" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="18">
         <v>407</v>
       </c>
@@ -16107,11 +14794,10 @@
       </c>
       <c r="F411" s="18"/>
       <c r="G411" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="I411" s="1"/>
-    </row>
-    <row r="412" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" s="18">
         <v>408</v>
       </c>
@@ -16129,96 +14815,413 @@
       </c>
       <c r="F412" s="18"/>
       <c r="G412" s="24"/>
-      <c r="I412" s="1"/>
-    </row>
-    <row r="413" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A413" s="52">
+    </row>
+    <row r="413" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A413" s="18">
         <v>409</v>
       </c>
-      <c r="B413" s="53" t="s">
+      <c r="B413" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C413" s="54" t="s">
+      <c r="C413" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D413" s="52" t="s">
+      <c r="D413" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E413" s="55">
+      <c r="E413" s="20">
         <v>44097</v>
       </c>
-      <c r="F413" s="52"/>
-      <c r="G413" s="56" t="s">
+      <c r="F413" s="18"/>
+      <c r="G413" s="24" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A414" s="18">
+        <v>410</v>
+      </c>
+      <c r="B414" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C414" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D414" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E414" s="20">
+        <v>44098</v>
+      </c>
+      <c r="F414" s="18"/>
+      <c r="G414" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="I413" s="1"/>
-    </row>
-    <row r="414" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A414" s="52">
-        <v>410</v>
-      </c>
-      <c r="B414" s="53" t="s">
+    </row>
+    <row r="415" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A415" s="18">
+        <v>411</v>
+      </c>
+      <c r="B415" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C414" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D414" s="52" t="s">
+      <c r="C415" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D415" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E414" s="55">
+      <c r="E415" s="20">
         <v>44098</v>
       </c>
-      <c r="F414" s="52"/>
-      <c r="G414" s="56" t="s">
+      <c r="F415" s="18"/>
+      <c r="G415" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="I414" s="1"/>
-    </row>
-    <row r="415" spans="1:9" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A415" s="52">
-        <v>411</v>
-      </c>
-      <c r="B415" s="53" t="s">
+    </row>
+    <row r="416" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A416" s="18">
+        <v>412</v>
+      </c>
+      <c r="B416" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C416" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D416" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E416" s="20">
+        <v>44098</v>
+      </c>
+      <c r="F416" s="18"/>
+      <c r="G416" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A417" s="18">
+        <v>413</v>
+      </c>
+      <c r="B417" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C415" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D415" s="52" t="s">
+      <c r="C417" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D417" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E417" s="20">
+        <v>44098</v>
+      </c>
+      <c r="F417" s="18"/>
+      <c r="G417" s="24" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A418" s="18">
+        <v>414</v>
+      </c>
+      <c r="B418" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C418" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D418" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E418" s="20">
+        <v>44098</v>
+      </c>
+      <c r="F418" s="18"/>
+      <c r="G418" s="24"/>
+    </row>
+    <row r="419" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A419" s="18">
+        <v>415</v>
+      </c>
+      <c r="B419" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="C419" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D419" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E415" s="55">
-        <v>44098</v>
-      </c>
-      <c r="F415" s="52"/>
-      <c r="G415" s="56" t="s">
-        <v>550</v>
-      </c>
-      <c r="I415" s="1"/>
-    </row>
-    <row r="416" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A416" s="59" t="s">
+      <c r="E419" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F419" s="18"/>
+      <c r="G419" s="24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A420" s="18">
+        <v>416</v>
+      </c>
+      <c r="B420" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="C420" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D420" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E420" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F420" s="18"/>
+      <c r="G420" s="24" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A421" s="18">
+        <v>417</v>
+      </c>
+      <c r="B421" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="C421" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D421" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E421" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F421" s="18"/>
+      <c r="G421" s="24"/>
+    </row>
+    <row r="422" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A422" s="18">
+        <v>418</v>
+      </c>
+      <c r="B422" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="C422" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D422" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="E422" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F422" s="18"/>
+      <c r="G422" s="24"/>
+    </row>
+    <row r="423" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A423" s="18">
+        <v>419</v>
+      </c>
+      <c r="B423" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="C423" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="D423" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E423" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F423" s="18"/>
+      <c r="G423" s="24" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A424" s="18">
+        <v>420</v>
+      </c>
+      <c r="B424" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="C424" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D424" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E424" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F424" s="18"/>
+      <c r="G424" s="24" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A425" s="18">
+        <v>421</v>
+      </c>
+      <c r="B425" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="C425" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D425" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E425" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F425" s="18"/>
+      <c r="G425" s="24" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A426" s="18">
+        <v>422</v>
+      </c>
+      <c r="B426" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="C426" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="D426" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E426" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F426" s="18"/>
+      <c r="G426" s="24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A427" s="18">
+        <v>423</v>
+      </c>
+      <c r="B427" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C427" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="D427" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E427" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F427" s="18"/>
+      <c r="G427" s="24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A428" s="18">
+        <v>424</v>
+      </c>
+      <c r="B428" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C428" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="D428" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E428" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F428" s="18"/>
+      <c r="G428" s="24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A429" s="18">
+        <v>425</v>
+      </c>
+      <c r="B429" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="C429" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="D429" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E429" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F429" s="18"/>
+      <c r="G429" s="24"/>
+    </row>
+    <row r="430" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A430" s="18">
+        <v>426</v>
+      </c>
+      <c r="B430" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="C430" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D430" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E430" s="20">
+        <v>44099</v>
+      </c>
+      <c r="F430" s="18"/>
+      <c r="G430" s="24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A431" s="52">
+        <v>427</v>
+      </c>
+      <c r="B431" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C431" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D431" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E431" s="55">
+        <v>44100</v>
+      </c>
+      <c r="F431" s="52"/>
+      <c r="G431" s="56" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A432" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B416" s="59"/>
-      <c r="C416" s="59"/>
-      <c r="D416" s="59"/>
-      <c r="E416" s="59"/>
-      <c r="F416" s="59"/>
-      <c r="G416" s="59"/>
-    </row>
-    <row r="417" spans="9:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I417" s="1" t="str">
-        <f t="shared" ref="I417" si="8">IF(COUNT(F417)&gt;=1,"退院済み","")</f>
-        <v/>
-      </c>
+      <c r="B432" s="60"/>
+      <c r="C432" s="60"/>
+      <c r="D432" s="60"/>
+      <c r="E432" s="60"/>
+      <c r="F432" s="60"/>
+      <c r="G432" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I20:I21"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A416:G416"/>
+    <mergeCell ref="A432:G432"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -16228,11 +15231,12 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="6" man="1"/>
     <brk id="78" max="6" man="1"/>
     <brk id="119" max="6" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200926\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200927\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5056,7 +5056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5212,21 +5212,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5587,9 +5572,9 @@
   </sheetPr>
   <dimension ref="A1:G432"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L415" sqref="L415"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G431" sqref="G431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5599,19 +5584,20 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.75" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6024,16 +6010,16 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="61">
+      <c r="A20" s="56">
         <v>18</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="56" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="8">
@@ -6042,22 +6028,22 @@
       <c r="F20" s="8">
         <v>43959</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="58" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="14">
         <v>43973</v>
       </c>
       <c r="F21" s="8">
         <v>43990</v>
       </c>
-      <c r="G21" s="64"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -14204,7 +14190,9 @@
       <c r="E383" s="37">
         <v>44093</v>
       </c>
-      <c r="F383" s="27"/>
+      <c r="F383" s="37">
+        <v>44101</v>
+      </c>
       <c r="G383" s="28" t="s">
         <v>506</v>
       </c>
@@ -14649,7 +14637,9 @@
       <c r="E404" s="37">
         <v>44095</v>
       </c>
-      <c r="F404" s="27"/>
+      <c r="F404" s="37">
+        <v>44101</v>
+      </c>
       <c r="G404" s="28" t="s">
         <v>529</v>
       </c>
@@ -14670,8 +14660,8 @@
       <c r="E405" s="20">
         <v>44095</v>
       </c>
-      <c r="F405" s="57"/>
-      <c r="G405" s="58" t="s">
+      <c r="F405" s="52"/>
+      <c r="G405" s="53" t="s">
         <v>571</v>
       </c>
     </row>
@@ -14750,7 +14740,9 @@
       <c r="E409" s="20">
         <v>44097</v>
       </c>
-      <c r="F409" s="18"/>
+      <c r="F409" s="20">
+        <v>44101</v>
+      </c>
       <c r="G409" s="24" t="s">
         <v>544</v>
       </c>
@@ -14937,7 +14929,9 @@
       <c r="E418" s="20">
         <v>44098</v>
       </c>
-      <c r="F418" s="18"/>
+      <c r="F418" s="20">
+        <v>44101</v>
+      </c>
       <c r="G418" s="24"/>
     </row>
     <row r="419" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -15187,36 +15181,36 @@
       </c>
     </row>
     <row r="431" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A431" s="52">
+      <c r="A431" s="18">
         <v>427</v>
       </c>
-      <c r="B431" s="53" t="s">
+      <c r="B431" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C431" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="D431" s="52" t="s">
+      <c r="C431" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D431" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E431" s="55">
+      <c r="E431" s="20">
         <v>44100</v>
       </c>
-      <c r="F431" s="52"/>
-      <c r="G431" s="56" t="s">
+      <c r="F431" s="18"/>
+      <c r="G431" s="24" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="432" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="60" t="s">
+      <c r="A432" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B432" s="60"/>
-      <c r="C432" s="60"/>
-      <c r="D432" s="60"/>
-      <c r="E432" s="60"/>
-      <c r="F432" s="60"/>
-      <c r="G432" s="60"/>
+      <c r="B432" s="55"/>
+      <c r="C432" s="55"/>
+      <c r="D432" s="55"/>
+      <c r="E432" s="55"/>
+      <c r="F432" s="55"/>
+      <c r="G432" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200927\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200928\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5573,8 +5573,8 @@
   <dimension ref="A1:G432"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G431" sqref="G431"/>
+      <pane ySplit="2" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G395" sqref="G395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -13429,7 +13429,9 @@
       <c r="E348" s="20">
         <v>44088</v>
       </c>
-      <c r="F348" s="18"/>
+      <c r="F348" s="20">
+        <v>44100</v>
+      </c>
       <c r="G348" s="21" t="s">
         <v>475</v>
       </c>
@@ -13450,7 +13452,9 @@
       <c r="E349" s="20">
         <v>44088</v>
       </c>
-      <c r="F349" s="18"/>
+      <c r="F349" s="20">
+        <v>44100</v>
+      </c>
       <c r="G349" s="21" t="s">
         <v>487</v>
       </c>
@@ -13915,7 +13919,9 @@
       <c r="E370" s="20">
         <v>44089</v>
       </c>
-      <c r="F370" s="18"/>
+      <c r="F370" s="20">
+        <v>44100</v>
+      </c>
       <c r="G370" s="21" t="s">
         <v>481</v>
       </c>
@@ -14127,7 +14133,9 @@
       <c r="E380" s="20">
         <v>44092</v>
       </c>
-      <c r="F380" s="18"/>
+      <c r="F380" s="20">
+        <v>44101</v>
+      </c>
       <c r="G380" s="24" t="s">
         <v>502</v>
       </c>
@@ -14148,7 +14156,9 @@
       <c r="E381" s="37">
         <v>44093</v>
       </c>
-      <c r="F381" s="27"/>
+      <c r="F381" s="37">
+        <v>44102</v>
+      </c>
       <c r="G381" s="28" t="s">
         <v>503</v>
       </c>
@@ -14169,7 +14179,9 @@
       <c r="E382" s="37">
         <v>44093</v>
       </c>
-      <c r="F382" s="27"/>
+      <c r="F382" s="37">
+        <v>44102</v>
+      </c>
       <c r="G382" s="28" t="s">
         <v>505</v>
       </c>
@@ -14234,7 +14246,9 @@
       <c r="E385" s="37">
         <v>44093</v>
       </c>
-      <c r="F385" s="27"/>
+      <c r="F385" s="37">
+        <v>44102</v>
+      </c>
       <c r="G385" s="28"/>
     </row>
     <row r="386" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -14253,7 +14267,9 @@
       <c r="E386" s="37">
         <v>44093</v>
       </c>
-      <c r="F386" s="27"/>
+      <c r="F386" s="37">
+        <v>44101</v>
+      </c>
       <c r="G386" s="28" t="s">
         <v>513</v>
       </c>
@@ -14400,7 +14416,7 @@
       <c r="E393" s="37">
         <v>44095</v>
       </c>
-      <c r="F393" s="27"/>
+      <c r="F393" s="37"/>
       <c r="G393" s="28" t="s">
         <v>526</v>
       </c>
@@ -14442,7 +14458,9 @@
       <c r="E395" s="37">
         <v>44095</v>
       </c>
-      <c r="F395" s="27"/>
+      <c r="F395" s="37">
+        <v>44102</v>
+      </c>
       <c r="G395" s="28" t="s">
         <v>534</v>
       </c>
@@ -14463,7 +14481,9 @@
       <c r="E396" s="37">
         <v>44095</v>
       </c>
-      <c r="F396" s="27"/>
+      <c r="F396" s="37">
+        <v>44102</v>
+      </c>
       <c r="G396" s="28" t="s">
         <v>532</v>
       </c>
@@ -14484,7 +14504,9 @@
       <c r="E397" s="37">
         <v>44095</v>
       </c>
-      <c r="F397" s="27"/>
+      <c r="F397" s="37">
+        <v>44102</v>
+      </c>
       <c r="G397" s="28" t="s">
         <v>532</v>
       </c>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200928\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200929\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$432</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$433</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="577">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -4886,6 +4886,13 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.427の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5056,7 +5063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5217,6 +5224,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5570,11 +5592,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G432"/>
+  <dimension ref="A1:G433"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G395" sqref="G395"/>
+      <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A432" sqref="A432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5589,15 +5611,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6010,16 +6032,16 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="56">
+      <c r="A20" s="61">
         <v>18</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="61" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="8">
@@ -6028,22 +6050,22 @@
       <c r="F20" s="8">
         <v>43959</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="63" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="14">
         <v>43973</v>
       </c>
       <c r="F21" s="8">
         <v>43990</v>
       </c>
-      <c r="G21" s="59"/>
+      <c r="G21" s="64"/>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -12954,7 +12976,9 @@
       <c r="E327" s="20">
         <v>44084</v>
       </c>
-      <c r="F327" s="18"/>
+      <c r="F327" s="20">
+        <v>44103</v>
+      </c>
       <c r="G327" s="21" t="s">
         <v>482</v>
       </c>
@@ -13362,7 +13386,9 @@
       <c r="E345" s="20">
         <v>44088</v>
       </c>
-      <c r="F345" s="18"/>
+      <c r="F345" s="20">
+        <v>44102</v>
+      </c>
       <c r="G345" s="21" t="s">
         <v>478</v>
       </c>
@@ -13611,7 +13637,9 @@
       <c r="E356" s="20">
         <v>44088</v>
       </c>
-      <c r="F356" s="18"/>
+      <c r="F356" s="20">
+        <v>44103</v>
+      </c>
       <c r="G356" s="21" t="s">
         <v>476</v>
       </c>
@@ -13856,7 +13884,9 @@
       <c r="E367" s="20">
         <v>44089</v>
       </c>
-      <c r="F367" s="18"/>
+      <c r="F367" s="20">
+        <v>44103</v>
+      </c>
       <c r="G367" s="21" t="s">
         <v>482</v>
       </c>
@@ -13877,7 +13907,9 @@
       <c r="E368" s="20">
         <v>44089</v>
       </c>
-      <c r="F368" s="18"/>
+      <c r="F368" s="20">
+        <v>44103</v>
+      </c>
       <c r="G368" s="21" t="s">
         <v>482</v>
       </c>
@@ -13898,7 +13930,9 @@
       <c r="E369" s="20">
         <v>44089</v>
       </c>
-      <c r="F369" s="18"/>
+      <c r="F369" s="20">
+        <v>44103</v>
+      </c>
       <c r="G369" s="21" t="s">
         <v>482</v>
       </c>
@@ -14066,7 +14100,9 @@
       <c r="E377" s="20">
         <v>44091</v>
       </c>
-      <c r="F377" s="18"/>
+      <c r="F377" s="20">
+        <v>44103</v>
+      </c>
       <c r="G377" s="21" t="s">
         <v>495</v>
       </c>
@@ -14334,7 +14370,9 @@
       <c r="E389" s="37">
         <v>44093</v>
       </c>
-      <c r="F389" s="27"/>
+      <c r="F389" s="37">
+        <v>44102</v>
+      </c>
       <c r="G389" s="28"/>
     </row>
     <row r="390" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -14416,7 +14454,9 @@
       <c r="E393" s="37">
         <v>44095</v>
       </c>
-      <c r="F393" s="37"/>
+      <c r="F393" s="37">
+        <v>44102</v>
+      </c>
       <c r="G393" s="28" t="s">
         <v>526</v>
       </c>
@@ -15223,21 +15263,42 @@
         <v>573</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="55" t="s">
+    <row r="432" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A432" s="54">
+        <v>428</v>
+      </c>
+      <c r="B432" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C432" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D432" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E432" s="57">
+        <v>44103</v>
+      </c>
+      <c r="F432" s="54"/>
+      <c r="G432" s="58" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A433" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B432" s="55"/>
-      <c r="C432" s="55"/>
-      <c r="D432" s="55"/>
-      <c r="E432" s="55"/>
-      <c r="F432" s="55"/>
-      <c r="G432" s="55"/>
+      <c r="B433" s="60"/>
+      <c r="C433" s="60"/>
+      <c r="D433" s="60"/>
+      <c r="E433" s="60"/>
+      <c r="F433" s="60"/>
+      <c r="G433" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A432:G432"/>
+    <mergeCell ref="A433:G433"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>
@@ -15247,7 +15308,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="6" man="1"/>
     <brk id="78" max="6" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200929\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20200930\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$433</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$436</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="583">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -4893,6 +4893,48 @@
     <t>No.427の妻</t>
     <rPh sb="7" eb="8">
       <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐野市</t>
+    <rPh sb="0" eb="3">
+      <t>サノシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.406の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5592,11 +5634,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G433"/>
+  <dimension ref="A1:G436"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A432" sqref="A432"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5606,8 +5648,7 @@
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="6" width="11.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="48.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -12955,7 +12996,9 @@
       <c r="E326" s="20">
         <v>44084</v>
       </c>
-      <c r="F326" s="18"/>
+      <c r="F326" s="20">
+        <v>44104</v>
+      </c>
       <c r="G326" s="24" t="s">
         <v>453</v>
       </c>
@@ -14743,7 +14786,9 @@
       <c r="E406" s="20">
         <v>44096</v>
       </c>
-      <c r="F406" s="18"/>
+      <c r="F406" s="20">
+        <v>44102</v>
+      </c>
       <c r="G406" s="24"/>
     </row>
     <row r="407" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -15218,7 +15263,9 @@
       <c r="E429" s="20">
         <v>44099</v>
       </c>
-      <c r="F429" s="18"/>
+      <c r="F429" s="20">
+        <v>44104</v>
+      </c>
       <c r="G429" s="24"/>
     </row>
     <row r="430" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -15264,41 +15311,100 @@
       </c>
     </row>
     <row r="432" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="54">
+      <c r="A432" s="18">
         <v>428</v>
       </c>
-      <c r="B432" s="55" t="s">
+      <c r="B432" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C432" s="56" t="s">
+      <c r="C432" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D432" s="54" t="s">
+      <c r="D432" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E432" s="57">
+      <c r="E432" s="20">
         <v>44103</v>
       </c>
-      <c r="F432" s="54"/>
-      <c r="G432" s="58" t="s">
+      <c r="F432" s="18"/>
+      <c r="G432" s="24" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A433" s="60" t="s">
+    <row r="433" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A433" s="54">
+        <v>429</v>
+      </c>
+      <c r="B433" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="C433" s="56" t="s">
+        <v>578</v>
+      </c>
+      <c r="D433" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="E433" s="57">
+        <v>44103</v>
+      </c>
+      <c r="F433" s="54"/>
+      <c r="G433" s="58"/>
+    </row>
+    <row r="434" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A434" s="54">
+        <v>430</v>
+      </c>
+      <c r="B434" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="C434" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="D434" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="E434" s="57">
+        <v>44104</v>
+      </c>
+      <c r="F434" s="54"/>
+      <c r="G434" s="58"/>
+    </row>
+    <row r="435" spans="1:7" s="50" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A435" s="54">
+        <v>431</v>
+      </c>
+      <c r="B435" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C435" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D435" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E435" s="57">
+        <v>44104</v>
+      </c>
+      <c r="F435" s="54"/>
+      <c r="G435" s="58" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A436" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B433" s="60"/>
-      <c r="C433" s="60"/>
-      <c r="D433" s="60"/>
-      <c r="E433" s="60"/>
-      <c r="F433" s="60"/>
-      <c r="G433" s="60"/>
+      <c r="B436" s="60"/>
+      <c r="C436" s="60"/>
+      <c r="D436" s="60"/>
+      <c r="E436" s="60"/>
+      <c r="F436" s="60"/>
+      <c r="G436" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A433:G433"/>
+    <mergeCell ref="A436:G436"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C20:C21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201002\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$437</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$438</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="588">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5691,11 +5691,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H437"/>
+  <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A436" sqref="A436"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -13997,8 +13997,8 @@
       <c r="F320" s="20">
         <v>44082</v>
       </c>
-      <c r="G320" s="18" t="s">
-        <v>584</v>
+      <c r="G320" s="20">
+        <v>44105</v>
       </c>
       <c r="H320" s="21" t="s">
         <v>446</v>
@@ -14101,8 +14101,8 @@
       <c r="F324" s="20">
         <v>44084</v>
       </c>
-      <c r="G324" s="18" t="s">
-        <v>584</v>
+      <c r="G324" s="20">
+        <v>44105</v>
       </c>
       <c r="H324" s="24" t="s">
         <v>453</v>
@@ -14881,8 +14881,8 @@
       <c r="F354" s="20">
         <v>44088</v>
       </c>
-      <c r="G354" s="18" t="s">
-        <v>584</v>
+      <c r="G354" s="20">
+        <v>44106</v>
       </c>
       <c r="H354" s="21" t="s">
         <v>488</v>
@@ -15011,8 +15011,8 @@
       <c r="F359" s="20">
         <v>44088</v>
       </c>
-      <c r="G359" s="18" t="s">
-        <v>584</v>
+      <c r="G359" s="20">
+        <v>44106</v>
       </c>
       <c r="H359" s="21" t="s">
         <v>473</v>
@@ -15037,8 +15037,8 @@
       <c r="F360" s="20">
         <v>44088</v>
       </c>
-      <c r="G360" s="18" t="s">
-        <v>584</v>
+      <c r="G360" s="20">
+        <v>44106</v>
       </c>
       <c r="H360" s="21" t="s">
         <v>474</v>
@@ -15661,8 +15661,8 @@
       <c r="F384" s="36">
         <v>44093</v>
       </c>
-      <c r="G384" s="27" t="s">
-        <v>584</v>
+      <c r="G384" s="36">
+        <v>44106</v>
       </c>
       <c r="H384" s="28" t="s">
         <v>512</v>
@@ -15765,8 +15765,8 @@
       <c r="F388" s="36">
         <v>44093</v>
       </c>
-      <c r="G388" s="27" t="s">
-        <v>584</v>
+      <c r="G388" s="36">
+        <v>44106</v>
       </c>
       <c r="H388" s="28" t="s">
         <v>511</v>
@@ -16285,8 +16285,8 @@
       <c r="F408" s="20">
         <v>44097</v>
       </c>
-      <c r="G408" s="18" t="s">
-        <v>584</v>
+      <c r="G408" s="20">
+        <v>44106</v>
       </c>
       <c r="H408" s="24" t="s">
         <v>584</v>
@@ -16415,8 +16415,8 @@
       <c r="F413" s="20">
         <v>44097</v>
       </c>
-      <c r="G413" s="18" t="s">
-        <v>584</v>
+      <c r="G413" s="20">
+        <v>44106</v>
       </c>
       <c r="H413" s="24" t="s">
         <v>547</v>
@@ -16571,8 +16571,8 @@
       <c r="F419" s="20">
         <v>44099</v>
       </c>
-      <c r="G419" s="18" t="s">
-        <v>584</v>
+      <c r="G419" s="20">
+        <v>44106</v>
       </c>
       <c r="H419" s="24" t="s">
         <v>569</v>
@@ -16597,8 +16597,8 @@
       <c r="F420" s="20">
         <v>44099</v>
       </c>
-      <c r="G420" s="18" t="s">
-        <v>584</v>
+      <c r="G420" s="20">
+        <v>44106</v>
       </c>
       <c r="H420" s="24" t="s">
         <v>557</v>
@@ -16995,47 +16995,73 @@
       </c>
     </row>
     <row r="436" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A436" s="52">
+      <c r="A436" s="18">
         <v>431</v>
       </c>
-      <c r="B436" s="52">
+      <c r="B436" s="18">
         <v>432</v>
       </c>
-      <c r="C436" s="53" t="s">
+      <c r="C436" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="D436" s="54" t="s">
+      <c r="D436" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E436" s="52" t="s">
+      <c r="E436" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F436" s="55">
+      <c r="F436" s="20">
         <v>44105</v>
       </c>
-      <c r="G436" s="52" t="s">
+      <c r="G436" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="H436" s="56" t="s">
+      <c r="H436" s="24" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A437" s="61" t="s">
+    <row r="437" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A437" s="52">
+        <v>432</v>
+      </c>
+      <c r="B437" s="52">
+        <v>433</v>
+      </c>
+      <c r="C437" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D437" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E437" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F437" s="55">
+        <v>44105</v>
+      </c>
+      <c r="G437" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="H437" s="56" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A438" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B437" s="61"/>
-      <c r="C437" s="61"/>
-      <c r="D437" s="61"/>
-      <c r="E437" s="61"/>
-      <c r="F437" s="61"/>
-      <c r="G437" s="61"/>
-      <c r="H437" s="61"/>
+      <c r="B438" s="61"/>
+      <c r="C438" s="61"/>
+      <c r="D438" s="61"/>
+      <c r="E438" s="61"/>
+      <c r="F438" s="61"/>
+      <c r="G438" s="61"/>
+      <c r="H438" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A437:H437"/>
+    <mergeCell ref="A438:H438"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201003\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$438</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$440</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="1" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="591">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -4966,6 +4966,42 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.433の母</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県での陽性判明者との接触あり　※宇都宮市128例目</t>
+    <rPh sb="0" eb="2">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レイメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5691,11 +5727,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H438"/>
+  <dimension ref="A1:H440"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A437" sqref="A437"/>
+      <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5706,8 +5742,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13347,8 +13382,8 @@
       <c r="F295" s="22">
         <v>44068</v>
       </c>
-      <c r="G295" s="18" t="s">
-        <v>584</v>
+      <c r="G295" s="20">
+        <v>44106</v>
       </c>
       <c r="H295" s="21" t="s">
         <v>418</v>
@@ -16623,8 +16658,8 @@
       <c r="F421" s="20">
         <v>44099</v>
       </c>
-      <c r="G421" s="18" t="s">
-        <v>584</v>
+      <c r="G421" s="20">
+        <v>44107</v>
       </c>
       <c r="H421" s="24" t="s">
         <v>584</v>
@@ -17021,47 +17056,99 @@
       </c>
     </row>
     <row r="437" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A437" s="52">
+      <c r="A437" s="18">
         <v>432</v>
       </c>
-      <c r="B437" s="52">
+      <c r="B437" s="18">
         <v>433</v>
       </c>
-      <c r="C437" s="53" t="s">
+      <c r="C437" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D437" s="54" t="s">
+      <c r="D437" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E437" s="52" t="s">
+      <c r="E437" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F437" s="55">
+      <c r="F437" s="20">
         <v>44105</v>
       </c>
-      <c r="G437" s="52" t="s">
+      <c r="G437" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="H437" s="56" t="s">
+      <c r="H437" s="24" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A438" s="61" t="s">
+    <row r="438" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A438" s="52">
+        <v>433</v>
+      </c>
+      <c r="B438" s="52">
+        <v>434</v>
+      </c>
+      <c r="C438" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D438" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E438" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F438" s="55">
+        <v>44106</v>
+      </c>
+      <c r="G438" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="H438" s="56" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A439" s="52">
+        <v>434</v>
+      </c>
+      <c r="B439" s="52">
+        <v>435</v>
+      </c>
+      <c r="C439" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D439" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E439" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F439" s="55">
+        <v>44107</v>
+      </c>
+      <c r="G439" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="H439" s="56" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A440" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B438" s="61"/>
-      <c r="C438" s="61"/>
-      <c r="D438" s="61"/>
-      <c r="E438" s="61"/>
-      <c r="F438" s="61"/>
-      <c r="G438" s="61"/>
-      <c r="H438" s="61"/>
+      <c r="B440" s="61"/>
+      <c r="C440" s="61"/>
+      <c r="D440" s="61"/>
+      <c r="E440" s="61"/>
+      <c r="F440" s="61"/>
+      <c r="G440" s="61"/>
+      <c r="H440" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A438:H438"/>
+    <mergeCell ref="A440:H440"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201004\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$440</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$443</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1" iterateCount="1" iterateDelta="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="594">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5001,6 +5001,36 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.419･420の子</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都内の飲食店で食事</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>インショクテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.434の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5195,7 +5225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5375,6 +5405,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5727,11 +5763,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H440"/>
+  <dimension ref="A1:P443"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:T1048576"/>
+      <pane ySplit="2" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H438" sqref="H438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5746,16 +5782,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6226,19 +6262,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62">
+      <c r="A20" s="64">
         <v>18</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="64">
         <v>18</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="64" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="8">
@@ -6247,23 +6283,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="66" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -16951,7 +16987,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="433" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="18">
         <v>428</v>
       </c>
@@ -16977,7 +17013,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="434" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="18">
         <v>429</v>
       </c>
@@ -17003,7 +17039,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="435" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="18">
         <v>430</v>
       </c>
@@ -17029,7 +17065,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="436" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="18">
         <v>431</v>
       </c>
@@ -17055,7 +17091,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="437" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="18">
         <v>432</v>
       </c>
@@ -17077,78 +17113,174 @@
       <c r="G437" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="H437" s="24" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A438" s="52">
+      <c r="H437" s="28" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A438" s="27">
         <v>433</v>
       </c>
-      <c r="B438" s="52">
+      <c r="B438" s="27">
         <v>434</v>
       </c>
-      <c r="C438" s="53" t="s">
+      <c r="C438" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D438" s="54" t="s">
+      <c r="D438" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E438" s="52" t="s">
+      <c r="E438" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="F438" s="55">
+      <c r="F438" s="36">
         <v>44106</v>
       </c>
-      <c r="G438" s="52" t="s">
+      <c r="G438" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="H438" s="56" t="s">
+      <c r="H438" s="28" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="439" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A439" s="52">
+    <row r="439" spans="1:16" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A439" s="27">
         <v>434</v>
       </c>
-      <c r="B439" s="52">
+      <c r="B439" s="27">
         <v>435</v>
       </c>
-      <c r="C439" s="53" t="s">
+      <c r="C439" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D439" s="54" t="s">
+      <c r="D439" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E439" s="52" t="s">
+      <c r="E439" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F439" s="55">
+      <c r="F439" s="36">
         <v>44107</v>
       </c>
-      <c r="G439" s="52" t="s">
+      <c r="G439" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="H439" s="56" t="s">
+      <c r="H439" s="28" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A440" s="61" t="s">
+    <row r="440" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A440" s="27">
+        <v>434</v>
+      </c>
+      <c r="B440" s="27">
+        <v>435</v>
+      </c>
+      <c r="C440" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D440" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E440" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F440" s="36">
+        <v>44107</v>
+      </c>
+      <c r="G440" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="H440" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="J440" s="1"/>
+      <c r="K440" s="60"/>
+      <c r="L440" s="61"/>
+      <c r="M440" s="60"/>
+      <c r="N440" s="61"/>
+      <c r="P440" s="60"/>
+    </row>
+    <row r="441" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A441" s="52">
+        <v>435</v>
+      </c>
+      <c r="B441" s="52">
+        <v>436</v>
+      </c>
+      <c r="C441" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D441" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E441" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F441" s="55">
+        <v>44108</v>
+      </c>
+      <c r="G441" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="H441" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="J441" s="1"/>
+      <c r="K441" s="60"/>
+      <c r="L441" s="61"/>
+      <c r="M441" s="60"/>
+      <c r="N441" s="61"/>
+      <c r="P441" s="60"/>
+    </row>
+    <row r="442" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A442" s="52">
+        <v>436</v>
+      </c>
+      <c r="B442" s="52">
+        <v>437</v>
+      </c>
+      <c r="C442" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D442" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E442" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="F442" s="55">
+        <v>44108</v>
+      </c>
+      <c r="G442" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="H442" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="J442" s="1"/>
+      <c r="K442" s="60"/>
+      <c r="L442" s="61"/>
+      <c r="M442" s="60"/>
+      <c r="N442" s="61"/>
+      <c r="P442" s="60"/>
+    </row>
+    <row r="443" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A443" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B440" s="61"/>
-      <c r="C440" s="61"/>
-      <c r="D440" s="61"/>
-      <c r="E440" s="61"/>
-      <c r="F440" s="61"/>
-      <c r="G440" s="61"/>
-      <c r="H440" s="61"/>
+      <c r="B443" s="63"/>
+      <c r="C443" s="63"/>
+      <c r="D443" s="63"/>
+      <c r="E443" s="63"/>
+      <c r="F443" s="63"/>
+      <c r="G443" s="63"/>
+      <c r="H443" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A440:H440"/>
+    <mergeCell ref="A443:H443"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -17159,7 +17291,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="6" man="1"/>
     <brk id="78" max="6" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$443</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$442</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1" iterateCount="1" iterateDelta="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="597">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5005,10 +5005,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>No.419･420の子</t>
     <rPh sb="11" eb="12">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5225,7 +5243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5405,12 +5423,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5763,11 +5775,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P443"/>
+  <dimension ref="A1:H442"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H438" sqref="H438"/>
+      <pane ySplit="2" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K442" sqref="K442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5782,16 +5794,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6262,19 +6274,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="64">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="62">
         <v>18</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="62" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="8">
@@ -6283,23 +6295,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="64" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="67"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -16987,7 +16999,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="433" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="18">
         <v>428</v>
       </c>
@@ -17013,7 +17025,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="434" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="18">
         <v>429</v>
       </c>
@@ -17039,7 +17051,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="435" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="18">
         <v>430</v>
       </c>
@@ -17065,7 +17077,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="436" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="18">
         <v>431</v>
       </c>
@@ -17091,7 +17103,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="437" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="18">
         <v>432</v>
       </c>
@@ -17113,11 +17125,11 @@
       <c r="G437" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="H437" s="28" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="438" spans="1:16" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H437" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A438" s="27">
         <v>433</v>
       </c>
@@ -17143,7 +17155,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="439" spans="1:16" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A439" s="27">
         <v>434</v>
       </c>
@@ -17169,118 +17181,74 @@
         <v>590</v>
       </c>
     </row>
-    <row r="440" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A440" s="27">
-        <v>434</v>
-      </c>
-      <c r="B440" s="27">
+    <row r="440" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A440" s="52">
         <v>435</v>
       </c>
-      <c r="C440" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D440" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E440" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F440" s="36">
-        <v>44107</v>
-      </c>
-      <c r="G440" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="H440" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="J440" s="1"/>
-      <c r="K440" s="60"/>
-      <c r="L440" s="61"/>
-      <c r="M440" s="60"/>
-      <c r="N440" s="61"/>
-      <c r="P440" s="60"/>
-    </row>
-    <row r="441" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B440" s="52">
+        <v>436</v>
+      </c>
+      <c r="C440" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D440" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E440" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F440" s="55">
+        <v>44108</v>
+      </c>
+      <c r="G440" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="H440" s="56" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A441" s="52">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B441" s="52">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C441" s="53" t="s">
-        <v>73</v>
+        <v>591</v>
       </c>
       <c r="D441" s="54" t="s">
-        <v>70</v>
+        <v>592</v>
       </c>
       <c r="E441" s="52" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="F441" s="55">
         <v>44108</v>
       </c>
       <c r="G441" s="52" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H441" s="56" t="s">
-        <v>591</v>
-      </c>
-      <c r="J441" s="1"/>
-      <c r="K441" s="60"/>
-      <c r="L441" s="61"/>
-      <c r="M441" s="60"/>
-      <c r="N441" s="61"/>
-      <c r="P441" s="60"/>
-    </row>
-    <row r="442" spans="1:16" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A442" s="52">
-        <v>436</v>
-      </c>
-      <c r="B442" s="52">
-        <v>437</v>
-      </c>
-      <c r="C442" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D442" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E442" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="F442" s="55">
-        <v>44108</v>
-      </c>
-      <c r="G442" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="H442" s="56" t="s">
-        <v>592</v>
-      </c>
-      <c r="J442" s="1"/>
-      <c r="K442" s="60"/>
-      <c r="L442" s="61"/>
-      <c r="M442" s="60"/>
-      <c r="N442" s="61"/>
-      <c r="P442" s="60"/>
-    </row>
-    <row r="443" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A443" s="63" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A442" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B443" s="63"/>
-      <c r="C443" s="63"/>
-      <c r="D443" s="63"/>
-      <c r="E443" s="63"/>
-      <c r="F443" s="63"/>
-      <c r="G443" s="63"/>
-      <c r="H443" s="63"/>
+      <c r="B442" s="61"/>
+      <c r="C442" s="61"/>
+      <c r="D442" s="61"/>
+      <c r="E442" s="61"/>
+      <c r="F442" s="61"/>
+      <c r="G442" s="61"/>
+      <c r="H442" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A443:H443"/>
+    <mergeCell ref="A442:H442"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201005\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="発生状況" sheetId="1" r:id="rId1"/>
+    <sheet name="マスター（こちらを修正）空欄のセルにはスペースを入力" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$442</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$A$1:$H$443</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateCount="1" iterateDelta="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="601">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5049,6 +5049,34 @@
     <t>No.434の子</t>
     <rPh sb="7" eb="8">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外に滞在</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5775,11 +5803,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H442"/>
+  <dimension ref="A1:H443"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K442" sqref="K442"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5790,7 +5818,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15458,8 +15487,8 @@
       <c r="F373" s="20">
         <v>44090</v>
       </c>
-      <c r="G373" s="18" t="s">
-        <v>584</v>
+      <c r="G373" s="20">
+        <v>44098</v>
       </c>
       <c r="H373" s="21" t="s">
         <v>584</v>
@@ -15536,8 +15565,8 @@
       <c r="F376" s="20">
         <v>44091</v>
       </c>
-      <c r="G376" s="18" t="s">
-        <v>584</v>
+      <c r="G376" s="20">
+        <v>44109</v>
       </c>
       <c r="H376" s="24" t="s">
         <v>496</v>
@@ -16108,8 +16137,8 @@
       <c r="F398" s="36">
         <v>44095</v>
       </c>
-      <c r="G398" s="27" t="s">
-        <v>584</v>
+      <c r="G398" s="36">
+        <v>44107</v>
       </c>
       <c r="H398" s="28" t="s">
         <v>535</v>
@@ -16134,8 +16163,8 @@
       <c r="F399" s="36">
         <v>44095</v>
       </c>
-      <c r="G399" s="27" t="s">
-        <v>584</v>
+      <c r="G399" s="36">
+        <v>44107</v>
       </c>
       <c r="H399" s="28" t="s">
         <v>536</v>
@@ -16524,8 +16553,8 @@
       <c r="F414" s="20">
         <v>44098</v>
       </c>
-      <c r="G414" s="18" t="s">
-        <v>584</v>
+      <c r="G414" s="20">
+        <v>44106</v>
       </c>
       <c r="H414" s="24" t="s">
         <v>548</v>
@@ -16550,8 +16579,8 @@
       <c r="F415" s="20">
         <v>44098</v>
       </c>
-      <c r="G415" s="18" t="s">
-        <v>584</v>
+      <c r="G415" s="20">
+        <v>44106</v>
       </c>
       <c r="H415" s="24" t="s">
         <v>549</v>
@@ -16732,8 +16761,8 @@
       <c r="F422" s="20">
         <v>44099</v>
       </c>
-      <c r="G422" s="18" t="s">
-        <v>584</v>
+      <c r="G422" s="20">
+        <v>44109</v>
       </c>
       <c r="H422" s="24" t="s">
         <v>584</v>
@@ -16940,8 +16969,8 @@
       <c r="F430" s="20">
         <v>44099</v>
       </c>
-      <c r="G430" s="18" t="s">
-        <v>584</v>
+      <c r="G430" s="20">
+        <v>44108</v>
       </c>
       <c r="H430" s="24" t="s">
         <v>575</v>
@@ -17044,8 +17073,8 @@
       <c r="F434" s="36">
         <v>44104</v>
       </c>
-      <c r="G434" s="27" t="s">
-        <v>584</v>
+      <c r="G434" s="36">
+        <v>44106</v>
       </c>
       <c r="H434" s="28" t="s">
         <v>584</v>
@@ -17096,8 +17125,8 @@
       <c r="F436" s="20">
         <v>44105</v>
       </c>
-      <c r="G436" s="18" t="s">
-        <v>586</v>
+      <c r="G436" s="20">
+        <v>44108</v>
       </c>
       <c r="H436" s="24" t="s">
         <v>586</v>
@@ -17122,8 +17151,8 @@
       <c r="F437" s="20">
         <v>44105</v>
       </c>
-      <c r="G437" s="18" t="s">
-        <v>584</v>
+      <c r="G437" s="20" t="s">
+        <v>598</v>
       </c>
       <c r="H437" s="24" t="s">
         <v>596</v>
@@ -17166,7 +17195,7 @@
         <v>97</v>
       </c>
       <c r="D439" s="25" t="s">
-        <v>67</v>
+        <v>600</v>
       </c>
       <c r="E439" s="27" t="s">
         <v>89</v>
@@ -17182,73 +17211,99 @@
       </c>
     </row>
     <row r="440" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A440" s="52">
+      <c r="A440" s="18">
         <v>435</v>
       </c>
-      <c r="B440" s="52">
+      <c r="B440" s="18">
         <v>436</v>
       </c>
-      <c r="C440" s="53" t="s">
+      <c r="C440" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D440" s="54" t="s">
+      <c r="D440" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E440" s="52" t="s">
+      <c r="E440" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F440" s="55">
+      <c r="F440" s="20">
         <v>44108</v>
       </c>
-      <c r="G440" s="52" t="s">
+      <c r="G440" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="H440" s="56" t="s">
+      <c r="H440" s="24" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="441" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A441" s="52">
+      <c r="A441" s="18">
         <v>436</v>
       </c>
-      <c r="B441" s="52">
+      <c r="B441" s="18">
         <v>437</v>
       </c>
-      <c r="C441" s="53" t="s">
+      <c r="C441" s="34" t="s">
         <v>591</v>
       </c>
-      <c r="D441" s="54" t="s">
+      <c r="D441" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="E441" s="52" t="s">
+      <c r="E441" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="F441" s="55">
+      <c r="F441" s="20">
         <v>44108</v>
       </c>
-      <c r="G441" s="52" t="s">
+      <c r="G441" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="H441" s="56" t="s">
+      <c r="H441" s="24" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A442" s="61" t="s">
+    <row r="442" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A442" s="52">
+        <v>437</v>
+      </c>
+      <c r="B442" s="52">
+        <v>438</v>
+      </c>
+      <c r="C442" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="D442" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E442" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F442" s="55">
+        <v>44109</v>
+      </c>
+      <c r="G442" s="52" t="s">
+        <v>598</v>
+      </c>
+      <c r="H442" s="56" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A443" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B442" s="61"/>
-      <c r="C442" s="61"/>
-      <c r="D442" s="61"/>
-      <c r="E442" s="61"/>
-      <c r="F442" s="61"/>
-      <c r="G442" s="61"/>
-      <c r="H442" s="61"/>
+      <c r="B443" s="61"/>
+      <c r="C443" s="61"/>
+      <c r="D443" s="61"/>
+      <c r="E443" s="61"/>
+      <c r="F443" s="61"/>
+      <c r="G443" s="61"/>
+      <c r="H443" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A442:H442"/>
+    <mergeCell ref="A443:H443"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -17261,9 +17316,9 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="6" man="1"/>
-    <brk id="78" max="6" man="1"/>
-    <brk id="119" max="6" man="1"/>
+    <brk id="40" max="7" man="1"/>
+    <brk id="78" max="7" man="1"/>
+    <brk id="119" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201005\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201006\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="マスター（こちらを修正）空欄のセルにはスペースを入力" sheetId="1" r:id="rId1"/>
+    <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$A$1:$H$443</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$1:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$447</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="606">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5077,6 +5077,50 @@
     <t>非公表</t>
     <rPh sb="0" eb="3">
       <t>ヒコウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静岡県</t>
+    <rPh sb="0" eb="3">
+      <t>シズオカケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静岡県から来県</t>
+    <rPh sb="0" eb="3">
+      <t>シズオカケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ライケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県から来県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ライケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.437の同居者</t>
+    <rPh sb="7" eb="10">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.425の同居家族</t>
+    <rPh sb="7" eb="9">
+      <t>ドウキョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5803,11 +5847,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H443"/>
+  <dimension ref="A1:H447"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A442" sqref="A442"/>
+      <pane ySplit="2" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A447" sqref="A447:H447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5818,8 +5862,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15981,8 +16024,8 @@
       <c r="F392" s="36">
         <v>44095</v>
       </c>
-      <c r="G392" s="27" t="s">
-        <v>584</v>
+      <c r="G392" s="36">
+        <v>44110</v>
       </c>
       <c r="H392" s="28" t="s">
         <v>533</v>
@@ -16995,8 +17038,8 @@
       <c r="F431" s="20">
         <v>44100</v>
       </c>
-      <c r="G431" s="18" t="s">
-        <v>584</v>
+      <c r="G431" s="20">
+        <v>44110</v>
       </c>
       <c r="H431" s="24" t="s">
         <v>573</v>
@@ -17047,8 +17090,8 @@
       <c r="F433" s="36">
         <v>44103</v>
       </c>
-      <c r="G433" s="27" t="s">
-        <v>584</v>
+      <c r="G433" s="36">
+        <v>44110</v>
       </c>
       <c r="H433" s="28" t="s">
         <v>584</v>
@@ -17263,47 +17306,151 @@
       </c>
     </row>
     <row r="442" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A442" s="52">
+      <c r="A442" s="18">
         <v>437</v>
       </c>
-      <c r="B442" s="52">
+      <c r="B442" s="18">
         <v>438</v>
       </c>
-      <c r="C442" s="53" t="s">
+      <c r="C442" s="34" t="s">
         <v>597</v>
       </c>
-      <c r="D442" s="54" t="s">
+      <c r="D442" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E442" s="52" t="s">
+      <c r="E442" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F442" s="55">
+      <c r="F442" s="20">
         <v>44109</v>
       </c>
-      <c r="G442" s="52" t="s">
+      <c r="G442" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="H442" s="56" t="s">
+      <c r="H442" s="24" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A443" s="61" t="s">
+    <row r="443" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A443" s="52">
+        <v>438</v>
+      </c>
+      <c r="B443" s="52">
+        <v>439</v>
+      </c>
+      <c r="C443" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D443" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E443" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="F443" s="55">
+        <v>44109</v>
+      </c>
+      <c r="G443" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="H443" s="56" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A444" s="52">
+        <v>439</v>
+      </c>
+      <c r="B444" s="52">
+        <v>440</v>
+      </c>
+      <c r="C444" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D444" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E444" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F444" s="55">
+        <v>44110</v>
+      </c>
+      <c r="G444" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="H444" s="56" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A445" s="52">
+        <v>440</v>
+      </c>
+      <c r="B445" s="52">
+        <v>441</v>
+      </c>
+      <c r="C445" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D445" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E445" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F445" s="55">
+        <v>44110</v>
+      </c>
+      <c r="G445" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="H445" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A446" s="52">
+        <v>441</v>
+      </c>
+      <c r="B446" s="52">
+        <v>442</v>
+      </c>
+      <c r="C446" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D446" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E446" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="F446" s="55">
+        <v>44110</v>
+      </c>
+      <c r="G446" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="H446" s="56" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A447" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B443" s="61"/>
-      <c r="C443" s="61"/>
-      <c r="D443" s="61"/>
-      <c r="E443" s="61"/>
-      <c r="F443" s="61"/>
-      <c r="G443" s="61"/>
-      <c r="H443" s="61"/>
+      <c r="B447" s="61"/>
+      <c r="C447" s="61"/>
+      <c r="D447" s="61"/>
+      <c r="E447" s="61"/>
+      <c r="F447" s="61"/>
+      <c r="G447" s="61"/>
+      <c r="H447" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A443:H443"/>
+    <mergeCell ref="A447:H447"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -17314,7 +17461,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201007\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201008\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$448</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$448</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="606">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5322,7 +5322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5477,21 +5477,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5857,39 +5842,38 @@
   <dimension ref="A1:H448"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
+      <pane ySplit="2" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="52" customWidth="1"/>
     <col min="3" max="4" width="6.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="53" t="s">
         <v>582</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6354,19 +6338,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62">
+      <c r="A20" s="57">
         <v>18</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="57">
         <v>18</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6375,23 +6359,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="59" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -16352,7 +16336,7 @@
       </c>
     </row>
     <row r="405" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A405" s="59" t="s">
+      <c r="A405" s="54" t="s">
         <v>586</v>
       </c>
       <c r="B405" s="18">
@@ -16526,8 +16510,8 @@
       <c r="F411" s="20">
         <v>44097</v>
       </c>
-      <c r="G411" s="18" t="s">
-        <v>583</v>
+      <c r="G411" s="20">
+        <v>44112</v>
       </c>
       <c r="H411" s="24" t="s">
         <v>544</v>
@@ -17444,42 +17428,42 @@
       </c>
     </row>
     <row r="447" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A447" s="52">
+      <c r="A447" s="18">
         <v>442</v>
       </c>
-      <c r="B447" s="52">
+      <c r="B447" s="18">
         <v>443</v>
       </c>
-      <c r="C447" s="53" t="s">
+      <c r="C447" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D447" s="54" t="s">
+      <c r="D447" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E447" s="52" t="s">
+      <c r="E447" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F447" s="55">
+      <c r="F447" s="20">
         <v>44111</v>
       </c>
-      <c r="G447" s="52" t="s">
+      <c r="G447" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H447" s="56" t="s">
+      <c r="H447" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="448" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A448" s="61" t="s">
+      <c r="A448" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B448" s="61"/>
-      <c r="C448" s="61"/>
-      <c r="D448" s="61"/>
-      <c r="E448" s="61"/>
-      <c r="F448" s="61"/>
-      <c r="G448" s="61"/>
-      <c r="H448" s="61"/>
+      <c r="B448" s="56"/>
+      <c r="C448" s="56"/>
+      <c r="D448" s="56"/>
+      <c r="E448" s="56"/>
+      <c r="F448" s="56"/>
+      <c r="G448" s="56"/>
+      <c r="H448" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201008\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201009\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="606">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5842,8 +5842,8 @@
   <dimension ref="A1:H448"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:AG1048576"/>
+      <pane ySplit="2" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5854,7 +5854,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -11128,8 +11129,8 @@
       <c r="F204" s="22">
         <v>44046</v>
       </c>
-      <c r="G204" s="20" t="s">
-        <v>583</v>
+      <c r="G204" s="20">
+        <v>44113</v>
       </c>
       <c r="H204" s="21" t="s">
         <v>583</v>
@@ -17056,8 +17057,8 @@
       <c r="F432" s="20">
         <v>44103</v>
       </c>
-      <c r="G432" s="18" t="s">
-        <v>583</v>
+      <c r="G432" s="20">
+        <v>44113</v>
       </c>
       <c r="H432" s="24" t="s">
         <v>575</v>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201010\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$448</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$450</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="608">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5128,6 +5128,35 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県陽性判明者の妻</t>
+    <rPh sb="0" eb="2">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都内に外出</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5322,7 +5351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5479,6 +5508,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5487,6 +5522,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5839,42 +5883,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H448"/>
+  <dimension ref="A1:H450"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="54" customWidth="1"/>
     <col min="3" max="4" width="6.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>582</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6339,19 +6382,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="57">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="62">
         <v>18</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="62" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6360,23 +6403,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -16337,7 +16380,7 @@
       </c>
     </row>
     <row r="405" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A405" s="54" t="s">
+      <c r="A405" s="56" t="s">
         <v>586</v>
       </c>
       <c r="B405" s="18">
@@ -16901,8 +16944,8 @@
       <c r="F426" s="20">
         <v>44099</v>
       </c>
-      <c r="G426" s="18" t="s">
-        <v>583</v>
+      <c r="G426" s="20">
+        <v>44114</v>
       </c>
       <c r="H426" s="24" t="s">
         <v>564</v>
@@ -17454,22 +17497,74 @@
         <v>583</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A448" s="56" t="s">
+    <row r="448" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A448" s="52">
+        <v>443</v>
+      </c>
+      <c r="B448" s="52">
+        <v>444</v>
+      </c>
+      <c r="C448" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D448" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E448" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="F448" s="53">
+        <v>44113</v>
+      </c>
+      <c r="G448" s="52" t="s">
+        <v>583</v>
+      </c>
+      <c r="H448" s="59" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A449" s="52">
+        <v>444</v>
+      </c>
+      <c r="B449" s="52">
+        <v>445</v>
+      </c>
+      <c r="C449" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D449" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E449" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F449" s="53">
+        <v>44113</v>
+      </c>
+      <c r="G449" s="52" t="s">
+        <v>583</v>
+      </c>
+      <c r="H449" s="59" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A450" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B448" s="56"/>
-      <c r="C448" s="56"/>
-      <c r="D448" s="56"/>
-      <c r="E448" s="56"/>
-      <c r="F448" s="56"/>
-      <c r="G448" s="56"/>
-      <c r="H448" s="56"/>
+      <c r="B450" s="61"/>
+      <c r="C450" s="61"/>
+      <c r="D450" s="61"/>
+      <c r="E450" s="61"/>
+      <c r="F450" s="61"/>
+      <c r="G450" s="61"/>
+      <c r="H450" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A448:H448"/>
+    <mergeCell ref="A450:H450"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201010\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201011\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="608">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5351,7 +5351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5508,12 +5508,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5522,15 +5516,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5886,38 +5871,39 @@
   <dimension ref="A1:H450"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:AE1048576"/>
+      <pane ySplit="2" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="52" customWidth="1"/>
     <col min="3" max="4" width="6.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>582</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6382,19 +6368,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62">
+      <c r="A20" s="57">
         <v>18</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="57">
         <v>18</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6403,23 +6389,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="59" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -16112,8 +16098,8 @@
       <c r="F394" s="36">
         <v>44095</v>
       </c>
-      <c r="G394" s="27" t="s">
-        <v>583</v>
+      <c r="G394" s="36">
+        <v>44113</v>
       </c>
       <c r="H394" s="28" t="s">
         <v>526</v>
@@ -16380,7 +16366,7 @@
       </c>
     </row>
     <row r="405" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A405" s="56" t="s">
+      <c r="A405" s="54" t="s">
         <v>586</v>
       </c>
       <c r="B405" s="18">
@@ -17464,8 +17450,8 @@
       <c r="F446" s="20">
         <v>44110</v>
       </c>
-      <c r="G446" s="18" t="s">
-        <v>583</v>
+      <c r="G446" s="20">
+        <v>44115</v>
       </c>
       <c r="H446" s="24" t="s">
         <v>603</v>
@@ -17498,68 +17484,68 @@
       </c>
     </row>
     <row r="448" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A448" s="52">
+      <c r="A448" s="18">
         <v>443</v>
       </c>
-      <c r="B448" s="52">
+      <c r="B448" s="18">
         <v>444</v>
       </c>
-      <c r="C448" s="57" t="s">
+      <c r="C448" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D448" s="58" t="s">
+      <c r="D448" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E448" s="52" t="s">
+      <c r="E448" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F448" s="53">
+      <c r="F448" s="20">
         <v>44113</v>
       </c>
-      <c r="G448" s="52" t="s">
+      <c r="G448" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H448" s="59" t="s">
+      <c r="H448" s="24" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="449" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A449" s="52">
+      <c r="A449" s="18">
         <v>444</v>
       </c>
-      <c r="B449" s="52">
+      <c r="B449" s="18">
         <v>445</v>
       </c>
-      <c r="C449" s="57" t="s">
+      <c r="C449" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D449" s="58" t="s">
+      <c r="D449" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E449" s="52" t="s">
+      <c r="E449" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F449" s="53">
+      <c r="F449" s="20">
         <v>44113</v>
       </c>
-      <c r="G449" s="52" t="s">
+      <c r="G449" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H449" s="59" t="s">
+      <c r="H449" s="24" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="450" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A450" s="61" t="s">
+      <c r="A450" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B450" s="61"/>
-      <c r="C450" s="61"/>
-      <c r="D450" s="61"/>
-      <c r="E450" s="61"/>
-      <c r="F450" s="61"/>
-      <c r="G450" s="61"/>
-      <c r="H450" s="61"/>
+      <c r="B450" s="56"/>
+      <c r="C450" s="56"/>
+      <c r="D450" s="56"/>
+      <c r="E450" s="56"/>
+      <c r="F450" s="56"/>
+      <c r="G450" s="56"/>
+      <c r="H450" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201011\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="608">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5871,7 +5871,7 @@
   <dimension ref="A1:H450"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
@@ -16254,8 +16254,8 @@
       <c r="F400" s="36">
         <v>44095</v>
       </c>
-      <c r="G400" s="27" t="s">
-        <v>583</v>
+      <c r="G400" s="36">
+        <v>44116</v>
       </c>
       <c r="H400" s="28" t="s">
         <v>527</v>
@@ -16514,8 +16514,8 @@
       <c r="F410" s="20">
         <v>44097</v>
       </c>
-      <c r="G410" s="18" t="s">
-        <v>583</v>
+      <c r="G410" s="20">
+        <v>44116</v>
       </c>
       <c r="H410" s="24" t="s">
         <v>545</v>
@@ -17164,8 +17164,8 @@
       <c r="F435" s="36">
         <v>44104</v>
       </c>
-      <c r="G435" s="27" t="s">
-        <v>583</v>
+      <c r="G435" s="36">
+        <v>44114</v>
       </c>
       <c r="H435" s="28" t="s">
         <v>581</v>
@@ -17294,8 +17294,8 @@
       <c r="F440" s="20">
         <v>44108</v>
       </c>
-      <c r="G440" s="18" t="s">
-        <v>593</v>
+      <c r="G440" s="20">
+        <v>44116</v>
       </c>
       <c r="H440" s="24" t="s">
         <v>592</v>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201013\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$450</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$450</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="608">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5871,7 +5871,7 @@
   <dimension ref="A1:H450"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
@@ -16852,8 +16852,8 @@
       <c r="F423" s="20">
         <v>44099</v>
       </c>
-      <c r="G423" s="18" t="s">
-        <v>583</v>
+      <c r="G423" s="20">
+        <v>44116</v>
       </c>
       <c r="H423" s="24" t="s">
         <v>573</v>
@@ -17216,8 +17216,8 @@
       <c r="F437" s="20">
         <v>44105</v>
       </c>
-      <c r="G437" s="20" t="s">
-        <v>597</v>
+      <c r="G437" s="20">
+        <v>44117</v>
       </c>
       <c r="H437" s="24" t="s">
         <v>595</v>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201013\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201014\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$450</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$450</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$458</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="618">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5158,6 +5158,79 @@
     <rPh sb="5" eb="7">
       <t>ガイシュツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃木市</t>
+    <rPh sb="0" eb="3">
+      <t>トチギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.448・449・450・451･452の同僚</t>
+    <rPh sb="23" eb="25">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.447・449・450・451･452の同僚</t>
+    <rPh sb="23" eb="25">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.447・448・450・451･452の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.447・448・449・451･452の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.447・448・449・450･451の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.447・448・449・450･452の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県での陽性判明者との接触あり　※宇都宮市129例目</t>
+    <rPh sb="0" eb="2">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5351,7 +5424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5516,6 +5589,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5868,11 +5956,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H450"/>
+  <dimension ref="A1:H458"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A449" sqref="A449"/>
+      <pane ySplit="2" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I448" sqref="I448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5883,21 +5971,20 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6368,19 +6455,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="57">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="62">
         <v>18</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="62" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6389,23 +6476,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -17424,8 +17511,8 @@
       <c r="F445" s="20">
         <v>44110</v>
       </c>
-      <c r="G445" s="18" t="s">
-        <v>583</v>
+      <c r="G445" s="20">
+        <v>44116</v>
       </c>
       <c r="H445" s="24" t="s">
         <v>604</v>
@@ -17535,22 +17622,230 @@
         <v>607</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A450" s="56" t="s">
+    <row r="450" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A450" s="55">
+        <v>445</v>
+      </c>
+      <c r="B450" s="55">
+        <v>446</v>
+      </c>
+      <c r="C450" s="56" t="s">
+        <v>608</v>
+      </c>
+      <c r="D450" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E450" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F450" s="58">
+        <v>44117</v>
+      </c>
+      <c r="G450" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="H450" s="59" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A451" s="55">
+        <v>446</v>
+      </c>
+      <c r="B451" s="55">
+        <v>447</v>
+      </c>
+      <c r="C451" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D451" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E451" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="F451" s="58">
+        <v>44117</v>
+      </c>
+      <c r="G451" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="H451" s="59" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A452" s="55">
+        <v>447</v>
+      </c>
+      <c r="B452" s="55">
+        <v>448</v>
+      </c>
+      <c r="C452" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D452" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E452" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="F452" s="58">
+        <v>44118</v>
+      </c>
+      <c r="G452" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="H452" s="59" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A453" s="55">
+        <v>448</v>
+      </c>
+      <c r="B453" s="55">
+        <v>449</v>
+      </c>
+      <c r="C453" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D453" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E453" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F453" s="58">
+        <v>44118</v>
+      </c>
+      <c r="G453" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="H453" s="59" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A454" s="55">
+        <v>449</v>
+      </c>
+      <c r="B454" s="55">
+        <v>450</v>
+      </c>
+      <c r="C454" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D454" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E454" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F454" s="58">
+        <v>44118</v>
+      </c>
+      <c r="G454" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="H454" s="59" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A455" s="55">
+        <v>450</v>
+      </c>
+      <c r="B455" s="55">
+        <v>451</v>
+      </c>
+      <c r="C455" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D455" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E455" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F455" s="58">
+        <v>44118</v>
+      </c>
+      <c r="G455" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="H455" s="59" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A456" s="55">
+        <v>451</v>
+      </c>
+      <c r="B456" s="55">
+        <v>452</v>
+      </c>
+      <c r="C456" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D456" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E456" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F456" s="58">
+        <v>44118</v>
+      </c>
+      <c r="G456" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="H456" s="59" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A457" s="55">
+        <v>452</v>
+      </c>
+      <c r="B457" s="55">
+        <v>453</v>
+      </c>
+      <c r="C457" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D457" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E457" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F457" s="58">
+        <v>44118</v>
+      </c>
+      <c r="G457" s="55" t="s">
+        <v>617</v>
+      </c>
+      <c r="H457" s="59" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A458" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B450" s="56"/>
-      <c r="C450" s="56"/>
-      <c r="D450" s="56"/>
-      <c r="E450" s="56"/>
-      <c r="F450" s="56"/>
-      <c r="G450" s="56"/>
-      <c r="H450" s="56"/>
+      <c r="B458" s="61"/>
+      <c r="C458" s="61"/>
+      <c r="D458" s="61"/>
+      <c r="E458" s="61"/>
+      <c r="F458" s="61"/>
+      <c r="G458" s="61"/>
+      <c r="H458" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A450:H450"/>
+    <mergeCell ref="A458:H458"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -17561,7 +17856,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201014\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$458</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$459</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="620">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5231,6 +5231,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5956,11 +5964,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H458"/>
+  <dimension ref="A1:H459"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I448" sqref="I448"/>
+      <pane ySplit="2" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F457" sqref="F457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5971,7 +5979,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -16653,8 +16662,8 @@
       <c r="F412" s="20">
         <v>44097</v>
       </c>
-      <c r="G412" s="18" t="s">
-        <v>583</v>
+      <c r="G412" s="20">
+        <v>44118</v>
       </c>
       <c r="H412" s="24" t="s">
         <v>583</v>
@@ -16757,8 +16766,8 @@
       <c r="F416" s="20">
         <v>44098</v>
       </c>
-      <c r="G416" s="18" t="s">
-        <v>583</v>
+      <c r="G416" s="20">
+        <v>44119</v>
       </c>
       <c r="H416" s="24" t="s">
         <v>549</v>
@@ -17355,8 +17364,8 @@
       <c r="F439" s="36">
         <v>44107</v>
       </c>
-      <c r="G439" s="27" t="s">
-        <v>587</v>
+      <c r="G439" s="36">
+        <v>44116</v>
       </c>
       <c r="H439" s="28" t="s">
         <v>589</v>
@@ -17485,8 +17494,8 @@
       <c r="F444" s="20">
         <v>44110</v>
       </c>
-      <c r="G444" s="18" t="s">
-        <v>583</v>
+      <c r="G444" s="20">
+        <v>44116</v>
       </c>
       <c r="H444" s="24" t="s">
         <v>602</v>
@@ -17512,7 +17521,7 @@
         <v>44110</v>
       </c>
       <c r="G445" s="20">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="H445" s="24" t="s">
         <v>604</v>
@@ -17537,8 +17546,8 @@
       <c r="F446" s="20">
         <v>44110</v>
       </c>
-      <c r="G446" s="20">
-        <v>44115</v>
+      <c r="G446" s="20" t="s">
+        <v>619</v>
       </c>
       <c r="H446" s="24" t="s">
         <v>603</v>
@@ -17564,7 +17573,7 @@
         <v>44111</v>
       </c>
       <c r="G447" s="18" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="H447" s="24" t="s">
         <v>583</v>
@@ -17615,237 +17624,263 @@
       <c r="F449" s="20">
         <v>44113</v>
       </c>
-      <c r="G449" s="18" t="s">
-        <v>583</v>
+      <c r="G449" s="20">
+        <v>44119</v>
       </c>
       <c r="H449" s="24" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="450" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A450" s="55">
+      <c r="A450" s="18">
         <v>445</v>
       </c>
-      <c r="B450" s="55">
+      <c r="B450" s="18">
         <v>446</v>
       </c>
-      <c r="C450" s="56" t="s">
+      <c r="C450" s="34" t="s">
         <v>608</v>
       </c>
-      <c r="D450" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E450" s="55" t="s">
+      <c r="D450" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E450" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F450" s="58">
+      <c r="F450" s="20">
         <v>44117</v>
       </c>
-      <c r="G450" s="55" t="s">
+      <c r="G450" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="H450" s="59" t="s">
+      <c r="H450" s="24" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="451" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A451" s="55">
+      <c r="A451" s="18">
         <v>446</v>
       </c>
-      <c r="B451" s="55">
+      <c r="B451" s="18">
         <v>447</v>
       </c>
-      <c r="C451" s="56" t="s">
+      <c r="C451" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D451" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E451" s="55" t="s">
+      <c r="D451" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E451" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F451" s="58">
+      <c r="F451" s="20">
         <v>44117</v>
       </c>
-      <c r="G451" s="55" t="s">
+      <c r="G451" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="H451" s="59" t="s">
+      <c r="H451" s="24" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="452" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A452" s="55">
+      <c r="A452" s="18">
         <v>447</v>
       </c>
-      <c r="B452" s="55">
+      <c r="B452" s="18">
         <v>448</v>
       </c>
-      <c r="C452" s="56" t="s">
+      <c r="C452" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D452" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E452" s="55" t="s">
+      <c r="D452" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E452" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="F452" s="58">
+      <c r="F452" s="20">
         <v>44118</v>
       </c>
-      <c r="G452" s="55" t="s">
+      <c r="G452" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="H452" s="59" t="s">
+      <c r="H452" s="24" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="453" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A453" s="55">
+      <c r="A453" s="18">
         <v>448</v>
       </c>
-      <c r="B453" s="55">
+      <c r="B453" s="18">
         <v>449</v>
       </c>
-      <c r="C453" s="56" t="s">
+      <c r="C453" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D453" s="57" t="s">
+      <c r="D453" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E453" s="55" t="s">
+      <c r="E453" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F453" s="58">
+      <c r="F453" s="20">
         <v>44118</v>
       </c>
-      <c r="G453" s="55" t="s">
+      <c r="G453" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="H453" s="59" t="s">
+      <c r="H453" s="24" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="454" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A454" s="55">
+      <c r="A454" s="18">
         <v>449</v>
       </c>
-      <c r="B454" s="55">
+      <c r="B454" s="18">
         <v>450</v>
       </c>
-      <c r="C454" s="56" t="s">
+      <c r="C454" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D454" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E454" s="55" t="s">
+      <c r="D454" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E454" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F454" s="58">
+      <c r="F454" s="20">
         <v>44118</v>
       </c>
-      <c r="G454" s="55" t="s">
+      <c r="G454" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="H454" s="59" t="s">
+      <c r="H454" s="24" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="455" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A455" s="55">
+      <c r="A455" s="18">
         <v>450</v>
       </c>
-      <c r="B455" s="55">
+      <c r="B455" s="18">
         <v>451</v>
       </c>
-      <c r="C455" s="56" t="s">
+      <c r="C455" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D455" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E455" s="55" t="s">
+      <c r="D455" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E455" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F455" s="58">
+      <c r="F455" s="20">
         <v>44118</v>
       </c>
-      <c r="G455" s="55" t="s">
+      <c r="G455" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="H455" s="59" t="s">
+      <c r="H455" s="24" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="456" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A456" s="55">
+      <c r="A456" s="18">
         <v>451</v>
       </c>
-      <c r="B456" s="55">
+      <c r="B456" s="18">
         <v>452</v>
       </c>
-      <c r="C456" s="56" t="s">
+      <c r="C456" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D456" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E456" s="55" t="s">
+      <c r="D456" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E456" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F456" s="58">
+      <c r="F456" s="20">
         <v>44118</v>
       </c>
-      <c r="G456" s="55" t="s">
+      <c r="G456" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="H456" s="59" t="s">
+      <c r="H456" s="24" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="457" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A457" s="55">
+      <c r="A457" s="18">
         <v>452</v>
       </c>
-      <c r="B457" s="55">
+      <c r="B457" s="18">
         <v>453</v>
       </c>
-      <c r="C457" s="56" t="s">
+      <c r="C457" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D457" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E457" s="55" t="s">
+      <c r="D457" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E457" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F457" s="58">
+      <c r="F457" s="20">
         <v>44118</v>
       </c>
-      <c r="G457" s="55" t="s">
+      <c r="G457" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="H457" s="59" t="s">
+      <c r="H457" s="24" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A458" s="61" t="s">
+    <row r="458" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A458" s="55">
+        <v>453</v>
+      </c>
+      <c r="B458" s="55">
+        <v>454</v>
+      </c>
+      <c r="C458" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D458" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E458" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F458" s="58">
+        <v>44119</v>
+      </c>
+      <c r="G458" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="H458" s="59" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A459" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B458" s="61"/>
-      <c r="C458" s="61"/>
-      <c r="D458" s="61"/>
-      <c r="E458" s="61"/>
-      <c r="F458" s="61"/>
-      <c r="G458" s="61"/>
-      <c r="H458" s="61"/>
+      <c r="B459" s="61"/>
+      <c r="C459" s="61"/>
+      <c r="D459" s="61"/>
+      <c r="E459" s="61"/>
+      <c r="F459" s="61"/>
+      <c r="G459" s="61"/>
+      <c r="H459" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A458:H458"/>
+    <mergeCell ref="A459:H459"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$459</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$464</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="623">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5023,10 +5023,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>東京都内の飲食店で食事</t>
     <rPh sb="0" eb="3">
       <t>トウキョウト</t>
@@ -5239,6 +5235,37 @@
   </si>
   <si>
     <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.448の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.452の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.452の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市130例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5964,11 +5991,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H459"/>
+  <dimension ref="A1:H464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F457" sqref="F457"/>
+      <pane ySplit="2" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H418" sqref="H418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5979,8 +6006,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6018,7 +6044,7 @@
         <v>78</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -17316,7 +17342,7 @@
         <v>44117</v>
       </c>
       <c r="H437" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="438" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17356,7 +17382,7 @@
         <v>96</v>
       </c>
       <c r="D439" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E439" s="27" t="s">
         <v>88</v>
@@ -17416,11 +17442,11 @@
       <c r="F441" s="20">
         <v>44108</v>
       </c>
-      <c r="G441" s="18" t="s">
+      <c r="G441" s="20">
+        <v>44120</v>
+      </c>
+      <c r="H441" s="24" t="s">
         <v>593</v>
-      </c>
-      <c r="H441" s="24" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="442" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17431,7 +17457,7 @@
         <v>438</v>
       </c>
       <c r="C442" s="34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D442" s="19" t="s">
         <v>66</v>
@@ -17443,10 +17469,10 @@
         <v>44109</v>
       </c>
       <c r="G442" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="H442" s="24" t="s">
         <v>597</v>
-      </c>
-      <c r="H442" s="24" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="443" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17463,7 +17489,7 @@
         <v>69</v>
       </c>
       <c r="E443" s="18" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F443" s="20">
         <v>44109</v>
@@ -17472,7 +17498,7 @@
         <v>583</v>
       </c>
       <c r="H443" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="444" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17498,7 +17524,7 @@
         <v>44116</v>
       </c>
       <c r="H444" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="445" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17524,7 +17550,7 @@
         <v>44115</v>
       </c>
       <c r="H445" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="446" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17546,11 +17572,11 @@
       <c r="F446" s="20">
         <v>44110</v>
       </c>
-      <c r="G446" s="20" t="s">
-        <v>619</v>
+      <c r="G446" s="20">
+        <v>44120</v>
       </c>
       <c r="H446" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="447" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17573,7 +17599,7 @@
         <v>44111</v>
       </c>
       <c r="G447" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H447" s="24" t="s">
         <v>583</v>
@@ -17602,7 +17628,7 @@
         <v>583</v>
       </c>
       <c r="H448" s="24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="449" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17628,7 +17654,7 @@
         <v>44119</v>
       </c>
       <c r="H449" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="450" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17639,7 +17665,7 @@
         <v>446</v>
       </c>
       <c r="C450" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D450" s="19" t="s">
         <v>69</v>
@@ -17651,10 +17677,10 @@
         <v>44117</v>
       </c>
       <c r="G450" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H450" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="451" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17677,10 +17703,10 @@
         <v>44117</v>
       </c>
       <c r="G451" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H451" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="452" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17697,16 +17723,16 @@
         <v>69</v>
       </c>
       <c r="E452" s="18" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F452" s="20">
         <v>44118</v>
       </c>
       <c r="G452" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H452" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="453" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17729,10 +17755,10 @@
         <v>44118</v>
       </c>
       <c r="G453" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H453" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="454" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17755,10 +17781,10 @@
         <v>44118</v>
       </c>
       <c r="G454" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H454" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="455" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17781,10 +17807,10 @@
         <v>44118</v>
       </c>
       <c r="G455" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H455" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="456" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17807,10 +17833,10 @@
         <v>44118</v>
       </c>
       <c r="G456" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H456" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="457" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17833,54 +17859,184 @@
         <v>44118</v>
       </c>
       <c r="G457" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="H457" s="24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A458" s="18">
+        <v>453</v>
+      </c>
+      <c r="B458" s="18">
+        <v>454</v>
+      </c>
+      <c r="C458" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D458" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E458" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F458" s="20">
+        <v>44119</v>
+      </c>
+      <c r="G458" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H458" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="H457" s="24" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A458" s="55">
-        <v>453</v>
-      </c>
-      <c r="B458" s="55">
+    </row>
+    <row r="459" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A459" s="55">
         <v>454</v>
       </c>
-      <c r="C458" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D458" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E458" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="F458" s="58">
-        <v>44119</v>
-      </c>
-      <c r="G458" s="55" t="s">
+      <c r="B459" s="55">
+        <v>455</v>
+      </c>
+      <c r="C459" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D459" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E459" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F459" s="58">
+        <v>44120</v>
+      </c>
+      <c r="G459" s="55" t="s">
         <v>586</v>
       </c>
-      <c r="H458" s="59" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A459" s="61" t="s">
+      <c r="H459" s="59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A460" s="55">
+        <v>455</v>
+      </c>
+      <c r="B460" s="55">
+        <v>456</v>
+      </c>
+      <c r="C460" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D460" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E460" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F460" s="58">
+        <v>44120</v>
+      </c>
+      <c r="G460" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="H460" s="59" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A461" s="55">
+        <v>456</v>
+      </c>
+      <c r="B461" s="55">
+        <v>457</v>
+      </c>
+      <c r="C461" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D461" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E461" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F461" s="58">
+        <v>44120</v>
+      </c>
+      <c r="G461" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="H461" s="59" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A462" s="55">
+        <v>457</v>
+      </c>
+      <c r="B462" s="55">
+        <v>458</v>
+      </c>
+      <c r="C462" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D462" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E462" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F462" s="58">
+        <v>44120</v>
+      </c>
+      <c r="G462" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="H462" s="59" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A463" s="55">
+        <v>458</v>
+      </c>
+      <c r="B463" s="55">
+        <v>459</v>
+      </c>
+      <c r="C463" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D463" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E463" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F463" s="58">
+        <v>44120</v>
+      </c>
+      <c r="G463" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="H463" s="59" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A464" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B459" s="61"/>
-      <c r="C459" s="61"/>
-      <c r="D459" s="61"/>
-      <c r="E459" s="61"/>
-      <c r="F459" s="61"/>
-      <c r="G459" s="61"/>
-      <c r="H459" s="61"/>
+      <c r="B464" s="61"/>
+      <c r="C464" s="61"/>
+      <c r="D464" s="61"/>
+      <c r="E464" s="61"/>
+      <c r="F464" s="61"/>
+      <c r="G464" s="61"/>
+      <c r="H464" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A459:H459"/>
+    <mergeCell ref="A464:H464"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$464</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$469</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="633">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5234,10 +5234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.448の子</t>
     <rPh sb="7" eb="8">
       <t>コ</t>
@@ -5265,6 +5261,92 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足利市</t>
+    <rPh sb="0" eb="3">
+      <t>アシカガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>那須塩原市</t>
+    <rPh sb="0" eb="5">
+      <t>ナスシオバラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.461の同居者</t>
+    <rPh sb="7" eb="10">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.460の同居者</t>
+    <rPh sb="7" eb="10">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.463の母、464の祖母</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.462の子、464の母</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.462の孫、463の子</t>
+    <rPh sb="7" eb="8">
+      <t>マゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5991,11 +6073,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H464"/>
+  <dimension ref="A1:H469"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H418" sqref="H418"/>
+      <pane ySplit="2" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -16116,8 +16198,8 @@
       <c r="F390" s="36">
         <v>44094</v>
       </c>
-      <c r="G390" s="27" t="s">
-        <v>583</v>
+      <c r="G390" s="36">
+        <v>44121</v>
       </c>
       <c r="H390" s="28" t="s">
         <v>515</v>
@@ -17598,8 +17680,8 @@
       <c r="F447" s="20">
         <v>44111</v>
       </c>
-      <c r="G447" s="18" t="s">
-        <v>618</v>
+      <c r="G447" s="20">
+        <v>44121</v>
       </c>
       <c r="H447" s="24" t="s">
         <v>583</v>
@@ -17892,151 +17974,271 @@
       </c>
     </row>
     <row r="459" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A459" s="55">
+      <c r="A459" s="18">
         <v>454</v>
       </c>
-      <c r="B459" s="55">
+      <c r="B459" s="18">
         <v>455</v>
       </c>
-      <c r="C459" s="56" t="s">
+      <c r="C459" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D459" s="57" t="s">
+      <c r="D459" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E459" s="55" t="s">
+      <c r="E459" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F459" s="58">
+      <c r="F459" s="20">
         <v>44120</v>
       </c>
-      <c r="G459" s="55" t="s">
+      <c r="G459" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="H459" s="59" t="s">
+      <c r="H459" s="24" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A460" s="18">
+        <v>455</v>
+      </c>
+      <c r="B460" s="18">
+        <v>456</v>
+      </c>
+      <c r="C460" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D460" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E460" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F460" s="20">
+        <v>44120</v>
+      </c>
+      <c r="G460" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H460" s="24" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="460" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A460" s="55">
-        <v>455</v>
-      </c>
-      <c r="B460" s="55">
+    <row r="461" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A461" s="18">
         <v>456</v>
       </c>
-      <c r="C460" s="56" t="s">
+      <c r="B461" s="18">
+        <v>457</v>
+      </c>
+      <c r="C461" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D461" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E461" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F461" s="20">
+        <v>44120</v>
+      </c>
+      <c r="G461" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H461" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A462" s="18">
+        <v>457</v>
+      </c>
+      <c r="B462" s="18">
+        <v>458</v>
+      </c>
+      <c r="C462" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D462" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E462" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F462" s="20">
+        <v>44120</v>
+      </c>
+      <c r="G462" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H462" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A463" s="18">
+        <v>458</v>
+      </c>
+      <c r="B463" s="18">
+        <v>459</v>
+      </c>
+      <c r="C463" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D460" s="57" t="s">
+      <c r="D463" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E463" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F463" s="20">
+        <v>44120</v>
+      </c>
+      <c r="G463" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H463" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A464" s="55">
+        <v>459</v>
+      </c>
+      <c r="B464" s="55">
+        <v>460</v>
+      </c>
+      <c r="C464" s="56" t="s">
+        <v>624</v>
+      </c>
+      <c r="D464" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="E464" s="55" t="s">
+        <v>622</v>
+      </c>
+      <c r="F464" s="58">
+        <v>44121</v>
+      </c>
+      <c r="G464" s="55"/>
+      <c r="H464" s="59" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A465" s="55">
+        <v>460</v>
+      </c>
+      <c r="B465" s="55">
+        <v>461</v>
+      </c>
+      <c r="C465" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="D465" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="E465" s="55" t="s">
+        <v>622</v>
+      </c>
+      <c r="F465" s="58">
+        <v>44121</v>
+      </c>
+      <c r="G465" s="55"/>
+      <c r="H465" s="59" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A466" s="55">
+        <v>461</v>
+      </c>
+      <c r="B466" s="55">
+        <v>462</v>
+      </c>
+      <c r="C466" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D466" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E460" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="F460" s="58">
+      <c r="E466" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F466" s="58">
         <v>44120</v>
       </c>
-      <c r="G460" s="55" t="s">
-        <v>586</v>
-      </c>
-      <c r="H460" s="59" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A461" s="55">
-        <v>456</v>
-      </c>
-      <c r="B461" s="55">
-        <v>457</v>
-      </c>
-      <c r="C461" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D461" s="57" t="s">
+      <c r="G466" s="55"/>
+      <c r="H466" s="59" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A467" s="55">
+        <v>462</v>
+      </c>
+      <c r="B467" s="55">
+        <v>463</v>
+      </c>
+      <c r="C467" s="56" t="s">
+        <v>632</v>
+      </c>
+      <c r="D467" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E461" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="F461" s="58">
-        <v>44120</v>
-      </c>
-      <c r="G461" s="55" t="s">
-        <v>586</v>
-      </c>
-      <c r="H461" s="59" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A462" s="55">
-        <v>457</v>
-      </c>
-      <c r="B462" s="55">
-        <v>458</v>
-      </c>
-      <c r="C462" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D462" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E462" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="F462" s="58">
-        <v>44120</v>
-      </c>
-      <c r="G462" s="55" t="s">
-        <v>586</v>
-      </c>
-      <c r="H462" s="59" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A463" s="55">
-        <v>458</v>
-      </c>
-      <c r="B463" s="55">
-        <v>459</v>
-      </c>
-      <c r="C463" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D463" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E463" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="F463" s="58">
-        <v>44120</v>
-      </c>
-      <c r="G463" s="55" t="s">
-        <v>586</v>
-      </c>
-      <c r="H463" s="59" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A464" s="61" t="s">
+      <c r="E467" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F467" s="58">
+        <v>44121</v>
+      </c>
+      <c r="G467" s="55"/>
+      <c r="H467" s="59" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A468" s="55">
+        <v>463</v>
+      </c>
+      <c r="B468" s="55">
+        <v>464</v>
+      </c>
+      <c r="C468" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D468" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="E468" s="55" t="s">
+        <v>623</v>
+      </c>
+      <c r="F468" s="58">
+        <v>44121</v>
+      </c>
+      <c r="G468" s="55"/>
+      <c r="H468" s="59" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A469" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B464" s="61"/>
-      <c r="C464" s="61"/>
-      <c r="D464" s="61"/>
-      <c r="E464" s="61"/>
-      <c r="F464" s="61"/>
-      <c r="G464" s="61"/>
-      <c r="H464" s="61"/>
+      <c r="B469" s="61"/>
+      <c r="C469" s="61"/>
+      <c r="D469" s="61"/>
+      <c r="E469" s="61"/>
+      <c r="F469" s="61"/>
+      <c r="G469" s="61"/>
+      <c r="H469" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A464:H464"/>
+    <mergeCell ref="A469:H469"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -18047,7 +18249,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$469</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$471</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="635">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5348,6 +5348,20 @@
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県陽性者の父</t>
+    <rPh sb="0" eb="5">
+      <t>タケンヨウセイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6073,11 +6087,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H469"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="2" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A471" sqref="A471:H471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -18104,141 +18118,203 @@
       </c>
     </row>
     <row r="464" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A464" s="55">
+      <c r="A464" s="18">
         <v>459</v>
       </c>
-      <c r="B464" s="55">
+      <c r="B464" s="18">
         <v>460</v>
       </c>
-      <c r="C464" s="56" t="s">
+      <c r="C464" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="D464" s="57" t="s">
+      <c r="D464" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="E464" s="55" t="s">
+      <c r="E464" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="F464" s="58">
+      <c r="F464" s="20">
         <v>44121</v>
       </c>
-      <c r="G464" s="55"/>
-      <c r="H464" s="59" t="s">
+      <c r="G464" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H464" s="24" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="465" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A465" s="55">
+      <c r="A465" s="18">
         <v>460</v>
       </c>
-      <c r="B465" s="55">
+      <c r="B465" s="18">
         <v>461</v>
       </c>
-      <c r="C465" s="56" t="s">
+      <c r="C465" s="34" t="s">
         <v>625</v>
       </c>
-      <c r="D465" s="57" t="s">
+      <c r="D465" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="E465" s="55" t="s">
+      <c r="E465" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="F465" s="58">
+      <c r="F465" s="20">
         <v>44121</v>
       </c>
-      <c r="G465" s="55"/>
-      <c r="H465" s="59" t="s">
+      <c r="G465" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H465" s="24" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="466" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A466" s="55">
+      <c r="A466" s="18">
         <v>461</v>
       </c>
-      <c r="B466" s="55">
+      <c r="B466" s="18">
         <v>462</v>
       </c>
-      <c r="C466" s="56" t="s">
+      <c r="C466" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D466" s="57" t="s">
+      <c r="D466" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E466" s="55" t="s">
+      <c r="E466" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="F466" s="58">
+      <c r="F466" s="20">
         <v>44120</v>
       </c>
-      <c r="G466" s="55"/>
-      <c r="H466" s="59" t="s">
+      <c r="G466" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H466" s="24" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="467" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A467" s="55">
+      <c r="A467" s="18">
         <v>462</v>
       </c>
-      <c r="B467" s="55">
+      <c r="B467" s="18">
         <v>463</v>
       </c>
-      <c r="C467" s="56" t="s">
+      <c r="C467" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="D467" s="57" t="s">
+      <c r="D467" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E467" s="55" t="s">
+      <c r="E467" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="F467" s="58">
+      <c r="F467" s="20">
         <v>44121</v>
       </c>
-      <c r="G467" s="55"/>
-      <c r="H467" s="59" t="s">
+      <c r="G467" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H467" s="24" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="468" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A468" s="55">
+      <c r="A468" s="18">
         <v>463</v>
       </c>
-      <c r="B468" s="55">
+      <c r="B468" s="18">
         <v>464</v>
       </c>
-      <c r="C468" s="56" t="s">
+      <c r="C468" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D468" s="57" t="s">
-        <v>626</v>
-      </c>
-      <c r="E468" s="55" t="s">
+      <c r="D468" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E468" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F468" s="20">
+        <v>44121</v>
+      </c>
+      <c r="G468" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="H468" s="24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A469" s="55">
+        <v>464</v>
+      </c>
+      <c r="B469" s="55">
+        <v>465</v>
+      </c>
+      <c r="C469" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D469" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E469" s="55" t="s">
         <v>623</v>
       </c>
-      <c r="F468" s="58">
+      <c r="F469" s="58">
         <v>44121</v>
       </c>
-      <c r="G468" s="55"/>
-      <c r="H468" s="59" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A469" s="61" t="s">
+      <c r="G469" s="55" t="s">
+        <v>634</v>
+      </c>
+      <c r="H469" s="59" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A470" s="55">
+        <v>465</v>
+      </c>
+      <c r="B470" s="55">
+        <v>466</v>
+      </c>
+      <c r="C470" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D470" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E470" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F470" s="58">
+        <v>44121</v>
+      </c>
+      <c r="G470" s="55" t="s">
+        <v>634</v>
+      </c>
+      <c r="H470" s="59" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A471" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B469" s="61"/>
-      <c r="C469" s="61"/>
-      <c r="D469" s="61"/>
-      <c r="E469" s="61"/>
-      <c r="F469" s="61"/>
-      <c r="G469" s="61"/>
-      <c r="H469" s="61"/>
+      <c r="B471" s="61"/>
+      <c r="C471" s="61"/>
+      <c r="D471" s="61"/>
+      <c r="E471" s="61"/>
+      <c r="F471" s="61"/>
+      <c r="G471" s="61"/>
+      <c r="H471" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A469:H469"/>
+    <mergeCell ref="A471:H471"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$471</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$472</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="635">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5053,10 +5053,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>県外に滞在</t>
     <rPh sb="0" eb="2">
       <t>ケンガイ</t>
@@ -5362,6 +5358,13 @@
   </si>
   <si>
     <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.451の知人</t>
+    <rPh sb="0" eb="9">
+      <t>ノ.451ノチジン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6087,11 +6090,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H471"/>
+  <dimension ref="A1:H472"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A471" sqref="A471:H471"/>
+      <pane ySplit="2" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K467" sqref="K467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6102,7 +6105,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6140,7 +6144,7 @@
         <v>78</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -17478,7 +17482,7 @@
         <v>96</v>
       </c>
       <c r="D439" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E439" s="27" t="s">
         <v>88</v>
@@ -17564,11 +17568,11 @@
       <c r="F442" s="20">
         <v>44109</v>
       </c>
-      <c r="G442" s="18" t="s">
+      <c r="G442" s="20">
+        <v>44121</v>
+      </c>
+      <c r="H442" s="24" t="s">
         <v>596</v>
-      </c>
-      <c r="H442" s="24" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="443" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17585,7 +17589,7 @@
         <v>69</v>
       </c>
       <c r="E443" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F443" s="20">
         <v>44109</v>
@@ -17594,7 +17598,7 @@
         <v>583</v>
       </c>
       <c r="H443" s="24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="444" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17620,7 +17624,7 @@
         <v>44116</v>
       </c>
       <c r="H444" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="445" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17646,7 +17650,7 @@
         <v>44115</v>
       </c>
       <c r="H445" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="446" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17672,7 +17676,7 @@
         <v>44120</v>
       </c>
       <c r="H446" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="447" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17724,7 +17728,7 @@
         <v>583</v>
       </c>
       <c r="H448" s="24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="449" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17750,7 +17754,7 @@
         <v>44119</v>
       </c>
       <c r="H449" s="24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="450" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17761,7 +17765,7 @@
         <v>446</v>
       </c>
       <c r="C450" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D450" s="19" t="s">
         <v>69</v>
@@ -17773,10 +17777,10 @@
         <v>44117</v>
       </c>
       <c r="G450" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H450" s="24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="451" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17799,10 +17803,10 @@
         <v>44117</v>
       </c>
       <c r="G451" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H451" s="24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="452" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17819,16 +17823,16 @@
         <v>69</v>
       </c>
       <c r="E452" s="18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F452" s="20">
         <v>44118</v>
       </c>
       <c r="G452" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H452" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="453" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17851,10 +17855,10 @@
         <v>44118</v>
       </c>
       <c r="G453" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H453" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="454" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17877,10 +17881,10 @@
         <v>44118</v>
       </c>
       <c r="G454" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H454" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="455" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17903,10 +17907,10 @@
         <v>44118</v>
       </c>
       <c r="G455" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H455" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="456" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17929,10 +17933,10 @@
         <v>44118</v>
       </c>
       <c r="G456" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H456" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="457" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17955,10 +17959,10 @@
         <v>44118</v>
       </c>
       <c r="G457" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H457" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="458" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17984,7 +17988,7 @@
         <v>586</v>
       </c>
       <c r="H458" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="459" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18010,7 +18014,7 @@
         <v>586</v>
       </c>
       <c r="H459" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="460" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18036,7 +18040,7 @@
         <v>586</v>
       </c>
       <c r="H460" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="461" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18062,7 +18066,7 @@
         <v>586</v>
       </c>
       <c r="H461" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="462" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18088,7 +18092,7 @@
         <v>586</v>
       </c>
       <c r="H462" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="463" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18114,7 +18118,7 @@
         <v>586</v>
       </c>
       <c r="H463" s="24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="464" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18125,13 +18129,13 @@
         <v>460</v>
       </c>
       <c r="C464" s="34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D464" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E464" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F464" s="20">
         <v>44121</v>
@@ -18140,7 +18144,7 @@
         <v>586</v>
       </c>
       <c r="H464" s="24" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="465" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18151,13 +18155,13 @@
         <v>461</v>
       </c>
       <c r="C465" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="D465" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="D465" s="19" t="s">
-        <v>626</v>
-      </c>
       <c r="E465" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F465" s="20">
         <v>44121</v>
@@ -18166,7 +18170,7 @@
         <v>586</v>
       </c>
       <c r="H465" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="466" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18192,7 +18196,7 @@
         <v>586</v>
       </c>
       <c r="H466" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="467" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18203,7 +18207,7 @@
         <v>463</v>
       </c>
       <c r="C467" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D467" s="19" t="s">
         <v>66</v>
@@ -18218,7 +18222,7 @@
         <v>586</v>
       </c>
       <c r="H467" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="468" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18244,77 +18248,103 @@
         <v>586</v>
       </c>
       <c r="H468" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="469" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A469" s="55">
+      <c r="A469" s="18">
         <v>464</v>
       </c>
-      <c r="B469" s="55">
+      <c r="B469" s="18">
         <v>465</v>
       </c>
-      <c r="C469" s="56" t="s">
+      <c r="C469" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D469" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E469" s="55" t="s">
-        <v>623</v>
-      </c>
-      <c r="F469" s="58">
+      <c r="D469" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E469" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="F469" s="20">
         <v>44121</v>
       </c>
-      <c r="G469" s="55" t="s">
+      <c r="G469" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="H469" s="24" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A470" s="18">
+        <v>465</v>
+      </c>
+      <c r="B470" s="18">
+        <v>466</v>
+      </c>
+      <c r="C470" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D470" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E470" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F470" s="20">
+        <v>44121</v>
+      </c>
+      <c r="G470" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="H470" s="24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A471" s="55">
+        <v>466</v>
+      </c>
+      <c r="B471" s="55">
+        <v>467</v>
+      </c>
+      <c r="C471" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D471" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E471" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F471" s="58">
+        <v>44122</v>
+      </c>
+      <c r="G471" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H471" s="59" t="s">
         <v>634</v>
       </c>
-      <c r="H469" s="59" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A470" s="55">
-        <v>465</v>
-      </c>
-      <c r="B470" s="55">
-        <v>466</v>
-      </c>
-      <c r="C470" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D470" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E470" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F470" s="58">
-        <v>44121</v>
-      </c>
-      <c r="G470" s="55" t="s">
-        <v>634</v>
-      </c>
-      <c r="H470" s="59" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A471" s="61" t="s">
+    </row>
+    <row r="472" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A472" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B471" s="61"/>
-      <c r="C471" s="61"/>
-      <c r="D471" s="61"/>
-      <c r="E471" s="61"/>
-      <c r="F471" s="61"/>
-      <c r="G471" s="61"/>
-      <c r="H471" s="61"/>
+      <c r="B472" s="61"/>
+      <c r="C472" s="61"/>
+      <c r="D472" s="61"/>
+      <c r="E472" s="61"/>
+      <c r="F472" s="61"/>
+      <c r="G472" s="61"/>
+      <c r="H472" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A471:H471"/>
+    <mergeCell ref="A472:H472"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$472</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$479</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="640">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -4966,10 +4966,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.433の母</t>
     <rPh sb="7" eb="8">
       <t>ハハ</t>
@@ -5365,6 +5361,45 @@
     <rPh sb="0" eb="9">
       <t>ノ.451ノチジン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.462の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.466の姪</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>那須町</t>
+    <rPh sb="0" eb="3">
+      <t>ナスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.469の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐野市</t>
+    <rPh sb="0" eb="3">
+      <t>サノシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6090,11 +6125,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H472"/>
+  <dimension ref="A1:H479"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K467" sqref="K467"/>
+      <pane ySplit="2" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A479" sqref="A479:H479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6144,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -17442,7 +17477,7 @@
         <v>44117</v>
       </c>
       <c r="H437" s="24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="438" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17464,11 +17499,11 @@
       <c r="F438" s="36">
         <v>44106</v>
       </c>
-      <c r="G438" s="27" t="s">
+      <c r="G438" s="36">
+        <v>44124</v>
+      </c>
+      <c r="H438" s="28" t="s">
         <v>587</v>
-      </c>
-      <c r="H438" s="28" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="439" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17482,7 +17517,7 @@
         <v>96</v>
       </c>
       <c r="D439" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E439" s="27" t="s">
         <v>88</v>
@@ -17494,7 +17529,7 @@
         <v>44116</v>
       </c>
       <c r="H439" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="440" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17520,7 +17555,7 @@
         <v>44116</v>
       </c>
       <c r="H440" s="24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="441" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17531,10 +17566,10 @@
         <v>437</v>
       </c>
       <c r="C441" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="D441" s="19" t="s">
         <v>590</v>
-      </c>
-      <c r="D441" s="19" t="s">
-        <v>591</v>
       </c>
       <c r="E441" s="18" t="s">
         <v>293</v>
@@ -17546,7 +17581,7 @@
         <v>44120</v>
       </c>
       <c r="H441" s="24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="442" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17557,7 +17592,7 @@
         <v>438</v>
       </c>
       <c r="C442" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D442" s="19" t="s">
         <v>66</v>
@@ -17572,7 +17607,7 @@
         <v>44121</v>
       </c>
       <c r="H442" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="443" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17589,7 +17624,7 @@
         <v>69</v>
       </c>
       <c r="E443" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F443" s="20">
         <v>44109</v>
@@ -17598,7 +17633,7 @@
         <v>583</v>
       </c>
       <c r="H443" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="444" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17624,7 +17659,7 @@
         <v>44116</v>
       </c>
       <c r="H444" s="24" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="445" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17650,7 +17685,7 @@
         <v>44115</v>
       </c>
       <c r="H445" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="446" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17676,7 +17711,7 @@
         <v>44120</v>
       </c>
       <c r="H446" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="447" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17724,11 +17759,11 @@
       <c r="F448" s="20">
         <v>44113</v>
       </c>
-      <c r="G448" s="18" t="s">
-        <v>583</v>
+      <c r="G448" s="20">
+        <v>44124</v>
       </c>
       <c r="H448" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="449" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17754,7 +17789,7 @@
         <v>44119</v>
       </c>
       <c r="H449" s="24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="450" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17765,7 +17800,7 @@
         <v>446</v>
       </c>
       <c r="C450" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D450" s="19" t="s">
         <v>69</v>
@@ -17776,11 +17811,11 @@
       <c r="F450" s="20">
         <v>44117</v>
       </c>
-      <c r="G450" s="18" t="s">
-        <v>615</v>
+      <c r="G450" s="20">
+        <v>44123</v>
       </c>
       <c r="H450" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="451" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17803,10 +17838,10 @@
         <v>44117</v>
       </c>
       <c r="G451" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H451" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="452" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17823,16 +17858,16 @@
         <v>69</v>
       </c>
       <c r="E452" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F452" s="20">
         <v>44118</v>
       </c>
       <c r="G452" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H452" s="24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="453" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17855,10 +17890,10 @@
         <v>44118</v>
       </c>
       <c r="G453" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H453" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="454" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17881,10 +17916,10 @@
         <v>44118</v>
       </c>
       <c r="G454" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H454" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="455" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17907,10 +17942,10 @@
         <v>44118</v>
       </c>
       <c r="G455" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H455" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="456" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17933,10 +17968,10 @@
         <v>44118</v>
       </c>
       <c r="G456" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H456" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="457" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17959,10 +17994,10 @@
         <v>44118</v>
       </c>
       <c r="G457" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H457" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="458" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -17988,7 +18023,7 @@
         <v>586</v>
       </c>
       <c r="H458" s="24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="459" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18014,7 +18049,7 @@
         <v>586</v>
       </c>
       <c r="H459" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="460" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18040,7 +18075,7 @@
         <v>586</v>
       </c>
       <c r="H460" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="461" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18066,7 +18101,7 @@
         <v>586</v>
       </c>
       <c r="H461" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="462" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18092,7 +18127,7 @@
         <v>586</v>
       </c>
       <c r="H462" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="463" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18118,7 +18153,7 @@
         <v>586</v>
       </c>
       <c r="H463" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="464" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18129,13 +18164,13 @@
         <v>460</v>
       </c>
       <c r="C464" s="34" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D464" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E464" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F464" s="20">
         <v>44121</v>
@@ -18144,7 +18179,7 @@
         <v>586</v>
       </c>
       <c r="H464" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="465" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18155,13 +18190,13 @@
         <v>461</v>
       </c>
       <c r="C465" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="D465" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="D465" s="19" t="s">
-        <v>625</v>
-      </c>
       <c r="E465" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F465" s="20">
         <v>44121</v>
@@ -18170,7 +18205,7 @@
         <v>586</v>
       </c>
       <c r="H465" s="24" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="466" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18196,7 +18231,7 @@
         <v>586</v>
       </c>
       <c r="H466" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="467" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18207,7 +18242,7 @@
         <v>463</v>
       </c>
       <c r="C467" s="34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D467" s="19" t="s">
         <v>66</v>
@@ -18222,7 +18257,7 @@
         <v>586</v>
       </c>
       <c r="H467" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="468" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18248,7 +18283,7 @@
         <v>586</v>
       </c>
       <c r="H468" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="469" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18265,16 +18300,16 @@
         <v>69</v>
       </c>
       <c r="E469" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F469" s="20">
         <v>44121</v>
       </c>
       <c r="G469" s="18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H469" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="470" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18297,54 +18332,236 @@
         <v>44121</v>
       </c>
       <c r="G470" s="18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H470" s="24" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="471" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A471" s="55">
+      <c r="A471" s="18">
         <v>466</v>
       </c>
-      <c r="B471" s="55">
+      <c r="B471" s="18">
         <v>467</v>
       </c>
-      <c r="C471" s="56" t="s">
+      <c r="C471" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D471" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E471" s="55" t="s">
+      <c r="D471" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E471" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F471" s="58">
+      <c r="F471" s="20">
         <v>44122</v>
       </c>
-      <c r="G471" s="55" t="s">
+      <c r="G471" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H471" s="59" t="s">
+      <c r="H471" s="24" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A472" s="18">
+        <v>467</v>
+      </c>
+      <c r="B472" s="18">
+        <v>468</v>
+      </c>
+      <c r="C472" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D472" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E472" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F472" s="20">
+        <v>44124</v>
+      </c>
+      <c r="G472" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H472" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A473" s="18">
+        <v>468</v>
+      </c>
+      <c r="B473" s="18">
+        <v>469</v>
+      </c>
+      <c r="C473" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D473" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E473" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F473" s="20">
+        <v>44123</v>
+      </c>
+      <c r="G473" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H473" s="24" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A472" s="61" t="s">
+    <row r="474" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A474" s="18">
+        <v>469</v>
+      </c>
+      <c r="B474" s="18">
+        <v>470</v>
+      </c>
+      <c r="C474" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D474" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E474" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F474" s="20">
+        <v>44124</v>
+      </c>
+      <c r="G474" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H474" s="24" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A475" s="18">
+        <v>470</v>
+      </c>
+      <c r="B475" s="18">
+        <v>471</v>
+      </c>
+      <c r="C475" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D475" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E475" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="F475" s="20">
+        <v>44124</v>
+      </c>
+      <c r="G475" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H475" s="24" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A476" s="18">
+        <v>471</v>
+      </c>
+      <c r="B476" s="18">
+        <v>472</v>
+      </c>
+      <c r="C476" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D476" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E476" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F476" s="20">
+        <v>44124</v>
+      </c>
+      <c r="G476" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H476" s="24" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A477" s="55">
+        <v>472</v>
+      </c>
+      <c r="B477" s="55">
+        <v>473</v>
+      </c>
+      <c r="C477" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D477" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E477" s="55" t="s">
+        <v>638</v>
+      </c>
+      <c r="F477" s="58">
+        <v>44124</v>
+      </c>
+      <c r="G477" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H477" s="59" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A478" s="55">
+        <v>473</v>
+      </c>
+      <c r="B478" s="55">
+        <v>474</v>
+      </c>
+      <c r="C478" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D478" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E478" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F478" s="58">
+        <v>44125</v>
+      </c>
+      <c r="G478" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H478" s="59" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A479" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B472" s="61"/>
-      <c r="C472" s="61"/>
-      <c r="D472" s="61"/>
-      <c r="E472" s="61"/>
-      <c r="F472" s="61"/>
-      <c r="G472" s="61"/>
-      <c r="H472" s="61"/>
+      <c r="B479" s="61"/>
+      <c r="C479" s="61"/>
+      <c r="D479" s="61"/>
+      <c r="E479" s="61"/>
+      <c r="F479" s="61"/>
+      <c r="G479" s="61"/>
+      <c r="H479" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A472:H472"/>
+    <mergeCell ref="A479:H479"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -18355,7 +18572,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5593,7 +5593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5758,21 +5758,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6128,8 +6113,8 @@
   <dimension ref="A1:H479"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A479" sqref="A479:H479"/>
+      <pane ySplit="2" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A478" sqref="A478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6145,16 +6130,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6625,19 +6610,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62">
+      <c r="A20" s="57">
         <v>18</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="57">
         <v>18</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6646,23 +6631,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="59" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -18495,68 +18480,68 @@
       </c>
     </row>
     <row r="477" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A477" s="55">
+      <c r="A477" s="18">
         <v>472</v>
       </c>
-      <c r="B477" s="55">
+      <c r="B477" s="18">
         <v>473</v>
       </c>
-      <c r="C477" s="56" t="s">
+      <c r="C477" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D477" s="57" t="s">
+      <c r="D477" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E477" s="55" t="s">
+      <c r="E477" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="F477" s="58">
+      <c r="F477" s="20">
         <v>44124</v>
       </c>
-      <c r="G477" s="55" t="s">
+      <c r="G477" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H477" s="59" t="s">
+      <c r="H477" s="24" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="478" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A478" s="55">
+      <c r="A478" s="18">
         <v>473</v>
       </c>
-      <c r="B478" s="55">
+      <c r="B478" s="18">
         <v>474</v>
       </c>
-      <c r="C478" s="56" t="s">
+      <c r="C478" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D478" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E478" s="55" t="s">
+      <c r="D478" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E478" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F478" s="58">
+      <c r="F478" s="20">
         <v>44125</v>
       </c>
-      <c r="G478" s="55" t="s">
+      <c r="G478" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H478" s="59" t="s">
+      <c r="H478" s="24" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="479" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A479" s="61" t="s">
+      <c r="A479" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B479" s="61"/>
-      <c r="C479" s="61"/>
-      <c r="D479" s="61"/>
-      <c r="E479" s="61"/>
-      <c r="F479" s="61"/>
-      <c r="G479" s="61"/>
-      <c r="H479" s="61"/>
+      <c r="B479" s="56"/>
+      <c r="C479" s="56"/>
+      <c r="D479" s="56"/>
+      <c r="E479" s="56"/>
+      <c r="F479" s="56"/>
+      <c r="G479" s="56"/>
+      <c r="H479" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$479</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$482</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="641">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5400,6 +5400,13 @@
   </si>
   <si>
     <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO.463の接触者</t>
+    <rPh sb="7" eb="10">
+      <t>セッショクシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6110,11 +6117,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H479"/>
+  <dimension ref="A1:H482"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A478" sqref="A478"/>
+      <pane ySplit="2" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A481" sqref="A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -17120,8 +17127,8 @@
       <c r="F424" s="20">
         <v>44099</v>
       </c>
-      <c r="G424" s="18" t="s">
-        <v>583</v>
+      <c r="G424" s="20">
+        <v>44126</v>
       </c>
       <c r="H424" s="24" t="s">
         <v>571</v>
@@ -17881,7 +17888,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="454" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:8" s="49" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" s="18">
         <v>449</v>
       </c>
@@ -17900,8 +17907,8 @@
       <c r="F454" s="20">
         <v>44118</v>
       </c>
-      <c r="G454" s="18" t="s">
-        <v>614</v>
+      <c r="G454" s="20">
+        <v>44128</v>
       </c>
       <c r="H454" s="24" t="s">
         <v>610</v>
@@ -17978,8 +17985,8 @@
       <c r="F457" s="20">
         <v>44118</v>
       </c>
-      <c r="G457" s="18" t="s">
-        <v>614</v>
+      <c r="G457" s="20">
+        <v>44127</v>
       </c>
       <c r="H457" s="24" t="s">
         <v>613</v>
@@ -18004,8 +18011,8 @@
       <c r="F458" s="20">
         <v>44119</v>
       </c>
-      <c r="G458" s="18" t="s">
-        <v>586</v>
+      <c r="G458" s="20">
+        <v>44126</v>
       </c>
       <c r="H458" s="24" t="s">
         <v>615</v>
@@ -18450,7 +18457,7 @@
         <v>583</v>
       </c>
       <c r="H475" s="24" t="s">
-        <v>583</v>
+        <v>640</v>
       </c>
     </row>
     <row r="476" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18531,22 +18538,100 @@
         <v>639</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A479" s="56" t="s">
+    <row r="479" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A479" s="18">
+        <v>474</v>
+      </c>
+      <c r="B479" s="18">
+        <v>475</v>
+      </c>
+      <c r="C479" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D479" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E479" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F479" s="20">
+        <v>44127</v>
+      </c>
+      <c r="G479" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H479" s="24" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A480" s="18">
+        <v>475</v>
+      </c>
+      <c r="B480" s="18">
+        <v>476</v>
+      </c>
+      <c r="C480" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D480" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E480" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F480" s="20">
+        <v>44127</v>
+      </c>
+      <c r="G480" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H480" s="24" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A481" s="18">
+        <v>476</v>
+      </c>
+      <c r="B481" s="18">
+        <v>477</v>
+      </c>
+      <c r="C481" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D481" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E481" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F481" s="20">
+        <v>44127</v>
+      </c>
+      <c r="G481" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H481" s="24" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A482" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B479" s="56"/>
-      <c r="C479" s="56"/>
-      <c r="D479" s="56"/>
-      <c r="E479" s="56"/>
-      <c r="F479" s="56"/>
-      <c r="G479" s="56"/>
-      <c r="H479" s="56"/>
+      <c r="B482" s="56"/>
+      <c r="C482" s="56"/>
+      <c r="D482" s="56"/>
+      <c r="E482" s="56"/>
+      <c r="F482" s="56"/>
+      <c r="G482" s="56"/>
+      <c r="H482" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A479:H479"/>
+    <mergeCell ref="A482:H482"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201025\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$482</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$483</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="642">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5406,6 +5406,13 @@
     <t>NO.463の接触者</t>
     <rPh sb="7" eb="10">
       <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.477の母</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5600,7 +5607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5765,6 +5772,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6117,11 +6139,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H482"/>
+  <dimension ref="A1:H483"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A481" sqref="A481"/>
+      <pane ySplit="2" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H453" sqref="H453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6132,21 +6154,20 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6617,19 +6638,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="57">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="62">
         <v>18</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="62" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6638,23 +6659,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -18063,8 +18084,8 @@
       <c r="F460" s="20">
         <v>44120</v>
       </c>
-      <c r="G460" s="18" t="s">
-        <v>586</v>
+      <c r="G460" s="20">
+        <v>44129</v>
       </c>
       <c r="H460" s="24" t="s">
         <v>617</v>
@@ -18089,8 +18110,8 @@
       <c r="F461" s="20">
         <v>44120</v>
       </c>
-      <c r="G461" s="18" t="s">
-        <v>586</v>
+      <c r="G461" s="20">
+        <v>44129</v>
       </c>
       <c r="H461" s="24" t="s">
         <v>618</v>
@@ -18115,8 +18136,8 @@
       <c r="F462" s="20">
         <v>44120</v>
       </c>
-      <c r="G462" s="18" t="s">
-        <v>586</v>
+      <c r="G462" s="20">
+        <v>44129</v>
       </c>
       <c r="H462" s="24" t="s">
         <v>618</v>
@@ -18141,8 +18162,8 @@
       <c r="F463" s="20">
         <v>44120</v>
       </c>
-      <c r="G463" s="18" t="s">
-        <v>586</v>
+      <c r="G463" s="20">
+        <v>44128</v>
       </c>
       <c r="H463" s="24" t="s">
         <v>619</v>
@@ -18616,22 +18637,48 @@
         <v>583</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A482" s="56" t="s">
+    <row r="482" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A482" s="55">
+        <v>477</v>
+      </c>
+      <c r="B482" s="55">
+        <v>478</v>
+      </c>
+      <c r="C482" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D482" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E482" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="F482" s="58">
+        <v>44129</v>
+      </c>
+      <c r="G482" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H482" s="59" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A483" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B482" s="56"/>
-      <c r="C482" s="56"/>
-      <c r="D482" s="56"/>
-      <c r="E482" s="56"/>
-      <c r="F482" s="56"/>
-      <c r="G482" s="56"/>
-      <c r="H482" s="56"/>
+      <c r="B483" s="61"/>
+      <c r="C483" s="61"/>
+      <c r="D483" s="61"/>
+      <c r="E483" s="61"/>
+      <c r="F483" s="61"/>
+      <c r="G483" s="61"/>
+      <c r="H483" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A482:H482"/>
+    <mergeCell ref="A483:H483"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201026\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$483</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$483</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="643">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5414,6 +5414,10 @@
     <rPh sb="7" eb="8">
       <t>ハハ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5607,7 +5611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5772,21 +5776,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6142,8 +6131,8 @@
   <dimension ref="A1:H483"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H453" sqref="H453"/>
+      <pane ySplit="2" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6158,16 +6147,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6638,19 +6627,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62">
+      <c r="A20" s="57">
         <v>18</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="57">
         <v>18</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6659,23 +6648,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="59" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -17876,8 +17865,8 @@
       <c r="F452" s="20">
         <v>44118</v>
       </c>
-      <c r="G452" s="18" t="s">
-        <v>614</v>
+      <c r="G452" s="20">
+        <v>44130</v>
       </c>
       <c r="H452" s="24" t="s">
         <v>608</v>
@@ -17902,8 +17891,8 @@
       <c r="F453" s="20">
         <v>44118</v>
       </c>
-      <c r="G453" s="18" t="s">
-        <v>614</v>
+      <c r="G453" s="20" t="s">
+        <v>642</v>
       </c>
       <c r="H453" s="24" t="s">
         <v>609</v>
@@ -18058,8 +18047,8 @@
       <c r="F459" s="20">
         <v>44120</v>
       </c>
-      <c r="G459" s="18" t="s">
-        <v>586</v>
+      <c r="G459" s="20">
+        <v>44130</v>
       </c>
       <c r="H459" s="24" t="s">
         <v>616</v>
@@ -18396,8 +18385,8 @@
       <c r="F472" s="20">
         <v>44124</v>
       </c>
-      <c r="G472" s="18" t="s">
-        <v>583</v>
+      <c r="G472" s="20">
+        <v>44128</v>
       </c>
       <c r="H472" s="24" t="s">
         <v>411</v>
@@ -18638,44 +18627,45 @@
       </c>
     </row>
     <row r="482" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A482" s="55">
+      <c r="A482" s="18">
         <v>477</v>
       </c>
-      <c r="B482" s="55">
+      <c r="B482" s="18">
         <v>478</v>
       </c>
-      <c r="C482" s="56" t="s">
+      <c r="C482" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D482" s="57" t="s">
+      <c r="D482" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E482" s="55" t="s">
+      <c r="E482" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="F482" s="58">
+      <c r="F482" s="20">
         <v>44129</v>
       </c>
-      <c r="G482" s="55" t="s">
+      <c r="G482" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H482" s="59" t="s">
+      <c r="H482" s="24" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="483" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A483" s="61" t="s">
+      <c r="A483" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B483" s="61"/>
-      <c r="C483" s="61"/>
-      <c r="D483" s="61"/>
-      <c r="E483" s="61"/>
-      <c r="F483" s="61"/>
-      <c r="G483" s="61"/>
-      <c r="H483" s="61"/>
+      <c r="B483" s="56"/>
+      <c r="C483" s="56"/>
+      <c r="D483" s="56"/>
+      <c r="E483" s="56"/>
+      <c r="F483" s="56"/>
+      <c r="G483" s="56"/>
+      <c r="H483" s="56"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H483"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A483:H483"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201027\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$483</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$483</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$486</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="646">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5417,7 +5417,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県での陽性判明者の子</t>
+    <rPh sb="0" eb="2">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.480の夫、他県での陽性判明者との接触あり</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.479の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5611,7 +5653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5776,6 +5818,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6128,11 +6185,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H483"/>
+  <dimension ref="A1:H486"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:AG1048576"/>
+      <pane ySplit="2" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A485" sqref="A485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6143,20 +6200,21 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6627,19 +6685,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="57">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="62">
         <v>18</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="62" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6648,23 +6706,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -17840,7 +17898,7 @@
         <v>44117</v>
       </c>
       <c r="G451" s="18" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="H451" s="24" t="s">
         <v>607</v>
@@ -17892,7 +17950,7 @@
         <v>44118</v>
       </c>
       <c r="G453" s="20" t="s">
-        <v>642</v>
+        <v>583</v>
       </c>
       <c r="H453" s="24" t="s">
         <v>609</v>
@@ -18515,8 +18573,8 @@
       <c r="F477" s="20">
         <v>44124</v>
       </c>
-      <c r="G477" s="18" t="s">
-        <v>583</v>
+      <c r="G477" s="20">
+        <v>44131</v>
       </c>
       <c r="H477" s="24" t="s">
         <v>639</v>
@@ -18646,29 +18704,106 @@
         <v>44129</v>
       </c>
       <c r="G482" s="18" t="s">
-        <v>583</v>
+        <v>642</v>
       </c>
       <c r="H482" s="24" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A483" s="56" t="s">
+    <row r="483" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A483" s="55">
+        <v>478</v>
+      </c>
+      <c r="B483" s="55">
+        <v>479</v>
+      </c>
+      <c r="C483" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D483" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E483" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F483" s="58">
+        <v>44131</v>
+      </c>
+      <c r="G483" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H483" s="59" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A484" s="55">
+        <v>479</v>
+      </c>
+      <c r="B484" s="55">
+        <v>480</v>
+      </c>
+      <c r="C484" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D484" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E484" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F484" s="58">
+        <v>44131</v>
+      </c>
+      <c r="G484" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H484" s="59" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A485" s="55">
+        <v>480</v>
+      </c>
+      <c r="B485" s="55">
+        <v>481</v>
+      </c>
+      <c r="C485" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D485" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E485" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F485" s="58">
+        <v>44131</v>
+      </c>
+      <c r="G485" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H485" s="59" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A486" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B483" s="56"/>
-      <c r="C483" s="56"/>
-      <c r="D483" s="56"/>
-      <c r="E483" s="56"/>
-      <c r="F483" s="56"/>
-      <c r="G483" s="56"/>
-      <c r="H483" s="56"/>
+      <c r="B486" s="61"/>
+      <c r="C486" s="61"/>
+      <c r="D486" s="61"/>
+      <c r="E486" s="61"/>
+      <c r="F486" s="61"/>
+      <c r="G486" s="61"/>
+      <c r="H486" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H483"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A483:H483"/>
+    <mergeCell ref="A486:H486"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -18679,7 +18814,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201027\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201028\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="発生状況" sheetId="1" r:id="rId1"/>
+    <sheet name="マスター（こちらを修正）空欄のセルにはスペースを入力" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$486</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$A$1:$H$488</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="648">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5353,10 +5353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.451の知人</t>
     <rPh sb="0" eb="9">
       <t>ノ.451ノチジン</t>
@@ -5417,10 +5413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>他県での陽性判明者の子</t>
     <rPh sb="0" eb="2">
       <t>タケン</t>
@@ -5460,6 +5452,28 @@
     <rPh sb="7" eb="8">
       <t>ツマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.471の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県での陽性判明者との接触あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6185,11 +6199,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H486"/>
+  <dimension ref="A1:H488"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A485" sqref="A485"/>
+      <selection pane="bottomLeft" activeCell="A487" sqref="A487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -18001,8 +18015,8 @@
       <c r="F455" s="20">
         <v>44118</v>
       </c>
-      <c r="G455" s="18" t="s">
-        <v>614</v>
+      <c r="G455" s="20">
+        <v>44132</v>
       </c>
       <c r="H455" s="24" t="s">
         <v>612</v>
@@ -18313,8 +18327,8 @@
       <c r="F467" s="20">
         <v>44121</v>
       </c>
-      <c r="G467" s="18" t="s">
-        <v>586</v>
+      <c r="G467" s="20">
+        <v>44132</v>
       </c>
       <c r="H467" s="24" t="s">
         <v>628</v>
@@ -18339,8 +18353,8 @@
       <c r="F468" s="20">
         <v>44121</v>
       </c>
-      <c r="G468" s="18" t="s">
-        <v>586</v>
+      <c r="G468" s="20">
+        <v>44132</v>
       </c>
       <c r="H468" s="24" t="s">
         <v>629</v>
@@ -18365,8 +18379,8 @@
       <c r="F469" s="20">
         <v>44121</v>
       </c>
-      <c r="G469" s="18" t="s">
-        <v>632</v>
+      <c r="G469" s="20">
+        <v>44132</v>
       </c>
       <c r="H469" s="24" t="s">
         <v>631</v>
@@ -18391,8 +18405,8 @@
       <c r="F470" s="20">
         <v>44121</v>
       </c>
-      <c r="G470" s="18" t="s">
-        <v>632</v>
+      <c r="G470" s="20">
+        <v>44132</v>
       </c>
       <c r="H470" s="24" t="s">
         <v>586</v>
@@ -18421,7 +18435,7 @@
         <v>583</v>
       </c>
       <c r="H471" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="472" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18473,7 +18487,7 @@
         <v>583</v>
       </c>
       <c r="H473" s="24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="474" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18495,11 +18509,11 @@
       <c r="F474" s="20">
         <v>44124</v>
       </c>
-      <c r="G474" s="18" t="s">
-        <v>583</v>
+      <c r="G474" s="20">
+        <v>44132</v>
       </c>
       <c r="H474" s="24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="475" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18516,7 +18530,7 @@
         <v>69</v>
       </c>
       <c r="E475" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F475" s="20">
         <v>44124</v>
@@ -18525,7 +18539,7 @@
         <v>583</v>
       </c>
       <c r="H475" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="476" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18551,7 +18565,7 @@
         <v>583</v>
       </c>
       <c r="H476" s="24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="477" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18568,7 +18582,7 @@
         <v>66</v>
       </c>
       <c r="E477" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F477" s="20">
         <v>44124</v>
@@ -18577,7 +18591,7 @@
         <v>44131</v>
       </c>
       <c r="H477" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="478" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18599,11 +18613,11 @@
       <c r="F478" s="20">
         <v>44125</v>
       </c>
-      <c r="G478" s="18" t="s">
-        <v>583</v>
+      <c r="G478" s="20">
+        <v>44132</v>
       </c>
       <c r="H478" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="479" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -18625,8 +18639,8 @@
       <c r="F479" s="20">
         <v>44127</v>
       </c>
-      <c r="G479" s="18" t="s">
-        <v>583</v>
+      <c r="G479" s="20" t="s">
+        <v>647</v>
       </c>
       <c r="H479" s="24" t="s">
         <v>583</v>
@@ -18704,106 +18718,158 @@
         <v>44129</v>
       </c>
       <c r="G482" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H482" s="24" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A483" s="18">
+        <v>478</v>
+      </c>
+      <c r="B483" s="18">
+        <v>479</v>
+      </c>
+      <c r="C483" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D483" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E483" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F483" s="20">
+        <v>44131</v>
+      </c>
+      <c r="G483" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H483" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="H482" s="24" t="s">
+    </row>
+    <row r="484" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A484" s="18">
+        <v>479</v>
+      </c>
+      <c r="B484" s="18">
+        <v>480</v>
+      </c>
+      <c r="C484" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D484" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E484" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F484" s="20">
+        <v>44131</v>
+      </c>
+      <c r="G484" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H484" s="24" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A485" s="18">
+        <v>480</v>
+      </c>
+      <c r="B485" s="18">
+        <v>481</v>
+      </c>
+      <c r="C485" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D485" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E485" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F485" s="20">
+        <v>44131</v>
+      </c>
+      <c r="G485" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H485" s="24" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="483" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A483" s="55">
-        <v>478</v>
-      </c>
-      <c r="B483" s="55">
-        <v>479</v>
-      </c>
-      <c r="C483" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D483" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E483" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="F483" s="58">
+    <row r="486" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A486" s="55">
+        <v>481</v>
+      </c>
+      <c r="B486" s="55">
+        <v>482</v>
+      </c>
+      <c r="C486" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D486" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E486" s="55" t="s">
+        <v>635</v>
+      </c>
+      <c r="F486" s="58">
         <v>44131</v>
       </c>
-      <c r="G483" s="55" t="s">
-        <v>583</v>
-      </c>
-      <c r="H483" s="59" t="s">
+      <c r="G486" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="H486" s="59" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="484" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A484" s="55">
-        <v>479</v>
-      </c>
-      <c r="B484" s="55">
-        <v>480</v>
-      </c>
-      <c r="C484" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D484" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E484" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="F484" s="58">
-        <v>44131</v>
-      </c>
-      <c r="G484" s="55" t="s">
-        <v>583</v>
-      </c>
-      <c r="H484" s="59" t="s">
+    <row r="487" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A487" s="55">
+        <v>482</v>
+      </c>
+      <c r="B487" s="55">
+        <v>483</v>
+      </c>
+      <c r="C487" s="56" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A485" s="55">
-        <v>480</v>
-      </c>
-      <c r="B485" s="55">
-        <v>481</v>
-      </c>
-      <c r="C485" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="D485" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E485" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="F485" s="58">
-        <v>44131</v>
-      </c>
-      <c r="G485" s="55" t="s">
-        <v>583</v>
-      </c>
-      <c r="H485" s="59" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A486" s="61" t="s">
+      <c r="D487" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E487" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F487" s="58">
+        <v>44132</v>
+      </c>
+      <c r="G487" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="H487" s="59" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A488" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B486" s="61"/>
-      <c r="C486" s="61"/>
-      <c r="D486" s="61"/>
-      <c r="E486" s="61"/>
-      <c r="F486" s="61"/>
-      <c r="G486" s="61"/>
-      <c r="H486" s="61"/>
+      <c r="B488" s="61"/>
+      <c r="C488" s="61"/>
+      <c r="D488" s="61"/>
+      <c r="E488" s="61"/>
+      <c r="F488" s="61"/>
+      <c r="G488" s="61"/>
+      <c r="H488" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A486:H486"/>
+    <mergeCell ref="A488:H488"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201028\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201029\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="マスター（こちらを修正）空欄のセルにはスペースを入力" sheetId="1" r:id="rId1"/>
+    <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$A$1:$H$488</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'マスター（こちらを修正）空欄のセルにはスペースを入力'!$1:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$490</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="654">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5462,6 +5462,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -5469,7 +5473,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>他県での陽性判明者との接触あり</t>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小山市</t>
+    <rPh sb="0" eb="3">
+      <t>オヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.484の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.485の夫、他県での陽性判明者との接触あり</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッショク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6199,11 +6253,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H488"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A487" sqref="A487"/>
+      <pane ySplit="2" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A489" sqref="A489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -18640,7 +18694,7 @@
         <v>44127</v>
       </c>
       <c r="G479" s="20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H479" s="24" t="s">
         <v>583</v>
@@ -18803,73 +18857,125 @@
       </c>
     </row>
     <row r="486" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A486" s="55">
+      <c r="A486" s="18">
         <v>481</v>
       </c>
-      <c r="B486" s="55">
+      <c r="B486" s="18">
         <v>482</v>
       </c>
-      <c r="C486" s="56" t="s">
+      <c r="C486" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D486" s="57" t="s">
+      <c r="D486" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E486" s="55" t="s">
+      <c r="E486" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="F486" s="58">
+      <c r="F486" s="20">
         <v>44131</v>
       </c>
-      <c r="G486" s="55" t="s">
+      <c r="G486" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H486" s="24" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A487" s="18">
+        <v>482</v>
+      </c>
+      <c r="B487" s="18">
+        <v>483</v>
+      </c>
+      <c r="C487" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D487" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E487" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F487" s="20">
+        <v>44132</v>
+      </c>
+      <c r="G487" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H487" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A488" s="55">
+        <v>483</v>
+      </c>
+      <c r="B488" s="55">
+        <v>484</v>
+      </c>
+      <c r="C488" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="D488" s="57" t="s">
         <v>647</v>
       </c>
-      <c r="H486" s="59" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A487" s="55">
-        <v>482</v>
-      </c>
-      <c r="B487" s="55">
-        <v>483</v>
-      </c>
-      <c r="C487" s="56" t="s">
-        <v>645</v>
-      </c>
-      <c r="D487" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E487" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F487" s="58">
+      <c r="E488" s="55" t="s">
+        <v>648</v>
+      </c>
+      <c r="F488" s="58">
         <v>44132</v>
       </c>
-      <c r="G487" s="55" t="s">
-        <v>647</v>
-      </c>
-      <c r="H487" s="59" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A488" s="61" t="s">
+      <c r="G488" s="55" t="s">
+        <v>653</v>
+      </c>
+      <c r="H488" s="59" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A489" s="55">
+        <v>484</v>
+      </c>
+      <c r="B489" s="55">
+        <v>485</v>
+      </c>
+      <c r="C489" s="56" t="s">
+        <v>649</v>
+      </c>
+      <c r="D489" s="57" t="s">
+        <v>650</v>
+      </c>
+      <c r="E489" s="55" t="s">
+        <v>648</v>
+      </c>
+      <c r="F489" s="58">
+        <v>44132</v>
+      </c>
+      <c r="G489" s="55" t="s">
+        <v>653</v>
+      </c>
+      <c r="H489" s="59" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A490" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B488" s="61"/>
-      <c r="C488" s="61"/>
-      <c r="D488" s="61"/>
-      <c r="E488" s="61"/>
-      <c r="F488" s="61"/>
-      <c r="G488" s="61"/>
-      <c r="H488" s="61"/>
+      <c r="B490" s="61"/>
+      <c r="C490" s="61"/>
+      <c r="D490" s="61"/>
+      <c r="E490" s="61"/>
+      <c r="F490" s="61"/>
+      <c r="G490" s="61"/>
+      <c r="H490" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A488:H488"/>
+    <mergeCell ref="A490:H490"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201029\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201030\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$490</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$493</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="658">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5523,6 +5523,28 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.484・485・488の同居者</t>
+    <rPh sb="15" eb="18">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.484・485・487の同居者</t>
+    <rPh sb="15" eb="18">
+      <t>ドウキョシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6253,11 +6275,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:H493"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A489" sqref="A489"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H498" sqref="H498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6268,8 +6290,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15963,8 +15984,8 @@
       <c r="F374" s="20">
         <v>44091</v>
       </c>
-      <c r="G374" s="18" t="s">
-        <v>583</v>
+      <c r="G374" s="20">
+        <v>44134</v>
       </c>
       <c r="H374" s="21" t="s">
         <v>493</v>
@@ -18485,8 +18506,8 @@
       <c r="F471" s="20">
         <v>44122</v>
       </c>
-      <c r="G471" s="18" t="s">
-        <v>583</v>
+      <c r="G471" s="20">
+        <v>44134</v>
       </c>
       <c r="H471" s="24" t="s">
         <v>632</v>
@@ -18719,8 +18740,8 @@
       <c r="F480" s="20">
         <v>44127</v>
       </c>
-      <c r="G480" s="18" t="s">
-        <v>583</v>
+      <c r="G480" s="20">
+        <v>44134</v>
       </c>
       <c r="H480" s="24" t="s">
         <v>583</v>
@@ -18909,73 +18930,151 @@
       </c>
     </row>
     <row r="488" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A488" s="55">
+      <c r="A488" s="18">
         <v>483</v>
       </c>
-      <c r="B488" s="55">
+      <c r="B488" s="18">
         <v>484</v>
       </c>
-      <c r="C488" s="56" t="s">
+      <c r="C488" s="34" t="s">
         <v>646</v>
       </c>
-      <c r="D488" s="57" t="s">
+      <c r="D488" s="19" t="s">
         <v>647</v>
       </c>
-      <c r="E488" s="55" t="s">
+      <c r="E488" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="F488" s="58">
+      <c r="F488" s="20">
         <v>44132</v>
       </c>
-      <c r="G488" s="55" t="s">
+      <c r="G488" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="H488" s="59" t="s">
+      <c r="H488" s="24" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="489" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A489" s="55">
+      <c r="A489" s="18">
         <v>484</v>
       </c>
-      <c r="B489" s="55">
+      <c r="B489" s="18">
         <v>485</v>
       </c>
-      <c r="C489" s="56" t="s">
+      <c r="C489" s="34" t="s">
         <v>649</v>
       </c>
-      <c r="D489" s="57" t="s">
+      <c r="D489" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="E489" s="55" t="s">
+      <c r="E489" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="F489" s="58">
+      <c r="F489" s="20">
         <v>44132</v>
       </c>
-      <c r="G489" s="55" t="s">
+      <c r="G489" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="H489" s="59" t="s">
+      <c r="H489" s="24" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A490" s="61" t="s">
+    <row r="490" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A490" s="55">
+        <v>485</v>
+      </c>
+      <c r="B490" s="55">
+        <v>486</v>
+      </c>
+      <c r="C490" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D490" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E490" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F490" s="58">
+        <v>44134</v>
+      </c>
+      <c r="G490" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="H490" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A491" s="55">
+        <v>486</v>
+      </c>
+      <c r="B491" s="55">
+        <v>487</v>
+      </c>
+      <c r="C491" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D491" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E491" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F491" s="58">
+        <v>44134</v>
+      </c>
+      <c r="G491" s="55" t="s">
+        <v>654</v>
+      </c>
+      <c r="H491" s="59" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A492" s="55">
+        <v>487</v>
+      </c>
+      <c r="B492" s="55">
+        <v>488</v>
+      </c>
+      <c r="C492" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D492" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E492" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F492" s="58">
+        <v>44134</v>
+      </c>
+      <c r="G492" s="55" t="s">
+        <v>657</v>
+      </c>
+      <c r="H492" s="59" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A493" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B490" s="61"/>
-      <c r="C490" s="61"/>
-      <c r="D490" s="61"/>
-      <c r="E490" s="61"/>
-      <c r="F490" s="61"/>
-      <c r="G490" s="61"/>
-      <c r="H490" s="61"/>
+      <c r="B493" s="61"/>
+      <c r="C493" s="61"/>
+      <c r="D493" s="61"/>
+      <c r="E493" s="61"/>
+      <c r="F493" s="61"/>
+      <c r="G493" s="61"/>
+      <c r="H493" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A490:H490"/>
+    <mergeCell ref="A493:H493"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201030\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201031\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$493</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$495</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="660">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5545,6 +5545,20 @@
     <t>No.484・485・487の同居者</t>
     <rPh sb="15" eb="18">
       <t>ドウキョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市131例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6275,11 +6289,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H493"/>
+  <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H498" sqref="H498"/>
+      <pane ySplit="2" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M494" sqref="M494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -18982,99 +18996,151 @@
       </c>
     </row>
     <row r="490" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A490" s="55">
+      <c r="A490" s="18">
         <v>485</v>
       </c>
-      <c r="B490" s="55">
+      <c r="B490" s="18">
         <v>486</v>
       </c>
-      <c r="C490" s="56" t="s">
+      <c r="C490" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D490" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E490" s="55" t="s">
+      <c r="D490" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E490" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F490" s="58">
+      <c r="F490" s="20">
         <v>44134</v>
       </c>
-      <c r="G490" s="55" t="s">
+      <c r="G490" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="H490" s="59" t="s">
+      <c r="H490" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="491" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A491" s="55">
+      <c r="A491" s="18">
         <v>486</v>
       </c>
-      <c r="B491" s="55">
+      <c r="B491" s="18">
         <v>487</v>
       </c>
-      <c r="C491" s="56" t="s">
+      <c r="C491" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D491" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E491" s="55" t="s">
+      <c r="D491" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E491" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F491" s="58">
+      <c r="F491" s="20">
         <v>44134</v>
       </c>
-      <c r="G491" s="55" t="s">
+      <c r="G491" s="18" t="s">
         <v>654</v>
       </c>
-      <c r="H491" s="59" t="s">
+      <c r="H491" s="24" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="492" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A492" s="55">
+      <c r="A492" s="18">
         <v>487</v>
       </c>
-      <c r="B492" s="55">
+      <c r="B492" s="18">
         <v>488</v>
       </c>
-      <c r="C492" s="56" t="s">
+      <c r="C492" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D492" s="57" t="s">
+      <c r="D492" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E492" s="55" t="s">
+      <c r="E492" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F492" s="58">
+      <c r="F492" s="20">
         <v>44134</v>
       </c>
-      <c r="G492" s="55" t="s">
+      <c r="G492" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="H492" s="59" t="s">
+      <c r="H492" s="24" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A493" s="61" t="s">
+    <row r="493" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A493" s="55">
+        <v>488</v>
+      </c>
+      <c r="B493" s="55">
+        <v>489</v>
+      </c>
+      <c r="C493" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D493" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E493" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F493" s="58">
+        <v>44134</v>
+      </c>
+      <c r="G493" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H493" s="59" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A494" s="55">
+        <v>489</v>
+      </c>
+      <c r="B494" s="55">
+        <v>490</v>
+      </c>
+      <c r="C494" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D494" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E494" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F494" s="58">
+        <v>44134</v>
+      </c>
+      <c r="G494" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H494" s="59" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A495" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B493" s="61"/>
-      <c r="C493" s="61"/>
-      <c r="D493" s="61"/>
-      <c r="E493" s="61"/>
-      <c r="F493" s="61"/>
-      <c r="G493" s="61"/>
-      <c r="H493" s="61"/>
+      <c r="B495" s="61"/>
+      <c r="C495" s="61"/>
+      <c r="D495" s="61"/>
+      <c r="E495" s="61"/>
+      <c r="F495" s="61"/>
+      <c r="G495" s="61"/>
+      <c r="H495" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A493:H493"/>
+    <mergeCell ref="A495:H495"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -19085,7 +19151,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201031\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201102\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$495</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$496</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="660">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6289,11 +6289,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H495"/>
+  <dimension ref="A1:H496"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M494" sqref="M494"/>
+      <pane ySplit="2" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A495" sqref="A495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6304,7 +6304,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -18000,8 +18001,8 @@
       <c r="F451" s="20">
         <v>44117</v>
       </c>
-      <c r="G451" s="18" t="s">
-        <v>586</v>
+      <c r="G451" s="20">
+        <v>44123</v>
       </c>
       <c r="H451" s="24" t="s">
         <v>607</v>
@@ -18052,8 +18053,8 @@
       <c r="F453" s="20">
         <v>44118</v>
       </c>
-      <c r="G453" s="20" t="s">
-        <v>583</v>
+      <c r="G453" s="20">
+        <v>44137</v>
       </c>
       <c r="H453" s="24" t="s">
         <v>609</v>
@@ -19074,73 +19075,99 @@
       </c>
     </row>
     <row r="493" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A493" s="55">
+      <c r="A493" s="18">
         <v>488</v>
       </c>
-      <c r="B493" s="55">
+      <c r="B493" s="18">
         <v>489</v>
       </c>
-      <c r="C493" s="56" t="s">
+      <c r="C493" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D493" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E493" s="55" t="s">
+      <c r="D493" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E493" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F493" s="58">
+      <c r="F493" s="20">
         <v>44134</v>
       </c>
-      <c r="G493" s="55" t="s">
+      <c r="G493" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H493" s="59" t="s">
+      <c r="H493" s="24" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="494" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A494" s="55">
+      <c r="A494" s="18">
         <v>489</v>
       </c>
-      <c r="B494" s="55">
+      <c r="B494" s="18">
         <v>490</v>
       </c>
-      <c r="C494" s="56" t="s">
+      <c r="C494" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D494" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E494" s="55" t="s">
+      <c r="D494" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E494" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F494" s="58">
+      <c r="F494" s="20">
         <v>44134</v>
       </c>
-      <c r="G494" s="55" t="s">
+      <c r="G494" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H494" s="59" t="s">
+      <c r="H494" s="24" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A495" s="61" t="s">
+    <row r="495" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A495" s="55">
+        <v>490</v>
+      </c>
+      <c r="B495" s="55">
+        <v>491</v>
+      </c>
+      <c r="C495" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D495" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E495" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F495" s="58">
+        <v>44137</v>
+      </c>
+      <c r="G495" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H495" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A496" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B495" s="61"/>
-      <c r="C495" s="61"/>
-      <c r="D495" s="61"/>
-      <c r="E495" s="61"/>
-      <c r="F495" s="61"/>
-      <c r="G495" s="61"/>
-      <c r="H495" s="61"/>
+      <c r="B496" s="61"/>
+      <c r="C496" s="61"/>
+      <c r="D496" s="61"/>
+      <c r="E496" s="61"/>
+      <c r="F496" s="61"/>
+      <c r="G496" s="61"/>
+      <c r="H496" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A495:H495"/>
+    <mergeCell ref="A496:H496"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201102\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201103\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$496</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$498</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$498</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="662">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5564,6 +5564,23 @@
   </si>
   <si>
     <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛知県に出張</t>
+    <rPh sb="0" eb="3">
+      <t>アイチケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュッチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.490の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6289,11 +6306,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H496"/>
+  <dimension ref="A1:H498"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A495" sqref="A495"/>
+      <pane ySplit="2" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H501" sqref="H501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6304,8 +6321,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -19127,47 +19143,100 @@
       </c>
     </row>
     <row r="495" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A495" s="55">
+      <c r="A495" s="18">
         <v>490</v>
       </c>
-      <c r="B495" s="55">
+      <c r="B495" s="18">
         <v>491</v>
       </c>
-      <c r="C495" s="56" t="s">
+      <c r="C495" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D495" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E495" s="55" t="s">
+      <c r="D495" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E495" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F495" s="58">
+      <c r="F495" s="20">
         <v>44137</v>
       </c>
-      <c r="G495" s="55" t="s">
+      <c r="G495" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H495" s="59" t="s">
+      <c r="H495" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A496" s="61" t="s">
+    <row r="496" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A496" s="55">
+        <v>491</v>
+      </c>
+      <c r="B496" s="55">
+        <v>492</v>
+      </c>
+      <c r="C496" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D496" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E496" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="F496" s="58">
+        <v>44137</v>
+      </c>
+      <c r="G496" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H496" s="59" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A497" s="55">
+        <v>492</v>
+      </c>
+      <c r="B497" s="55">
+        <v>493</v>
+      </c>
+      <c r="C497" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D497" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E497" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F497" s="58">
+        <v>44138</v>
+      </c>
+      <c r="G497" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H497" s="59" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A498" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B496" s="61"/>
-      <c r="C496" s="61"/>
-      <c r="D496" s="61"/>
-      <c r="E496" s="61"/>
-      <c r="F496" s="61"/>
-      <c r="G496" s="61"/>
-      <c r="H496" s="61"/>
+      <c r="B498" s="61"/>
+      <c r="C498" s="61"/>
+      <c r="D498" s="61"/>
+      <c r="E498" s="61"/>
+      <c r="F498" s="61"/>
+      <c r="G498" s="61"/>
+      <c r="H498" s="61"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H498"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A496:H496"/>
+    <mergeCell ref="A498:H498"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201103\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201104\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$498</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$498</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$499</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$499</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="663">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5580,6 +5580,19 @@
     <t>No.490の知人</t>
     <rPh sb="7" eb="9">
       <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都内に出張</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュッチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6306,11 +6319,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H498"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H501" sqref="H501"/>
+      <pane ySplit="2" topLeftCell="A487" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A498" sqref="A498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6321,7 +6334,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -18147,8 +18161,8 @@
       <c r="F456" s="20">
         <v>44118</v>
       </c>
-      <c r="G456" s="18" t="s">
-        <v>614</v>
+      <c r="G456" s="20">
+        <v>44139</v>
       </c>
       <c r="H456" s="24" t="s">
         <v>611</v>
@@ -18823,8 +18837,8 @@
       <c r="F482" s="20">
         <v>44129</v>
       </c>
-      <c r="G482" s="18" t="s">
-        <v>583</v>
+      <c r="G482" s="20">
+        <v>44139</v>
       </c>
       <c r="H482" s="24" t="s">
         <v>640</v>
@@ -18875,8 +18889,8 @@
       <c r="F484" s="20">
         <v>44131</v>
       </c>
-      <c r="G484" s="18" t="s">
-        <v>583</v>
+      <c r="G484" s="20">
+        <v>44139</v>
       </c>
       <c r="H484" s="24" t="s">
         <v>643</v>
@@ -19169,74 +19183,99 @@
       </c>
     </row>
     <row r="496" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A496" s="55">
+      <c r="A496" s="18">
         <v>491</v>
       </c>
-      <c r="B496" s="55">
+      <c r="B496" s="18">
         <v>492</v>
       </c>
-      <c r="C496" s="56" t="s">
+      <c r="C496" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D496" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E496" s="55" t="s">
+      <c r="D496" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E496" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F496" s="58">
+      <c r="F496" s="20">
         <v>44137</v>
       </c>
-      <c r="G496" s="55" t="s">
+      <c r="G496" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H496" s="59" t="s">
+      <c r="H496" s="24" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="497" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A497" s="55">
+      <c r="A497" s="18">
         <v>492</v>
       </c>
-      <c r="B497" s="55">
+      <c r="B497" s="18">
         <v>493</v>
       </c>
-      <c r="C497" s="56" t="s">
+      <c r="C497" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D497" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E497" s="55" t="s">
+      <c r="D497" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E497" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F497" s="58">
+      <c r="F497" s="20">
         <v>44138</v>
       </c>
-      <c r="G497" s="55" t="s">
+      <c r="G497" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H497" s="59" t="s">
+      <c r="H497" s="24" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A498" s="61" t="s">
+    <row r="498" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A498" s="55">
+        <v>493</v>
+      </c>
+      <c r="B498" s="55">
+        <v>494</v>
+      </c>
+      <c r="C498" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D498" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E498" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F498" s="58">
+        <v>44139</v>
+      </c>
+      <c r="G498" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H498" s="59" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A499" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B498" s="61"/>
-      <c r="C498" s="61"/>
-      <c r="D498" s="61"/>
-      <c r="E498" s="61"/>
-      <c r="F498" s="61"/>
-      <c r="G498" s="61"/>
-      <c r="H498" s="61"/>
+      <c r="B499" s="61"/>
+      <c r="C499" s="61"/>
+      <c r="D499" s="61"/>
+      <c r="E499" s="61"/>
+      <c r="F499" s="61"/>
+      <c r="G499" s="61"/>
+      <c r="H499" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H498"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A498:H498"/>
+    <mergeCell ref="A499:H499"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201104\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201105\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$499</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$499</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$500</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$500</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="664">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5592,6 +5592,16 @@
       <t>トナイ</t>
     </rPh>
     <rPh sb="5" eb="7">
+      <t>シュッチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外に出張</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>シュッチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -6319,11 +6329,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H499"/>
+  <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A487" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A498" sqref="A498"/>
+      <pane ySplit="2" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A499" sqref="A499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -18681,8 +18691,8 @@
       <c r="F476" s="20">
         <v>44124</v>
       </c>
-      <c r="G476" s="18" t="s">
-        <v>583</v>
+      <c r="G476" s="20">
+        <v>44139</v>
       </c>
       <c r="H476" s="24" t="s">
         <v>636</v>
@@ -19235,47 +19245,73 @@
       </c>
     </row>
     <row r="498" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A498" s="55">
+      <c r="A498" s="18">
         <v>493</v>
       </c>
-      <c r="B498" s="55">
+      <c r="B498" s="18">
         <v>494</v>
       </c>
-      <c r="C498" s="56" t="s">
+      <c r="C498" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D498" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E498" s="55" t="s">
+      <c r="D498" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E498" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F498" s="58">
+      <c r="F498" s="20">
         <v>44139</v>
       </c>
-      <c r="G498" s="55" t="s">
+      <c r="G498" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H498" s="59" t="s">
+      <c r="H498" s="24" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A499" s="61" t="s">
+    <row r="499" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A499" s="55">
+        <v>494</v>
+      </c>
+      <c r="B499" s="55">
+        <v>495</v>
+      </c>
+      <c r="C499" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D499" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E499" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F499" s="58">
+        <v>44139</v>
+      </c>
+      <c r="G499" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H499" s="59" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A500" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B499" s="61"/>
-      <c r="C499" s="61"/>
-      <c r="D499" s="61"/>
-      <c r="E499" s="61"/>
-      <c r="F499" s="61"/>
-      <c r="G499" s="61"/>
-      <c r="H499" s="61"/>
+      <c r="B500" s="61"/>
+      <c r="C500" s="61"/>
+      <c r="D500" s="61"/>
+      <c r="E500" s="61"/>
+      <c r="F500" s="61"/>
+      <c r="G500" s="61"/>
+      <c r="H500" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A499:H499"/>
+    <mergeCell ref="A500:H500"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201105\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201106\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$500</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$502</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$502</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="665">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5462,10 +5462,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -5603,6 +5599,38 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>シュッチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外で陽性判明者との接触あり　※宇都宮市132例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市133例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5797,7 +5825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5962,21 +5990,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6329,11 +6342,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H500"/>
+  <dimension ref="A1:H502"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A499" sqref="A499"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M497" sqref="M497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6349,16 +6362,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6829,19 +6842,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62">
+      <c r="A20" s="57">
         <v>18</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="57">
         <v>18</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6850,23 +6863,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="59" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -18769,8 +18782,8 @@
       <c r="F479" s="20">
         <v>44127</v>
       </c>
-      <c r="G479" s="20" t="s">
-        <v>645</v>
+      <c r="G479" s="20">
+        <v>44141</v>
       </c>
       <c r="H479" s="24" t="s">
         <v>583</v>
@@ -18992,22 +19005,22 @@
         <v>484</v>
       </c>
       <c r="C488" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="D488" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="D488" s="19" t="s">
+      <c r="E488" s="18" t="s">
         <v>647</v>
-      </c>
-      <c r="E488" s="18" t="s">
-        <v>648</v>
       </c>
       <c r="F488" s="20">
         <v>44132</v>
       </c>
       <c r="G488" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H488" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="489" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19018,22 +19031,22 @@
         <v>485</v>
       </c>
       <c r="C489" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="D489" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="D489" s="19" t="s">
-        <v>650</v>
-      </c>
       <c r="E489" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F489" s="20">
         <v>44132</v>
       </c>
       <c r="G489" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H489" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="490" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19082,10 +19095,10 @@
         <v>44134</v>
       </c>
       <c r="G491" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="H491" s="24" t="s">
         <v>654</v>
-      </c>
-      <c r="H491" s="24" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="492" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19108,10 +19121,10 @@
         <v>44134</v>
       </c>
       <c r="G492" s="18" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H492" s="24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="493" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19137,7 +19150,7 @@
         <v>583</v>
       </c>
       <c r="H493" s="24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="494" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19163,7 +19176,7 @@
         <v>583</v>
       </c>
       <c r="H494" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="495" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19215,7 +19228,7 @@
         <v>583</v>
       </c>
       <c r="H496" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="497" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19241,7 +19254,7 @@
         <v>583</v>
       </c>
       <c r="H497" s="24" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="498" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19267,51 +19280,104 @@
         <v>583</v>
       </c>
       <c r="H498" s="24" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A499" s="18">
+        <v>494</v>
+      </c>
+      <c r="B499" s="18">
+        <v>495</v>
+      </c>
+      <c r="C499" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D499" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E499" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F499" s="20">
+        <v>44139</v>
+      </c>
+      <c r="G499" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H499" s="24" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="499" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A499" s="55">
-        <v>494</v>
-      </c>
-      <c r="B499" s="55">
+    <row r="500" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A500" s="18">
         <v>495</v>
       </c>
-      <c r="C499" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="D499" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E499" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="F499" s="58">
-        <v>44139</v>
-      </c>
-      <c r="G499" s="55" t="s">
+      <c r="B500" s="18">
+        <v>496</v>
+      </c>
+      <c r="C500" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D500" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E500" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F500" s="20">
+        <v>44140</v>
+      </c>
+      <c r="G500" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H499" s="59" t="s">
+      <c r="H500" s="24" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A500" s="61" t="s">
+    <row r="501" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A501" s="18">
+        <v>496</v>
+      </c>
+      <c r="B501" s="18">
+        <v>497</v>
+      </c>
+      <c r="C501" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D501" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E501" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F501" s="20">
+        <v>44141</v>
+      </c>
+      <c r="G501" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H501" s="24" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A502" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B500" s="61"/>
-      <c r="C500" s="61"/>
-      <c r="D500" s="61"/>
-      <c r="E500" s="61"/>
-      <c r="F500" s="61"/>
-      <c r="G500" s="61"/>
-      <c r="H500" s="61"/>
+      <c r="B502" s="56"/>
+      <c r="C502" s="56"/>
+      <c r="D502" s="56"/>
+      <c r="E502" s="56"/>
+      <c r="F502" s="56"/>
+      <c r="G502" s="56"/>
+      <c r="H502" s="56"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I502"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A500:H500"/>
+    <mergeCell ref="A502:H502"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -19322,7 +19388,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201106\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201107\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$502</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$502</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$504</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$504</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="666">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5632,6 +5632,10 @@
     <rPh sb="8" eb="10">
       <t>レイメ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5825,7 +5829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5991,6 +5995,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6008,6 +6018,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6342,11 +6361,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H502"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M497" sqref="M497"/>
+      <pane ySplit="2" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A503" sqref="A503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6362,16 +6381,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6842,19 +6861,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="57">
+      <c r="A20" s="59">
         <v>18</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="59">
         <v>18</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="59" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6863,23 +6882,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="61" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -18392,8 +18411,8 @@
       <c r="F464" s="20">
         <v>44121</v>
       </c>
-      <c r="G464" s="18" t="s">
-        <v>586</v>
+      <c r="G464" s="20">
+        <v>44142</v>
       </c>
       <c r="H464" s="24" t="s">
         <v>625</v>
@@ -18418,8 +18437,8 @@
       <c r="F465" s="20">
         <v>44121</v>
       </c>
-      <c r="G465" s="18" t="s">
-        <v>586</v>
+      <c r="G465" s="20">
+        <v>44142</v>
       </c>
       <c r="H465" s="24" t="s">
         <v>626</v>
@@ -19361,23 +19380,74 @@
         <v>664</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A502" s="56" t="s">
+    <row r="502" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A502" s="55">
+        <v>497</v>
+      </c>
+      <c r="B502" s="55">
+        <v>498</v>
+      </c>
+      <c r="C502" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D502" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E502" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F502" s="56">
+        <v>44141</v>
+      </c>
+      <c r="G502" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H502" s="65" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A503" s="55">
+        <v>498</v>
+      </c>
+      <c r="B503" s="55">
+        <v>499</v>
+      </c>
+      <c r="C503" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D503" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E503" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F503" s="56">
+        <v>44142</v>
+      </c>
+      <c r="G503" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H503" s="65" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A504" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="B502" s="56"/>
-      <c r="C502" s="56"/>
-      <c r="D502" s="56"/>
-      <c r="E502" s="56"/>
-      <c r="F502" s="56"/>
-      <c r="G502" s="56"/>
-      <c r="H502" s="56"/>
+      <c r="B504" s="58"/>
+      <c r="C504" s="58"/>
+      <c r="D504" s="58"/>
+      <c r="E504" s="58"/>
+      <c r="F504" s="58"/>
+      <c r="G504" s="58"/>
+      <c r="H504" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I502"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A502:H502"/>
+    <mergeCell ref="A504:H504"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201107\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201108\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$504</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$504</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$504</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="666">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5829,7 +5829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5995,12 +5995,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6018,15 +6012,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6364,8 +6349,8 @@
   <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A503" sqref="A503"/>
+      <pane ySplit="2" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H498" sqref="H498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6376,21 +6361,20 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6861,19 +6845,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="59">
+      <c r="A20" s="57">
         <v>18</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="57">
         <v>18</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6882,23 +6866,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="H20" s="59" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="62"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -19009,8 +18993,8 @@
       <c r="F487" s="20">
         <v>44132</v>
       </c>
-      <c r="G487" s="18" t="s">
-        <v>583</v>
+      <c r="G487" s="20">
+        <v>44143</v>
       </c>
       <c r="H487" s="24" t="s">
         <v>295</v>
@@ -19381,68 +19365,68 @@
       </c>
     </row>
     <row r="502" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A502" s="55">
+      <c r="A502" s="18">
         <v>497</v>
       </c>
-      <c r="B502" s="55">
+      <c r="B502" s="18">
         <v>498</v>
       </c>
-      <c r="C502" s="63" t="s">
+      <c r="C502" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D502" s="64" t="s">
+      <c r="D502" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E502" s="55" t="s">
+      <c r="E502" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F502" s="56">
+      <c r="F502" s="20">
         <v>44141</v>
       </c>
-      <c r="G502" s="55" t="s">
+      <c r="G502" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H502" s="65" t="s">
+      <c r="H502" s="24" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="503" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A503" s="55">
+      <c r="A503" s="18">
         <v>498</v>
       </c>
-      <c r="B503" s="55">
+      <c r="B503" s="18">
         <v>499</v>
       </c>
-      <c r="C503" s="63" t="s">
+      <c r="C503" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D503" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="E503" s="55" t="s">
+      <c r="D503" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E503" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F503" s="56">
+      <c r="F503" s="20">
         <v>44142</v>
       </c>
-      <c r="G503" s="55" t="s">
+      <c r="G503" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H503" s="65" t="s">
+      <c r="H503" s="24" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="504" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A504" s="58" t="s">
+      <c r="A504" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B504" s="58"/>
-      <c r="C504" s="58"/>
-      <c r="D504" s="58"/>
-      <c r="E504" s="58"/>
-      <c r="F504" s="58"/>
-      <c r="G504" s="58"/>
-      <c r="H504" s="58"/>
+      <c r="B504" s="56"/>
+      <c r="C504" s="56"/>
+      <c r="D504" s="56"/>
+      <c r="E504" s="56"/>
+      <c r="F504" s="56"/>
+      <c r="G504" s="56"/>
+      <c r="H504" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201108\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201109\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$504</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$504</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$505</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$505</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="664">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5523,14 +5523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.484・485・488の同居者</t>
     <rPh sb="15" eb="18">
       <t>ドウキョシャ</t>
@@ -5545,10 +5537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※宇都宮市131例目</t>
     <rPh sb="1" eb="5">
       <t>ウツノミヤシ</t>
@@ -5636,6 +5624,31 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県での陽性判明者との接触あり　※宇都宮市134例目</t>
+    <rPh sb="0" eb="2">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レイメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5829,7 +5842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5994,6 +6007,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6346,11 +6374,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H504"/>
+  <dimension ref="A1:H505"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H498" sqref="H498"/>
+      <pane ySplit="2" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A504" sqref="A504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6361,20 +6389,21 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -6845,19 +6874,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="57">
+      <c r="A20" s="62">
         <v>18</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="62">
         <v>18</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="62" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -6866,23 +6895,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -18447,8 +18476,8 @@
       <c r="F466" s="20">
         <v>44120</v>
       </c>
-      <c r="G466" s="18" t="s">
-        <v>586</v>
+      <c r="G466" s="20">
+        <v>44144</v>
       </c>
       <c r="H466" s="24" t="s">
         <v>627</v>
@@ -18629,8 +18658,8 @@
       <c r="F473" s="20">
         <v>44123</v>
       </c>
-      <c r="G473" s="18" t="s">
-        <v>583</v>
+      <c r="G473" s="20">
+        <v>44142</v>
       </c>
       <c r="H473" s="24" t="s">
         <v>633</v>
@@ -18837,8 +18866,8 @@
       <c r="F481" s="20">
         <v>44127</v>
       </c>
-      <c r="G481" s="18" t="s">
-        <v>583</v>
+      <c r="G481" s="20">
+        <v>44144</v>
       </c>
       <c r="H481" s="24" t="s">
         <v>583</v>
@@ -19019,8 +19048,8 @@
       <c r="F488" s="20">
         <v>44132</v>
       </c>
-      <c r="G488" s="18" t="s">
-        <v>652</v>
+      <c r="G488" s="20">
+        <v>44144</v>
       </c>
       <c r="H488" s="24" t="s">
         <v>651</v>
@@ -19045,8 +19074,8 @@
       <c r="F489" s="20">
         <v>44132</v>
       </c>
-      <c r="G489" s="18" t="s">
-        <v>652</v>
+      <c r="G489" s="20">
+        <v>44144</v>
       </c>
       <c r="H489" s="24" t="s">
         <v>650</v>
@@ -19097,11 +19126,11 @@
       <c r="F491" s="20">
         <v>44134</v>
       </c>
-      <c r="G491" s="18" t="s">
-        <v>653</v>
+      <c r="G491" s="20">
+        <v>44144</v>
       </c>
       <c r="H491" s="24" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="492" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19123,11 +19152,11 @@
       <c r="F492" s="20">
         <v>44134</v>
       </c>
-      <c r="G492" s="18" t="s">
-        <v>656</v>
+      <c r="G492" s="20">
+        <v>44144</v>
       </c>
       <c r="H492" s="24" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="493" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19153,7 +19182,7 @@
         <v>583</v>
       </c>
       <c r="H493" s="24" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="494" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19179,7 +19208,7 @@
         <v>583</v>
       </c>
       <c r="H494" s="24" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="495" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19231,7 +19260,7 @@
         <v>583</v>
       </c>
       <c r="H496" s="24" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="497" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19257,7 +19286,7 @@
         <v>583</v>
       </c>
       <c r="H497" s="24" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="498" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19283,7 +19312,7 @@
         <v>583</v>
       </c>
       <c r="H498" s="24" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="499" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19309,7 +19338,7 @@
         <v>583</v>
       </c>
       <c r="H499" s="24" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="500" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19335,7 +19364,7 @@
         <v>583</v>
       </c>
       <c r="H500" s="24" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="501" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19361,7 +19390,7 @@
         <v>583</v>
       </c>
       <c r="H501" s="24" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="502" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19387,7 +19416,7 @@
         <v>583</v>
       </c>
       <c r="H502" s="24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="503" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19416,22 +19445,48 @@
         <v>586</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A504" s="56" t="s">
+    <row r="504" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A504" s="55">
+        <v>499</v>
+      </c>
+      <c r="B504" s="55">
+        <v>500</v>
+      </c>
+      <c r="C504" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D504" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E504" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F504" s="58">
+        <v>44144</v>
+      </c>
+      <c r="G504" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H504" s="59" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A505" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B504" s="56"/>
-      <c r="C504" s="56"/>
-      <c r="D504" s="56"/>
-      <c r="E504" s="56"/>
-      <c r="F504" s="56"/>
-      <c r="G504" s="56"/>
-      <c r="H504" s="56"/>
+      <c r="B505" s="61"/>
+      <c r="C505" s="61"/>
+      <c r="D505" s="61"/>
+      <c r="E505" s="61"/>
+      <c r="F505" s="61"/>
+      <c r="G505" s="61"/>
+      <c r="H505" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A504:H504"/>
+    <mergeCell ref="A505:H505"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201109\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201110\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$505</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$505</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$509</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$509</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="666">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5647,6 +5647,29 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="24" eb="26">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市135例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.503の妻　※宇都宮市136例目</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -6105,6 +6128,61 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>184098</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1114186</xdr:colOff>
+      <xdr:row>512</xdr:row>
+      <xdr:rowOff>257736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066686" y="138818470"/>
+          <a:ext cx="3541059" cy="1176619"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>空欄のセルにはスペースを入力してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6374,11 +6452,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:H509"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A504" sqref="A504"/>
+      <pane ySplit="2" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A508" sqref="A508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -17878,8 +17956,8 @@
       <c r="F443" s="20">
         <v>44109</v>
       </c>
-      <c r="G443" s="18" t="s">
-        <v>583</v>
+      <c r="G443" s="20">
+        <v>44124</v>
       </c>
       <c r="H443" s="24" t="s">
         <v>598</v>
@@ -18918,8 +18996,8 @@
       <c r="F483" s="20">
         <v>44131</v>
       </c>
-      <c r="G483" s="18" t="s">
-        <v>583</v>
+      <c r="G483" s="20">
+        <v>44145</v>
       </c>
       <c r="H483" s="24" t="s">
         <v>642</v>
@@ -19360,8 +19438,8 @@
       <c r="F500" s="20">
         <v>44140</v>
       </c>
-      <c r="G500" s="18" t="s">
-        <v>583</v>
+      <c r="G500" s="20">
+        <v>44144</v>
       </c>
       <c r="H500" s="24" t="s">
         <v>660</v>
@@ -19446,47 +19524,151 @@
       </c>
     </row>
     <row r="504" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A504" s="55">
+      <c r="A504" s="18">
         <v>499</v>
       </c>
-      <c r="B504" s="55">
+      <c r="B504" s="18">
         <v>500</v>
       </c>
-      <c r="C504" s="56" t="s">
+      <c r="C504" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D504" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E504" s="55" t="s">
+      <c r="D504" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E504" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F504" s="58">
+      <c r="F504" s="20">
         <v>44144</v>
       </c>
-      <c r="G504" s="55" t="s">
+      <c r="G504" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H504" s="59" t="s">
+      <c r="H504" s="28" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A505" s="61" t="s">
+    <row r="505" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A505" s="55">
+        <v>500</v>
+      </c>
+      <c r="B505" s="55">
+        <v>501</v>
+      </c>
+      <c r="C505" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D505" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E505" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F505" s="58">
+        <v>44144</v>
+      </c>
+      <c r="G505" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H505" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A506" s="55">
+        <v>501</v>
+      </c>
+      <c r="B506" s="55">
+        <v>502</v>
+      </c>
+      <c r="C506" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D506" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E506" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F506" s="58">
+        <v>44144</v>
+      </c>
+      <c r="G506" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H506" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A507" s="55">
+        <v>502</v>
+      </c>
+      <c r="B507" s="55">
+        <v>503</v>
+      </c>
+      <c r="C507" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D507" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E507" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F507" s="58">
+        <v>44145</v>
+      </c>
+      <c r="G507" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H507" s="59" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A508" s="55">
+        <v>503</v>
+      </c>
+      <c r="B508" s="55">
+        <v>504</v>
+      </c>
+      <c r="C508" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D508" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E508" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F508" s="58">
+        <v>44145</v>
+      </c>
+      <c r="G508" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H508" s="59" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A509" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B505" s="61"/>
-      <c r="C505" s="61"/>
-      <c r="D505" s="61"/>
-      <c r="E505" s="61"/>
-      <c r="F505" s="61"/>
-      <c r="G505" s="61"/>
-      <c r="H505" s="61"/>
+      <c r="B509" s="61"/>
+      <c r="C509" s="61"/>
+      <c r="D509" s="61"/>
+      <c r="E509" s="61"/>
+      <c r="F509" s="61"/>
+      <c r="G509" s="61"/>
+      <c r="H509" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A505:H505"/>
+    <mergeCell ref="A509:H509"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201110\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201110\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6128,61 +6128,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>184098</xdr:colOff>
-      <xdr:row>509</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1114186</xdr:colOff>
-      <xdr:row>512</xdr:row>
-      <xdr:rowOff>257736</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2066686" y="138818470"/>
-          <a:ext cx="3541059" cy="1176619"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-            <a:t>空欄のセルにはスペースを入力してください。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6455,7 +6400,7 @@
   <dimension ref="A1:H509"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A508" sqref="A508"/>
     </sheetView>
   </sheetViews>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201110\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201111\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$509</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$509</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$511</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$511</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="669">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5670,6 +5670,33 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高根沢町</t>
+    <rPh sb="0" eb="4">
+      <t>タカネザワマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.504の同僚　※宇都宮市137例目</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -6397,11 +6424,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H509"/>
+  <dimension ref="A1:H511"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A508" sqref="A508"/>
+      <selection pane="bottomLeft" activeCell="K417" sqref="K417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6412,8 +6439,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -18733,8 +18759,8 @@
       <c r="F475" s="20">
         <v>44124</v>
       </c>
-      <c r="G475" s="18" t="s">
-        <v>583</v>
+      <c r="G475" s="20">
+        <v>44145</v>
       </c>
       <c r="H475" s="24" t="s">
         <v>639</v>
@@ -19495,125 +19521,178 @@
       </c>
     </row>
     <row r="505" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A505" s="55">
+      <c r="A505" s="18">
         <v>500</v>
       </c>
-      <c r="B505" s="55">
+      <c r="B505" s="18">
         <v>501</v>
       </c>
-      <c r="C505" s="56" t="s">
+      <c r="C505" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D505" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E505" s="55" t="s">
+      <c r="D505" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E505" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F505" s="58">
+      <c r="F505" s="20">
         <v>44144</v>
       </c>
-      <c r="G505" s="55" t="s">
+      <c r="G505" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H505" s="59" t="s">
+      <c r="H505" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="506" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A506" s="55">
+      <c r="A506" s="18">
         <v>501</v>
       </c>
-      <c r="B506" s="55">
+      <c r="B506" s="18">
         <v>502</v>
       </c>
-      <c r="C506" s="56" t="s">
+      <c r="C506" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D506" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E506" s="55" t="s">
+      <c r="D506" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E506" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F506" s="58">
+      <c r="F506" s="20">
         <v>44144</v>
       </c>
-      <c r="G506" s="55" t="s">
+      <c r="G506" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H506" s="59" t="s">
+      <c r="H506" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="507" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A507" s="55">
+      <c r="A507" s="18">
         <v>502</v>
       </c>
-      <c r="B507" s="55">
+      <c r="B507" s="18">
         <v>503</v>
       </c>
-      <c r="C507" s="56" t="s">
+      <c r="C507" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D507" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E507" s="55" t="s">
+      <c r="D507" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E507" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F507" s="58">
+      <c r="F507" s="20">
         <v>44145</v>
       </c>
-      <c r="G507" s="55" t="s">
+      <c r="G507" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H507" s="59" t="s">
+      <c r="H507" s="24" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="508" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A508" s="55">
+      <c r="A508" s="18">
         <v>503</v>
       </c>
-      <c r="B508" s="55">
+      <c r="B508" s="18">
         <v>504</v>
       </c>
-      <c r="C508" s="56" t="s">
+      <c r="C508" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D508" s="57" t="s">
+      <c r="D508" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E508" s="55" t="s">
+      <c r="E508" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F508" s="58">
+      <c r="F508" s="20">
         <v>44145</v>
       </c>
-      <c r="G508" s="55" t="s">
+      <c r="G508" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H508" s="59" t="s">
+      <c r="H508" s="24" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A509" s="61" t="s">
+    <row r="509" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A509" s="55">
+        <v>504</v>
+      </c>
+      <c r="B509" s="55">
+        <v>505</v>
+      </c>
+      <c r="C509" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D509" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E509" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F509" s="58">
+        <v>44146</v>
+      </c>
+      <c r="G509" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H509" s="59" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A510" s="55">
+        <v>505</v>
+      </c>
+      <c r="B510" s="55">
+        <v>506</v>
+      </c>
+      <c r="C510" s="56" t="s">
+        <v>666</v>
+      </c>
+      <c r="D510" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E510" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="F510" s="58">
+        <v>44146</v>
+      </c>
+      <c r="G510" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H510" s="59" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A511" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B509" s="61"/>
-      <c r="C509" s="61"/>
-      <c r="D509" s="61"/>
-      <c r="E509" s="61"/>
-      <c r="F509" s="61"/>
-      <c r="G509" s="61"/>
-      <c r="H509" s="61"/>
+      <c r="B511" s="61"/>
+      <c r="C511" s="61"/>
+      <c r="D511" s="61"/>
+      <c r="E511" s="61"/>
+      <c r="F511" s="61"/>
+      <c r="G511" s="61"/>
+      <c r="H511" s="61"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H511"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A509:H509"/>
+    <mergeCell ref="A511:H511"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201112\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$511</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$511</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$513</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$513</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="670">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5698,6 +5698,22 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外で陽性判明者との接触あり</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6424,11 +6440,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H511"/>
+  <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K417" sqref="K417"/>
+      <pane ySplit="2" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A512" sqref="A512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6439,7 +6455,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -19149,8 +19166,8 @@
       <c r="F490" s="20">
         <v>44134</v>
       </c>
-      <c r="G490" s="18" t="s">
-        <v>586</v>
+      <c r="G490" s="20">
+        <v>44146</v>
       </c>
       <c r="H490" s="24" t="s">
         <v>583</v>
@@ -19331,8 +19348,8 @@
       <c r="F497" s="20">
         <v>44138</v>
       </c>
-      <c r="G497" s="18" t="s">
-        <v>583</v>
+      <c r="G497" s="20">
+        <v>44147</v>
       </c>
       <c r="H497" s="24" t="s">
         <v>657</v>
@@ -19625,74 +19642,125 @@
       </c>
     </row>
     <row r="509" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A509" s="55">
+      <c r="A509" s="18">
         <v>504</v>
       </c>
-      <c r="B509" s="55">
+      <c r="B509" s="18">
         <v>505</v>
       </c>
-      <c r="C509" s="56" t="s">
+      <c r="C509" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D509" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E509" s="55" t="s">
+      <c r="D509" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E509" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F509" s="58">
+      <c r="F509" s="20">
         <v>44146</v>
       </c>
-      <c r="G509" s="55" t="s">
+      <c r="G509" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H509" s="59" t="s">
+      <c r="H509" s="24" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="510" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A510" s="55">
+      <c r="A510" s="18">
         <v>505</v>
       </c>
-      <c r="B510" s="55">
+      <c r="B510" s="18">
         <v>506</v>
       </c>
-      <c r="C510" s="56" t="s">
+      <c r="C510" s="34" t="s">
         <v>666</v>
       </c>
-      <c r="D510" s="57" t="s">
+      <c r="D510" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E510" s="55" t="s">
+      <c r="E510" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="F510" s="58">
+      <c r="F510" s="20">
         <v>44146</v>
       </c>
-      <c r="G510" s="55" t="s">
+      <c r="G510" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H510" s="59" t="s">
+      <c r="H510" s="24" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A511" s="61" t="s">
+    <row r="511" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A511" s="55">
+        <v>506</v>
+      </c>
+      <c r="B511" s="55">
+        <v>507</v>
+      </c>
+      <c r="C511" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D511" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E511" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F511" s="58">
+        <v>44146</v>
+      </c>
+      <c r="G511" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H511" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A512" s="55">
+        <v>507</v>
+      </c>
+      <c r="B512" s="55">
+        <v>508</v>
+      </c>
+      <c r="C512" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D512" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E512" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F512" s="58">
+        <v>44147</v>
+      </c>
+      <c r="G512" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H512" s="59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A513" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B511" s="61"/>
-      <c r="C511" s="61"/>
-      <c r="D511" s="61"/>
-      <c r="E511" s="61"/>
-      <c r="F511" s="61"/>
-      <c r="G511" s="61"/>
-      <c r="H511" s="61"/>
+      <c r="B513" s="61"/>
+      <c r="C513" s="61"/>
+      <c r="D513" s="61"/>
+      <c r="E513" s="61"/>
+      <c r="F513" s="61"/>
+      <c r="G513" s="61"/>
+      <c r="H513" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H511"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A511:H511"/>
+    <mergeCell ref="A513:H513"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -19703,7 +19771,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201112\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201113\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$513</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$513</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$515</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$515</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="671">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5714,6 +5714,13 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.505の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6440,11 +6447,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H513"/>
+  <dimension ref="A1:H515"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A512" sqref="A512"/>
+      <pane ySplit="2" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H514" sqref="H514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6455,8 +6462,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -19062,8 +19068,8 @@
       <c r="F486" s="20">
         <v>44131</v>
       </c>
-      <c r="G486" s="18" t="s">
-        <v>583</v>
+      <c r="G486" s="20">
+        <v>44148</v>
       </c>
       <c r="H486" s="24" t="s">
         <v>644</v>
@@ -19452,8 +19458,8 @@
       <c r="F501" s="20">
         <v>44141</v>
       </c>
-      <c r="G501" s="18" t="s">
-        <v>583</v>
+      <c r="G501" s="20">
+        <v>44147</v>
       </c>
       <c r="H501" s="24" t="s">
         <v>661</v>
@@ -19478,8 +19484,8 @@
       <c r="F502" s="20">
         <v>44141</v>
       </c>
-      <c r="G502" s="18" t="s">
-        <v>583</v>
+      <c r="G502" s="20">
+        <v>44148</v>
       </c>
       <c r="H502" s="24" t="s">
         <v>662</v>
@@ -19694,73 +19700,126 @@
       </c>
     </row>
     <row r="511" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A511" s="55">
+      <c r="A511" s="18">
         <v>506</v>
       </c>
-      <c r="B511" s="55">
+      <c r="B511" s="18">
         <v>507</v>
       </c>
-      <c r="C511" s="56" t="s">
+      <c r="C511" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D511" s="57" t="s">
+      <c r="D511" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E511" s="55" t="s">
+      <c r="E511" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F511" s="58">
+      <c r="F511" s="20">
         <v>44146</v>
       </c>
-      <c r="G511" s="55" t="s">
+      <c r="G511" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H511" s="59" t="s">
+      <c r="H511" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="512" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A512" s="55">
+      <c r="A512" s="18">
         <v>507</v>
       </c>
-      <c r="B512" s="55">
+      <c r="B512" s="18">
         <v>508</v>
       </c>
-      <c r="C512" s="56" t="s">
+      <c r="C512" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D512" s="57" t="s">
+      <c r="D512" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E512" s="55" t="s">
+      <c r="E512" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F512" s="58">
+      <c r="F512" s="20">
         <v>44147</v>
       </c>
-      <c r="G512" s="55" t="s">
+      <c r="G512" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H512" s="59" t="s">
+      <c r="H512" s="24" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A513" s="61" t="s">
+    <row r="513" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A513" s="55">
+        <v>508</v>
+      </c>
+      <c r="B513" s="55">
+        <v>509</v>
+      </c>
+      <c r="C513" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D513" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E513" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F513" s="58">
+        <v>44148</v>
+      </c>
+      <c r="G513" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H513" s="59" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A514" s="55">
+        <v>509</v>
+      </c>
+      <c r="B514" s="55">
+        <v>510</v>
+      </c>
+      <c r="C514" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D514" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E514" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F514" s="58">
+        <v>44148</v>
+      </c>
+      <c r="G514" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H514" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A515" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B513" s="61"/>
-      <c r="C513" s="61"/>
-      <c r="D513" s="61"/>
-      <c r="E513" s="61"/>
-      <c r="F513" s="61"/>
-      <c r="G513" s="61"/>
-      <c r="H513" s="61"/>
+      <c r="B515" s="61"/>
+      <c r="C515" s="61"/>
+      <c r="D515" s="61"/>
+      <c r="E515" s="61"/>
+      <c r="F515" s="61"/>
+      <c r="G515" s="61"/>
+      <c r="H515" s="61"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H515"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A513:H513"/>
+    <mergeCell ref="A515:H515"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201113\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201114\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$515</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$515</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$519</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$519</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="674">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5721,6 +5721,36 @@
     <t>No.505の知人</t>
     <rPh sb="7" eb="9">
       <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市138例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市139例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市140例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6447,11 +6477,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H515"/>
+  <dimension ref="A1:H519"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H514" sqref="H514"/>
+      <pane ySplit="2" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O522" sqref="O522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -19752,74 +19782,178 @@
       </c>
     </row>
     <row r="513" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A513" s="55">
+      <c r="A513" s="18">
         <v>508</v>
       </c>
-      <c r="B513" s="55">
+      <c r="B513" s="18">
         <v>509</v>
       </c>
-      <c r="C513" s="56" t="s">
+      <c r="C513" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D513" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E513" s="55" t="s">
+      <c r="D513" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E513" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F513" s="58">
+      <c r="F513" s="20">
         <v>44148</v>
       </c>
-      <c r="G513" s="55" t="s">
+      <c r="G513" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H513" s="59" t="s">
+      <c r="H513" s="24" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="514" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A514" s="55">
+      <c r="A514" s="18">
         <v>509</v>
       </c>
-      <c r="B514" s="55">
+      <c r="B514" s="18">
         <v>510</v>
       </c>
-      <c r="C514" s="56" t="s">
+      <c r="C514" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D514" s="57" t="s">
+      <c r="D514" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E514" s="55" t="s">
+      <c r="E514" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F514" s="58">
+      <c r="F514" s="20">
         <v>44148</v>
       </c>
-      <c r="G514" s="55" t="s">
+      <c r="G514" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H514" s="59" t="s">
+      <c r="H514" s="24" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A515" s="61" t="s">
+    <row r="515" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A515" s="55">
+        <v>510</v>
+      </c>
+      <c r="B515" s="55">
+        <v>511</v>
+      </c>
+      <c r="C515" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D515" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E515" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F515" s="58">
+        <v>44148</v>
+      </c>
+      <c r="G515" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H515" s="59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A516" s="55">
+        <v>511</v>
+      </c>
+      <c r="B516" s="55">
+        <v>512</v>
+      </c>
+      <c r="C516" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D516" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E516" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F516" s="58">
+        <v>44148</v>
+      </c>
+      <c r="G516" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H516" s="59" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A517" s="55">
+        <v>512</v>
+      </c>
+      <c r="B517" s="55">
+        <v>513</v>
+      </c>
+      <c r="C517" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D517" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E517" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F517" s="58">
+        <v>44149</v>
+      </c>
+      <c r="G517" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H517" s="59" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A518" s="55">
+        <v>513</v>
+      </c>
+      <c r="B518" s="55">
+        <v>514</v>
+      </c>
+      <c r="C518" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D518" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E518" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F518" s="58">
+        <v>44149</v>
+      </c>
+      <c r="G518" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H518" s="59" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A519" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B515" s="61"/>
-      <c r="C515" s="61"/>
-      <c r="D515" s="61"/>
-      <c r="E515" s="61"/>
-      <c r="F515" s="61"/>
-      <c r="G515" s="61"/>
-      <c r="H515" s="61"/>
+      <c r="B519" s="61"/>
+      <c r="C519" s="61"/>
+      <c r="D519" s="61"/>
+      <c r="E519" s="61"/>
+      <c r="F519" s="61"/>
+      <c r="G519" s="61"/>
+      <c r="H519" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H515"/>
+  <autoFilter ref="A2:H519"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A515:H515"/>
+    <mergeCell ref="A519:H519"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201116\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201117\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$523</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$529</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$529</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="684">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5788,6 +5788,63 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.518の父　※宇都宮市144例目</t>
+    <rPh sb="7" eb="8">
+      <t>チチ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.518の弟　※宇都宮市145例目</t>
+    <rPh sb="7" eb="8">
+      <t>オトウト</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.521の接触者</t>
+    <rPh sb="7" eb="10">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.520の接触者</t>
+    <rPh sb="7" eb="10">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外の飲食店で会食</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>インショクテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6514,11 +6571,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H529"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A522" sqref="A522"/>
+      <pane ySplit="2" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A528" sqref="A528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -19578,8 +19635,8 @@
       <c r="F503" s="20">
         <v>44142</v>
       </c>
-      <c r="G503" s="18" t="s">
-        <v>583</v>
+      <c r="G503" s="20">
+        <v>44152</v>
       </c>
       <c r="H503" s="24" t="s">
         <v>586</v>
@@ -19708,8 +19765,8 @@
       <c r="F508" s="20">
         <v>44145</v>
       </c>
-      <c r="G508" s="18" t="s">
-        <v>583</v>
+      <c r="G508" s="20">
+        <v>44151</v>
       </c>
       <c r="H508" s="24" t="s">
         <v>665</v>
@@ -20054,47 +20111,203 @@
       </c>
     </row>
     <row r="522" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A522" s="55">
+      <c r="A522" s="18">
         <v>517</v>
       </c>
-      <c r="B522" s="55">
+      <c r="B522" s="18">
         <v>518</v>
       </c>
-      <c r="C522" s="57" t="s">
+      <c r="C522" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D522" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E522" s="55" t="s">
+      <c r="D522" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E522" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F522" s="56">
+      <c r="F522" s="20">
         <v>44151</v>
       </c>
-      <c r="G522" s="55" t="s">
+      <c r="G522" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H522" s="59" t="s">
+      <c r="H522" s="24" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A523" s="61" t="s">
+    <row r="523" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A523" s="55">
+        <v>518</v>
+      </c>
+      <c r="B523" s="55">
+        <v>519</v>
+      </c>
+      <c r="C523" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D523" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E523" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F523" s="56">
+        <v>44151</v>
+      </c>
+      <c r="G523" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H523" s="59" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A524" s="55">
+        <v>519</v>
+      </c>
+      <c r="B524" s="55">
+        <v>520</v>
+      </c>
+      <c r="C524" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D524" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E524" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F524" s="56">
+        <v>44151</v>
+      </c>
+      <c r="G524" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H524" s="59" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A525" s="55">
+        <v>520</v>
+      </c>
+      <c r="B525" s="55">
+        <v>521</v>
+      </c>
+      <c r="C525" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D525" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E525" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F525" s="56">
+        <v>44152</v>
+      </c>
+      <c r="G525" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H525" s="59" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A526" s="55">
+        <v>521</v>
+      </c>
+      <c r="B526" s="55">
+        <v>522</v>
+      </c>
+      <c r="C526" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D526" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E526" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F526" s="56">
+        <v>44151</v>
+      </c>
+      <c r="G526" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H526" s="59" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A527" s="55">
+        <v>522</v>
+      </c>
+      <c r="B527" s="55">
+        <v>523</v>
+      </c>
+      <c r="C527" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D527" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E527" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F527" s="56">
+        <v>44152</v>
+      </c>
+      <c r="G527" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H527" s="59" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A528" s="55">
+        <v>523</v>
+      </c>
+      <c r="B528" s="55">
+        <v>524</v>
+      </c>
+      <c r="C528" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D528" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E528" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F528" s="56">
+        <v>44152</v>
+      </c>
+      <c r="G528" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H528" s="59" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A529" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B523" s="61"/>
-      <c r="C523" s="61"/>
-      <c r="D523" s="61"/>
-      <c r="E523" s="61"/>
-      <c r="F523" s="61"/>
-      <c r="G523" s="61"/>
-      <c r="H523" s="61"/>
+      <c r="B529" s="61"/>
+      <c r="C529" s="61"/>
+      <c r="D529" s="61"/>
+      <c r="E529" s="61"/>
+      <c r="F529" s="61"/>
+      <c r="G529" s="61"/>
+      <c r="H529" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A523:H523"/>
+    <mergeCell ref="A529:H529"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -20105,7 +20318,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201117\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201118\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$529</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$529</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$533</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$533</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="686">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5845,6 +5845,20 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市146例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6571,11 +6585,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H529"/>
+  <dimension ref="A1:H533"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A528" sqref="A528"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6586,8 +6600,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -20137,177 +20150,281 @@
       </c>
     </row>
     <row r="523" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A523" s="55">
+      <c r="A523" s="18">
         <v>518</v>
       </c>
-      <c r="B523" s="55">
+      <c r="B523" s="18">
         <v>519</v>
       </c>
-      <c r="C523" s="57" t="s">
+      <c r="C523" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D523" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E523" s="55" t="s">
+      <c r="D523" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E523" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F523" s="56">
+      <c r="F523" s="20">
         <v>44151</v>
       </c>
-      <c r="G523" s="55" t="s">
+      <c r="G523" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H523" s="59" t="s">
+      <c r="H523" s="24" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="524" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A524" s="55">
+      <c r="A524" s="18">
         <v>519</v>
       </c>
-      <c r="B524" s="55">
+      <c r="B524" s="18">
         <v>520</v>
       </c>
-      <c r="C524" s="57" t="s">
+      <c r="C524" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D524" s="58" t="s">
+      <c r="D524" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E524" s="55" t="s">
+      <c r="E524" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="F524" s="56">
+      <c r="F524" s="20">
         <v>44151</v>
       </c>
-      <c r="G524" s="55" t="s">
+      <c r="G524" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H524" s="59" t="s">
+      <c r="H524" s="24" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="525" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A525" s="55">
+      <c r="A525" s="18">
         <v>520</v>
       </c>
-      <c r="B525" s="55">
+      <c r="B525" s="18">
         <v>521</v>
       </c>
-      <c r="C525" s="57" t="s">
+      <c r="C525" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D525" s="58" t="s">
+      <c r="D525" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E525" s="55" t="s">
+      <c r="E525" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="F525" s="56">
+      <c r="F525" s="20">
         <v>44152</v>
       </c>
-      <c r="G525" s="55" t="s">
+      <c r="G525" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H525" s="59" t="s">
+      <c r="H525" s="24" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="526" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A526" s="55">
+      <c r="A526" s="18">
         <v>521</v>
       </c>
-      <c r="B526" s="55">
+      <c r="B526" s="18">
         <v>522</v>
       </c>
-      <c r="C526" s="57" t="s">
+      <c r="C526" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D526" s="58" t="s">
+      <c r="D526" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E526" s="55" t="s">
+      <c r="E526" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F526" s="56">
+      <c r="F526" s="20">
         <v>44151</v>
       </c>
-      <c r="G526" s="55" t="s">
+      <c r="G526" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H526" s="59" t="s">
+      <c r="H526" s="24" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="527" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A527" s="55">
+      <c r="A527" s="18">
         <v>522</v>
       </c>
-      <c r="B527" s="55">
+      <c r="B527" s="18">
         <v>523</v>
       </c>
-      <c r="C527" s="57" t="s">
+      <c r="C527" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D527" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E527" s="55" t="s">
+      <c r="D527" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E527" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F527" s="56">
+      <c r="F527" s="20">
         <v>44152</v>
       </c>
-      <c r="G527" s="55" t="s">
+      <c r="G527" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H527" s="59" t="s">
+      <c r="H527" s="24" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="528" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A528" s="55">
+      <c r="A528" s="18">
         <v>523</v>
       </c>
-      <c r="B528" s="55">
+      <c r="B528" s="18">
         <v>524</v>
       </c>
-      <c r="C528" s="57" t="s">
+      <c r="C528" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D528" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E528" s="55" t="s">
+      <c r="D528" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E528" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F528" s="56">
+      <c r="F528" s="20">
         <v>44152</v>
       </c>
-      <c r="G528" s="55" t="s">
+      <c r="G528" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H528" s="59" t="s">
+      <c r="H528" s="24" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A529" s="61" t="s">
+    <row r="529" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A529" s="55">
+        <v>524</v>
+      </c>
+      <c r="B529" s="55">
+        <v>525</v>
+      </c>
+      <c r="C529" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D529" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E529" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="F529" s="56">
+        <v>44152</v>
+      </c>
+      <c r="G529" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H529" s="59" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A530" s="55">
+        <v>525</v>
+      </c>
+      <c r="B530" s="55">
+        <v>526</v>
+      </c>
+      <c r="C530" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D530" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E530" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F530" s="56">
+        <v>44152</v>
+      </c>
+      <c r="G530" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H530" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A531" s="55">
+        <v>526</v>
+      </c>
+      <c r="B531" s="55">
+        <v>527</v>
+      </c>
+      <c r="C531" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D531" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E531" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F531" s="56">
+        <v>44153</v>
+      </c>
+      <c r="G531" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H531" s="59" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A532" s="55">
+        <v>527</v>
+      </c>
+      <c r="B532" s="55">
+        <v>528</v>
+      </c>
+      <c r="C532" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D532" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E532" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F532" s="56">
+        <v>44153</v>
+      </c>
+      <c r="G532" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H532" s="59" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A533" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B529" s="61"/>
-      <c r="C529" s="61"/>
-      <c r="D529" s="61"/>
-      <c r="E529" s="61"/>
-      <c r="F529" s="61"/>
-      <c r="G529" s="61"/>
-      <c r="H529" s="61"/>
+      <c r="B533" s="61"/>
+      <c r="C533" s="61"/>
+      <c r="D533" s="61"/>
+      <c r="E533" s="61"/>
+      <c r="F533" s="61"/>
+      <c r="G533" s="61"/>
+      <c r="H533" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A529:H529"/>
+    <mergeCell ref="A533:H533"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201119\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$533</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$533</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$548</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$548</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="703">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -5858,6 +5858,161 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市147例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市149例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市150例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市151例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.531の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.526の夫</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県内の職場に出勤</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.534の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.534の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.534の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外陽性判明者との接触あり　※宇都宮市148例目</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -6585,11 +6740,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H533"/>
+  <dimension ref="A1:H548"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -19674,8 +19829,8 @@
       <c r="F504" s="20">
         <v>44144</v>
       </c>
-      <c r="G504" s="18" t="s">
-        <v>583</v>
+      <c r="G504" s="20">
+        <v>44154</v>
       </c>
       <c r="H504" s="28" t="s">
         <v>663</v>
@@ -19726,8 +19881,8 @@
       <c r="F506" s="20">
         <v>44144</v>
       </c>
-      <c r="G506" s="18" t="s">
-        <v>583</v>
+      <c r="G506" s="20">
+        <v>44153</v>
       </c>
       <c r="H506" s="24" t="s">
         <v>583</v>
@@ -19804,8 +19959,8 @@
       <c r="F509" s="20">
         <v>44146</v>
       </c>
-      <c r="G509" s="18" t="s">
-        <v>583</v>
+      <c r="G509" s="20">
+        <v>44154</v>
       </c>
       <c r="H509" s="24" t="s">
         <v>659</v>
@@ -20306,125 +20461,516 @@
       </c>
     </row>
     <row r="529" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A529" s="55">
+      <c r="A529" s="18">
         <v>524</v>
       </c>
-      <c r="B529" s="55">
+      <c r="B529" s="18">
         <v>525</v>
       </c>
-      <c r="C529" s="57" t="s">
+      <c r="C529" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D529" s="58" t="s">
+      <c r="D529" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E529" s="55" t="s">
+      <c r="E529" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="F529" s="56">
+      <c r="F529" s="20">
         <v>44152</v>
       </c>
-      <c r="G529" s="55" t="s">
+      <c r="G529" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H529" s="59" t="s">
+      <c r="H529" s="24" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="530" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A530" s="55">
+      <c r="A530" s="18">
         <v>525</v>
       </c>
-      <c r="B530" s="55">
+      <c r="B530" s="18">
         <v>526</v>
       </c>
-      <c r="C530" s="57" t="s">
+      <c r="C530" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D530" s="58" t="s">
+      <c r="D530" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E530" s="55" t="s">
+      <c r="E530" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F530" s="56">
+      <c r="F530" s="20">
         <v>44152</v>
       </c>
-      <c r="G530" s="55" t="s">
+      <c r="G530" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H530" s="59" t="s">
+      <c r="H530" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="531" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A531" s="55">
+      <c r="A531" s="18">
         <v>526</v>
       </c>
-      <c r="B531" s="55">
+      <c r="B531" s="18">
         <v>527</v>
       </c>
-      <c r="C531" s="57" t="s">
+      <c r="C531" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D531" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E531" s="55" t="s">
+      <c r="D531" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E531" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F531" s="56">
+      <c r="F531" s="20">
         <v>44153</v>
       </c>
-      <c r="G531" s="55" t="s">
+      <c r="G531" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H531" s="59" t="s">
+      <c r="H531" s="24" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="532" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A532" s="55">
+      <c r="A532" s="18">
         <v>527</v>
       </c>
-      <c r="B532" s="55">
+      <c r="B532" s="18">
         <v>528</v>
       </c>
-      <c r="C532" s="57" t="s">
+      <c r="C532" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D532" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E532" s="55" t="s">
+      <c r="D532" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E532" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F532" s="56">
+      <c r="F532" s="20">
         <v>44153</v>
       </c>
-      <c r="G532" s="55" t="s">
+      <c r="G532" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H532" s="59" t="s">
+      <c r="H532" s="24" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A533" s="61" t="s">
+    <row r="533" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A533" s="55">
+        <v>528</v>
+      </c>
+      <c r="B533" s="55">
+        <v>529</v>
+      </c>
+      <c r="C533" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D533" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E533" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F533" s="56">
+        <v>44153</v>
+      </c>
+      <c r="G533" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H533" s="59" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A534" s="55">
+        <v>529</v>
+      </c>
+      <c r="B534" s="55">
+        <v>530</v>
+      </c>
+      <c r="C534" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="D534" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E534" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F534" s="56">
+        <v>44153</v>
+      </c>
+      <c r="G534" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H534" s="59" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A535" s="55">
+        <v>530</v>
+      </c>
+      <c r="B535" s="55">
+        <v>531</v>
+      </c>
+      <c r="C535" s="57" t="s">
+        <v>692</v>
+      </c>
+      <c r="D535" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="E535" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F535" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G535" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H535" s="59" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A536" s="55">
+        <v>531</v>
+      </c>
+      <c r="B536" s="55">
+        <v>532</v>
+      </c>
+      <c r="C536" s="57" t="s">
+        <v>694</v>
+      </c>
+      <c r="D536" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="E536" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F536" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G536" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H536" s="59" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A537" s="55">
+        <v>532</v>
+      </c>
+      <c r="B537" s="55">
+        <v>533</v>
+      </c>
+      <c r="C537" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D537" s="58" t="s">
+        <v>691</v>
+      </c>
+      <c r="E537" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="F537" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G537" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H537" s="59" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A538" s="55">
+        <v>533</v>
+      </c>
+      <c r="B538" s="55">
+        <v>534</v>
+      </c>
+      <c r="C538" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D538" s="58" t="s">
+        <v>691</v>
+      </c>
+      <c r="E538" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F538" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G538" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H538" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A539" s="55">
+        <v>534</v>
+      </c>
+      <c r="B539" s="55">
+        <v>535</v>
+      </c>
+      <c r="C539" s="57" t="s">
+        <v>692</v>
+      </c>
+      <c r="D539" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="E539" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F539" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G539" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H539" s="59" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A540" s="55">
+        <v>535</v>
+      </c>
+      <c r="B540" s="55">
+        <v>536</v>
+      </c>
+      <c r="C540" s="57" t="s">
+        <v>693</v>
+      </c>
+      <c r="D540" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="E540" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F540" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G540" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H540" s="59" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A541" s="55">
+        <v>536</v>
+      </c>
+      <c r="B541" s="55">
+        <v>537</v>
+      </c>
+      <c r="C541" s="57" t="s">
+        <v>694</v>
+      </c>
+      <c r="D541" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E541" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F541" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G541" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H541" s="59" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A542" s="55">
+        <v>537</v>
+      </c>
+      <c r="B542" s="55">
+        <v>538</v>
+      </c>
+      <c r="C542" s="57" t="s">
+        <v>692</v>
+      </c>
+      <c r="D542" s="58" t="s">
+        <v>690</v>
+      </c>
+      <c r="E542" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="F542" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G542" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H542" s="59" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A543" s="55">
+        <v>538</v>
+      </c>
+      <c r="B543" s="55">
+        <v>539</v>
+      </c>
+      <c r="C543" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D543" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E543" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F543" s="56">
+        <v>44153</v>
+      </c>
+      <c r="G543" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H543" s="59" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A544" s="55">
+        <v>539</v>
+      </c>
+      <c r="B544" s="55">
+        <v>540</v>
+      </c>
+      <c r="C544" s="57" t="s">
+        <v>693</v>
+      </c>
+      <c r="D544" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E544" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F544" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G544" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H544" s="59" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A545" s="55">
+        <v>540</v>
+      </c>
+      <c r="B545" s="55">
+        <v>541</v>
+      </c>
+      <c r="C545" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D545" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E545" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F545" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G545" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H545" s="59" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A546" s="55">
+        <v>541</v>
+      </c>
+      <c r="B546" s="55">
+        <v>542</v>
+      </c>
+      <c r="C546" s="57" t="s">
+        <v>692</v>
+      </c>
+      <c r="D546" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E546" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F546" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G546" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H546" s="59" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A547" s="55">
+        <v>542</v>
+      </c>
+      <c r="B547" s="55">
+        <v>543</v>
+      </c>
+      <c r="C547" s="57" t="s">
+        <v>692</v>
+      </c>
+      <c r="D547" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E547" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F547" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G547" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H547" s="59" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A548" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B533" s="61"/>
-      <c r="C533" s="61"/>
-      <c r="D533" s="61"/>
-      <c r="E533" s="61"/>
-      <c r="F533" s="61"/>
-      <c r="G533" s="61"/>
-      <c r="H533" s="61"/>
+      <c r="B548" s="61"/>
+      <c r="C548" s="61"/>
+      <c r="D548" s="61"/>
+      <c r="E548" s="61"/>
+      <c r="F548" s="61"/>
+      <c r="G548" s="61"/>
+      <c r="H548" s="61"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H548"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A533:H533"/>
+    <mergeCell ref="A548:H548"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -20435,7 +20981,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="8" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201119\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201119\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5873,16 +5873,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※宇都宮市149例目</t>
-    <rPh sb="1" eb="5">
-      <t>ウツノミヤシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レイメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※宇都宮市150例目</t>
     <rPh sb="1" eb="5">
       <t>ウツノミヤシ</t>
@@ -6013,6 +6003,16 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="22" eb="24">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外陽性者との接触者あり ※宇都宮市149例目</t>
+    <rPh sb="14" eb="18">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -6743,8 +6743,8 @@
   <dimension ref="A1:H548"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="2" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -20613,7 +20613,7 @@
         <v>583</v>
       </c>
       <c r="H534" s="59" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="535" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20624,10 +20624,10 @@
         <v>531</v>
       </c>
       <c r="C535" s="57" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D535" s="58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E535" s="55" t="s">
         <v>119</v>
@@ -20639,7 +20639,7 @@
         <v>583</v>
       </c>
       <c r="H535" s="59" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="536" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20650,10 +20650,10 @@
         <v>532</v>
       </c>
       <c r="C536" s="57" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D536" s="58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E536" s="55" t="s">
         <v>119</v>
@@ -20665,7 +20665,7 @@
         <v>583</v>
       </c>
       <c r="H536" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="537" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20679,7 +20679,7 @@
         <v>91</v>
       </c>
       <c r="D537" s="58" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E537" s="55" t="s">
         <v>175</v>
@@ -20691,7 +20691,7 @@
         <v>583</v>
       </c>
       <c r="H537" s="59" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="538" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20705,7 +20705,7 @@
         <v>91</v>
       </c>
       <c r="D538" s="58" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E538" s="55" t="s">
         <v>293</v>
@@ -20728,10 +20728,10 @@
         <v>535</v>
       </c>
       <c r="C539" s="57" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D539" s="58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E539" s="55" t="s">
         <v>293</v>
@@ -20743,7 +20743,7 @@
         <v>583</v>
       </c>
       <c r="H539" s="59" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="540" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20754,10 +20754,10 @@
         <v>536</v>
       </c>
       <c r="C540" s="57" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D540" s="58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E540" s="55" t="s">
         <v>293</v>
@@ -20769,7 +20769,7 @@
         <v>583</v>
       </c>
       <c r="H540" s="59" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="541" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20780,7 +20780,7 @@
         <v>537</v>
       </c>
       <c r="C541" s="57" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D541" s="58" t="s">
         <v>69</v>
@@ -20795,7 +20795,7 @@
         <v>583</v>
       </c>
       <c r="H541" s="59" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="542" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20806,10 +20806,10 @@
         <v>538</v>
       </c>
       <c r="C542" s="57" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D542" s="58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E542" s="55" t="s">
         <v>330</v>
@@ -20821,7 +20821,7 @@
         <v>583</v>
       </c>
       <c r="H542" s="59" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="543" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20858,7 +20858,7 @@
         <v>540</v>
       </c>
       <c r="C544" s="57" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D544" s="58" t="s">
         <v>66</v>
@@ -20873,7 +20873,7 @@
         <v>583</v>
       </c>
       <c r="H544" s="59" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="545" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20899,7 +20899,7 @@
         <v>583</v>
       </c>
       <c r="H545" s="59" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
     </row>
     <row r="546" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20910,7 +20910,7 @@
         <v>542</v>
       </c>
       <c r="C546" s="57" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D546" s="58" t="s">
         <v>69</v>
@@ -20925,7 +20925,7 @@
         <v>583</v>
       </c>
       <c r="H546" s="59" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="547" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -20936,7 +20936,7 @@
         <v>543</v>
       </c>
       <c r="C547" s="57" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D547" s="58" t="s">
         <v>69</v>
@@ -20951,7 +20951,7 @@
         <v>583</v>
       </c>
       <c r="H547" s="59" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="548" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201119\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201120\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$548</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$548</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$556</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$556</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="709">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6015,6 +6015,54 @@
     <rPh sb="21" eb="23">
       <t>レイメ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.544の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.541の同居者　※宇都宮市152例目</t>
+    <rPh sb="7" eb="10">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.541の濃厚接触者　※宇都宮市153例目</t>
+    <rPh sb="7" eb="9">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セッショクシャ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6208,7 +6256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6387,6 +6435,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6740,11 +6794,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H548"/>
+  <dimension ref="A1:H556"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A534" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
+      <pane ySplit="2" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A555" sqref="A555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6759,16 +6813,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -7239,19 +7293,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62">
+      <c r="A20" s="64">
         <v>18</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="64">
         <v>18</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -7260,23 +7314,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="66" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -20011,8 +20065,8 @@
       <c r="F511" s="20">
         <v>44146</v>
       </c>
-      <c r="G511" s="18" t="s">
-        <v>583</v>
+      <c r="G511" s="20">
+        <v>44155</v>
       </c>
       <c r="H511" s="24" t="s">
         <v>583</v>
@@ -20037,8 +20091,8 @@
       <c r="F512" s="20">
         <v>44147</v>
       </c>
-      <c r="G512" s="18" t="s">
-        <v>583</v>
+      <c r="G512" s="20">
+        <v>44155</v>
       </c>
       <c r="H512" s="24" t="s">
         <v>669</v>
@@ -20565,412 +20619,619 @@
       </c>
     </row>
     <row r="533" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A533" s="55">
+      <c r="A533" s="18">
         <v>528</v>
       </c>
-      <c r="B533" s="55">
+      <c r="B533" s="18">
         <v>529</v>
       </c>
-      <c r="C533" s="57" t="s">
+      <c r="C533" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D533" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E533" s="55" t="s">
+      <c r="D533" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E533" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F533" s="56">
+      <c r="F533" s="20">
         <v>44153</v>
       </c>
-      <c r="G533" s="55" t="s">
+      <c r="G533" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H533" s="59" t="s">
+      <c r="H533" s="24" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="534" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A534" s="55">
+      <c r="A534" s="18">
         <v>529</v>
       </c>
-      <c r="B534" s="55">
+      <c r="B534" s="18">
         <v>530</v>
       </c>
-      <c r="C534" s="57" t="s">
+      <c r="C534" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="D534" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E534" s="55" t="s">
+      <c r="D534" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E534" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F534" s="56">
+      <c r="F534" s="20">
         <v>44153</v>
       </c>
-      <c r="G534" s="55" t="s">
+      <c r="G534" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H534" s="59" t="s">
+      <c r="H534" s="24" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="535" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A535" s="55">
+      <c r="A535" s="18">
         <v>530</v>
       </c>
-      <c r="B535" s="55">
+      <c r="B535" s="18">
         <v>531</v>
       </c>
-      <c r="C535" s="57" t="s">
+      <c r="C535" s="34" t="s">
         <v>691</v>
       </c>
-      <c r="D535" s="58" t="s">
+      <c r="D535" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="E535" s="55" t="s">
+      <c r="E535" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F535" s="56">
+      <c r="F535" s="20">
         <v>44154</v>
       </c>
-      <c r="G535" s="55" t="s">
+      <c r="G535" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H535" s="59" t="s">
+      <c r="H535" s="24" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="536" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A536" s="55">
+      <c r="A536" s="18">
         <v>531</v>
       </c>
-      <c r="B536" s="55">
+      <c r="B536" s="18">
         <v>532</v>
       </c>
-      <c r="C536" s="57" t="s">
+      <c r="C536" s="34" t="s">
         <v>693</v>
       </c>
-      <c r="D536" s="58" t="s">
+      <c r="D536" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="E536" s="55" t="s">
+      <c r="E536" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F536" s="56">
+      <c r="F536" s="20">
         <v>44154</v>
       </c>
-      <c r="G536" s="55" t="s">
+      <c r="G536" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H536" s="59" t="s">
+      <c r="H536" s="24" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="537" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A537" s="55">
+      <c r="A537" s="18">
         <v>532</v>
       </c>
-      <c r="B537" s="55">
+      <c r="B537" s="18">
         <v>533</v>
       </c>
-      <c r="C537" s="57" t="s">
+      <c r="C537" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D537" s="58" t="s">
+      <c r="D537" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="E537" s="55" t="s">
+      <c r="E537" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F537" s="56">
+      <c r="F537" s="20">
         <v>44154</v>
       </c>
-      <c r="G537" s="55" t="s">
+      <c r="G537" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H537" s="59" t="s">
+      <c r="H537" s="24" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="538" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A538" s="55">
+      <c r="A538" s="18">
         <v>533</v>
       </c>
-      <c r="B538" s="55">
+      <c r="B538" s="18">
         <v>534</v>
       </c>
-      <c r="C538" s="57" t="s">
+      <c r="C538" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D538" s="58" t="s">
+      <c r="D538" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="E538" s="55" t="s">
+      <c r="E538" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F538" s="56">
+      <c r="F538" s="20">
         <v>44154</v>
       </c>
-      <c r="G538" s="55" t="s">
+      <c r="G538" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H538" s="59" t="s">
+      <c r="H538" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="539" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A539" s="55">
+      <c r="A539" s="18">
         <v>534</v>
       </c>
-      <c r="B539" s="55">
+      <c r="B539" s="18">
         <v>535</v>
       </c>
-      <c r="C539" s="57" t="s">
+      <c r="C539" s="34" t="s">
         <v>691</v>
       </c>
-      <c r="D539" s="58" t="s">
+      <c r="D539" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="E539" s="55" t="s">
+      <c r="E539" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F539" s="56">
+      <c r="F539" s="20">
         <v>44154</v>
       </c>
-      <c r="G539" s="55" t="s">
+      <c r="G539" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H539" s="59" t="s">
+      <c r="H539" s="24" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="540" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A540" s="55">
+      <c r="A540" s="18">
         <v>535</v>
       </c>
-      <c r="B540" s="55">
+      <c r="B540" s="18">
         <v>536</v>
       </c>
-      <c r="C540" s="57" t="s">
+      <c r="C540" s="34" t="s">
         <v>692</v>
       </c>
-      <c r="D540" s="58" t="s">
+      <c r="D540" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="E540" s="55" t="s">
+      <c r="E540" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F540" s="56">
+      <c r="F540" s="20">
         <v>44154</v>
       </c>
-      <c r="G540" s="55" t="s">
+      <c r="G540" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H540" s="59" t="s">
+      <c r="H540" s="24" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="541" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A541" s="55">
+      <c r="A541" s="18">
         <v>536</v>
       </c>
-      <c r="B541" s="55">
+      <c r="B541" s="18">
         <v>537</v>
       </c>
-      <c r="C541" s="57" t="s">
+      <c r="C541" s="34" t="s">
         <v>693</v>
       </c>
-      <c r="D541" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E541" s="55" t="s">
+      <c r="D541" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E541" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F541" s="56">
+      <c r="F541" s="20">
         <v>44154</v>
       </c>
-      <c r="G541" s="55" t="s">
+      <c r="G541" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H541" s="59" t="s">
+      <c r="H541" s="24" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="542" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A542" s="55">
+      <c r="A542" s="18">
         <v>537</v>
       </c>
-      <c r="B542" s="55">
+      <c r="B542" s="18">
         <v>538</v>
       </c>
-      <c r="C542" s="57" t="s">
+      <c r="C542" s="34" t="s">
         <v>691</v>
       </c>
-      <c r="D542" s="58" t="s">
+      <c r="D542" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="E542" s="55" t="s">
+      <c r="E542" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="F542" s="56">
+      <c r="F542" s="20">
         <v>44154</v>
       </c>
-      <c r="G542" s="55" t="s">
+      <c r="G542" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H542" s="59" t="s">
+      <c r="H542" s="24" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="543" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A543" s="55">
+      <c r="A543" s="18">
         <v>538</v>
       </c>
-      <c r="B543" s="55">
+      <c r="B543" s="18">
         <v>539</v>
       </c>
-      <c r="C543" s="57" t="s">
+      <c r="C543" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D543" s="58" t="s">
+      <c r="D543" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E543" s="55" t="s">
+      <c r="E543" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F543" s="56">
+      <c r="F543" s="20">
         <v>44153</v>
       </c>
-      <c r="G543" s="55" t="s">
+      <c r="G543" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H543" s="59" t="s">
+      <c r="H543" s="24" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="544" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A544" s="55">
+      <c r="A544" s="18">
         <v>539</v>
       </c>
-      <c r="B544" s="55">
+      <c r="B544" s="18">
         <v>540</v>
       </c>
-      <c r="C544" s="57" t="s">
+      <c r="C544" s="34" t="s">
         <v>692</v>
       </c>
-      <c r="D544" s="58" t="s">
+      <c r="D544" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E544" s="55" t="s">
+      <c r="E544" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F544" s="56">
+      <c r="F544" s="20">
         <v>44154</v>
       </c>
-      <c r="G544" s="55" t="s">
+      <c r="G544" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H544" s="59" t="s">
+      <c r="H544" s="24" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="545" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A545" s="55">
+      <c r="A545" s="18">
         <v>540</v>
       </c>
-      <c r="B545" s="55">
+      <c r="B545" s="18">
         <v>541</v>
       </c>
-      <c r="C545" s="57" t="s">
+      <c r="C545" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D545" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E545" s="55" t="s">
+      <c r="D545" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E545" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F545" s="56">
+      <c r="F545" s="20">
         <v>44154</v>
       </c>
-      <c r="G545" s="55" t="s">
+      <c r="G545" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H545" s="59" t="s">
+      <c r="H545" s="24" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="546" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A546" s="55">
+      <c r="A546" s="18">
         <v>541</v>
       </c>
-      <c r="B546" s="55">
+      <c r="B546" s="18">
         <v>542</v>
       </c>
-      <c r="C546" s="57" t="s">
+      <c r="C546" s="34" t="s">
         <v>691</v>
       </c>
-      <c r="D546" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E546" s="55" t="s">
+      <c r="D546" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E546" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F546" s="56">
+      <c r="F546" s="20">
         <v>44154</v>
       </c>
-      <c r="G546" s="55" t="s">
+      <c r="G546" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H546" s="59" t="s">
+      <c r="H546" s="24" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="547" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A547" s="55">
+      <c r="A547" s="18">
         <v>542</v>
       </c>
-      <c r="B547" s="55">
+      <c r="B547" s="18">
         <v>543</v>
       </c>
-      <c r="C547" s="57" t="s">
-        <v>691</v>
-      </c>
-      <c r="D547" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E547" s="55" t="s">
+      <c r="C547" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D547" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E547" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F547" s="56">
+      <c r="F547" s="20">
         <v>44154</v>
       </c>
-      <c r="G547" s="55" t="s">
+      <c r="G547" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H547" s="59" t="s">
+      <c r="H547" s="24" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A548" s="61" t="s">
+    <row r="548" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A548" s="55">
+        <v>543</v>
+      </c>
+      <c r="B548" s="55">
+        <v>544</v>
+      </c>
+      <c r="C548" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D548" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E548" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F548" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G548" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H548" s="59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A549" s="55">
+        <v>544</v>
+      </c>
+      <c r="B549" s="55">
+        <v>545</v>
+      </c>
+      <c r="C549" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D549" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E549" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F549" s="56">
+        <v>44154</v>
+      </c>
+      <c r="G549" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H549" s="59" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A550" s="55">
+        <v>545</v>
+      </c>
+      <c r="B550" s="55">
+        <v>546</v>
+      </c>
+      <c r="C550" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D550" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E550" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="F550" s="56">
+        <v>44155</v>
+      </c>
+      <c r="G550" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H550" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A551" s="55">
+        <v>546</v>
+      </c>
+      <c r="B551" s="55">
+        <v>547</v>
+      </c>
+      <c r="C551" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D551" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E551" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F551" s="56">
+        <v>44155</v>
+      </c>
+      <c r="G551" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="H551" s="59" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A552" s="55">
+        <v>547</v>
+      </c>
+      <c r="B552" s="55">
+        <v>548</v>
+      </c>
+      <c r="C552" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D552" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E552" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F552" s="60">
+        <v>44155</v>
+      </c>
+      <c r="G552" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="H552" s="61" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A553" s="55">
+        <v>548</v>
+      </c>
+      <c r="B553" s="55">
+        <v>549</v>
+      </c>
+      <c r="C553" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D553" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E553" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F553" s="60">
+        <v>44155</v>
+      </c>
+      <c r="G553" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="H553" s="61" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A554" s="55">
+        <v>549</v>
+      </c>
+      <c r="B554" s="55">
+        <v>550</v>
+      </c>
+      <c r="C554" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D554" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E554" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F554" s="60">
+        <v>44155</v>
+      </c>
+      <c r="G554" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="H554" s="61" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A555" s="55">
+        <v>550</v>
+      </c>
+      <c r="B555" s="55">
+        <v>551</v>
+      </c>
+      <c r="C555" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D555" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E555" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F555" s="60">
+        <v>44155</v>
+      </c>
+      <c r="G555" s="58" t="s">
+        <v>583</v>
+      </c>
+      <c r="H555" s="61" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A556" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B548" s="61"/>
-      <c r="C548" s="61"/>
-      <c r="D548" s="61"/>
-      <c r="E548" s="61"/>
-      <c r="F548" s="61"/>
-      <c r="G548" s="61"/>
-      <c r="H548" s="61"/>
+      <c r="B556" s="63"/>
+      <c r="C556" s="63"/>
+      <c r="D556" s="63"/>
+      <c r="E556" s="63"/>
+      <c r="F556" s="63"/>
+      <c r="G556" s="63"/>
+      <c r="H556" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H548"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A548:H548"/>
+    <mergeCell ref="A556:H556"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201120\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201121\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$556</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$556</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$564</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$564</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="714">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6062,7 +6062,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>No.527の接触者</t>
+    <rPh sb="7" eb="10">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市154例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.547の同僚</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.530の父</t>
+    <rPh sb="7" eb="8">
+      <t>チチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.537の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群馬県内の飲食店利用</t>
+    <rPh sb="0" eb="2">
+      <t>グンマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンナイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>インショクテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6256,7 +6306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6425,22 +6475,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="56" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6794,11 +6841,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H556"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A555" sqref="A555"/>
+      <pane ySplit="2" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6813,16 +6860,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -7293,19 +7340,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="64">
+      <c r="A20" s="63">
         <v>18</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="63">
         <v>18</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="63" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -7314,23 +7361,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="65" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="67"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -20273,8 +20320,8 @@
       <c r="F519" s="20">
         <v>44149</v>
       </c>
-      <c r="G519" s="18" t="s">
-        <v>583</v>
+      <c r="G519" s="20">
+        <v>44156</v>
       </c>
       <c r="H519" s="24" t="s">
         <v>676</v>
@@ -21009,229 +21056,437 @@
       </c>
     </row>
     <row r="548" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A548" s="55">
+      <c r="A548" s="18">
         <v>543</v>
       </c>
-      <c r="B548" s="55">
+      <c r="B548" s="18">
         <v>544</v>
       </c>
-      <c r="C548" s="57" t="s">
+      <c r="C548" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D548" s="58" t="s">
+      <c r="D548" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E548" s="55" t="s">
+      <c r="E548" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F548" s="56">
+      <c r="F548" s="20">
         <v>44154</v>
       </c>
-      <c r="G548" s="55" t="s">
+      <c r="G548" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H548" s="59" t="s">
+      <c r="H548" s="24" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="549" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A549" s="55">
+      <c r="A549" s="18">
         <v>544</v>
       </c>
-      <c r="B549" s="55">
+      <c r="B549" s="18">
         <v>545</v>
       </c>
-      <c r="C549" s="57" t="s">
+      <c r="C549" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D549" s="58" t="s">
+      <c r="D549" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E549" s="55" t="s">
+      <c r="E549" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F549" s="56">
+      <c r="F549" s="20">
         <v>44154</v>
       </c>
-      <c r="G549" s="55" t="s">
+      <c r="G549" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H549" s="59" t="s">
+      <c r="H549" s="24" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="550" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A550" s="55">
+      <c r="A550" s="18">
         <v>545</v>
       </c>
-      <c r="B550" s="55">
+      <c r="B550" s="18">
         <v>546</v>
       </c>
-      <c r="C550" s="57" t="s">
+      <c r="C550" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D550" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E550" s="55" t="s">
+      <c r="D550" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E550" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="F550" s="56">
+      <c r="F550" s="20">
         <v>44155</v>
       </c>
-      <c r="G550" s="55" t="s">
+      <c r="G550" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H550" s="59" t="s">
+      <c r="H550" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="551" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A551" s="55">
+      <c r="A551" s="18">
         <v>546</v>
       </c>
-      <c r="B551" s="55">
+      <c r="B551" s="18">
         <v>547</v>
       </c>
-      <c r="C551" s="57" t="s">
+      <c r="C551" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D551" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E551" s="55" t="s">
+      <c r="D551" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E551" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="F551" s="56">
+      <c r="F551" s="20">
         <v>44155</v>
       </c>
-      <c r="G551" s="55" t="s">
+      <c r="G551" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="H551" s="59" t="s">
+      <c r="H551" s="24" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="552" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A552" s="55">
+      <c r="A552" s="18">
         <v>547</v>
       </c>
-      <c r="B552" s="55">
+      <c r="B552" s="18">
         <v>548</v>
       </c>
-      <c r="C552" s="57" t="s">
+      <c r="C552" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D552" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E552" s="58" t="s">
+      <c r="D552" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E552" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F552" s="60">
+      <c r="F552" s="22">
         <v>44155</v>
       </c>
-      <c r="G552" s="58" t="s">
+      <c r="G552" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H552" s="61" t="s">
+      <c r="H552" s="60" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="553" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A553" s="55">
+      <c r="A553" s="18">
         <v>548</v>
       </c>
-      <c r="B553" s="55">
+      <c r="B553" s="18">
         <v>549</v>
       </c>
-      <c r="C553" s="57" t="s">
+      <c r="C553" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D553" s="58" t="s">
+      <c r="D553" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E553" s="58" t="s">
+      <c r="E553" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F553" s="60">
+      <c r="F553" s="22">
         <v>44155</v>
       </c>
-      <c r="G553" s="58" t="s">
+      <c r="G553" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H553" s="61" t="s">
+      <c r="H553" s="60" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="554" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A554" s="55">
+      <c r="A554" s="18">
         <v>549</v>
       </c>
-      <c r="B554" s="55">
+      <c r="B554" s="18">
         <v>550</v>
       </c>
-      <c r="C554" s="57" t="s">
+      <c r="C554" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D554" s="58" t="s">
+      <c r="D554" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E554" s="58" t="s">
+      <c r="E554" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F554" s="60">
+      <c r="F554" s="22">
         <v>44155</v>
       </c>
-      <c r="G554" s="58" t="s">
+      <c r="G554" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H554" s="61" t="s">
+      <c r="H554" s="60" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="555" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A555" s="55">
+      <c r="A555" s="18">
         <v>550</v>
       </c>
-      <c r="B555" s="55">
+      <c r="B555" s="18">
         <v>551</v>
       </c>
-      <c r="C555" s="57" t="s">
+      <c r="C555" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D555" s="58" t="s">
+      <c r="D555" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E555" s="58" t="s">
+      <c r="E555" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F555" s="60">
+      <c r="F555" s="22">
         <v>44155</v>
       </c>
-      <c r="G555" s="58" t="s">
+      <c r="G555" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H555" s="61" t="s">
+      <c r="H555" s="60" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A556" s="63" t="s">
+    <row r="556" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A556" s="55">
+        <v>551</v>
+      </c>
+      <c r="B556" s="55">
+        <v>552</v>
+      </c>
+      <c r="C556" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D556" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E556" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F556" s="58">
+        <v>44155</v>
+      </c>
+      <c r="G556" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H556" s="59" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A557" s="55">
+        <v>552</v>
+      </c>
+      <c r="B557" s="55">
+        <v>553</v>
+      </c>
+      <c r="C557" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D557" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E557" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="F557" s="58">
+        <v>44155</v>
+      </c>
+      <c r="G557" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H557" s="59" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A558" s="55">
+        <v>553</v>
+      </c>
+      <c r="B558" s="55">
+        <v>554</v>
+      </c>
+      <c r="C558" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D558" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E558" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F558" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G558" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H558" s="59" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A559" s="55">
+        <v>554</v>
+      </c>
+      <c r="B559" s="55">
+        <v>555</v>
+      </c>
+      <c r="C559" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D559" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E559" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F559" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G559" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H559" s="59" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A560" s="55">
+        <v>555</v>
+      </c>
+      <c r="B560" s="55">
+        <v>556</v>
+      </c>
+      <c r="C560" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D560" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E560" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F560" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G560" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H560" s="59" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A561" s="55">
+        <v>556</v>
+      </c>
+      <c r="B561" s="55">
+        <v>557</v>
+      </c>
+      <c r="C561" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D561" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E561" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F561" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G561" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H561" s="59" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A562" s="55">
+        <v>557</v>
+      </c>
+      <c r="B562" s="55">
+        <v>558</v>
+      </c>
+      <c r="C562" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D562" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E562" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F562" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G562" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H562" s="59" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A563" s="55">
+        <v>558</v>
+      </c>
+      <c r="B563" s="55">
+        <v>559</v>
+      </c>
+      <c r="C563" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D563" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E563" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F563" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G563" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H563" s="59" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A564" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B556" s="63"/>
-      <c r="C556" s="63"/>
-      <c r="D556" s="63"/>
-      <c r="E556" s="63"/>
-      <c r="F556" s="63"/>
-      <c r="G556" s="63"/>
-      <c r="H556" s="63"/>
+      <c r="B564" s="62"/>
+      <c r="C564" s="62"/>
+      <c r="D564" s="62"/>
+      <c r="E564" s="62"/>
+      <c r="F564" s="62"/>
+      <c r="G564" s="62"/>
+      <c r="H564" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A556:H556"/>
+    <mergeCell ref="A564:H564"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>
@@ -21242,7 +21497,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="7" man="1"/>
     <brk id="78" max="7" man="1"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201122\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$564</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$564</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$578</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$578</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="735">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6112,6 +6112,180 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小山市</t>
+    <rPh sb="0" eb="3">
+      <t>オヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足利市</t>
+    <rPh sb="0" eb="3">
+      <t>アシカガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.563の夫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿沼市</t>
+    <rPh sb="0" eb="3">
+      <t>カヌマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくら市</t>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市155例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市159例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市160例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.548の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外に外出</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.567の子　※宇都宮市161例目</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.543の接触者　※宇都宮市157例目</t>
+    <rPh sb="7" eb="10">
+      <t>セッショクシャ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.543の接触者　※宇都宮市156例目</t>
+    <rPh sb="7" eb="10">
+      <t>セッショクシャ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市158例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6841,11 +7015,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H578"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="2" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A577" sqref="A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6856,7 +7030,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -20424,8 +20599,8 @@
       <c r="F523" s="20">
         <v>44151</v>
       </c>
-      <c r="G523" s="18" t="s">
-        <v>583</v>
+      <c r="G523" s="20">
+        <v>44157</v>
       </c>
       <c r="H523" s="24" t="s">
         <v>683</v>
@@ -21264,229 +21439,593 @@
       </c>
     </row>
     <row r="556" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A556" s="55">
+      <c r="A556" s="18">
         <v>551</v>
       </c>
-      <c r="B556" s="55">
+      <c r="B556" s="18">
         <v>552</v>
       </c>
-      <c r="C556" s="56" t="s">
+      <c r="C556" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D556" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E556" s="57" t="s">
+      <c r="D556" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E556" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F556" s="58">
+      <c r="F556" s="22">
         <v>44155</v>
       </c>
-      <c r="G556" s="57" t="s">
+      <c r="G556" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H556" s="59" t="s">
+      <c r="H556" s="60" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="557" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A557" s="55">
+      <c r="A557" s="18">
         <v>552</v>
       </c>
-      <c r="B557" s="55">
+      <c r="B557" s="18">
         <v>553</v>
       </c>
-      <c r="C557" s="56" t="s">
+      <c r="C557" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D557" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E557" s="57" t="s">
+      <c r="D557" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E557" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F557" s="58">
+      <c r="F557" s="22">
         <v>44155</v>
       </c>
-      <c r="G557" s="57" t="s">
+      <c r="G557" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H557" s="59" t="s">
+      <c r="H557" s="60" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="558" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A558" s="55">
+      <c r="A558" s="18">
         <v>553</v>
       </c>
-      <c r="B558" s="55">
+      <c r="B558" s="18">
         <v>554</v>
       </c>
-      <c r="C558" s="56" t="s">
+      <c r="C558" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D558" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E558" s="57" t="s">
+      <c r="D558" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E558" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F558" s="58">
+      <c r="F558" s="22">
         <v>44156</v>
       </c>
-      <c r="G558" s="57" t="s">
+      <c r="G558" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H558" s="59" t="s">
+      <c r="H558" s="60" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="559" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A559" s="55">
+      <c r="A559" s="18">
         <v>554</v>
       </c>
-      <c r="B559" s="55">
+      <c r="B559" s="18">
         <v>555</v>
       </c>
-      <c r="C559" s="56" t="s">
+      <c r="C559" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D559" s="57" t="s">
+      <c r="D559" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E559" s="57" t="s">
+      <c r="E559" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F559" s="58">
+      <c r="F559" s="22">
         <v>44156</v>
       </c>
-      <c r="G559" s="57" t="s">
+      <c r="G559" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H559" s="59" t="s">
+      <c r="H559" s="60" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="560" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A560" s="55">
+      <c r="A560" s="18">
         <v>555</v>
       </c>
-      <c r="B560" s="55">
+      <c r="B560" s="18">
         <v>556</v>
       </c>
-      <c r="C560" s="56" t="s">
+      <c r="C560" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D560" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E560" s="57" t="s">
+      <c r="D560" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E560" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F560" s="58">
+      <c r="F560" s="22">
         <v>44156</v>
       </c>
-      <c r="G560" s="57" t="s">
+      <c r="G560" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H560" s="59" t="s">
+      <c r="H560" s="60" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="561" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A561" s="55">
+      <c r="A561" s="18">
         <v>556</v>
       </c>
-      <c r="B561" s="55">
+      <c r="B561" s="18">
         <v>557</v>
       </c>
-      <c r="C561" s="56" t="s">
+      <c r="C561" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D561" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E561" s="57" t="s">
+      <c r="D561" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E561" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F561" s="58">
+      <c r="F561" s="22">
         <v>44156</v>
       </c>
-      <c r="G561" s="57" t="s">
+      <c r="G561" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H561" s="59" t="s">
+      <c r="H561" s="60" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="562" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A562" s="55">
+      <c r="A562" s="18">
         <v>557</v>
       </c>
-      <c r="B562" s="55">
+      <c r="B562" s="18">
         <v>558</v>
       </c>
-      <c r="C562" s="56" t="s">
+      <c r="C562" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D562" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E562" s="57" t="s">
+      <c r="D562" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E562" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F562" s="58">
+      <c r="F562" s="22">
         <v>44156</v>
       </c>
-      <c r="G562" s="57" t="s">
+      <c r="G562" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H562" s="59" t="s">
+      <c r="H562" s="60" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="563" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A563" s="55">
+      <c r="A563" s="18">
         <v>558</v>
       </c>
-      <c r="B563" s="55">
+      <c r="B563" s="18">
         <v>559</v>
       </c>
-      <c r="C563" s="56" t="s">
+      <c r="C563" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D563" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E563" s="57" t="s">
+      <c r="D563" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E563" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F563" s="58">
+      <c r="F563" s="22">
         <v>44156</v>
       </c>
-      <c r="G563" s="57" t="s">
+      <c r="G563" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H563" s="59" t="s">
+      <c r="H563" s="60" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A564" s="62" t="s">
+    <row r="564" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A564" s="55">
+        <v>559</v>
+      </c>
+      <c r="B564" s="55">
+        <v>560</v>
+      </c>
+      <c r="C564" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="D564" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="E564" s="57" t="s">
+        <v>718</v>
+      </c>
+      <c r="F564" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G564" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H564" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A565" s="55">
+        <v>560</v>
+      </c>
+      <c r="B565" s="55">
+        <v>561</v>
+      </c>
+      <c r="C565" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="D565" s="57" t="s">
+        <v>715</v>
+      </c>
+      <c r="E565" s="57" t="s">
+        <v>721</v>
+      </c>
+      <c r="F565" s="58">
+        <v>44157</v>
+      </c>
+      <c r="G565" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H565" s="59" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A566" s="55">
+        <v>561</v>
+      </c>
+      <c r="B566" s="55">
+        <v>562</v>
+      </c>
+      <c r="C566" s="56" t="s">
+        <v>714</v>
+      </c>
+      <c r="D566" s="57" t="s">
+        <v>715</v>
+      </c>
+      <c r="E566" s="57" t="s">
+        <v>724</v>
+      </c>
+      <c r="F566" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G566" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H566" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A567" s="55">
+        <v>562</v>
+      </c>
+      <c r="B567" s="55">
+        <v>563</v>
+      </c>
+      <c r="C567" s="56" t="s">
+        <v>719</v>
+      </c>
+      <c r="D567" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="E567" s="57" t="s">
+        <v>724</v>
+      </c>
+      <c r="F567" s="58">
+        <v>44157</v>
+      </c>
+      <c r="G567" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H567" s="59" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A568" s="55">
+        <v>563</v>
+      </c>
+      <c r="B568" s="55">
+        <v>564</v>
+      </c>
+      <c r="C568" s="56" t="s">
+        <v>720</v>
+      </c>
+      <c r="D568" s="57" t="s">
+        <v>715</v>
+      </c>
+      <c r="E568" s="57" t="s">
+        <v>723</v>
+      </c>
+      <c r="F568" s="58">
+        <v>44157</v>
+      </c>
+      <c r="G568" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H568" s="59" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A569" s="55">
+        <v>564</v>
+      </c>
+      <c r="B569" s="55">
+        <v>565</v>
+      </c>
+      <c r="C569" s="56" t="s">
+        <v>714</v>
+      </c>
+      <c r="D569" s="57" t="s">
+        <v>717</v>
+      </c>
+      <c r="E569" s="57" t="s">
+        <v>724</v>
+      </c>
+      <c r="F569" s="58">
+        <v>44157</v>
+      </c>
+      <c r="G569" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H569" s="59" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A570" s="55">
+        <v>565</v>
+      </c>
+      <c r="B570" s="55">
+        <v>566</v>
+      </c>
+      <c r="C570" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D570" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E570" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F570" s="58">
+        <v>44157</v>
+      </c>
+      <c r="G570" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H570" s="59" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A571" s="55">
+        <v>566</v>
+      </c>
+      <c r="B571" s="55">
+        <v>567</v>
+      </c>
+      <c r="C571" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D571" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E571" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F571" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G571" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H571" s="59" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A572" s="55">
+        <v>567</v>
+      </c>
+      <c r="B572" s="55">
+        <v>568</v>
+      </c>
+      <c r="C572" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D572" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E572" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F572" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G572" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H572" s="59" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A573" s="55">
+        <v>568</v>
+      </c>
+      <c r="B573" s="55">
+        <v>569</v>
+      </c>
+      <c r="C573" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D573" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E573" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F573" s="58">
+        <v>44156</v>
+      </c>
+      <c r="G573" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H573" s="59" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A574" s="55">
+        <v>569</v>
+      </c>
+      <c r="B574" s="55">
+        <v>570</v>
+      </c>
+      <c r="C574" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D574" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E574" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="F574" s="58">
+        <v>44157</v>
+      </c>
+      <c r="G574" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H574" s="59" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A575" s="55">
+        <v>570</v>
+      </c>
+      <c r="B575" s="55">
+        <v>571</v>
+      </c>
+      <c r="C575" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D575" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E575" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F575" s="58">
+        <v>44157</v>
+      </c>
+      <c r="G575" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H575" s="59" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A576" s="55">
+        <v>571</v>
+      </c>
+      <c r="B576" s="55">
+        <v>572</v>
+      </c>
+      <c r="C576" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D576" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E576" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F576" s="58">
+        <v>44157</v>
+      </c>
+      <c r="G576" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H576" s="59" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A577" s="55">
+        <v>572</v>
+      </c>
+      <c r="B577" s="55">
+        <v>573</v>
+      </c>
+      <c r="C577" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D577" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E577" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F577" s="58">
+        <v>44157</v>
+      </c>
+      <c r="G577" s="57" t="s">
+        <v>730</v>
+      </c>
+      <c r="H577" s="59" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A578" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B564" s="62"/>
-      <c r="C564" s="62"/>
-      <c r="D564" s="62"/>
-      <c r="E564" s="62"/>
-      <c r="F564" s="62"/>
-      <c r="G564" s="62"/>
-      <c r="H564" s="62"/>
+      <c r="B578" s="62"/>
+      <c r="C578" s="62"/>
+      <c r="D578" s="62"/>
+      <c r="E578" s="62"/>
+      <c r="F578" s="62"/>
+      <c r="G578" s="62"/>
+      <c r="H578" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A564:H564"/>
+    <mergeCell ref="A578:H578"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201122\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201123\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$578</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$578</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$579</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$579</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="737">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6285,6 +6285,29 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.559の妻　※宇都宮市162例目</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -7015,11 +7038,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H578"/>
+  <dimension ref="A1:H579"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A577" sqref="A577"/>
+      <pane ySplit="2" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G570" sqref="G570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7030,8 +7053,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21647,385 +21669,411 @@
       </c>
     </row>
     <row r="564" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A564" s="55">
+      <c r="A564" s="18">
         <v>559</v>
       </c>
-      <c r="B564" s="55">
+      <c r="B564" s="18">
         <v>560</v>
       </c>
-      <c r="C564" s="56" t="s">
+      <c r="C564" s="34" t="s">
         <v>716</v>
       </c>
-      <c r="D564" s="57" t="s">
+      <c r="D564" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="E564" s="57" t="s">
+      <c r="E564" s="19" t="s">
         <v>718</v>
       </c>
-      <c r="F564" s="58">
+      <c r="F564" s="22">
         <v>44156</v>
       </c>
-      <c r="G564" s="57" t="s">
+      <c r="G564" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H564" s="59" t="s">
+      <c r="H564" s="60" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="565" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A565" s="55">
+      <c r="A565" s="18">
         <v>560</v>
       </c>
-      <c r="B565" s="55">
+      <c r="B565" s="18">
         <v>561</v>
       </c>
-      <c r="C565" s="56" t="s">
+      <c r="C565" s="34" t="s">
         <v>716</v>
       </c>
-      <c r="D565" s="57" t="s">
+      <c r="D565" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="E565" s="57" t="s">
+      <c r="E565" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="F565" s="58">
+      <c r="F565" s="22">
         <v>44157</v>
       </c>
-      <c r="G565" s="57" t="s">
+      <c r="G565" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H565" s="59" t="s">
+      <c r="H565" s="60" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="566" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A566" s="55">
+      <c r="A566" s="18">
         <v>561</v>
       </c>
-      <c r="B566" s="55">
+      <c r="B566" s="18">
         <v>562</v>
       </c>
-      <c r="C566" s="56" t="s">
+      <c r="C566" s="34" t="s">
         <v>714</v>
       </c>
-      <c r="D566" s="57" t="s">
+      <c r="D566" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="E566" s="57" t="s">
+      <c r="E566" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="F566" s="58">
+      <c r="F566" s="22">
         <v>44156</v>
       </c>
-      <c r="G566" s="57" t="s">
+      <c r="G566" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H566" s="59" t="s">
+      <c r="H566" s="60" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="567" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A567" s="55">
+      <c r="A567" s="18">
         <v>562</v>
       </c>
-      <c r="B567" s="55">
+      <c r="B567" s="18">
         <v>563</v>
       </c>
-      <c r="C567" s="56" t="s">
+      <c r="C567" s="34" t="s">
         <v>719</v>
       </c>
-      <c r="D567" s="57" t="s">
+      <c r="D567" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="E567" s="57" t="s">
+      <c r="E567" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="F567" s="58">
+      <c r="F567" s="22">
         <v>44157</v>
       </c>
-      <c r="G567" s="57" t="s">
+      <c r="G567" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H567" s="59" t="s">
+      <c r="H567" s="60" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="568" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A568" s="55">
+      <c r="A568" s="18">
         <v>563</v>
       </c>
-      <c r="B568" s="55">
+      <c r="B568" s="18">
         <v>564</v>
       </c>
-      <c r="C568" s="56" t="s">
+      <c r="C568" s="34" t="s">
         <v>720</v>
       </c>
-      <c r="D568" s="57" t="s">
+      <c r="D568" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="E568" s="57" t="s">
+      <c r="E568" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="F568" s="58">
+      <c r="F568" s="22">
         <v>44157</v>
       </c>
-      <c r="G568" s="57" t="s">
+      <c r="G568" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H568" s="59" t="s">
+      <c r="H568" s="60" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="569" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A569" s="55">
+      <c r="A569" s="18">
         <v>564</v>
       </c>
-      <c r="B569" s="55">
+      <c r="B569" s="18">
         <v>565</v>
       </c>
-      <c r="C569" s="56" t="s">
+      <c r="C569" s="34" t="s">
         <v>714</v>
       </c>
-      <c r="D569" s="57" t="s">
+      <c r="D569" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="E569" s="57" t="s">
+      <c r="E569" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="F569" s="58">
+      <c r="F569" s="22">
         <v>44157</v>
       </c>
-      <c r="G569" s="57" t="s">
+      <c r="G569" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H569" s="59" t="s">
+      <c r="H569" s="60" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="570" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A570" s="55">
+      <c r="A570" s="18">
         <v>565</v>
       </c>
-      <c r="B570" s="55">
+      <c r="B570" s="18">
         <v>566</v>
       </c>
-      <c r="C570" s="56" t="s">
+      <c r="C570" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D570" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E570" s="57" t="s">
+      <c r="D570" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E570" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F570" s="58">
+      <c r="F570" s="22">
         <v>44157</v>
       </c>
-      <c r="G570" s="57" t="s">
+      <c r="G570" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H570" s="59" t="s">
+      <c r="H570" s="60" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="571" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A571" s="55">
+      <c r="A571" s="18">
         <v>566</v>
       </c>
-      <c r="B571" s="55">
+      <c r="B571" s="18">
         <v>567</v>
       </c>
-      <c r="C571" s="56" t="s">
+      <c r="C571" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D571" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E571" s="57" t="s">
+      <c r="D571" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E571" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F571" s="58">
+      <c r="F571" s="22">
         <v>44156</v>
       </c>
-      <c r="G571" s="57" t="s">
+      <c r="G571" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H571" s="59" t="s">
+      <c r="H571" s="60" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="572" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A572" s="55">
+      <c r="A572" s="18">
         <v>567</v>
       </c>
-      <c r="B572" s="55">
+      <c r="B572" s="18">
         <v>568</v>
       </c>
-      <c r="C572" s="56" t="s">
+      <c r="C572" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D572" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E572" s="57" t="s">
+      <c r="D572" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E572" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F572" s="58">
+      <c r="F572" s="22">
         <v>44156</v>
       </c>
-      <c r="G572" s="57" t="s">
+      <c r="G572" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H572" s="59" t="s">
+      <c r="H572" s="60" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="573" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A573" s="55">
+      <c r="A573" s="18">
         <v>568</v>
       </c>
-      <c r="B573" s="55">
+      <c r="B573" s="18">
         <v>569</v>
       </c>
-      <c r="C573" s="56" t="s">
+      <c r="C573" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D573" s="57" t="s">
+      <c r="D573" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E573" s="57" t="s">
+      <c r="E573" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F573" s="58">
+      <c r="F573" s="22">
         <v>44156</v>
       </c>
-      <c r="G573" s="57" t="s">
+      <c r="G573" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H573" s="59" t="s">
+      <c r="H573" s="60" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="574" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A574" s="55">
+      <c r="A574" s="18">
         <v>569</v>
       </c>
-      <c r="B574" s="55">
+      <c r="B574" s="18">
         <v>570</v>
       </c>
-      <c r="C574" s="56" t="s">
+      <c r="C574" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D574" s="57" t="s">
+      <c r="D574" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E574" s="57" t="s">
+      <c r="E574" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="F574" s="58">
+      <c r="F574" s="22">
         <v>44157</v>
       </c>
-      <c r="G574" s="57" t="s">
+      <c r="G574" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H574" s="59" t="s">
+      <c r="H574" s="60" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="575" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A575" s="55">
+      <c r="A575" s="18">
         <v>570</v>
       </c>
-      <c r="B575" s="55">
+      <c r="B575" s="18">
         <v>571</v>
       </c>
-      <c r="C575" s="56" t="s">
+      <c r="C575" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D575" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E575" s="57" t="s">
+      <c r="D575" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E575" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F575" s="58">
+      <c r="F575" s="22">
         <v>44157</v>
       </c>
-      <c r="G575" s="57" t="s">
+      <c r="G575" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H575" s="59" t="s">
+      <c r="H575" s="60" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="576" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A576" s="55">
+      <c r="A576" s="18">
         <v>571</v>
       </c>
-      <c r="B576" s="55">
+      <c r="B576" s="18">
         <v>572</v>
       </c>
-      <c r="C576" s="56" t="s">
+      <c r="C576" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D576" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E576" s="57" t="s">
+      <c r="D576" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E576" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F576" s="58">
+      <c r="F576" s="22">
         <v>44157</v>
       </c>
-      <c r="G576" s="57" t="s">
+      <c r="G576" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="H576" s="59" t="s">
+      <c r="H576" s="60" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="577" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A577" s="55">
+      <c r="A577" s="18">
         <v>572</v>
       </c>
-      <c r="B577" s="55">
+      <c r="B577" s="18">
         <v>573</v>
       </c>
-      <c r="C577" s="56" t="s">
+      <c r="C577" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D577" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E577" s="57" t="s">
+      <c r="D577" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E577" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F577" s="58">
+      <c r="F577" s="22">
         <v>44157</v>
       </c>
-      <c r="G577" s="57" t="s">
+      <c r="G577" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="H577" s="60" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A578" s="55">
+        <v>573</v>
+      </c>
+      <c r="B578" s="55">
+        <v>574</v>
+      </c>
+      <c r="C578" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D578" s="57" t="s">
+        <v>735</v>
+      </c>
+      <c r="E578" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F578" s="58">
+        <v>44158</v>
+      </c>
+      <c r="G578" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="H577" s="59" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A578" s="62" t="s">
+      <c r="H578" s="59" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A579" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B578" s="62"/>
-      <c r="C578" s="62"/>
-      <c r="D578" s="62"/>
-      <c r="E578" s="62"/>
-      <c r="F578" s="62"/>
-      <c r="G578" s="62"/>
-      <c r="H578" s="62"/>
+      <c r="B579" s="62"/>
+      <c r="C579" s="62"/>
+      <c r="D579" s="62"/>
+      <c r="E579" s="62"/>
+      <c r="F579" s="62"/>
+      <c r="G579" s="62"/>
+      <c r="H579" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A578:H578"/>
+    <mergeCell ref="A579:H579"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201124\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$579</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$579</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$590</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$590</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="754">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6008,16 +6008,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>県外陽性者との接触者あり ※宇都宮市149例目</t>
-    <rPh sb="14" eb="18">
-      <t>ウツノミヤシ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>レイメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.544の子</t>
     <rPh sb="7" eb="8">
       <t>コ</t>
@@ -6308,6 +6298,168 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茂木町</t>
+    <rPh sb="0" eb="3">
+      <t>モテギマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足利市</t>
+    <rPh sb="0" eb="3">
+      <t>アシカガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐野市</t>
+    <rPh sb="0" eb="3">
+      <t>サノシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.561の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外陽性判明者の夫</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外陽性者との接触あり ※宇都宮市149例目</t>
+    <rPh sb="13" eb="17">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外陽性判明者との接触あり</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市163例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市164例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市165例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市166例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市167例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -7038,11 +7190,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H579"/>
+  <dimension ref="A1:H590"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G570" sqref="G570"/>
+      <pane ySplit="2" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -19841,8 +19993,8 @@
       <c r="F493" s="20">
         <v>44134</v>
       </c>
-      <c r="G493" s="18" t="s">
-        <v>583</v>
+      <c r="G493" s="20">
+        <v>44159</v>
       </c>
       <c r="H493" s="24" t="s">
         <v>654</v>
@@ -19867,8 +20019,8 @@
       <c r="F494" s="20">
         <v>44134</v>
       </c>
-      <c r="G494" s="18" t="s">
-        <v>583</v>
+      <c r="G494" s="20">
+        <v>44159</v>
       </c>
       <c r="H494" s="24" t="s">
         <v>655</v>
@@ -20699,8 +20851,8 @@
       <c r="F526" s="20">
         <v>44151</v>
       </c>
-      <c r="G526" s="18" t="s">
-        <v>583</v>
+      <c r="G526" s="20">
+        <v>44159</v>
       </c>
       <c r="H526" s="24" t="s">
         <v>680</v>
@@ -20829,8 +20981,8 @@
       <c r="F531" s="20">
         <v>44153</v>
       </c>
-      <c r="G531" s="18" t="s">
-        <v>583</v>
+      <c r="G531" s="20">
+        <v>44159</v>
       </c>
       <c r="H531" s="24" t="s">
         <v>684</v>
@@ -21197,7 +21349,7 @@
         <v>583</v>
       </c>
       <c r="H545" s="24" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
     </row>
     <row r="546" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21301,7 +21453,7 @@
         <v>583</v>
       </c>
       <c r="H549" s="24" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="550" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21353,7 +21505,7 @@
         <v>583</v>
       </c>
       <c r="H551" s="24" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="552" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21379,7 +21531,7 @@
         <v>583</v>
       </c>
       <c r="H552" s="60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="553" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21405,7 +21557,7 @@
         <v>583</v>
       </c>
       <c r="H553" s="60" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="554" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21431,7 +21583,7 @@
         <v>583</v>
       </c>
       <c r="H554" s="60" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="555" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21457,7 +21609,7 @@
         <v>583</v>
       </c>
       <c r="H555" s="60" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="556" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21483,7 +21635,7 @@
         <v>583</v>
       </c>
       <c r="H556" s="60" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="557" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21509,7 +21661,7 @@
         <v>583</v>
       </c>
       <c r="H557" s="60" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="558" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21587,7 +21739,7 @@
         <v>583</v>
       </c>
       <c r="H560" s="60" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="561" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21613,7 +21765,7 @@
         <v>583</v>
       </c>
       <c r="H561" s="60" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="562" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21639,7 +21791,7 @@
         <v>583</v>
       </c>
       <c r="H562" s="60" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="563" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21676,19 +21828,19 @@
         <v>560</v>
       </c>
       <c r="C564" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="D564" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="D564" s="19" t="s">
+      <c r="E564" s="19" t="s">
         <v>717</v>
-      </c>
-      <c r="E564" s="19" t="s">
-        <v>718</v>
       </c>
       <c r="F564" s="22">
         <v>44156</v>
       </c>
       <c r="G564" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H564" s="60" t="s">
         <v>155</v>
@@ -21702,22 +21854,22 @@
         <v>561</v>
       </c>
       <c r="C565" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D565" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E565" s="19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F565" s="22">
         <v>44157</v>
       </c>
       <c r="G565" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H565" s="60" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="566" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21728,22 +21880,22 @@
         <v>562</v>
       </c>
       <c r="C566" s="34" t="s">
+        <v>713</v>
+      </c>
+      <c r="D566" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="D566" s="19" t="s">
-        <v>715</v>
-      </c>
       <c r="E566" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F566" s="22">
         <v>44156</v>
       </c>
       <c r="G566" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H566" s="60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="567" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21754,22 +21906,22 @@
         <v>563</v>
       </c>
       <c r="C567" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D567" s="19" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E567" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F567" s="22">
         <v>44157</v>
       </c>
       <c r="G567" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H567" s="60" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="568" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21780,22 +21932,22 @@
         <v>564</v>
       </c>
       <c r="C568" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D568" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E568" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F568" s="22">
         <v>44157</v>
       </c>
       <c r="G568" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H568" s="60" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="569" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21806,22 +21958,22 @@
         <v>565</v>
       </c>
       <c r="C569" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D569" s="19" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E569" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F569" s="22">
         <v>44157</v>
       </c>
       <c r="G569" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H569" s="60" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="570" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21844,10 +21996,10 @@
         <v>44157</v>
       </c>
       <c r="G570" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H570" s="60" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="571" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21870,10 +22022,10 @@
         <v>44156</v>
       </c>
       <c r="G571" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H571" s="60" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="572" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21896,10 +22048,10 @@
         <v>44156</v>
       </c>
       <c r="G572" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H572" s="60" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="573" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21922,10 +22074,10 @@
         <v>44156</v>
       </c>
       <c r="G573" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H573" s="60" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="574" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21948,10 +22100,10 @@
         <v>44157</v>
       </c>
       <c r="G574" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H574" s="60" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="575" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -21974,10 +22126,10 @@
         <v>44157</v>
       </c>
       <c r="G575" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H575" s="60" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="576" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -22000,10 +22152,10 @@
         <v>44157</v>
       </c>
       <c r="G576" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H576" s="60" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="577" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -22029,51 +22181,338 @@
         <v>583</v>
       </c>
       <c r="H577" s="60" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="578" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A578" s="55">
+      <c r="A578" s="18">
         <v>573</v>
       </c>
-      <c r="B578" s="55">
+      <c r="B578" s="18">
         <v>574</v>
       </c>
-      <c r="C578" s="56" t="s">
+      <c r="C578" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D578" s="57" t="s">
+      <c r="D578" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="E578" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F578" s="22">
+        <v>44158</v>
+      </c>
+      <c r="G578" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="H578" s="60" t="s">
         <v>735</v>
       </c>
-      <c r="E578" s="57" t="s">
+    </row>
+    <row r="579" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A579" s="55">
+        <v>574</v>
+      </c>
+      <c r="B579" s="55">
+        <v>575</v>
+      </c>
+      <c r="C579" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D579" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E579" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F579" s="58">
+        <v>44158</v>
+      </c>
+      <c r="G579" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H579" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A580" s="55">
+        <v>575</v>
+      </c>
+      <c r="B580" s="55">
+        <v>576</v>
+      </c>
+      <c r="C580" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D580" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E580" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F580" s="58">
+        <v>44158</v>
+      </c>
+      <c r="G580" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H580" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A581" s="55">
+        <v>576</v>
+      </c>
+      <c r="B581" s="55">
+        <v>577</v>
+      </c>
+      <c r="C581" s="56" t="s">
+        <v>736</v>
+      </c>
+      <c r="D581" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E581" s="57" t="s">
+        <v>740</v>
+      </c>
+      <c r="F581" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G581" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H581" s="59" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A582" s="55">
+        <v>577</v>
+      </c>
+      <c r="B582" s="55">
+        <v>578</v>
+      </c>
+      <c r="C582" s="56" t="s">
+        <v>737</v>
+      </c>
+      <c r="D582" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E582" s="57" t="s">
+        <v>741</v>
+      </c>
+      <c r="F582" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G582" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H582" s="59" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A583" s="55">
+        <v>578</v>
+      </c>
+      <c r="B583" s="55">
+        <v>579</v>
+      </c>
+      <c r="C583" s="56" t="s">
+        <v>738</v>
+      </c>
+      <c r="D583" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E583" s="57" t="s">
+        <v>741</v>
+      </c>
+      <c r="F583" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G583" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H583" s="59" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A584" s="55">
+        <v>579</v>
+      </c>
+      <c r="B584" s="55">
+        <v>580</v>
+      </c>
+      <c r="C584" s="56" t="s">
+        <v>739</v>
+      </c>
+      <c r="D584" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E584" s="57" t="s">
+        <v>742</v>
+      </c>
+      <c r="F584" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G584" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H584" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A585" s="55">
+        <v>580</v>
+      </c>
+      <c r="B585" s="55">
+        <v>581</v>
+      </c>
+      <c r="C585" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="D585" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E585" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F578" s="58">
-        <v>44158</v>
-      </c>
-      <c r="G578" s="57" t="s">
-        <v>730</v>
-      </c>
-      <c r="H578" s="59" t="s">
+      <c r="F585" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G585" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H585" s="59" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A586" s="55">
+        <v>581</v>
+      </c>
+      <c r="B586" s="55">
+        <v>582</v>
+      </c>
+      <c r="C586" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="D586" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E586" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F586" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G586" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H586" s="59" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A587" s="55">
+        <v>582</v>
+      </c>
+      <c r="B587" s="55">
+        <v>583</v>
+      </c>
+      <c r="C587" s="56" t="s">
+        <v>738</v>
+      </c>
+      <c r="D587" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E587" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F587" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G587" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H587" s="59" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A588" s="55">
+        <v>583</v>
+      </c>
+      <c r="B588" s="55">
+        <v>584</v>
+      </c>
+      <c r="C588" s="56" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="579" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A579" s="62" t="s">
+      <c r="D588" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E588" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F588" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G588" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H588" s="59" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A589" s="55">
+        <v>584</v>
+      </c>
+      <c r="B589" s="55">
+        <v>585</v>
+      </c>
+      <c r="C589" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="D589" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E589" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F589" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G589" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H589" s="59" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A590" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B579" s="62"/>
-      <c r="C579" s="62"/>
-      <c r="D579" s="62"/>
-      <c r="E579" s="62"/>
-      <c r="F579" s="62"/>
-      <c r="G579" s="62"/>
-      <c r="H579" s="62"/>
+      <c r="B590" s="62"/>
+      <c r="C590" s="62"/>
+      <c r="D590" s="62"/>
+      <c r="E590" s="62"/>
+      <c r="F590" s="62"/>
+      <c r="G590" s="62"/>
+      <c r="H590" s="62"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H590"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A579:H579"/>
+    <mergeCell ref="A590:H590"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201124\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201125\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$590</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$590</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$601</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$601</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="767">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6460,6 +6460,136 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外陽性判明者の妻</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.554の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.562・563の孫</t>
+    <rPh sb="11" eb="12">
+      <t>マゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.584の父　※宇都宮市168例目</t>
+    <rPh sb="7" eb="8">
+      <t>チチ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.584の母　※宇都宮市169例目</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.584の子　※宇都宮市170例目</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市172例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市173例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.585の同僚　※宇都宮市171例目</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -7190,11 +7320,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H590"/>
+  <dimension ref="A1:H601"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:R1048576"/>
+      <pane ySplit="2" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A600" sqref="A600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7205,7 +7335,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -20305,8 +20436,8 @@
       <c r="F505" s="20">
         <v>44144</v>
       </c>
-      <c r="G505" s="18" t="s">
-        <v>583</v>
+      <c r="G505" s="20">
+        <v>44160</v>
       </c>
       <c r="H505" s="24" t="s">
         <v>583</v>
@@ -20513,8 +20644,8 @@
       <c r="F513" s="20">
         <v>44148</v>
       </c>
-      <c r="G513" s="18" t="s">
-        <v>583</v>
+      <c r="G513" s="20">
+        <v>44159</v>
       </c>
       <c r="H513" s="24" t="s">
         <v>670</v>
@@ -20539,8 +20670,8 @@
       <c r="F514" s="20">
         <v>44148</v>
       </c>
-      <c r="G514" s="18" t="s">
-        <v>583</v>
+      <c r="G514" s="20">
+        <v>44160</v>
       </c>
       <c r="H514" s="24" t="s">
         <v>583</v>
@@ -20591,8 +20722,8 @@
       <c r="F516" s="20">
         <v>44148</v>
       </c>
-      <c r="G516" s="18" t="s">
-        <v>583</v>
+      <c r="G516" s="20">
+        <v>44158</v>
       </c>
       <c r="H516" s="24" t="s">
         <v>671</v>
@@ -20617,8 +20748,8 @@
       <c r="F517" s="20">
         <v>44149</v>
       </c>
-      <c r="G517" s="18" t="s">
-        <v>583</v>
+      <c r="G517" s="20">
+        <v>44157</v>
       </c>
       <c r="H517" s="24" t="s">
         <v>672</v>
@@ -20721,8 +20852,8 @@
       <c r="F521" s="20">
         <v>44150</v>
       </c>
-      <c r="G521" s="18" t="s">
-        <v>583</v>
+      <c r="G521" s="20">
+        <v>44160</v>
       </c>
       <c r="H521" s="24" t="s">
         <v>675</v>
@@ -21007,8 +21138,8 @@
       <c r="F532" s="20">
         <v>44153</v>
       </c>
-      <c r="G532" s="18" t="s">
-        <v>583</v>
+      <c r="G532" s="20">
+        <v>44157</v>
       </c>
       <c r="H532" s="24" t="s">
         <v>685</v>
@@ -21085,8 +21216,8 @@
       <c r="F535" s="20">
         <v>44154</v>
       </c>
-      <c r="G535" s="18" t="s">
-        <v>583</v>
+      <c r="G535" s="20">
+        <v>44160</v>
       </c>
       <c r="H535" s="24" t="s">
         <v>696</v>
@@ -21371,8 +21502,8 @@
       <c r="F546" s="20">
         <v>44154</v>
       </c>
-      <c r="G546" s="18" t="s">
-        <v>583</v>
+      <c r="G546" s="20">
+        <v>44159</v>
       </c>
       <c r="H546" s="24" t="s">
         <v>687</v>
@@ -21397,8 +21528,8 @@
       <c r="F547" s="20">
         <v>44154</v>
       </c>
-      <c r="G547" s="18" t="s">
-        <v>583</v>
+      <c r="G547" s="20">
+        <v>44158</v>
       </c>
       <c r="H547" s="24" t="s">
         <v>688</v>
@@ -21423,8 +21554,8 @@
       <c r="F548" s="20">
         <v>44154</v>
       </c>
-      <c r="G548" s="18" t="s">
-        <v>583</v>
+      <c r="G548" s="20">
+        <v>44160</v>
       </c>
       <c r="H548" s="24" t="s">
         <v>669</v>
@@ -21449,8 +21580,8 @@
       <c r="F549" s="20">
         <v>44154</v>
       </c>
-      <c r="G549" s="18" t="s">
-        <v>583</v>
+      <c r="G549" s="20">
+        <v>44160</v>
       </c>
       <c r="H549" s="24" t="s">
         <v>702</v>
@@ -22047,8 +22178,8 @@
       <c r="F572" s="22">
         <v>44156</v>
       </c>
-      <c r="G572" s="19" t="s">
-        <v>729</v>
+      <c r="G572" s="22">
+        <v>44159</v>
       </c>
       <c r="H572" s="60" t="s">
         <v>732</v>
@@ -22211,308 +22342,593 @@
       </c>
     </row>
     <row r="579" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A579" s="55">
+      <c r="A579" s="18">
         <v>574</v>
       </c>
-      <c r="B579" s="55">
+      <c r="B579" s="18">
         <v>575</v>
       </c>
-      <c r="C579" s="56" t="s">
+      <c r="C579" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D579" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E579" s="57" t="s">
+      <c r="D579" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E579" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F579" s="58">
+      <c r="F579" s="22">
         <v>44158</v>
       </c>
-      <c r="G579" s="57" t="s">
+      <c r="G579" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H579" s="59" t="s">
+      <c r="H579" s="60" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="580" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A580" s="55">
+      <c r="A580" s="18">
         <v>575</v>
       </c>
-      <c r="B580" s="55">
+      <c r="B580" s="18">
         <v>576</v>
       </c>
-      <c r="C580" s="56" t="s">
+      <c r="C580" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D580" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E580" s="57" t="s">
+      <c r="D580" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E580" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F580" s="58">
+      <c r="F580" s="22">
         <v>44158</v>
       </c>
-      <c r="G580" s="57" t="s">
+      <c r="G580" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H580" s="59" t="s">
+      <c r="H580" s="60" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="581" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A581" s="55">
+      <c r="A581" s="18">
         <v>576</v>
       </c>
-      <c r="B581" s="55">
+      <c r="B581" s="18">
         <v>577</v>
       </c>
-      <c r="C581" s="56" t="s">
+      <c r="C581" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="D581" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E581" s="57" t="s">
+      <c r="D581" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E581" s="19" t="s">
         <v>740</v>
       </c>
-      <c r="F581" s="58">
+      <c r="F581" s="22">
         <v>44159</v>
       </c>
-      <c r="G581" s="57" t="s">
+      <c r="G581" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H581" s="59" t="s">
+      <c r="H581" s="60" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="582" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A582" s="55">
+      <c r="A582" s="18">
         <v>577</v>
       </c>
-      <c r="B582" s="55">
+      <c r="B582" s="18">
         <v>578</v>
       </c>
-      <c r="C582" s="56" t="s">
+      <c r="C582" s="34" t="s">
         <v>737</v>
       </c>
-      <c r="D582" s="57" t="s">
+      <c r="D582" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E582" s="57" t="s">
+      <c r="E582" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="F582" s="58">
+      <c r="F582" s="22">
         <v>44159</v>
       </c>
-      <c r="G582" s="57" t="s">
+      <c r="G582" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H582" s="59" t="s">
+      <c r="H582" s="60" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="583" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A583" s="55">
+      <c r="A583" s="18">
         <v>578</v>
       </c>
-      <c r="B583" s="55">
+      <c r="B583" s="18">
         <v>579</v>
       </c>
-      <c r="C583" s="56" t="s">
+      <c r="C583" s="34" t="s">
         <v>738</v>
       </c>
-      <c r="D583" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E583" s="57" t="s">
+      <c r="D583" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E583" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="F583" s="58">
+      <c r="F583" s="22">
         <v>44159</v>
       </c>
-      <c r="G583" s="57" t="s">
+      <c r="G583" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H583" s="59" t="s">
+      <c r="H583" s="60" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="584" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A584" s="55">
+      <c r="A584" s="18">
         <v>579</v>
       </c>
-      <c r="B584" s="55">
+      <c r="B584" s="18">
         <v>580</v>
       </c>
-      <c r="C584" s="56" t="s">
+      <c r="C584" s="34" t="s">
         <v>739</v>
       </c>
-      <c r="D584" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E584" s="57" t="s">
+      <c r="D584" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E584" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="F584" s="58">
+      <c r="F584" s="22">
         <v>44159</v>
       </c>
-      <c r="G584" s="57" t="s">
+      <c r="G584" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H584" s="59" t="s">
+      <c r="H584" s="60" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="585" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A585" s="55">
+      <c r="A585" s="18">
         <v>580</v>
       </c>
-      <c r="B585" s="55">
+      <c r="B585" s="18">
         <v>581</v>
       </c>
-      <c r="C585" s="56" t="s">
+      <c r="C585" s="34" t="s">
         <v>747</v>
       </c>
-      <c r="D585" s="57" t="s">
+      <c r="D585" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E585" s="57" t="s">
+      <c r="E585" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F585" s="58">
+      <c r="F585" s="22">
         <v>44159</v>
       </c>
-      <c r="G585" s="57" t="s">
+      <c r="G585" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H585" s="59" t="s">
+      <c r="H585" s="60" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="586" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A586" s="55">
+      <c r="A586" s="18">
         <v>581</v>
       </c>
-      <c r="B586" s="55">
+      <c r="B586" s="18">
         <v>582</v>
       </c>
-      <c r="C586" s="56" t="s">
+      <c r="C586" s="34" t="s">
         <v>748</v>
       </c>
-      <c r="D586" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E586" s="57" t="s">
+      <c r="D586" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E586" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F586" s="58">
+      <c r="F586" s="22">
         <v>44159</v>
       </c>
-      <c r="G586" s="57" t="s">
+      <c r="G586" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H586" s="59" t="s">
+      <c r="H586" s="60" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="587" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A587" s="55">
+      <c r="A587" s="18">
         <v>582</v>
       </c>
-      <c r="B587" s="55">
+      <c r="B587" s="18">
         <v>583</v>
       </c>
-      <c r="C587" s="56" t="s">
+      <c r="C587" s="34" t="s">
         <v>738</v>
       </c>
-      <c r="D587" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E587" s="57" t="s">
+      <c r="D587" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E587" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F587" s="58">
+      <c r="F587" s="22">
         <v>44159</v>
       </c>
-      <c r="G587" s="57" t="s">
+      <c r="G587" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H587" s="59" t="s">
+      <c r="H587" s="60" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="588" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A588" s="55">
+      <c r="A588" s="18">
         <v>583</v>
       </c>
-      <c r="B588" s="55">
+      <c r="B588" s="18">
         <v>584</v>
       </c>
-      <c r="C588" s="56" t="s">
+      <c r="C588" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="D588" s="57" t="s">
+      <c r="D588" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E588" s="57" t="s">
+      <c r="E588" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F588" s="58">
+      <c r="F588" s="22">
         <v>44159</v>
       </c>
-      <c r="G588" s="57" t="s">
+      <c r="G588" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H588" s="59" t="s">
+      <c r="H588" s="60" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="589" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A589" s="55">
+      <c r="A589" s="18">
         <v>584</v>
       </c>
-      <c r="B589" s="55">
+      <c r="B589" s="18">
         <v>585</v>
       </c>
-      <c r="C589" s="56" t="s">
+      <c r="C589" s="34" t="s">
         <v>747</v>
       </c>
-      <c r="D589" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E589" s="57" t="s">
+      <c r="D589" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E589" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F589" s="58">
+      <c r="F589" s="22">
         <v>44159</v>
       </c>
-      <c r="G589" s="57" t="s">
+      <c r="G589" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H589" s="59" t="s">
+      <c r="H589" s="60" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A590" s="62" t="s">
+    <row r="590" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A590" s="55">
+        <v>585</v>
+      </c>
+      <c r="B590" s="55">
+        <v>586</v>
+      </c>
+      <c r="C590" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D590" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E590" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="F590" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G590" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H590" s="59" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A591" s="55">
+        <v>586</v>
+      </c>
+      <c r="B591" s="55">
+        <v>587</v>
+      </c>
+      <c r="C591" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D591" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E591" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F591" s="58">
+        <v>44159</v>
+      </c>
+      <c r="G591" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H591" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A592" s="55">
+        <v>587</v>
+      </c>
+      <c r="B592" s="55">
+        <v>588</v>
+      </c>
+      <c r="C592" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D592" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E592" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F592" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G592" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H592" s="59" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A593" s="55">
+        <v>588</v>
+      </c>
+      <c r="B593" s="55">
+        <v>589</v>
+      </c>
+      <c r="C593" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D593" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E593" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="F593" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G593" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H593" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A594" s="55">
+        <v>589</v>
+      </c>
+      <c r="B594" s="55">
+        <v>590</v>
+      </c>
+      <c r="C594" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D594" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E594" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F594" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G594" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H594" s="59" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A595" s="55">
+        <v>590</v>
+      </c>
+      <c r="B595" s="55">
+        <v>591</v>
+      </c>
+      <c r="C595" s="56" t="s">
+        <v>760</v>
+      </c>
+      <c r="D595" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E595" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F595" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G595" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H595" s="59" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A596" s="55">
+        <v>591</v>
+      </c>
+      <c r="B596" s="55">
+        <v>592</v>
+      </c>
+      <c r="C596" s="56" t="s">
+        <v>760</v>
+      </c>
+      <c r="D596" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E596" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F596" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G596" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H596" s="59" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A597" s="55">
+        <v>592</v>
+      </c>
+      <c r="B597" s="55">
+        <v>593</v>
+      </c>
+      <c r="C597" s="56" t="s">
+        <v>761</v>
+      </c>
+      <c r="D597" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E597" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F597" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G597" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H597" s="59" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A598" s="55">
+        <v>593</v>
+      </c>
+      <c r="B598" s="55">
+        <v>594</v>
+      </c>
+      <c r="C598" s="56" t="s">
+        <v>762</v>
+      </c>
+      <c r="D598" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E598" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F598" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G598" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H598" s="59" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A599" s="55">
+        <v>594</v>
+      </c>
+      <c r="B599" s="55">
+        <v>595</v>
+      </c>
+      <c r="C599" s="56" t="s">
+        <v>762</v>
+      </c>
+      <c r="D599" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E599" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F599" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G599" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H599" s="59" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A600" s="55">
+        <v>595</v>
+      </c>
+      <c r="B600" s="55">
+        <v>596</v>
+      </c>
+      <c r="C600" s="56" t="s">
+        <v>763</v>
+      </c>
+      <c r="D600" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E600" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F600" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G600" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H600" s="59" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A601" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B590" s="62"/>
-      <c r="C590" s="62"/>
-      <c r="D590" s="62"/>
-      <c r="E590" s="62"/>
-      <c r="F590" s="62"/>
-      <c r="G590" s="62"/>
-      <c r="H590" s="62"/>
+      <c r="B601" s="62"/>
+      <c r="C601" s="62"/>
+      <c r="D601" s="62"/>
+      <c r="E601" s="62"/>
+      <c r="F601" s="62"/>
+      <c r="G601" s="62"/>
+      <c r="H601" s="62"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H590"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A590:H590"/>
+    <mergeCell ref="A601:H601"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201125\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201126\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$601</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$605</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$605</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="770">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6590,6 +6590,36 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="18" eb="20">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市174例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市175例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市176例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -7320,11 +7350,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H601"/>
+  <dimension ref="A1:H605"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A600" sqref="A600"/>
+      <pane ySplit="2" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A604" sqref="A604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -20566,8 +20596,8 @@
       <c r="F510" s="20">
         <v>44146</v>
       </c>
-      <c r="G510" s="18" t="s">
-        <v>583</v>
+      <c r="G510" s="20">
+        <v>44160</v>
       </c>
       <c r="H510" s="24" t="s">
         <v>668</v>
@@ -21320,8 +21350,8 @@
       <c r="F539" s="20">
         <v>44154</v>
       </c>
-      <c r="G539" s="18" t="s">
-        <v>583</v>
+      <c r="G539" s="20">
+        <v>44161</v>
       </c>
       <c r="H539" s="24" t="s">
         <v>698</v>
@@ -21840,8 +21870,8 @@
       <c r="F559" s="22">
         <v>44156</v>
       </c>
-      <c r="G559" s="19" t="s">
-        <v>583</v>
+      <c r="G559" s="22">
+        <v>44161</v>
       </c>
       <c r="H559" s="60" t="s">
         <v>586</v>
@@ -22628,307 +22658,411 @@
       </c>
     </row>
     <row r="590" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A590" s="55">
+      <c r="A590" s="18">
         <v>585</v>
       </c>
-      <c r="B590" s="55">
+      <c r="B590" s="18">
         <v>586</v>
       </c>
-      <c r="C590" s="56" t="s">
+      <c r="C590" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D590" s="57" t="s">
+      <c r="D590" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E590" s="57" t="s">
+      <c r="E590" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="F590" s="58">
+      <c r="F590" s="22">
         <v>44159</v>
       </c>
-      <c r="G590" s="57" t="s">
+      <c r="G590" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H590" s="59" t="s">
+      <c r="H590" s="60" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="591" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A591" s="55">
+      <c r="A591" s="18">
         <v>586</v>
       </c>
-      <c r="B591" s="55">
+      <c r="B591" s="18">
         <v>587</v>
       </c>
-      <c r="C591" s="56" t="s">
+      <c r="C591" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D591" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E591" s="57" t="s">
+      <c r="D591" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E591" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F591" s="58">
+      <c r="F591" s="22">
         <v>44159</v>
       </c>
-      <c r="G591" s="57" t="s">
+      <c r="G591" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H591" s="59" t="s">
+      <c r="H591" s="60" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="592" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A592" s="55">
+      <c r="A592" s="18">
         <v>587</v>
       </c>
-      <c r="B592" s="55">
+      <c r="B592" s="18">
         <v>588</v>
       </c>
-      <c r="C592" s="56" t="s">
+      <c r="C592" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D592" s="57" t="s">
+      <c r="D592" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E592" s="57" t="s">
+      <c r="E592" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="F592" s="58">
+      <c r="F592" s="22">
         <v>44160</v>
       </c>
-      <c r="G592" s="57" t="s">
+      <c r="G592" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H592" s="59" t="s">
+      <c r="H592" s="60" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="593" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A593" s="55">
+      <c r="A593" s="18">
         <v>588</v>
       </c>
-      <c r="B593" s="55">
+      <c r="B593" s="18">
         <v>589</v>
       </c>
-      <c r="C593" s="56" t="s">
+      <c r="C593" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D593" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E593" s="57" t="s">
+      <c r="D593" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E593" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F593" s="58">
+      <c r="F593" s="22">
         <v>44160</v>
       </c>
-      <c r="G593" s="57" t="s">
+      <c r="G593" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H593" s="59" t="s">
+      <c r="H593" s="60" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="594" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A594" s="55">
+      <c r="A594" s="18">
         <v>589</v>
       </c>
-      <c r="B594" s="55">
+      <c r="B594" s="18">
         <v>590</v>
       </c>
-      <c r="C594" s="56" t="s">
+      <c r="C594" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D594" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E594" s="57" t="s">
+      <c r="D594" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E594" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F594" s="58">
+      <c r="F594" s="22">
         <v>44160</v>
       </c>
-      <c r="G594" s="57" t="s">
+      <c r="G594" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H594" s="59" t="s">
+      <c r="H594" s="60" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="595" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A595" s="55">
+      <c r="A595" s="18">
         <v>590</v>
       </c>
-      <c r="B595" s="55">
+      <c r="B595" s="18">
         <v>591</v>
       </c>
-      <c r="C595" s="56" t="s">
+      <c r="C595" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D595" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E595" s="57" t="s">
+      <c r="D595" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E595" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F595" s="58">
+      <c r="F595" s="22">
         <v>44160</v>
       </c>
-      <c r="G595" s="57" t="s">
+      <c r="G595" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H595" s="59" t="s">
+      <c r="H595" s="60" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="596" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A596" s="55">
+      <c r="A596" s="18">
         <v>591</v>
       </c>
-      <c r="B596" s="55">
+      <c r="B596" s="18">
         <v>592</v>
       </c>
-      <c r="C596" s="56" t="s">
+      <c r="C596" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="D596" s="57" t="s">
+      <c r="D596" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E596" s="57" t="s">
+      <c r="E596" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F596" s="58">
+      <c r="F596" s="22">
         <v>44160</v>
       </c>
-      <c r="G596" s="57" t="s">
+      <c r="G596" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H596" s="59" t="s">
+      <c r="H596" s="60" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="597" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A597" s="55">
+      <c r="A597" s="18">
         <v>592</v>
       </c>
-      <c r="B597" s="55">
+      <c r="B597" s="18">
         <v>593</v>
       </c>
-      <c r="C597" s="56" t="s">
+      <c r="C597" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="D597" s="57" t="s">
+      <c r="D597" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E597" s="57" t="s">
+      <c r="E597" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F597" s="58">
+      <c r="F597" s="22">
         <v>44160</v>
       </c>
-      <c r="G597" s="57" t="s">
+      <c r="G597" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H597" s="59" t="s">
+      <c r="H597" s="60" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="598" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A598" s="55">
+      <c r="A598" s="18">
         <v>593</v>
       </c>
-      <c r="B598" s="55">
+      <c r="B598" s="18">
         <v>594</v>
       </c>
-      <c r="C598" s="56" t="s">
+      <c r="C598" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="D598" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E598" s="57" t="s">
+      <c r="D598" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E598" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F598" s="58">
+      <c r="F598" s="22">
         <v>44160</v>
       </c>
-      <c r="G598" s="57" t="s">
+      <c r="G598" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H598" s="59" t="s">
+      <c r="H598" s="60" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="599" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A599" s="55">
+      <c r="A599" s="18">
         <v>594</v>
       </c>
-      <c r="B599" s="55">
+      <c r="B599" s="18">
         <v>595</v>
       </c>
-      <c r="C599" s="56" t="s">
+      <c r="C599" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="D599" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E599" s="57" t="s">
+      <c r="D599" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E599" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F599" s="58">
+      <c r="F599" s="22">
         <v>44160</v>
       </c>
-      <c r="G599" s="57" t="s">
+      <c r="G599" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H599" s="59" t="s">
+      <c r="H599" s="60" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="600" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A600" s="55">
+      <c r="A600" s="18">
         <v>595</v>
       </c>
-      <c r="B600" s="55">
+      <c r="B600" s="18">
         <v>596</v>
       </c>
-      <c r="C600" s="56" t="s">
+      <c r="C600" s="34" t="s">
         <v>763</v>
       </c>
-      <c r="D600" s="57" t="s">
+      <c r="D600" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E600" s="57" t="s">
+      <c r="E600" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F600" s="58">
+      <c r="F600" s="22">
         <v>44160</v>
       </c>
-      <c r="G600" s="57" t="s">
+      <c r="G600" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H600" s="59" t="s">
+      <c r="H600" s="60" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A601" s="62" t="s">
+    <row r="601" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A601" s="55">
+        <v>596</v>
+      </c>
+      <c r="B601" s="55">
+        <v>597</v>
+      </c>
+      <c r="C601" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D601" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E601" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F601" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G601" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H601" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A602" s="55">
+        <v>597</v>
+      </c>
+      <c r="B602" s="55">
+        <v>598</v>
+      </c>
+      <c r="C602" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D602" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E602" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F602" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G602" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H602" s="59" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A603" s="55">
+        <v>598</v>
+      </c>
+      <c r="B603" s="55">
+        <v>599</v>
+      </c>
+      <c r="C603" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D603" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E603" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F603" s="58">
+        <v>44160</v>
+      </c>
+      <c r="G603" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H603" s="59" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A604" s="55">
+        <v>599</v>
+      </c>
+      <c r="B604" s="55">
+        <v>600</v>
+      </c>
+      <c r="C604" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D604" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E604" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F604" s="58">
+        <v>44161</v>
+      </c>
+      <c r="G604" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H604" s="59" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A605" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B601" s="62"/>
-      <c r="C601" s="62"/>
-      <c r="D601" s="62"/>
-      <c r="E601" s="62"/>
-      <c r="F601" s="62"/>
-      <c r="G601" s="62"/>
-      <c r="H601" s="62"/>
+      <c r="B605" s="62"/>
+      <c r="C605" s="62"/>
+      <c r="D605" s="62"/>
+      <c r="E605" s="62"/>
+      <c r="F605" s="62"/>
+      <c r="G605" s="62"/>
+      <c r="H605" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A601:H601"/>
+    <mergeCell ref="A605:H605"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201126\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201127\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$605</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$605</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$613</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$613</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="779">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6615,7 +6615,106 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※宇都宮市176例目</t>
+    <t>県外陽性判明者の接触者</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小山市</t>
+    <rPh sb="0" eb="3">
+      <t>オヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.587の同僚</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.600の妻　※宇都宮市180例目</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.608の妻　※宇都宮市179例目</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.606の夫　※宇都宮市181例目</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.572の同僚　※宇都宮市176例目</t>
+    <rPh sb="11" eb="15">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.595の同僚　※宇都宮市177例目</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市178例目</t>
     <rPh sb="1" eb="5">
       <t>ウツノミヤシ</t>
     </rPh>
@@ -7350,11 +7449,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H605"/>
+  <dimension ref="A1:H613"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A604" sqref="A604"/>
+      <pane ySplit="2" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G606" sqref="G606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7365,8 +7464,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -20726,8 +20824,8 @@
       <c r="F515" s="20">
         <v>44148</v>
       </c>
-      <c r="G515" s="18" t="s">
-        <v>583</v>
+      <c r="G515" s="20">
+        <v>44162</v>
       </c>
       <c r="H515" s="24" t="s">
         <v>669</v>
@@ -20908,8 +21006,8 @@
       <c r="F522" s="20">
         <v>44151</v>
       </c>
-      <c r="G522" s="18" t="s">
-        <v>583</v>
+      <c r="G522" s="20">
+        <v>44160</v>
       </c>
       <c r="H522" s="24" t="s">
         <v>677</v>
@@ -21038,8 +21136,8 @@
       <c r="F527" s="20">
         <v>44152</v>
       </c>
-      <c r="G527" s="18" t="s">
-        <v>583</v>
+      <c r="G527" s="20">
+        <v>44160</v>
       </c>
       <c r="H527" s="24" t="s">
         <v>678</v>
@@ -21064,8 +21162,8 @@
       <c r="F528" s="20">
         <v>44152</v>
       </c>
-      <c r="G528" s="18" t="s">
-        <v>583</v>
+      <c r="G528" s="20">
+        <v>44160</v>
       </c>
       <c r="H528" s="24" t="s">
         <v>679</v>
@@ -21116,8 +21214,8 @@
       <c r="F530" s="20">
         <v>44152</v>
       </c>
-      <c r="G530" s="18" t="s">
-        <v>583</v>
+      <c r="G530" s="20">
+        <v>44162</v>
       </c>
       <c r="H530" s="24" t="s">
         <v>583</v>
@@ -21376,8 +21474,8 @@
       <c r="F540" s="20">
         <v>44154</v>
       </c>
-      <c r="G540" s="18" t="s">
-        <v>583</v>
+      <c r="G540" s="20">
+        <v>44162</v>
       </c>
       <c r="H540" s="24" t="s">
         <v>699</v>
@@ -22944,125 +23042,332 @@
       </c>
     </row>
     <row r="601" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A601" s="55">
+      <c r="A601" s="18">
         <v>596</v>
       </c>
-      <c r="B601" s="55">
+      <c r="B601" s="18">
         <v>597</v>
       </c>
-      <c r="C601" s="56" t="s">
+      <c r="C601" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D601" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E601" s="57" t="s">
+      <c r="D601" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E601" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F601" s="58">
+      <c r="F601" s="22">
         <v>44160</v>
       </c>
-      <c r="G601" s="57" t="s">
+      <c r="G601" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H601" s="59" t="s">
+      <c r="H601" s="60" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="602" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A602" s="55">
+      <c r="A602" s="18">
         <v>597</v>
       </c>
-      <c r="B602" s="55">
+      <c r="B602" s="18">
         <v>598</v>
       </c>
-      <c r="C602" s="56" t="s">
+      <c r="C602" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D602" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E602" s="57" t="s">
+      <c r="D602" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E602" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F602" s="58">
+      <c r="F602" s="22">
         <v>44160</v>
       </c>
-      <c r="G602" s="57" t="s">
+      <c r="G602" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H602" s="59" t="s">
+      <c r="H602" s="60" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="603" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A603" s="55">
+      <c r="A603" s="18">
         <v>598</v>
       </c>
-      <c r="B603" s="55">
+      <c r="B603" s="18">
         <v>599</v>
       </c>
-      <c r="C603" s="56" t="s">
+      <c r="C603" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D603" s="57" t="s">
+      <c r="D603" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E603" s="57" t="s">
+      <c r="E603" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F603" s="58">
+      <c r="F603" s="22">
         <v>44160</v>
       </c>
-      <c r="G603" s="57" t="s">
+      <c r="G603" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H603" s="59" t="s">
+      <c r="H603" s="60" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="604" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A604" s="55">
+      <c r="A604" s="18">
         <v>599</v>
       </c>
-      <c r="B604" s="55">
+      <c r="B604" s="18">
         <v>600</v>
       </c>
-      <c r="C604" s="56" t="s">
+      <c r="C604" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D604" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E604" s="57" t="s">
+      <c r="D604" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E604" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F604" s="58">
+      <c r="F604" s="22">
         <v>44161</v>
       </c>
-      <c r="G604" s="57" t="s">
+      <c r="G604" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="H604" s="59" t="s">
+      <c r="H604" s="60" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A605" s="55">
+        <v>600</v>
+      </c>
+      <c r="B605" s="55">
+        <v>601</v>
+      </c>
+      <c r="C605" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D605" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E605" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F605" s="58">
+        <v>44161</v>
+      </c>
+      <c r="G605" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H605" s="59" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A606" s="55">
+        <v>601</v>
+      </c>
+      <c r="B606" s="55">
+        <v>602</v>
+      </c>
+      <c r="C606" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D606" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E606" s="57"/>
+      <c r="F606" s="58">
+        <v>44161</v>
+      </c>
+      <c r="G606" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H606" s="59" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A607" s="55">
+        <v>602</v>
+      </c>
+      <c r="B607" s="55">
+        <v>603</v>
+      </c>
+      <c r="C607" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D607" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E607" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F607" s="58">
+        <v>44161</v>
+      </c>
+      <c r="G607" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H607" s="59" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A605" s="62" t="s">
+    <row r="608" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A608" s="55">
+        <v>603</v>
+      </c>
+      <c r="B608" s="55">
+        <v>604</v>
+      </c>
+      <c r="C608" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D608" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E608" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F608" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G608" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H608" s="59" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A609" s="55">
+        <v>604</v>
+      </c>
+      <c r="B609" s="55">
+        <v>605</v>
+      </c>
+      <c r="C609" s="56" t="s">
+        <v>770</v>
+      </c>
+      <c r="D609" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E609" s="57" t="s">
+        <v>771</v>
+      </c>
+      <c r="F609" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G609" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H609" s="59" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A610" s="55">
+        <v>605</v>
+      </c>
+      <c r="B610" s="55">
+        <v>606</v>
+      </c>
+      <c r="C610" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D610" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E610" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F610" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G610" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H610" s="59" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A611" s="55">
+        <v>606</v>
+      </c>
+      <c r="B611" s="55">
+        <v>607</v>
+      </c>
+      <c r="C611" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D611" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E611" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F611" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G611" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H611" s="59" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A612" s="55">
+        <v>607</v>
+      </c>
+      <c r="B612" s="55">
+        <v>608</v>
+      </c>
+      <c r="C612" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D612" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E612" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F612" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G612" s="57" t="s">
+        <v>583</v>
+      </c>
+      <c r="H612" s="59" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A613" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B605" s="62"/>
-      <c r="C605" s="62"/>
-      <c r="D605" s="62"/>
-      <c r="E605" s="62"/>
-      <c r="F605" s="62"/>
-      <c r="G605" s="62"/>
-      <c r="H605" s="62"/>
+      <c r="B613" s="62"/>
+      <c r="C613" s="62"/>
+      <c r="D613" s="62"/>
+      <c r="E613" s="62"/>
+      <c r="F613" s="62"/>
+      <c r="G613" s="62"/>
+      <c r="H613" s="62"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H613"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A605:H605"/>
+    <mergeCell ref="A613:H613"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201127\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201128\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$613</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$613</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$625</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$625</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="799">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6715,6 +6715,149 @@
   </si>
   <si>
     <t>※宇都宮市178例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大田原市</t>
+    <rPh sb="0" eb="4">
+      <t>オオタワラシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足利市</t>
+    <rPh sb="0" eb="3">
+      <t>アシカガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真岡市</t>
+    <rPh sb="0" eb="3">
+      <t>モオカシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足利市</t>
+    <rPh sb="0" eb="3">
+      <t>アシカガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃木市</t>
+    <rPh sb="0" eb="3">
+      <t>トチギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県外陽性判明者の接触者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.520・521の接触者</t>
+    <rPh sb="11" eb="14">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.604の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.587・604の同僚</t>
+    <rPh sb="11" eb="13">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.619の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.610の夫　※宇都宮市182例目</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市183例目</t>
     <rPh sb="1" eb="5">
       <t>ウツノミヤシ</t>
     </rPh>
@@ -6914,7 +7057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7098,6 +7241,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7178,6 +7324,61 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>184098</xdr:colOff>
+      <xdr:row>625</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1114186</xdr:colOff>
+      <xdr:row>628</xdr:row>
+      <xdr:rowOff>257736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066686" y="138818470"/>
+          <a:ext cx="3541059" cy="1176619"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>空欄のセルにはスペースを入力してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7449,11 +7650,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H613"/>
+  <dimension ref="A1:H625"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G606" sqref="G606"/>
+      <pane ySplit="2" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7468,16 +7669,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
@@ -7948,19 +8149,19 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="63">
+      <c r="A20" s="64">
         <v>18</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="64">
         <v>18</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="8">
@@ -7969,23 +8170,23 @@
       <c r="G20" s="8">
         <v>43959</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="66" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="14">
         <v>43973</v>
       </c>
       <c r="G21" s="8">
         <v>43990</v>
       </c>
-      <c r="H21" s="66"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -21500,8 +21701,8 @@
       <c r="F541" s="20">
         <v>44154</v>
       </c>
-      <c r="G541" s="18" t="s">
-        <v>583</v>
+      <c r="G541" s="20">
+        <v>44163</v>
       </c>
       <c r="H541" s="24" t="s">
         <v>699</v>
@@ -23146,228 +23347,527 @@
       </c>
     </row>
     <row r="605" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A605" s="55">
+      <c r="A605" s="27">
         <v>600</v>
       </c>
-      <c r="B605" s="55">
+      <c r="B605" s="27">
         <v>601</v>
       </c>
-      <c r="C605" s="56" t="s">
+      <c r="C605" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D605" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E605" s="57" t="s">
+      <c r="D605" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E605" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F605" s="58">
+      <c r="F605" s="26">
         <v>44161</v>
       </c>
-      <c r="G605" s="57" t="s">
+      <c r="G605" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="H605" s="59" t="s">
+      <c r="H605" s="61" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="606" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A606" s="55">
+      <c r="A606" s="27">
         <v>601</v>
       </c>
-      <c r="B606" s="55">
+      <c r="B606" s="27">
         <v>602</v>
       </c>
-      <c r="C606" s="56" t="s">
+      <c r="C606" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D606" s="57" t="s">
+      <c r="D606" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E606" s="57"/>
-      <c r="F606" s="58">
+      <c r="E606" s="25"/>
+      <c r="F606" s="26">
         <v>44161</v>
       </c>
-      <c r="G606" s="57" t="s">
+      <c r="G606" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="H606" s="59" t="s">
+      <c r="H606" s="61" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="607" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A607" s="55">
+      <c r="A607" s="27">
         <v>602</v>
       </c>
-      <c r="B607" s="55">
+      <c r="B607" s="27">
         <v>603</v>
       </c>
-      <c r="C607" s="56" t="s">
+      <c r="C607" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D607" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E607" s="57" t="s">
+      <c r="D607" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E607" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="F607" s="58">
+      <c r="F607" s="26">
         <v>44161</v>
       </c>
-      <c r="G607" s="57" t="s">
+      <c r="G607" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="H607" s="59" t="s">
+      <c r="H607" s="61" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="608" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A608" s="55">
+      <c r="A608" s="27">
         <v>603</v>
       </c>
-      <c r="B608" s="55">
+      <c r="B608" s="27">
         <v>604</v>
       </c>
-      <c r="C608" s="56" t="s">
+      <c r="C608" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D608" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E608" s="57" t="s">
+      <c r="D608" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E608" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F608" s="58">
+      <c r="F608" s="26">
         <v>44162</v>
       </c>
-      <c r="G608" s="57" t="s">
+      <c r="G608" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="H608" s="59" t="s">
+      <c r="H608" s="61" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="609" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A609" s="55">
+      <c r="A609" s="27">
         <v>604</v>
       </c>
-      <c r="B609" s="55">
+      <c r="B609" s="27">
         <v>605</v>
       </c>
-      <c r="C609" s="56" t="s">
+      <c r="C609" s="35" t="s">
         <v>770</v>
       </c>
-      <c r="D609" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E609" s="57" t="s">
+      <c r="D609" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E609" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="F609" s="58">
+      <c r="F609" s="26">
         <v>44162</v>
       </c>
-      <c r="G609" s="57" t="s">
+      <c r="G609" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="H609" s="59" t="s">
+      <c r="H609" s="61" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="610" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A610" s="55">
+      <c r="A610" s="27">
         <v>605</v>
       </c>
-      <c r="B610" s="55">
+      <c r="B610" s="27">
         <v>606</v>
       </c>
-      <c r="C610" s="56" t="s">
+      <c r="C610" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D610" s="57" t="s">
+      <c r="D610" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E610" s="57" t="s">
+      <c r="E610" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F610" s="58">
+      <c r="F610" s="26">
         <v>44162</v>
       </c>
-      <c r="G610" s="57" t="s">
+      <c r="G610" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="H610" s="59" t="s">
+      <c r="H610" s="61" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="611" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A611" s="55">
+      <c r="A611" s="27">
         <v>606</v>
       </c>
-      <c r="B611" s="55">
+      <c r="B611" s="27">
         <v>607</v>
       </c>
-      <c r="C611" s="56" t="s">
+      <c r="C611" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D611" s="57" t="s">
+      <c r="D611" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E611" s="57" t="s">
+      <c r="E611" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F611" s="58">
+      <c r="F611" s="26">
         <v>44162</v>
       </c>
-      <c r="G611" s="57" t="s">
+      <c r="G611" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="H611" s="59" t="s">
+      <c r="H611" s="61" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="612" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A612" s="55">
+      <c r="A612" s="27">
         <v>607</v>
       </c>
-      <c r="B612" s="55">
+      <c r="B612" s="27">
         <v>608</v>
       </c>
-      <c r="C612" s="56" t="s">
+      <c r="C612" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D612" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E612" s="57" t="s">
+      <c r="D612" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E612" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F612" s="58">
+      <c r="F612" s="26">
         <v>44162</v>
       </c>
-      <c r="G612" s="57" t="s">
+      <c r="G612" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="H612" s="59" t="s">
+      <c r="H612" s="61" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A613" s="62" t="s">
+    <row r="613" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A613" s="55">
+        <v>608</v>
+      </c>
+      <c r="B613" s="55">
+        <v>609</v>
+      </c>
+      <c r="C613" s="56" t="s">
+        <v>787</v>
+      </c>
+      <c r="D613" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E613" s="57" t="s">
+        <v>788</v>
+      </c>
+      <c r="F613" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G613" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H613" s="59" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A614" s="55">
+        <v>609</v>
+      </c>
+      <c r="B614" s="55">
+        <v>610</v>
+      </c>
+      <c r="C614" s="56" t="s">
+        <v>787</v>
+      </c>
+      <c r="D614" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E614" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F614" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G614" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H614" s="59" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A615" s="55">
+        <v>610</v>
+      </c>
+      <c r="B615" s="55">
+        <v>611</v>
+      </c>
+      <c r="C615" s="56" t="s">
+        <v>789</v>
+      </c>
+      <c r="D615" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E615" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F615" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G615" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H615" s="59" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A616" s="55">
+        <v>611</v>
+      </c>
+      <c r="B616" s="55">
+        <v>612</v>
+      </c>
+      <c r="C616" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="D616" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E616" s="57" t="s">
+        <v>779</v>
+      </c>
+      <c r="F616" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G616" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H616" s="59" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A617" s="55">
+        <v>612</v>
+      </c>
+      <c r="B617" s="55">
+        <v>613</v>
+      </c>
+      <c r="C617" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="D617" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E617" s="57" t="s">
+        <v>780</v>
+      </c>
+      <c r="F617" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G617" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H617" s="59"/>
+    </row>
+    <row r="618" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A618" s="55">
+        <v>613</v>
+      </c>
+      <c r="B618" s="55">
+        <v>614</v>
+      </c>
+      <c r="C618" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="D618" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E618" s="57" t="s">
+        <v>780</v>
+      </c>
+      <c r="F618" s="58">
+        <v>44162</v>
+      </c>
+      <c r="G618" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H618" s="59"/>
+    </row>
+    <row r="619" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A619" s="55">
+        <v>614</v>
+      </c>
+      <c r="B619" s="55">
+        <v>615</v>
+      </c>
+      <c r="C619" s="56" t="s">
+        <v>782</v>
+      </c>
+      <c r="D619" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E619" s="57" t="s">
+        <v>783</v>
+      </c>
+      <c r="F619" s="58">
+        <v>44163</v>
+      </c>
+      <c r="G619" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H619" s="59"/>
+    </row>
+    <row r="620" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A620" s="55">
+        <v>615</v>
+      </c>
+      <c r="B620" s="55">
+        <v>616</v>
+      </c>
+      <c r="C620" s="56" t="s">
+        <v>784</v>
+      </c>
+      <c r="D620" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E620" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F620" s="58">
+        <v>44163</v>
+      </c>
+      <c r="G620" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H620" s="59" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A621" s="55">
+        <v>616</v>
+      </c>
+      <c r="B621" s="55">
+        <v>617</v>
+      </c>
+      <c r="C621" s="56" t="s">
+        <v>785</v>
+      </c>
+      <c r="D621" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E621" s="57" t="s">
+        <v>786</v>
+      </c>
+      <c r="F621" s="58">
+        <v>44163</v>
+      </c>
+      <c r="G621" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H621" s="59" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A622" s="55">
+        <v>617</v>
+      </c>
+      <c r="B622" s="55">
+        <v>618</v>
+      </c>
+      <c r="C622" s="56" t="s">
+        <v>782</v>
+      </c>
+      <c r="D622" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E622" s="57" t="s">
+        <v>786</v>
+      </c>
+      <c r="F622" s="58">
+        <v>44163</v>
+      </c>
+      <c r="G622" s="57" t="s">
+        <v>791</v>
+      </c>
+      <c r="H622" s="59"/>
+    </row>
+    <row r="623" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A623" s="55">
+        <v>618</v>
+      </c>
+      <c r="B623" s="55">
+        <v>619</v>
+      </c>
+      <c r="C623" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D623" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E623" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F623" s="58">
+        <v>44163</v>
+      </c>
+      <c r="G623" s="57"/>
+      <c r="H623" s="59" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A624" s="55">
+        <v>619</v>
+      </c>
+      <c r="B624" s="55">
+        <v>620</v>
+      </c>
+      <c r="C624" s="56" t="s">
+        <v>795</v>
+      </c>
+      <c r="D624" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E624" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F624" s="58">
+        <v>44163</v>
+      </c>
+      <c r="G624" s="57"/>
+      <c r="H624" s="59" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A625" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B613" s="62"/>
-      <c r="C613" s="62"/>
-      <c r="D613" s="62"/>
-      <c r="E613" s="62"/>
-      <c r="F613" s="62"/>
-      <c r="G613" s="62"/>
-      <c r="H613" s="62"/>
+      <c r="B625" s="63"/>
+      <c r="C625" s="63"/>
+      <c r="D625" s="63"/>
+      <c r="E625" s="63"/>
+      <c r="F625" s="63"/>
+      <c r="G625" s="63"/>
+      <c r="H625" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H613"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A613:H613"/>
+    <mergeCell ref="A625:H625"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="821">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -7815,7 +7815,7 @@
   <dimension ref="A1:H644"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A643" sqref="A643"/>
     </sheetView>
   </sheetViews>
@@ -23548,7 +23548,9 @@
       <c r="D606" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E606" s="25"/>
+      <c r="E606" s="25" t="s">
+        <v>815</v>
+      </c>
       <c r="F606" s="26">
         <v>44161</v>
       </c>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201130\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201201\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$644</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$644</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$670</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$670</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="845">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -6902,48 +6902,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.604･609･621･622･625の同僚</t>
-    <rPh sb="23" eb="25">
-      <t>ドウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.587･609･621･622･625の同僚</t>
-    <rPh sb="23" eb="25">
-      <t>ドウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.587･604･621･622･625の同僚</t>
-    <rPh sb="23" eb="25">
-      <t>ドウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.587･604･609･622･625の同僚</t>
-    <rPh sb="23" eb="25">
-      <t>ドウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.587･604･609･621･625の同僚</t>
-    <rPh sb="23" eb="25">
-      <t>ドウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.587･604･609･621･622の同僚</t>
-    <rPh sb="23" eb="25">
-      <t>ドウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>他県陽性判明者の接触者　※宇都宮市184例目</t>
     <rPh sb="0" eb="7">
       <t>タケンヨウセイハンメイシャ</t>
@@ -7080,6 +7038,317 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>※宇都宮市190例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県陽性判明者の接触者</t>
+    <rPh sb="0" eb="2">
+      <t>タケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンメイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃木市</t>
+    <rPh sb="0" eb="3">
+      <t>トチギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.609の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小山市</t>
+    <rPh sb="0" eb="3">
+      <t>オヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.604･609･621･622･625･653･654の同僚</t>
+    <rPh sb="31" eb="33">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.587･609･621･622･625･653･654の同僚</t>
+    <rPh sb="31" eb="33">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.587･604･609･621･622･625の同僚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.587･604･609･621･622･653の同僚</t>
+    <rPh sb="27" eb="29">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.587･604･609･621･625･653の同僚</t>
+    <rPh sb="27" eb="29">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.587･604･609･622･625･653の同僚</t>
+    <rPh sb="27" eb="29">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.587･604･621･622･625･653の同僚</t>
+    <rPh sb="27" eb="29">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.639の妻　※宇都宮市189例目</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.643･644･645･646･647･648･649･650･651･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･644･645･646･647･648･649･650･651･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･645･646･647･648･649･650･651･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･644･646･647･648･649･650･651･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･644･645･647･648･649･650･651･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･644･645･646･648･649･650･651･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･644･645･646･647･649･650･651･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･644･645･646･647･648･650･651･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･644･645･646･647･648･649･651･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･644･645･646･647･648･649･650･652と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･644･645･646･647･648･649･650･651と同施設利用者</t>
+    <rPh sb="43" eb="44">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.661･662･663と同施設利用者</t>
+    <rPh sb="15" eb="16">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.660･662･663と同施設利用者</t>
+    <rPh sb="15" eb="16">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.660･661･663と同施設利用者</t>
+    <rPh sb="15" eb="16">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.660･661･662の利用施設の職員</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショクイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7812,11 +8081,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H644"/>
+  <dimension ref="A1:H670"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A643" sqref="A643"/>
+      <pane ySplit="2" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A669" sqref="A669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -21656,8 +21925,8 @@
       <c r="F533" s="20">
         <v>44153</v>
       </c>
-      <c r="G533" s="18" t="s">
-        <v>582</v>
+      <c r="G533" s="20">
+        <v>44165</v>
       </c>
       <c r="H533" s="24" t="s">
         <v>603</v>
@@ -21734,8 +22003,8 @@
       <c r="F536" s="20">
         <v>44154</v>
       </c>
-      <c r="G536" s="18" t="s">
-        <v>582</v>
+      <c r="G536" s="20">
+        <v>44166</v>
       </c>
       <c r="H536" s="24" t="s">
         <v>693</v>
@@ -21760,8 +22029,8 @@
       <c r="F537" s="20">
         <v>44154</v>
       </c>
-      <c r="G537" s="18" t="s">
-        <v>582</v>
+      <c r="G537" s="20">
+        <v>44166</v>
       </c>
       <c r="H537" s="24" t="s">
         <v>694</v>
@@ -22462,8 +22731,8 @@
       <c r="F564" s="22">
         <v>44156</v>
       </c>
-      <c r="G564" s="19" t="s">
-        <v>728</v>
+      <c r="G564" s="22">
+        <v>44166</v>
       </c>
       <c r="H564" s="60" t="s">
         <v>155</v>
@@ -22644,8 +22913,8 @@
       <c r="F571" s="22">
         <v>44156</v>
       </c>
-      <c r="G571" s="19" t="s">
-        <v>728</v>
+      <c r="G571" s="22">
+        <v>44165</v>
       </c>
       <c r="H571" s="60" t="s">
         <v>723</v>
@@ -22800,8 +23069,8 @@
       <c r="F577" s="22">
         <v>44157</v>
       </c>
-      <c r="G577" s="19" t="s">
-        <v>582</v>
+      <c r="G577" s="22">
+        <v>44166</v>
       </c>
       <c r="H577" s="60" t="s">
         <v>729</v>
@@ -23008,8 +23277,8 @@
       <c r="F585" s="22">
         <v>44159</v>
       </c>
-      <c r="G585" s="19" t="s">
-        <v>582</v>
+      <c r="G585" s="22">
+        <v>44165</v>
       </c>
       <c r="H585" s="60" t="s">
         <v>748</v>
@@ -23168,7 +23437,7 @@
         <v>582</v>
       </c>
       <c r="H591" s="60" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
     </row>
     <row r="592" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -23528,8 +23797,8 @@
       <c r="F605" s="26">
         <v>44161</v>
       </c>
-      <c r="G605" s="25" t="s">
-        <v>582</v>
+      <c r="G605" s="26">
+        <v>44166</v>
       </c>
       <c r="H605" s="61" t="s">
         <v>775</v>
@@ -23549,7 +23818,7 @@
         <v>66</v>
       </c>
       <c r="E606" s="25" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F606" s="26">
         <v>44161</v>
@@ -23610,7 +23879,7 @@
         <v>582</v>
       </c>
       <c r="H608" s="60" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
     </row>
     <row r="609" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -23740,7 +24009,7 @@
         <v>789</v>
       </c>
       <c r="H613" s="60" t="s">
-        <v>806</v>
+        <v>827</v>
       </c>
     </row>
     <row r="614" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -23841,7 +24110,7 @@
         <v>44162</v>
       </c>
       <c r="G617" s="19" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="H617" s="60"/>
     </row>
@@ -23865,7 +24134,7 @@
         <v>44162</v>
       </c>
       <c r="G618" s="19" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="H618" s="60"/>
     </row>
@@ -23889,7 +24158,7 @@
         <v>44163</v>
       </c>
       <c r="G619" s="19" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="H619" s="60"/>
     </row>
@@ -23913,7 +24182,7 @@
         <v>44163</v>
       </c>
       <c r="G620" s="19" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="H620" s="60" t="s">
         <v>791</v>
@@ -23939,7 +24208,7 @@
         <v>44163</v>
       </c>
       <c r="G621" s="19" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="H621" s="60" t="s">
         <v>788</v>
@@ -23965,7 +24234,7 @@
         <v>44163</v>
       </c>
       <c r="G622" s="19" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="H622" s="60"/>
     </row>
@@ -23988,7 +24257,9 @@
       <c r="F623" s="22">
         <v>44163</v>
       </c>
-      <c r="G623" s="19"/>
+      <c r="G623" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H623" s="60" t="s">
         <v>794</v>
       </c>
@@ -24012,7 +24283,9 @@
       <c r="F624" s="22">
         <v>44163</v>
       </c>
-      <c r="G624" s="19"/>
+      <c r="G624" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H624" s="60" t="s">
         <v>795</v>
       </c>
@@ -24036,9 +24309,11 @@
       <c r="F625" s="22">
         <v>44163</v>
       </c>
-      <c r="G625" s="19"/>
+      <c r="G625" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H625" s="60" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
     </row>
     <row r="626" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -24060,9 +24335,11 @@
       <c r="F626" s="22">
         <v>44163</v>
       </c>
-      <c r="G626" s="19"/>
+      <c r="G626" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H626" s="60" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="627" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -24084,7 +24361,9 @@
       <c r="F627" s="22">
         <v>44163</v>
       </c>
-      <c r="G627" s="19"/>
+      <c r="G627" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H627" s="60" t="s">
         <v>796</v>
       </c>
@@ -24108,7 +24387,9 @@
       <c r="F628" s="22">
         <v>44163</v>
       </c>
-      <c r="G628" s="19"/>
+      <c r="G628" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H628" s="60" t="s">
         <v>797</v>
       </c>
@@ -24132,9 +24413,11 @@
       <c r="F629" s="22">
         <v>44164</v>
       </c>
-      <c r="G629" s="19"/>
+      <c r="G629" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H629" s="60" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
     </row>
     <row r="630" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -24145,18 +24428,20 @@
         <v>626</v>
       </c>
       <c r="C630" s="34" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D630" s="19" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E630" s="19" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F630" s="22">
         <v>44164</v>
       </c>
-      <c r="G630" s="19"/>
+      <c r="G630" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H630" s="60" t="s">
         <v>582</v>
       </c>
@@ -24180,9 +24465,11 @@
       <c r="F631" s="22">
         <v>44164</v>
       </c>
-      <c r="G631" s="19"/>
+      <c r="G631" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H631" s="60" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="632" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -24204,7 +24491,9 @@
       <c r="F632" s="22">
         <v>44164</v>
       </c>
-      <c r="G632" s="19"/>
+      <c r="G632" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H632" s="60" t="s">
         <v>798</v>
       </c>
@@ -24228,7 +24517,9 @@
       <c r="F633" s="22">
         <v>44164</v>
       </c>
-      <c r="G633" s="19"/>
+      <c r="G633" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H633" s="60" t="s">
         <v>799</v>
       </c>
@@ -24252,7 +24543,9 @@
       <c r="F634" s="22">
         <v>44164</v>
       </c>
-      <c r="G634" s="19"/>
+      <c r="G634" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H634" s="60" t="s">
         <v>800</v>
       </c>
@@ -24276,7 +24569,9 @@
       <c r="F635" s="22">
         <v>44164</v>
       </c>
-      <c r="G635" s="19"/>
+      <c r="G635" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H635" s="60" t="s">
         <v>800</v>
       </c>
@@ -24300,9 +24595,11 @@
       <c r="F636" s="22">
         <v>44164</v>
       </c>
-      <c r="G636" s="19"/>
+      <c r="G636" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H636" s="60" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="637" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -24324,9 +24621,11 @@
       <c r="F637" s="22">
         <v>44164</v>
       </c>
-      <c r="G637" s="19"/>
+      <c r="G637" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H637" s="60" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="638" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -24348,9 +24647,11 @@
       <c r="F638" s="22">
         <v>44164</v>
       </c>
-      <c r="G638" s="19"/>
+      <c r="G638" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="H638" s="60" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="639" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -24372,123 +24673,807 @@
       <c r="F639" s="22">
         <v>44164</v>
       </c>
-      <c r="G639" s="19"/>
+      <c r="G639" s="22">
+        <v>44166</v>
+      </c>
       <c r="H639" s="60" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A640" s="18">
+        <v>635</v>
+      </c>
+      <c r="B640" s="18">
+        <v>636</v>
+      </c>
+      <c r="C640" s="34" t="s">
+        <v>810</v>
+      </c>
+      <c r="D640" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E640" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F640" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G640" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H640" s="60" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A641" s="18">
+        <v>636</v>
+      </c>
+      <c r="B641" s="18">
+        <v>637</v>
+      </c>
+      <c r="C641" s="34" t="s">
+        <v>811</v>
+      </c>
+      <c r="D641" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E641" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F641" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G641" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H641" s="60" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="640" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A640" s="55">
-        <v>635</v>
-      </c>
-      <c r="B640" s="55">
-        <v>636</v>
-      </c>
-      <c r="C640" s="56" t="s">
+    <row r="642" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A642" s="18">
+        <v>637</v>
+      </c>
+      <c r="B642" s="18">
+        <v>638</v>
+      </c>
+      <c r="C642" s="34" t="s">
+        <v>811</v>
+      </c>
+      <c r="D642" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E642" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F642" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G642" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H642" s="60" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A643" s="18">
+        <v>638</v>
+      </c>
+      <c r="B643" s="18">
+        <v>639</v>
+      </c>
+      <c r="C643" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D643" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E643" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F643" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G643" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H643" s="60" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A644" s="55">
+        <v>639</v>
+      </c>
+      <c r="B644" s="55">
+        <v>640</v>
+      </c>
+      <c r="C644" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D644" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E644" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F644" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G644" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H644" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A645" s="55">
+        <v>640</v>
+      </c>
+      <c r="B645" s="55">
+        <v>641</v>
+      </c>
+      <c r="C645" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D645" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E645" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F645" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G645" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H645" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A646" s="55">
+        <v>641</v>
+      </c>
+      <c r="B646" s="55">
+        <v>642</v>
+      </c>
+      <c r="C646" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D646" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E646" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F646" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G646" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H646" s="59" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A647" s="55">
+        <v>642</v>
+      </c>
+      <c r="B647" s="55">
+        <v>643</v>
+      </c>
+      <c r="C647" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D647" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E647" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F647" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G647" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H647" s="59" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A648" s="55">
+        <v>643</v>
+      </c>
+      <c r="B648" s="55">
+        <v>644</v>
+      </c>
+      <c r="C648" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D648" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E648" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F648" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G648" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H648" s="59" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A649" s="55">
+        <v>644</v>
+      </c>
+      <c r="B649" s="55">
+        <v>645</v>
+      </c>
+      <c r="C649" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D649" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E649" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F649" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G649" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H649" s="59" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A650" s="55">
+        <v>645</v>
+      </c>
+      <c r="B650" s="55">
+        <v>646</v>
+      </c>
+      <c r="C650" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D650" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E650" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F650" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G650" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H650" s="59" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A651" s="55">
+        <v>646</v>
+      </c>
+      <c r="B651" s="55">
+        <v>647</v>
+      </c>
+      <c r="C651" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D651" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E651" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F651" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G651" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H651" s="59" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A652" s="55">
+        <v>647</v>
+      </c>
+      <c r="B652" s="55">
+        <v>648</v>
+      </c>
+      <c r="C652" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D652" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E652" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F652" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G652" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H652" s="59" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A653" s="55">
+        <v>648</v>
+      </c>
+      <c r="B653" s="55">
+        <v>649</v>
+      </c>
+      <c r="C653" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D653" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E653" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F653" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G653" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H653" s="59" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A654" s="55">
+        <v>649</v>
+      </c>
+      <c r="B654" s="55">
+        <v>650</v>
+      </c>
+      <c r="C654" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D654" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E654" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F654" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G654" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H654" s="59" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A655" s="55">
+        <v>650</v>
+      </c>
+      <c r="B655" s="55">
+        <v>651</v>
+      </c>
+      <c r="C655" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D655" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E655" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F655" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G655" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H655" s="59" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A656" s="55">
+        <v>651</v>
+      </c>
+      <c r="B656" s="55">
+        <v>652</v>
+      </c>
+      <c r="C656" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D656" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E656" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F656" s="58">
+        <v>44165</v>
+      </c>
+      <c r="G656" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H656" s="59" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A657" s="55">
+        <v>652</v>
+      </c>
+      <c r="B657" s="55">
+        <v>653</v>
+      </c>
+      <c r="C657" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D657" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E657" s="57" t="s">
+        <v>820</v>
+      </c>
+      <c r="F657" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G657" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H657" s="59" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A658" s="55">
+        <v>653</v>
+      </c>
+      <c r="B658" s="55">
+        <v>654</v>
+      </c>
+      <c r="C658" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D658" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E658" s="57" t="s">
+        <v>818</v>
+      </c>
+      <c r="F658" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G658" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H658" s="59" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A659" s="55">
+        <v>654</v>
+      </c>
+      <c r="B659" s="55">
+        <v>655</v>
+      </c>
+      <c r="C659" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D659" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E659" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F659" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G659" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H659" s="59" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A660" s="55">
+        <v>655</v>
+      </c>
+      <c r="B660" s="55">
+        <v>656</v>
+      </c>
+      <c r="C660" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D660" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E660" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F660" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G660" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H660" s="59" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A661" s="55">
+        <v>656</v>
+      </c>
+      <c r="B661" s="55">
+        <v>657</v>
+      </c>
+      <c r="C661" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D661" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E661" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F661" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G661" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H661" s="59" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A662" s="55">
+        <v>657</v>
+      </c>
+      <c r="B662" s="55">
+        <v>658</v>
+      </c>
+      <c r="C662" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D662" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E662" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F662" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G662" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H662" s="59" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A663" s="55">
+        <v>658</v>
+      </c>
+      <c r="B663" s="55">
+        <v>659</v>
+      </c>
+      <c r="C663" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D663" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E663" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F663" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G663" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H663" s="59"/>
+    </row>
+    <row r="664" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A664" s="55">
+        <v>659</v>
+      </c>
+      <c r="B664" s="55">
+        <v>660</v>
+      </c>
+      <c r="C664" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D664" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E664" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F664" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G664" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H664" s="59" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A665" s="55">
+        <v>660</v>
+      </c>
+      <c r="B665" s="55">
+        <v>661</v>
+      </c>
+      <c r="C665" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D665" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E665" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F665" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G665" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H665" s="59" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A666" s="55">
+        <v>661</v>
+      </c>
+      <c r="B666" s="55">
+        <v>662</v>
+      </c>
+      <c r="C666" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="D666" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E666" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F666" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G666" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H666" s="59" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A667" s="55">
+        <v>662</v>
+      </c>
+      <c r="B667" s="55">
+        <v>663</v>
+      </c>
+      <c r="C667" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D667" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E667" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F667" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G667" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H667" s="59" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A668" s="55">
+        <v>663</v>
+      </c>
+      <c r="B668" s="55">
+        <v>664</v>
+      </c>
+      <c r="C668" s="56" t="s">
+        <v>828</v>
+      </c>
+      <c r="D668" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E668" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F668" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G668" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H668" s="59" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A669" s="55">
+        <v>664</v>
+      </c>
+      <c r="B669" s="55">
+        <v>665</v>
+      </c>
+      <c r="C669" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D669" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E669" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F669" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G669" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H669" s="59" t="s">
         <v>816</v>
       </c>
-      <c r="D640" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E640" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="F640" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G640" s="57"/>
-      <c r="H640" s="59" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="641" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A641" s="55">
-        <v>636</v>
-      </c>
-      <c r="B641" s="55">
-        <v>637</v>
-      </c>
-      <c r="C641" s="56" t="s">
-        <v>817</v>
-      </c>
-      <c r="D641" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E641" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="F641" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G641" s="57"/>
-      <c r="H641" s="59" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="642" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A642" s="55">
-        <v>637</v>
-      </c>
-      <c r="B642" s="55">
-        <v>638</v>
-      </c>
-      <c r="C642" s="56" t="s">
-        <v>817</v>
-      </c>
-      <c r="D642" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E642" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="F642" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G642" s="57"/>
-      <c r="H642" s="59" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="643" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A643" s="55">
-        <v>638</v>
-      </c>
-      <c r="B643" s="55">
-        <v>639</v>
-      </c>
-      <c r="C643" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D643" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E643" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="F643" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G643" s="57"/>
-      <c r="H643" s="59" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="644" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A644" s="63" t="s">
+    </row>
+    <row r="670" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A670" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B644" s="63"/>
-      <c r="C644" s="63"/>
-      <c r="D644" s="63"/>
-      <c r="E644" s="63"/>
-      <c r="F644" s="63"/>
-      <c r="G644" s="63"/>
-      <c r="H644" s="63"/>
+      <c r="B670" s="63"/>
+      <c r="C670" s="63"/>
+      <c r="D670" s="63"/>
+      <c r="E670" s="63"/>
+      <c r="F670" s="63"/>
+      <c r="G670" s="63"/>
+      <c r="H670" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A644:H644"/>
+    <mergeCell ref="A670:H670"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201201\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201202\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$670</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$670</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$694</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$694</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="873">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -7158,197 +7158,369 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.643･644･645･646･647･648･649･650･651･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <t>※宇都宮市191例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市192例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市193例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.640の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.658の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･676～685の施設関係者</t>
+    <rPh sb="23" eb="25">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･644･645･646･647･648･649･650･651･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="25" eb="28">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675･677～685の施設関係者</t>
+    <rPh sb="27" eb="29">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･643･645･646･647･648･649･650･651･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="29" eb="32">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675･676･678～685の施設関係者</t>
+    <rPh sb="31" eb="33">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･643･644･646･647･648･649･650･651･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="33" eb="36">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675～678･680～685の施設関係者</t>
+    <rPh sb="31" eb="33">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･643･644･645･647･648･649･650･651･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="33" eb="36">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675～679･681～685の施設関係者</t>
+    <rPh sb="31" eb="33">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･643･644･645･646･648･649･650･651･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="33" eb="36">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675～680･682～685の施設関係者</t>
+    <rPh sb="31" eb="33">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･643･644･645･646･647･649･650･651･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="33" eb="36">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675～681･683～685の施設関係者</t>
+    <rPh sb="31" eb="33">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･643･644･645･646･647･648･650･651･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="33" eb="36">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675～682･684･685の施設関係者</t>
+    <rPh sb="31" eb="33">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･643･644･645･646･647･648･649･651･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="33" eb="36">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675～683･685の施設関係者</t>
+    <rPh sb="27" eb="29">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･643･644･645･646･647･648･649･650･652と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="29" eb="32">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･675～685の施設関係者</t>
+    <rPh sb="19" eb="21">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.642･643･644･645･646･647･648･649･650･651と同施設利用者</t>
-    <rPh sb="43" eb="44">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="21" eb="24">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675～677･679～685の施設関係者</t>
+    <rPh sb="31" eb="33">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.661･662･663と同施設利用者</t>
-    <rPh sb="15" eb="16">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="33" eb="36">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.685の母</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.668の夫　※宇都宮市194例目</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～652･669･675～684の施設関係者、No.686の子</t>
+    <rPh sb="23" eb="25">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="18" eb="21">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.660･662･663と同施設利用者</t>
-    <rPh sb="15" eb="16">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="25" eb="28">
+      <t>カンケイシャ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.643～652･669･675～685の施設関係者</t>
+    <rPh sb="23" eb="28">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･644～652･669･675～685の施設関係者</t>
+    <rPh sb="27" eb="32">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642･643･645～652･669･675～685の施設関係者</t>
+    <rPh sb="31" eb="36">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～644･646～652･669･675～685の施設関係者</t>
+    <rPh sb="31" eb="36">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～645･647～652･669･675～685の施設関係者</t>
+    <rPh sb="31" eb="36">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～646･648～652･669･675～685の施設関係者</t>
+    <rPh sb="31" eb="36">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～647･649～652･669･675～685の施設関係者</t>
+    <rPh sb="31" eb="36">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～648･650～652･669･675～685の施設関係者</t>
+    <rPh sb="31" eb="36">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～649･651･652･669･675～685の施設関係者</t>
+    <rPh sb="31" eb="36">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～650･652･669･675～685の施設関係者</t>
+    <rPh sb="27" eb="32">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.642～651･669･675～685の施設関係者</t>
+    <rPh sb="23" eb="28">
+      <t>シセツカンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.660･661･662･663の施設関係者</t>
+    <rPh sb="19" eb="21">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="18" eb="21">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.660･661･663と同施設利用者</t>
-    <rPh sb="15" eb="16">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="21" eb="24">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.661･662･663･688の施設関係者</t>
+    <rPh sb="19" eb="21">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="18" eb="21">
-      <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.660･661･662の利用施設の職員</t>
-    <rPh sb="15" eb="17">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="21" eb="24">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.660･662･663･688の施設関係者</t>
+    <rPh sb="19" eb="21">
       <t>シセツ</t>
     </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショクイン</t>
+    <rPh sb="21" eb="24">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.660･661･663･688の施設関係者</t>
+    <rPh sb="19" eb="21">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.660･661･662･688の施設関係者</t>
+    <rPh sb="19" eb="21">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>カンケイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8081,11 +8253,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H670"/>
+  <dimension ref="A1:H694"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A658" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A669" sqref="A669"/>
+      <pane ySplit="2" topLeftCell="A681" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A693" sqref="A693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -22367,8 +22539,8 @@
       <c r="F550" s="20">
         <v>44155</v>
       </c>
-      <c r="G550" s="18" t="s">
-        <v>582</v>
+      <c r="G550" s="20">
+        <v>44167</v>
       </c>
       <c r="H550" s="24" t="s">
         <v>155</v>
@@ -23095,8 +23267,8 @@
       <c r="F578" s="22">
         <v>44158</v>
       </c>
-      <c r="G578" s="19" t="s">
-        <v>728</v>
+      <c r="G578" s="22">
+        <v>44167</v>
       </c>
       <c r="H578" s="60" t="s">
         <v>734</v>
@@ -23329,8 +23501,8 @@
       <c r="F587" s="22">
         <v>44159</v>
       </c>
-      <c r="G587" s="19" t="s">
-        <v>582</v>
+      <c r="G587" s="22">
+        <v>44167</v>
       </c>
       <c r="H587" s="60" t="s">
         <v>750</v>
@@ -23355,8 +23527,8 @@
       <c r="F588" s="22">
         <v>44159</v>
       </c>
-      <c r="G588" s="19" t="s">
-        <v>582</v>
+      <c r="G588" s="22">
+        <v>44167</v>
       </c>
       <c r="H588" s="60" t="s">
         <v>751</v>
@@ -23589,8 +23761,8 @@
       <c r="F597" s="22">
         <v>44160</v>
       </c>
-      <c r="G597" s="19" t="s">
-        <v>582</v>
+      <c r="G597" s="22">
+        <v>44166</v>
       </c>
       <c r="H597" s="60" t="s">
         <v>758</v>
@@ -24257,8 +24429,8 @@
       <c r="F623" s="22">
         <v>44163</v>
       </c>
-      <c r="G623" s="19" t="s">
-        <v>815</v>
+      <c r="G623" s="22">
+        <v>44167</v>
       </c>
       <c r="H623" s="60" t="s">
         <v>794</v>
@@ -24785,695 +24957,1320 @@
       </c>
     </row>
     <row r="644" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A644" s="55">
+      <c r="A644" s="18">
         <v>639</v>
       </c>
-      <c r="B644" s="55">
+      <c r="B644" s="18">
         <v>640</v>
       </c>
-      <c r="C644" s="56" t="s">
+      <c r="C644" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D644" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E644" s="57" t="s">
+      <c r="D644" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E644" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F644" s="58">
+      <c r="F644" s="22">
         <v>44165</v>
       </c>
-      <c r="G644" s="57" t="s">
+      <c r="G644" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H644" s="59" t="s">
+      <c r="H644" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="645" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A645" s="55">
+      <c r="A645" s="18">
         <v>640</v>
       </c>
-      <c r="B645" s="55">
+      <c r="B645" s="18">
         <v>641</v>
       </c>
-      <c r="C645" s="56" t="s">
+      <c r="C645" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D645" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E645" s="57" t="s">
+      <c r="D645" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E645" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="F645" s="58">
+      <c r="F645" s="22">
         <v>44165</v>
       </c>
-      <c r="G645" s="57" t="s">
+      <c r="G645" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H645" s="59" t="s">
+      <c r="H645" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="646" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A646" s="55">
+      <c r="A646" s="18">
         <v>641</v>
       </c>
-      <c r="B646" s="55">
+      <c r="B646" s="18">
         <v>642</v>
       </c>
-      <c r="C646" s="56" t="s">
+      <c r="C646" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D646" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E646" s="57" t="s">
+      <c r="D646" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E646" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F646" s="58">
+      <c r="F646" s="22">
         <v>44165</v>
       </c>
-      <c r="G646" s="57" t="s">
+      <c r="G646" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H646" s="59" t="s">
+      <c r="H646" s="60" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A647" s="18">
+        <v>642</v>
+      </c>
+      <c r="B647" s="18">
+        <v>643</v>
+      </c>
+      <c r="C647" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D647" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E647" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F647" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G647" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H647" s="60" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A648" s="18">
+        <v>643</v>
+      </c>
+      <c r="B648" s="18">
+        <v>644</v>
+      </c>
+      <c r="C648" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D648" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E648" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F648" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G648" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H648" s="60" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A649" s="18">
+        <v>644</v>
+      </c>
+      <c r="B649" s="18">
+        <v>645</v>
+      </c>
+      <c r="C649" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D649" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E649" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F649" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G649" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H649" s="60" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A650" s="18">
+        <v>645</v>
+      </c>
+      <c r="B650" s="18">
+        <v>646</v>
+      </c>
+      <c r="C650" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D650" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E650" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F650" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G650" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H650" s="60" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A651" s="18">
+        <v>646</v>
+      </c>
+      <c r="B651" s="18">
+        <v>647</v>
+      </c>
+      <c r="C651" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D651" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E651" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F651" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G651" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H651" s="60" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A652" s="18">
+        <v>647</v>
+      </c>
+      <c r="B652" s="18">
+        <v>648</v>
+      </c>
+      <c r="C652" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D652" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E652" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F652" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G652" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H652" s="60" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A653" s="18">
+        <v>648</v>
+      </c>
+      <c r="B653" s="18">
+        <v>649</v>
+      </c>
+      <c r="C653" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D653" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E653" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F653" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G653" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H653" s="60" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A654" s="18">
+        <v>649</v>
+      </c>
+      <c r="B654" s="18">
+        <v>650</v>
+      </c>
+      <c r="C654" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D654" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E654" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F654" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G654" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H654" s="60" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A655" s="18">
+        <v>650</v>
+      </c>
+      <c r="B655" s="18">
+        <v>651</v>
+      </c>
+      <c r="C655" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D655" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E655" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F655" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G655" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H655" s="60" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A656" s="18">
+        <v>651</v>
+      </c>
+      <c r="B656" s="18">
+        <v>652</v>
+      </c>
+      <c r="C656" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D656" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E656" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F656" s="22">
+        <v>44165</v>
+      </c>
+      <c r="G656" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H656" s="60" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A657" s="18">
+        <v>652</v>
+      </c>
+      <c r="B657" s="18">
+        <v>653</v>
+      </c>
+      <c r="C657" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D657" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E657" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="F657" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G657" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H657" s="60" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A658" s="18">
+        <v>653</v>
+      </c>
+      <c r="B658" s="18">
+        <v>654</v>
+      </c>
+      <c r="C658" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D658" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E658" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="F658" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G658" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H658" s="60" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A659" s="18">
+        <v>654</v>
+      </c>
+      <c r="B659" s="18">
+        <v>655</v>
+      </c>
+      <c r="C659" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D659" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E659" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F659" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G659" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H659" s="60" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A660" s="18">
+        <v>655</v>
+      </c>
+      <c r="B660" s="18">
+        <v>656</v>
+      </c>
+      <c r="C660" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D660" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E660" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F660" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G660" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H660" s="60" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A661" s="18">
+        <v>656</v>
+      </c>
+      <c r="B661" s="18">
+        <v>657</v>
+      </c>
+      <c r="C661" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D661" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E661" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F661" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G661" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H661" s="60" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A662" s="18">
+        <v>657</v>
+      </c>
+      <c r="B662" s="18">
+        <v>658</v>
+      </c>
+      <c r="C662" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D662" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E662" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F662" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G662" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H662" s="60" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A663" s="18">
+        <v>658</v>
+      </c>
+      <c r="B663" s="18">
+        <v>659</v>
+      </c>
+      <c r="C663" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D663" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E663" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F663" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G663" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H663" s="60"/>
+    </row>
+    <row r="664" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A664" s="18">
+        <v>659</v>
+      </c>
+      <c r="B664" s="18">
+        <v>660</v>
+      </c>
+      <c r="C664" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D664" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E664" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F664" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G664" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H664" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A665" s="18">
+        <v>660</v>
+      </c>
+      <c r="B665" s="18">
+        <v>661</v>
+      </c>
+      <c r="C665" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D665" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E665" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F665" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G665" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H665" s="60" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A666" s="18">
+        <v>661</v>
+      </c>
+      <c r="B666" s="18">
+        <v>662</v>
+      </c>
+      <c r="C666" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D666" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E666" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F666" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G666" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H666" s="60" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A667" s="18">
+        <v>662</v>
+      </c>
+      <c r="B667" s="18">
+        <v>663</v>
+      </c>
+      <c r="C667" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D667" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E667" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F667" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G667" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H667" s="60" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A668" s="18">
+        <v>663</v>
+      </c>
+      <c r="B668" s="18">
+        <v>664</v>
+      </c>
+      <c r="C668" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="D668" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E668" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F668" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G668" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H668" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A669" s="18">
+        <v>664</v>
+      </c>
+      <c r="B669" s="18">
+        <v>665</v>
+      </c>
+      <c r="C669" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D669" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E669" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F669" s="22">
+        <v>44166</v>
+      </c>
+      <c r="G669" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="H669" s="60" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A670" s="55">
+        <v>665</v>
+      </c>
+      <c r="B670" s="55">
+        <v>666</v>
+      </c>
+      <c r="C670" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D670" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E670" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F670" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G670" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H670" s="59" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="647" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A647" s="55">
-        <v>642</v>
-      </c>
-      <c r="B647" s="55">
-        <v>643</v>
-      </c>
-      <c r="C647" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="D647" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E647" s="57" t="s">
+    <row r="671" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A671" s="55">
+        <v>666</v>
+      </c>
+      <c r="B671" s="55">
+        <v>667</v>
+      </c>
+      <c r="C671" s="56" t="s">
+        <v>833</v>
+      </c>
+      <c r="D671" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E671" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F671" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G671" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H671" s="59" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A672" s="55">
+        <v>667</v>
+      </c>
+      <c r="B672" s="55">
+        <v>668</v>
+      </c>
+      <c r="C672" s="56" t="s">
+        <v>833</v>
+      </c>
+      <c r="D672" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E672" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F672" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G672" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H672" s="59" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A673" s="55">
+        <v>668</v>
+      </c>
+      <c r="B673" s="55">
+        <v>669</v>
+      </c>
+      <c r="C673" s="56" t="s">
+        <v>834</v>
+      </c>
+      <c r="D673" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E673" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F673" s="58">
+        <v>44166</v>
+      </c>
+      <c r="G673" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H673" s="59" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A674" s="55">
+        <v>669</v>
+      </c>
+      <c r="B674" s="55">
+        <v>670</v>
+      </c>
+      <c r="C674" s="56" t="s">
+        <v>833</v>
+      </c>
+      <c r="D674" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E674" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F674" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G674" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H674" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A675" s="55">
+        <v>670</v>
+      </c>
+      <c r="B675" s="55">
+        <v>671</v>
+      </c>
+      <c r="C675" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D675" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E675" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="F647" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G647" s="57" t="s">
+      <c r="F675" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G675" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="H647" s="59" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="648" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A648" s="55">
-        <v>643</v>
-      </c>
-      <c r="B648" s="55">
-        <v>644</v>
-      </c>
-      <c r="C648" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D648" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E648" s="57" t="s">
+      <c r="H675" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A676" s="55">
+        <v>671</v>
+      </c>
+      <c r="B676" s="55">
+        <v>672</v>
+      </c>
+      <c r="C676" s="56" t="s">
+        <v>833</v>
+      </c>
+      <c r="D676" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E676" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="F648" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G648" s="57" t="s">
+      <c r="F676" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G676" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="H648" s="59" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="649" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A649" s="55">
-        <v>644</v>
-      </c>
-      <c r="B649" s="55">
-        <v>645</v>
-      </c>
-      <c r="C649" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="D649" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E649" s="57" t="s">
+      <c r="H676" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A677" s="55">
+        <v>672</v>
+      </c>
+      <c r="B677" s="55">
+        <v>673</v>
+      </c>
+      <c r="C677" s="56" t="s">
+        <v>835</v>
+      </c>
+      <c r="D677" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E677" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="F649" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G649" s="57" t="s">
+      <c r="F677" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G677" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="H649" s="59" t="s">
+      <c r="H677" s="59" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A678" s="55">
+        <v>673</v>
+      </c>
+      <c r="B678" s="55">
+        <v>674</v>
+      </c>
+      <c r="C678" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D678" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E678" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F678" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G678" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H678" s="59" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A679" s="55">
+        <v>674</v>
+      </c>
+      <c r="B679" s="55">
+        <v>675</v>
+      </c>
+      <c r="C679" s="56" t="s">
+        <v>836</v>
+      </c>
+      <c r="D679" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E679" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F679" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G679" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H679" s="59" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A680" s="55">
+        <v>675</v>
+      </c>
+      <c r="B680" s="55">
+        <v>676</v>
+      </c>
+      <c r="C680" s="56" t="s">
+        <v>837</v>
+      </c>
+      <c r="D680" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E680" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F680" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G680" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H680" s="59" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A681" s="55">
+        <v>676</v>
+      </c>
+      <c r="B681" s="55">
+        <v>677</v>
+      </c>
+      <c r="C681" s="56" t="s">
+        <v>836</v>
+      </c>
+      <c r="D681" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E681" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F681" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G681" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H681" s="59" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A682" s="55">
+        <v>677</v>
+      </c>
+      <c r="B682" s="55">
+        <v>678</v>
+      </c>
+      <c r="C682" s="56" t="s">
+        <v>838</v>
+      </c>
+      <c r="D682" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E682" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F682" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G682" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H682" s="59" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A683" s="55">
+        <v>678</v>
+      </c>
+      <c r="B683" s="55">
+        <v>679</v>
+      </c>
+      <c r="C683" s="56" t="s">
+        <v>834</v>
+      </c>
+      <c r="D683" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E683" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F683" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G683" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H683" s="59" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A684" s="55">
+        <v>679</v>
+      </c>
+      <c r="B684" s="55">
+        <v>680</v>
+      </c>
+      <c r="C684" s="56" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="650" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A650" s="55">
-        <v>645</v>
-      </c>
-      <c r="B650" s="55">
-        <v>646</v>
-      </c>
-      <c r="C650" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D650" s="57" t="s">
+      <c r="D684" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E650" s="57" t="s">
+      <c r="E684" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="F650" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G650" s="57" t="s">
+      <c r="F684" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G684" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="H650" s="59" t="s">
+      <c r="H684" s="59" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A685" s="55">
+        <v>680</v>
+      </c>
+      <c r="B685" s="55">
+        <v>681</v>
+      </c>
+      <c r="C685" s="56" t="s">
+        <v>837</v>
+      </c>
+      <c r="D685" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E685" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F685" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G685" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H685" s="59" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A686" s="55">
+        <v>681</v>
+      </c>
+      <c r="B686" s="55">
+        <v>682</v>
+      </c>
+      <c r="C686" s="56" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="651" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A651" s="55">
-        <v>646</v>
-      </c>
-      <c r="B651" s="55">
-        <v>647</v>
-      </c>
-      <c r="C651" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="D651" s="57" t="s">
+      <c r="D686" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E651" s="57" t="s">
+      <c r="E686" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="F651" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G651" s="57" t="s">
+      <c r="F686" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G686" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="H651" s="59" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="652" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A652" s="55">
-        <v>647</v>
-      </c>
-      <c r="B652" s="55">
-        <v>648</v>
-      </c>
-      <c r="C652" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D652" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E652" s="57" t="s">
+      <c r="H686" s="59" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A687" s="55">
+        <v>682</v>
+      </c>
+      <c r="B687" s="55">
+        <v>683</v>
+      </c>
+      <c r="C687" s="56" t="s">
+        <v>834</v>
+      </c>
+      <c r="D687" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E687" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="F652" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G652" s="57" t="s">
+      <c r="F687" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G687" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="H652" s="59" t="s">
+      <c r="H687" s="59" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A688" s="55">
+        <v>683</v>
+      </c>
+      <c r="B688" s="55">
+        <v>684</v>
+      </c>
+      <c r="C688" s="56" t="s">
+        <v>838</v>
+      </c>
+      <c r="D688" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E688" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F688" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G688" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H688" s="59" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A689" s="55">
+        <v>684</v>
+      </c>
+      <c r="B689" s="55">
+        <v>685</v>
+      </c>
+      <c r="C689" s="56" t="s">
+        <v>833</v>
+      </c>
+      <c r="D689" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E689" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F689" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G689" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H689" s="59" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A690" s="55">
+        <v>685</v>
+      </c>
+      <c r="B690" s="55">
+        <v>686</v>
+      </c>
+      <c r="C690" s="56" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="653" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A653" s="55">
-        <v>648</v>
-      </c>
-      <c r="B653" s="55">
-        <v>649</v>
-      </c>
-      <c r="C653" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D653" s="57" t="s">
+      <c r="D690" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E653" s="57" t="s">
+      <c r="E690" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="F653" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G653" s="57" t="s">
+      <c r="F690" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G690" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="H653" s="59" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="654" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A654" s="55">
-        <v>649</v>
-      </c>
-      <c r="B654" s="55">
-        <v>650</v>
-      </c>
-      <c r="C654" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D654" s="57" t="s">
+      <c r="H690" s="59" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A691" s="55">
+        <v>686</v>
+      </c>
+      <c r="B691" s="55">
+        <v>687</v>
+      </c>
+      <c r="C691" s="56" t="s">
+        <v>853</v>
+      </c>
+      <c r="D691" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E654" s="57" t="s">
+      <c r="E691" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F691" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G691" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H691" s="59" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A692" s="55">
+        <v>687</v>
+      </c>
+      <c r="B692" s="55">
+        <v>688</v>
+      </c>
+      <c r="C692" s="56" t="s">
+        <v>853</v>
+      </c>
+      <c r="D692" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E692" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="F654" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G654" s="57" t="s">
+      <c r="F692" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G692" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="H654" s="59" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="655" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A655" s="55">
-        <v>650</v>
-      </c>
-      <c r="B655" s="55">
-        <v>651</v>
-      </c>
-      <c r="C655" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D655" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E655" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F655" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G655" s="57" t="s">
+      <c r="H692" s="59" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A693" s="55">
+        <v>688</v>
+      </c>
+      <c r="B693" s="55">
+        <v>689</v>
+      </c>
+      <c r="C693" s="56" t="s">
+        <v>833</v>
+      </c>
+      <c r="D693" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E693" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F693" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G693" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="H655" s="59" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="656" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A656" s="55">
-        <v>651</v>
-      </c>
-      <c r="B656" s="55">
-        <v>652</v>
-      </c>
-      <c r="C656" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="D656" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E656" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F656" s="58">
-        <v>44165</v>
-      </c>
-      <c r="G656" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H656" s="59" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="657" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A657" s="55">
-        <v>652</v>
-      </c>
-      <c r="B657" s="55">
-        <v>653</v>
-      </c>
-      <c r="C657" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D657" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E657" s="57" t="s">
-        <v>820</v>
-      </c>
-      <c r="F657" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G657" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H657" s="59" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="658" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A658" s="55">
-        <v>653</v>
-      </c>
-      <c r="B658" s="55">
-        <v>654</v>
-      </c>
-      <c r="C658" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D658" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E658" s="57" t="s">
-        <v>818</v>
-      </c>
-      <c r="F658" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G658" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H658" s="59" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="659" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A659" s="55">
-        <v>654</v>
-      </c>
-      <c r="B659" s="55">
-        <v>655</v>
-      </c>
-      <c r="C659" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="D659" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E659" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F659" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G659" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H659" s="59" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="660" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A660" s="55">
-        <v>655</v>
-      </c>
-      <c r="B660" s="55">
-        <v>656</v>
-      </c>
-      <c r="C660" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D660" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E660" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F660" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G660" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H660" s="59" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="661" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A661" s="55">
-        <v>656</v>
-      </c>
-      <c r="B661" s="55">
-        <v>657</v>
-      </c>
-      <c r="C661" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D661" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E661" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F661" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G661" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H661" s="59" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="662" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A662" s="55">
-        <v>657</v>
-      </c>
-      <c r="B662" s="55">
-        <v>658</v>
-      </c>
-      <c r="C662" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D662" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E662" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="F662" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G662" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H662" s="59" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="663" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A663" s="55">
-        <v>658</v>
-      </c>
-      <c r="B663" s="55">
-        <v>659</v>
-      </c>
-      <c r="C663" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D663" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E663" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F663" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G663" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H663" s="59"/>
-    </row>
-    <row r="664" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A664" s="55">
-        <v>659</v>
-      </c>
-      <c r="B664" s="55">
-        <v>660</v>
-      </c>
-      <c r="C664" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D664" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E664" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F664" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G664" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H664" s="59" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="665" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A665" s="55">
-        <v>660</v>
-      </c>
-      <c r="B665" s="55">
-        <v>661</v>
-      </c>
-      <c r="C665" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D665" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E665" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F665" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G665" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H665" s="59" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="666" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A666" s="55">
-        <v>661</v>
-      </c>
-      <c r="B666" s="55">
-        <v>662</v>
-      </c>
-      <c r="C666" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="D666" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E666" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F666" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G666" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H666" s="59" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="667" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A667" s="55">
-        <v>662</v>
-      </c>
-      <c r="B667" s="55">
-        <v>663</v>
-      </c>
-      <c r="C667" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D667" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E667" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="F667" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G667" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H667" s="59" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="668" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A668" s="55">
-        <v>663</v>
-      </c>
-      <c r="B668" s="55">
-        <v>664</v>
-      </c>
-      <c r="C668" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="D668" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E668" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="F668" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G668" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H668" s="59" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="669" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A669" s="55">
-        <v>664</v>
-      </c>
-      <c r="B669" s="55">
-        <v>665</v>
-      </c>
-      <c r="C669" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D669" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E669" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="F669" s="58">
-        <v>44166</v>
-      </c>
-      <c r="G669" s="57" t="s">
-        <v>815</v>
-      </c>
-      <c r="H669" s="59" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="670" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A670" s="63" t="s">
+      <c r="H693" s="59" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A694" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B670" s="63"/>
-      <c r="C670" s="63"/>
-      <c r="D670" s="63"/>
-      <c r="E670" s="63"/>
-      <c r="F670" s="63"/>
-      <c r="G670" s="63"/>
-      <c r="H670" s="63"/>
+      <c r="B694" s="63"/>
+      <c r="C694" s="63"/>
+      <c r="D694" s="63"/>
+      <c r="E694" s="63"/>
+      <c r="F694" s="63"/>
+      <c r="G694" s="63"/>
+      <c r="H694" s="63"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I694"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A670:H670"/>
+    <mergeCell ref="A694:H694"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201203\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$694</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$694</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$708</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$708</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="884">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -7521,6 +7521,92 @@
     </rPh>
     <rPh sb="21" eb="24">
       <t>カンケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市195例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.653の夫</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.654の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.658の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.659の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他県陽性判明者の接触者</t>
+    <rPh sb="0" eb="7">
+      <t>タケンヨウセイハンメイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セッショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.663の母</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.669の夫</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.663の兄弟</t>
+    <rPh sb="7" eb="9">
+      <t>キョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.702の同僚　※宇都宮市196例目</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8253,11 +8339,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H694"/>
+  <dimension ref="A1:H708"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A681" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A693" sqref="A693"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8268,8 +8354,7 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -21759,8 +21844,8 @@
       <c r="F520" s="20">
         <v>44150</v>
       </c>
-      <c r="G520" s="18" t="s">
-        <v>582</v>
+      <c r="G520" s="20">
+        <v>44161</v>
       </c>
       <c r="H520" s="24" t="s">
         <v>673</v>
@@ -21863,8 +21948,8 @@
       <c r="F524" s="20">
         <v>44151</v>
       </c>
-      <c r="G524" s="18" t="s">
-        <v>582</v>
+      <c r="G524" s="20">
+        <v>44167</v>
       </c>
       <c r="H524" s="24" t="s">
         <v>680</v>
@@ -21889,8 +21974,8 @@
       <c r="F525" s="20">
         <v>44152</v>
       </c>
-      <c r="G525" s="18" t="s">
-        <v>582</v>
+      <c r="G525" s="20">
+        <v>44166</v>
       </c>
       <c r="H525" s="24" t="s">
         <v>681</v>
@@ -22357,8 +22442,8 @@
       <c r="F543" s="20">
         <v>44153</v>
       </c>
-      <c r="G543" s="18" t="s">
-        <v>582</v>
+      <c r="G543" s="20">
+        <v>44162</v>
       </c>
       <c r="H543" s="24" t="s">
         <v>685</v>
@@ -22409,8 +22494,8 @@
       <c r="F545" s="20">
         <v>44154</v>
       </c>
-      <c r="G545" s="18" t="s">
-        <v>582</v>
+      <c r="G545" s="20">
+        <v>44164</v>
       </c>
       <c r="H545" s="24" t="s">
         <v>744</v>
@@ -22643,8 +22728,8 @@
       <c r="F554" s="22">
         <v>44155</v>
       </c>
-      <c r="G554" s="19" t="s">
-        <v>582</v>
+      <c r="G554" s="22">
+        <v>44168</v>
       </c>
       <c r="H554" s="60" t="s">
         <v>705</v>
@@ -22799,8 +22884,8 @@
       <c r="F560" s="22">
         <v>44156</v>
       </c>
-      <c r="G560" s="19" t="s">
-        <v>582</v>
+      <c r="G560" s="22">
+        <v>44165</v>
       </c>
       <c r="H560" s="60" t="s">
         <v>709</v>
@@ -23137,8 +23222,8 @@
       <c r="F573" s="22">
         <v>44156</v>
       </c>
-      <c r="G573" s="19" t="s">
-        <v>728</v>
+      <c r="G573" s="22">
+        <v>44161</v>
       </c>
       <c r="H573" s="60" t="s">
         <v>730</v>
@@ -23189,8 +23274,8 @@
       <c r="F575" s="22">
         <v>44157</v>
       </c>
-      <c r="G575" s="19" t="s">
-        <v>728</v>
+      <c r="G575" s="22">
+        <v>44161</v>
       </c>
       <c r="H575" s="60" t="s">
         <v>724</v>
@@ -23397,8 +23482,8 @@
       <c r="F583" s="22">
         <v>44159</v>
       </c>
-      <c r="G583" s="19" t="s">
-        <v>582</v>
+      <c r="G583" s="22">
+        <v>44166</v>
       </c>
       <c r="H583" s="60" t="s">
         <v>743</v>
@@ -23475,8 +23560,8 @@
       <c r="F586" s="22">
         <v>44159</v>
       </c>
-      <c r="G586" s="19" t="s">
-        <v>582</v>
+      <c r="G586" s="22">
+        <v>44166</v>
       </c>
       <c r="H586" s="60" t="s">
         <v>749</v>
@@ -23553,8 +23638,8 @@
       <c r="F589" s="22">
         <v>44159</v>
       </c>
-      <c r="G589" s="19" t="s">
-        <v>582</v>
+      <c r="G589" s="22">
+        <v>44168</v>
       </c>
       <c r="H589" s="60" t="s">
         <v>752</v>
@@ -23579,8 +23664,8 @@
       <c r="F590" s="22">
         <v>44159</v>
       </c>
-      <c r="G590" s="19" t="s">
-        <v>582</v>
+      <c r="G590" s="22">
+        <v>44168</v>
       </c>
       <c r="H590" s="60" t="s">
         <v>753</v>
@@ -23605,8 +23690,8 @@
       <c r="F591" s="22">
         <v>44159</v>
       </c>
-      <c r="G591" s="19" t="s">
-        <v>582</v>
+      <c r="G591" s="22">
+        <v>44168</v>
       </c>
       <c r="H591" s="60" t="s">
         <v>821</v>
@@ -23839,8 +23924,8 @@
       <c r="F600" s="22">
         <v>44160</v>
       </c>
-      <c r="G600" s="19" t="s">
-        <v>582</v>
+      <c r="G600" s="22">
+        <v>44168</v>
       </c>
       <c r="H600" s="60" t="s">
         <v>764</v>
@@ -23969,8 +24054,8 @@
       <c r="F605" s="26">
         <v>44161</v>
       </c>
-      <c r="G605" s="26">
-        <v>44166</v>
+      <c r="G605" s="26" t="s">
+        <v>882</v>
       </c>
       <c r="H605" s="61" t="s">
         <v>775</v>
@@ -23995,8 +24080,8 @@
       <c r="F606" s="26">
         <v>44161</v>
       </c>
-      <c r="G606" s="25" t="s">
-        <v>582</v>
+      <c r="G606" s="26">
+        <v>44168</v>
       </c>
       <c r="H606" s="61" t="s">
         <v>776</v>
@@ -24845,8 +24930,8 @@
       <c r="F639" s="22">
         <v>44164</v>
       </c>
-      <c r="G639" s="22">
-        <v>44166</v>
+      <c r="G639" s="22" t="s">
+        <v>882</v>
       </c>
       <c r="H639" s="60" t="s">
         <v>807</v>
@@ -25631,646 +25716,1009 @@
       </c>
     </row>
     <row r="670" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A670" s="55">
+      <c r="A670" s="18">
         <v>665</v>
       </c>
-      <c r="B670" s="55">
+      <c r="B670" s="18">
         <v>666</v>
       </c>
-      <c r="C670" s="56" t="s">
+      <c r="C670" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D670" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E670" s="57" t="s">
+      <c r="D670" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E670" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F670" s="58">
+      <c r="F670" s="22">
         <v>44166</v>
       </c>
-      <c r="G670" s="57" t="s">
+      <c r="G670" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H670" s="59" t="s">
+      <c r="H670" s="60" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="671" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A671" s="55">
+      <c r="A671" s="18">
         <v>666</v>
       </c>
-      <c r="B671" s="55">
+      <c r="B671" s="18">
         <v>667</v>
       </c>
-      <c r="C671" s="56" t="s">
+      <c r="C671" s="34" t="s">
         <v>833</v>
       </c>
-      <c r="D671" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E671" s="57" t="s">
+      <c r="D671" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E671" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F671" s="58">
+      <c r="F671" s="22">
         <v>44166</v>
       </c>
-      <c r="G671" s="57" t="s">
+      <c r="G671" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H671" s="59" t="s">
+      <c r="H671" s="60" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="672" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A672" s="55">
+      <c r="A672" s="18">
         <v>667</v>
       </c>
-      <c r="B672" s="55">
+      <c r="B672" s="18">
         <v>668</v>
       </c>
-      <c r="C672" s="56" t="s">
+      <c r="C672" s="34" t="s">
         <v>833</v>
       </c>
-      <c r="D672" s="57" t="s">
+      <c r="D672" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E672" s="57" t="s">
+      <c r="E672" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F672" s="58">
+      <c r="F672" s="22">
         <v>44166</v>
       </c>
-      <c r="G672" s="57" t="s">
+      <c r="G672" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H672" s="59" t="s">
+      <c r="H672" s="60" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="673" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A673" s="55">
+      <c r="A673" s="18">
         <v>668</v>
       </c>
-      <c r="B673" s="55">
+      <c r="B673" s="18">
         <v>669</v>
       </c>
-      <c r="C673" s="56" t="s">
+      <c r="C673" s="34" t="s">
         <v>834</v>
       </c>
-      <c r="D673" s="57" t="s">
+      <c r="D673" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E673" s="57" t="s">
+      <c r="E673" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F673" s="58">
+      <c r="F673" s="22">
         <v>44166</v>
       </c>
-      <c r="G673" s="57" t="s">
+      <c r="G673" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H673" s="59" t="s">
+      <c r="H673" s="60" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="674" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A674" s="55">
+      <c r="A674" s="18">
         <v>669</v>
       </c>
-      <c r="B674" s="55">
+      <c r="B674" s="18">
         <v>670</v>
       </c>
-      <c r="C674" s="56" t="s">
+      <c r="C674" s="34" t="s">
         <v>833</v>
       </c>
-      <c r="D674" s="57" t="s">
+      <c r="D674" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E674" s="57" t="s">
+      <c r="E674" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F674" s="58">
+      <c r="F674" s="22">
         <v>44167</v>
       </c>
-      <c r="G674" s="57" t="s">
+      <c r="G674" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H674" s="59" t="s">
+      <c r="H674" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="675" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A675" s="55">
+      <c r="A675" s="18">
         <v>670</v>
       </c>
-      <c r="B675" s="55">
+      <c r="B675" s="18">
         <v>671</v>
       </c>
-      <c r="C675" s="56" t="s">
+      <c r="C675" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D675" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E675" s="57" t="s">
+      <c r="D675" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E675" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F675" s="58">
+      <c r="F675" s="22">
         <v>44167</v>
       </c>
-      <c r="G675" s="57" t="s">
+      <c r="G675" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H675" s="59" t="s">
+      <c r="H675" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="676" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A676" s="55">
+      <c r="A676" s="18">
         <v>671</v>
       </c>
-      <c r="B676" s="55">
+      <c r="B676" s="18">
         <v>672</v>
       </c>
-      <c r="C676" s="56" t="s">
+      <c r="C676" s="34" t="s">
         <v>833</v>
       </c>
-      <c r="D676" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E676" s="57" t="s">
+      <c r="D676" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E676" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F676" s="58">
+      <c r="F676" s="22">
         <v>44167</v>
       </c>
-      <c r="G676" s="57" t="s">
+      <c r="G676" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H676" s="59" t="s">
+      <c r="H676" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="677" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A677" s="55">
+      <c r="A677" s="18">
         <v>672</v>
       </c>
-      <c r="B677" s="55">
+      <c r="B677" s="18">
         <v>673</v>
       </c>
-      <c r="C677" s="56" t="s">
+      <c r="C677" s="34" t="s">
         <v>835</v>
       </c>
-      <c r="D677" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E677" s="57" t="s">
+      <c r="D677" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E677" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F677" s="58">
+      <c r="F677" s="22">
         <v>44167</v>
       </c>
-      <c r="G677" s="57" t="s">
+      <c r="G677" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H677" s="59" t="s">
+      <c r="H677" s="60" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="678" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A678" s="55">
+      <c r="A678" s="18">
         <v>673</v>
       </c>
-      <c r="B678" s="55">
+      <c r="B678" s="18">
         <v>674</v>
       </c>
-      <c r="C678" s="56" t="s">
+      <c r="C678" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D678" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E678" s="57" t="s">
+      <c r="D678" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E678" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F678" s="58">
+      <c r="F678" s="22">
         <v>44167</v>
       </c>
-      <c r="G678" s="57" t="s">
+      <c r="G678" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H678" s="59" t="s">
+      <c r="H678" s="60" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="679" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A679" s="55">
+      <c r="A679" s="18">
         <v>674</v>
       </c>
-      <c r="B679" s="55">
+      <c r="B679" s="18">
         <v>675</v>
       </c>
-      <c r="C679" s="56" t="s">
+      <c r="C679" s="34" t="s">
         <v>836</v>
       </c>
-      <c r="D679" s="57" t="s">
+      <c r="D679" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E679" s="57" t="s">
+      <c r="E679" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F679" s="58">
+      <c r="F679" s="22">
         <v>44167</v>
       </c>
-      <c r="G679" s="57" t="s">
+      <c r="G679" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H679" s="59" t="s">
+      <c r="H679" s="60" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="680" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A680" s="55">
+      <c r="A680" s="18">
         <v>675</v>
       </c>
-      <c r="B680" s="55">
+      <c r="B680" s="18">
         <v>676</v>
       </c>
-      <c r="C680" s="56" t="s">
+      <c r="C680" s="34" t="s">
         <v>837</v>
       </c>
-      <c r="D680" s="57" t="s">
+      <c r="D680" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E680" s="57" t="s">
+      <c r="E680" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F680" s="58">
+      <c r="F680" s="22">
         <v>44167</v>
       </c>
-      <c r="G680" s="57" t="s">
+      <c r="G680" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H680" s="59" t="s">
+      <c r="H680" s="60" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="681" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A681" s="55">
+      <c r="A681" s="18">
         <v>676</v>
       </c>
-      <c r="B681" s="55">
+      <c r="B681" s="18">
         <v>677</v>
       </c>
-      <c r="C681" s="56" t="s">
+      <c r="C681" s="34" t="s">
         <v>836</v>
       </c>
-      <c r="D681" s="57" t="s">
+      <c r="D681" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E681" s="57" t="s">
+      <c r="E681" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F681" s="58">
+      <c r="F681" s="22">
         <v>44167</v>
       </c>
-      <c r="G681" s="57" t="s">
+      <c r="G681" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H681" s="59" t="s">
+      <c r="H681" s="60" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="682" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A682" s="55">
+      <c r="A682" s="18">
         <v>677</v>
       </c>
-      <c r="B682" s="55">
+      <c r="B682" s="18">
         <v>678</v>
       </c>
-      <c r="C682" s="56" t="s">
+      <c r="C682" s="34" t="s">
         <v>838</v>
       </c>
-      <c r="D682" s="57" t="s">
+      <c r="D682" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E682" s="57" t="s">
+      <c r="E682" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F682" s="58">
+      <c r="F682" s="22">
         <v>44167</v>
       </c>
-      <c r="G682" s="57" t="s">
+      <c r="G682" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H682" s="59" t="s">
+      <c r="H682" s="60" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="683" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A683" s="55">
+      <c r="A683" s="18">
         <v>678</v>
       </c>
-      <c r="B683" s="55">
+      <c r="B683" s="18">
         <v>679</v>
       </c>
-      <c r="C683" s="56" t="s">
+      <c r="C683" s="34" t="s">
         <v>834</v>
       </c>
-      <c r="D683" s="57" t="s">
+      <c r="D683" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E683" s="57" t="s">
+      <c r="E683" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F683" s="58">
+      <c r="F683" s="22">
         <v>44167</v>
       </c>
-      <c r="G683" s="57" t="s">
+      <c r="G683" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H683" s="59" t="s">
+      <c r="H683" s="60" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="684" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A684" s="55">
+      <c r="A684" s="18">
         <v>679</v>
       </c>
-      <c r="B684" s="55">
+      <c r="B684" s="18">
         <v>680</v>
       </c>
-      <c r="C684" s="56" t="s">
+      <c r="C684" s="34" t="s">
         <v>833</v>
       </c>
-      <c r="D684" s="57" t="s">
+      <c r="D684" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E684" s="57" t="s">
+      <c r="E684" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F684" s="58">
+      <c r="F684" s="22">
         <v>44167</v>
       </c>
-      <c r="G684" s="57" t="s">
+      <c r="G684" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H684" s="59" t="s">
+      <c r="H684" s="60" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="685" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A685" s="55">
+      <c r="A685" s="18">
         <v>680</v>
       </c>
-      <c r="B685" s="55">
+      <c r="B685" s="18">
         <v>681</v>
       </c>
-      <c r="C685" s="56" t="s">
+      <c r="C685" s="34" t="s">
         <v>837</v>
       </c>
-      <c r="D685" s="57" t="s">
+      <c r="D685" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E685" s="57" t="s">
+      <c r="E685" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F685" s="58">
+      <c r="F685" s="22">
         <v>44167</v>
       </c>
-      <c r="G685" s="57" t="s">
+      <c r="G685" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H685" s="59" t="s">
+      <c r="H685" s="60" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="686" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A686" s="55">
+      <c r="A686" s="18">
         <v>681</v>
       </c>
-      <c r="B686" s="55">
+      <c r="B686" s="18">
         <v>682</v>
       </c>
-      <c r="C686" s="56" t="s">
+      <c r="C686" s="34" t="s">
         <v>834</v>
       </c>
-      <c r="D686" s="57" t="s">
+      <c r="D686" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E686" s="57" t="s">
+      <c r="E686" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F686" s="58">
+      <c r="F686" s="22">
         <v>44167</v>
       </c>
-      <c r="G686" s="57" t="s">
+      <c r="G686" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H686" s="59" t="s">
+      <c r="H686" s="60" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="687" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A687" s="55">
+      <c r="A687" s="18">
         <v>682</v>
       </c>
-      <c r="B687" s="55">
+      <c r="B687" s="18">
         <v>683</v>
       </c>
-      <c r="C687" s="56" t="s">
+      <c r="C687" s="34" t="s">
         <v>834</v>
       </c>
-      <c r="D687" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E687" s="57" t="s">
+      <c r="D687" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E687" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F687" s="58">
+      <c r="F687" s="22">
         <v>44167</v>
       </c>
-      <c r="G687" s="57" t="s">
+      <c r="G687" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H687" s="59" t="s">
+      <c r="H687" s="60" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="688" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A688" s="55">
+      <c r="A688" s="18">
         <v>683</v>
       </c>
-      <c r="B688" s="55">
+      <c r="B688" s="18">
         <v>684</v>
       </c>
-      <c r="C688" s="56" t="s">
+      <c r="C688" s="34" t="s">
         <v>838</v>
       </c>
-      <c r="D688" s="57" t="s">
+      <c r="D688" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E688" s="57" t="s">
+      <c r="E688" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F688" s="58">
+      <c r="F688" s="22">
         <v>44167</v>
       </c>
-      <c r="G688" s="57" t="s">
+      <c r="G688" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H688" s="59" t="s">
+      <c r="H688" s="60" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="689" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A689" s="55">
+      <c r="A689" s="18">
         <v>684</v>
       </c>
-      <c r="B689" s="55">
+      <c r="B689" s="18">
         <v>685</v>
       </c>
-      <c r="C689" s="56" t="s">
+      <c r="C689" s="34" t="s">
         <v>833</v>
       </c>
-      <c r="D689" s="57" t="s">
+      <c r="D689" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E689" s="57" t="s">
+      <c r="E689" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F689" s="58">
+      <c r="F689" s="22">
         <v>44167</v>
       </c>
-      <c r="G689" s="57" t="s">
+      <c r="G689" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H689" s="59" t="s">
+      <c r="H689" s="60" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="690" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A690" s="55">
+      <c r="A690" s="18">
         <v>685</v>
       </c>
-      <c r="B690" s="55">
+      <c r="B690" s="18">
         <v>686</v>
       </c>
-      <c r="C690" s="56" t="s">
+      <c r="C690" s="34" t="s">
         <v>836</v>
       </c>
-      <c r="D690" s="57" t="s">
+      <c r="D690" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E690" s="57" t="s">
+      <c r="E690" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F690" s="58">
+      <c r="F690" s="22">
         <v>44167</v>
       </c>
-      <c r="G690" s="57" t="s">
+      <c r="G690" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H690" s="59" t="s">
+      <c r="H690" s="60" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="691" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A691" s="55">
+      <c r="A691" s="18">
         <v>686</v>
       </c>
-      <c r="B691" s="55">
+      <c r="B691" s="18">
         <v>687</v>
       </c>
-      <c r="C691" s="56" t="s">
+      <c r="C691" s="34" t="s">
         <v>853</v>
       </c>
-      <c r="D691" s="57" t="s">
+      <c r="D691" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E691" s="57" t="s">
+      <c r="E691" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F691" s="58">
+      <c r="F691" s="22">
         <v>44167</v>
       </c>
-      <c r="G691" s="57" t="s">
+      <c r="G691" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H691" s="59" t="s">
+      <c r="H691" s="60" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="692" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A692" s="55">
+      <c r="A692" s="18">
         <v>687</v>
       </c>
-      <c r="B692" s="55">
+      <c r="B692" s="18">
         <v>688</v>
       </c>
-      <c r="C692" s="56" t="s">
+      <c r="C692" s="34" t="s">
         <v>853</v>
       </c>
-      <c r="D692" s="57" t="s">
+      <c r="D692" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E692" s="57" t="s">
+      <c r="E692" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F692" s="58">
+      <c r="F692" s="22">
         <v>44167</v>
       </c>
-      <c r="G692" s="57" t="s">
+      <c r="G692" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H692" s="59" t="s">
+      <c r="H692" s="60" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="693" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A693" s="55">
+      <c r="A693" s="18">
         <v>688</v>
       </c>
-      <c r="B693" s="55">
+      <c r="B693" s="18">
         <v>689</v>
       </c>
-      <c r="C693" s="56" t="s">
+      <c r="C693" s="34" t="s">
         <v>833</v>
       </c>
-      <c r="D693" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E693" s="57" t="s">
+      <c r="D693" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E693" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F693" s="58">
+      <c r="F693" s="22">
         <v>44167</v>
       </c>
-      <c r="G693" s="57" t="s">
+      <c r="G693" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H693" s="59" t="s">
+      <c r="H693" s="60" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A694" s="63" t="s">
+    <row r="694" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A694" s="55">
+        <v>689</v>
+      </c>
+      <c r="B694" s="55">
+        <v>690</v>
+      </c>
+      <c r="C694" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D694" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E694" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F694" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G694" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H694" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A695" s="55">
+        <v>690</v>
+      </c>
+      <c r="B695" s="55">
+        <v>691</v>
+      </c>
+      <c r="C695" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D695" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E695" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F695" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G695" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H695" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A696" s="55">
+        <v>691</v>
+      </c>
+      <c r="B696" s="55">
+        <v>692</v>
+      </c>
+      <c r="C696" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D696" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E696" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F696" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G696" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H696" s="59" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A697" s="55">
+        <v>692</v>
+      </c>
+      <c r="B697" s="55">
+        <v>693</v>
+      </c>
+      <c r="C697" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D697" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E697" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F697" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G697" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H697" s="59" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A698" s="55">
+        <v>693</v>
+      </c>
+      <c r="B698" s="55">
+        <v>694</v>
+      </c>
+      <c r="C698" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D698" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E698" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F698" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G698" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H698" s="59" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A699" s="55">
+        <v>694</v>
+      </c>
+      <c r="B699" s="55">
+        <v>695</v>
+      </c>
+      <c r="C699" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D699" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E699" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F699" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G699" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H699" s="59" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A700" s="55">
+        <v>695</v>
+      </c>
+      <c r="B700" s="55">
+        <v>696</v>
+      </c>
+      <c r="C700" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D700" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E700" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F700" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G700" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H700" s="59" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A701" s="55">
+        <v>696</v>
+      </c>
+      <c r="B701" s="55">
+        <v>697</v>
+      </c>
+      <c r="C701" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D701" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E701" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F701" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G701" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H701" s="59" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A702" s="55">
+        <v>697</v>
+      </c>
+      <c r="B702" s="55">
+        <v>698</v>
+      </c>
+      <c r="C702" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D702" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E702" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F702" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G702" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H702" s="59" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A703" s="55">
+        <v>698</v>
+      </c>
+      <c r="B703" s="55">
+        <v>699</v>
+      </c>
+      <c r="C703" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D703" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E703" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F703" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G703" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H703" s="59" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A704" s="55">
+        <v>699</v>
+      </c>
+      <c r="B704" s="55">
+        <v>700</v>
+      </c>
+      <c r="C704" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D704" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E704" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F704" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G704" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H704" s="59" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A705" s="55">
+        <v>700</v>
+      </c>
+      <c r="B705" s="55">
+        <v>701</v>
+      </c>
+      <c r="C705" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D705" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E705" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F705" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G705" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H705" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A706" s="55">
+        <v>701</v>
+      </c>
+      <c r="B706" s="55">
+        <v>702</v>
+      </c>
+      <c r="C706" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D706" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E706" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F706" s="58">
+        <v>44167</v>
+      </c>
+      <c r="G706" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H706" s="59" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A707" s="55">
+        <v>702</v>
+      </c>
+      <c r="B707" s="55">
+        <v>703</v>
+      </c>
+      <c r="C707" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D707" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E707" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F707" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G707" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H707" s="59" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A708" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B694" s="63"/>
-      <c r="C694" s="63"/>
-      <c r="D694" s="63"/>
-      <c r="E694" s="63"/>
-      <c r="F694" s="63"/>
-      <c r="G694" s="63"/>
-      <c r="H694" s="63"/>
+      <c r="B708" s="63"/>
+      <c r="C708" s="63"/>
+      <c r="D708" s="63"/>
+      <c r="E708" s="63"/>
+      <c r="F708" s="63"/>
+      <c r="G708" s="63"/>
+      <c r="H708" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I694"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A694:H694"/>
+    <mergeCell ref="A708:H708"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201204\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$708</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$708</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$725</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$725</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="895">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -7606,6 +7606,92 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="18" eb="20">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃木市</t>
+    <rPh sb="0" eb="3">
+      <t>トチギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.672の同僚</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.671の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.671の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.686の孫</t>
+    <rPh sb="7" eb="8">
+      <t>マゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.690の勤務先利用者</t>
+    <rPh sb="7" eb="10">
+      <t>キンムサキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壬生町</t>
+    <rPh sb="0" eb="3">
+      <t>ミブマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市197例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市198例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -8339,11 +8425,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H708"/>
+  <dimension ref="A1:H725"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5:M5"/>
+      <pane ySplit="2" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I718" sqref="I718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -21272,8 +21358,8 @@
       <c r="F498" s="20">
         <v>44139</v>
       </c>
-      <c r="G498" s="18" t="s">
-        <v>582</v>
+      <c r="G498" s="20">
+        <v>44167</v>
       </c>
       <c r="H498" s="24" t="s">
         <v>657</v>
@@ -21792,8 +21878,8 @@
       <c r="F518" s="20">
         <v>44149</v>
       </c>
-      <c r="G518" s="18" t="s">
-        <v>582</v>
+      <c r="G518" s="20">
+        <v>44167</v>
       </c>
       <c r="H518" s="24" t="s">
         <v>672</v>
@@ -22702,8 +22788,8 @@
       <c r="F553" s="22">
         <v>44155</v>
       </c>
-      <c r="G553" s="19" t="s">
-        <v>582</v>
+      <c r="G553" s="22">
+        <v>44168</v>
       </c>
       <c r="H553" s="60" t="s">
         <v>704</v>
@@ -22885,7 +22971,7 @@
         <v>44156</v>
       </c>
       <c r="G560" s="22">
-        <v>44165</v>
+        <v>44169</v>
       </c>
       <c r="H560" s="60" t="s">
         <v>709</v>
@@ -23014,8 +23100,8 @@
       <c r="F565" s="22">
         <v>44157</v>
       </c>
-      <c r="G565" s="19" t="s">
-        <v>728</v>
+      <c r="G565" s="22">
+        <v>44169</v>
       </c>
       <c r="H565" s="60" t="s">
         <v>727</v>
@@ -23144,8 +23230,8 @@
       <c r="F570" s="22">
         <v>44157</v>
       </c>
-      <c r="G570" s="19" t="s">
-        <v>728</v>
+      <c r="G570" s="22">
+        <v>44167</v>
       </c>
       <c r="H570" s="60" t="s">
         <v>711</v>
@@ -23404,8 +23490,8 @@
       <c r="F580" s="22">
         <v>44158</v>
       </c>
-      <c r="G580" s="19" t="s">
-        <v>582</v>
+      <c r="G580" s="22">
+        <v>44168</v>
       </c>
       <c r="H580" s="60" t="s">
         <v>582</v>
@@ -24288,8 +24374,8 @@
       <c r="F614" s="22">
         <v>44162</v>
       </c>
-      <c r="G614" s="19" t="s">
-        <v>789</v>
+      <c r="G614" s="22">
+        <v>44169</v>
       </c>
       <c r="H614" s="60" t="s">
         <v>793</v>
@@ -26340,385 +26426,828 @@
       </c>
     </row>
     <row r="694" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A694" s="55">
+      <c r="A694" s="18">
         <v>689</v>
       </c>
-      <c r="B694" s="55">
+      <c r="B694" s="18">
         <v>690</v>
       </c>
-      <c r="C694" s="56" t="s">
+      <c r="C694" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D694" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E694" s="57" t="s">
+      <c r="D694" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E694" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F694" s="58">
+      <c r="F694" s="22">
         <v>44167</v>
       </c>
-      <c r="G694" s="57" t="s">
+      <c r="G694" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H694" s="59" t="s">
+      <c r="H694" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="695" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A695" s="55">
+      <c r="A695" s="18">
         <v>690</v>
       </c>
-      <c r="B695" s="55">
+      <c r="B695" s="18">
         <v>691</v>
       </c>
-      <c r="C695" s="56" t="s">
+      <c r="C695" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D695" s="57" t="s">
+      <c r="D695" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E695" s="57" t="s">
+      <c r="E695" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F695" s="58">
+      <c r="F695" s="22">
         <v>44167</v>
       </c>
-      <c r="G695" s="57" t="s">
+      <c r="G695" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H695" s="59" t="s">
+      <c r="H695" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="696" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A696" s="55">
+      <c r="A696" s="18">
         <v>691</v>
       </c>
-      <c r="B696" s="55">
+      <c r="B696" s="18">
         <v>692</v>
       </c>
-      <c r="C696" s="56" t="s">
+      <c r="C696" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D696" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E696" s="57" t="s">
+      <c r="D696" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E696" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F696" s="58">
+      <c r="F696" s="22">
         <v>44168</v>
       </c>
-      <c r="G696" s="57" t="s">
+      <c r="G696" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H696" s="59" t="s">
+      <c r="H696" s="60" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="697" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A697" s="55">
+      <c r="A697" s="18">
         <v>692</v>
       </c>
-      <c r="B697" s="55">
+      <c r="B697" s="18">
         <v>693</v>
       </c>
-      <c r="C697" s="56" t="s">
+      <c r="C697" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D697" s="57" t="s">
+      <c r="D697" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E697" s="57" t="s">
+      <c r="E697" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F697" s="58">
+      <c r="F697" s="22">
         <v>44168</v>
       </c>
-      <c r="G697" s="57" t="s">
+      <c r="G697" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H697" s="59" t="s">
+      <c r="H697" s="60" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="698" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A698" s="55">
+      <c r="A698" s="18">
         <v>693</v>
       </c>
-      <c r="B698" s="55">
+      <c r="B698" s="18">
         <v>694</v>
       </c>
-      <c r="C698" s="56" t="s">
+      <c r="C698" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D698" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E698" s="57" t="s">
+      <c r="D698" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E698" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F698" s="58">
+      <c r="F698" s="22">
         <v>44168</v>
       </c>
-      <c r="G698" s="57" t="s">
+      <c r="G698" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H698" s="59" t="s">
+      <c r="H698" s="60" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="699" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A699" s="55">
+      <c r="A699" s="18">
         <v>694</v>
       </c>
-      <c r="B699" s="55">
+      <c r="B699" s="18">
         <v>695</v>
       </c>
-      <c r="C699" s="56" t="s">
+      <c r="C699" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D699" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E699" s="57" t="s">
+      <c r="D699" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E699" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F699" s="58">
+      <c r="F699" s="22">
         <v>44168</v>
       </c>
-      <c r="G699" s="57" t="s">
+      <c r="G699" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H699" s="59" t="s">
+      <c r="H699" s="60" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="700" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A700" s="55">
+      <c r="A700" s="18">
         <v>695</v>
       </c>
-      <c r="B700" s="55">
+      <c r="B700" s="18">
         <v>696</v>
       </c>
-      <c r="C700" s="56" t="s">
+      <c r="C700" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D700" s="57" t="s">
+      <c r="D700" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E700" s="57" t="s">
+      <c r="E700" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F700" s="58">
+      <c r="F700" s="22">
         <v>44168</v>
       </c>
-      <c r="G700" s="57" t="s">
+      <c r="G700" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H700" s="59" t="s">
+      <c r="H700" s="60" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="701" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A701" s="55">
+      <c r="A701" s="18">
         <v>696</v>
       </c>
-      <c r="B701" s="55">
+      <c r="B701" s="18">
         <v>697</v>
       </c>
-      <c r="C701" s="56" t="s">
+      <c r="C701" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D701" s="57" t="s">
+      <c r="D701" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E701" s="57" t="s">
+      <c r="E701" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F701" s="58">
+      <c r="F701" s="22">
         <v>44168</v>
       </c>
-      <c r="G701" s="57" t="s">
+      <c r="G701" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H701" s="59" t="s">
+      <c r="H701" s="60" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="702" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A702" s="55">
+      <c r="A702" s="18">
         <v>697</v>
       </c>
-      <c r="B702" s="55">
+      <c r="B702" s="18">
         <v>698</v>
       </c>
-      <c r="C702" s="56" t="s">
+      <c r="C702" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D702" s="57" t="s">
+      <c r="D702" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E702" s="57" t="s">
+      <c r="E702" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F702" s="58">
+      <c r="F702" s="22">
         <v>44168</v>
       </c>
-      <c r="G702" s="57" t="s">
+      <c r="G702" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H702" s="59" t="s">
+      <c r="H702" s="60" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="703" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A703" s="55">
+      <c r="A703" s="18">
         <v>698</v>
       </c>
-      <c r="B703" s="55">
+      <c r="B703" s="18">
         <v>699</v>
       </c>
-      <c r="C703" s="56" t="s">
+      <c r="C703" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D703" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E703" s="57" t="s">
+      <c r="D703" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E703" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F703" s="58">
+      <c r="F703" s="22">
         <v>44168</v>
       </c>
-      <c r="G703" s="57" t="s">
+      <c r="G703" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H703" s="59" t="s">
+      <c r="H703" s="60" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="704" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A704" s="55">
+      <c r="A704" s="18">
         <v>699</v>
       </c>
-      <c r="B704" s="55">
+      <c r="B704" s="18">
         <v>700</v>
       </c>
-      <c r="C704" s="56" t="s">
+      <c r="C704" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D704" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E704" s="57" t="s">
+      <c r="D704" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E704" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F704" s="58">
+      <c r="F704" s="22">
         <v>44168</v>
       </c>
-      <c r="G704" s="57" t="s">
+      <c r="G704" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H704" s="59" t="s">
+      <c r="H704" s="60" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="705" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A705" s="55">
+      <c r="A705" s="18">
         <v>700</v>
       </c>
-      <c r="B705" s="55">
+      <c r="B705" s="18">
         <v>701</v>
       </c>
-      <c r="C705" s="56" t="s">
+      <c r="C705" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D705" s="57" t="s">
+      <c r="D705" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E705" s="57" t="s">
+      <c r="E705" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F705" s="58">
+      <c r="F705" s="22">
         <v>44168</v>
       </c>
-      <c r="G705" s="57" t="s">
+      <c r="G705" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H705" s="59" t="s">
+      <c r="H705" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="706" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A706" s="55">
+      <c r="A706" s="18">
         <v>701</v>
       </c>
-      <c r="B706" s="55">
+      <c r="B706" s="18">
         <v>702</v>
       </c>
-      <c r="C706" s="56" t="s">
+      <c r="C706" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D706" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E706" s="57" t="s">
+      <c r="D706" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E706" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F706" s="58">
+      <c r="F706" s="22">
         <v>44167</v>
       </c>
-      <c r="G706" s="57" t="s">
+      <c r="G706" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H706" s="59" t="s">
+      <c r="H706" s="60" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="707" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A707" s="55">
+      <c r="A707" s="18">
         <v>702</v>
       </c>
-      <c r="B707" s="55">
+      <c r="B707" s="18">
         <v>703</v>
       </c>
-      <c r="C707" s="56" t="s">
+      <c r="C707" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D707" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E707" s="57" t="s">
+      <c r="D707" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E707" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F707" s="58">
+      <c r="F707" s="22">
         <v>44168</v>
       </c>
-      <c r="G707" s="57" t="s">
+      <c r="G707" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H707" s="59" t="s">
+      <c r="H707" s="60" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A708" s="63" t="s">
+    <row r="708" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A708" s="55">
+        <v>703</v>
+      </c>
+      <c r="B708" s="55">
+        <v>704</v>
+      </c>
+      <c r="C708" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D708" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E708" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F708" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G708" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H708" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A709" s="55">
+        <v>704</v>
+      </c>
+      <c r="B709" s="55">
+        <v>705</v>
+      </c>
+      <c r="C709" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D709" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E709" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F709" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G709" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H709" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A710" s="55">
+        <v>705</v>
+      </c>
+      <c r="B710" s="55">
+        <v>706</v>
+      </c>
+      <c r="C710" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D710" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E710" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F710" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G710" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H710" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A711" s="55">
+        <v>706</v>
+      </c>
+      <c r="B711" s="55">
+        <v>707</v>
+      </c>
+      <c r="C711" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D711" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E711" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F711" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G711" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H711" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A712" s="55">
+        <v>707</v>
+      </c>
+      <c r="B712" s="55">
+        <v>708</v>
+      </c>
+      <c r="C712" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D712" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E712" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F712" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G712" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H712" s="59" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A713" s="55">
+        <v>708</v>
+      </c>
+      <c r="B713" s="55">
+        <v>709</v>
+      </c>
+      <c r="C713" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D713" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E713" s="57" t="s">
+        <v>884</v>
+      </c>
+      <c r="F713" s="58">
+        <v>44168</v>
+      </c>
+      <c r="G713" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H713" s="59" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A714" s="55">
+        <v>709</v>
+      </c>
+      <c r="B714" s="55">
+        <v>710</v>
+      </c>
+      <c r="C714" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D714" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E714" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F714" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G714" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H714" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A715" s="55">
+        <v>710</v>
+      </c>
+      <c r="B715" s="55">
+        <v>711</v>
+      </c>
+      <c r="C715" s="56" t="s">
+        <v>890</v>
+      </c>
+      <c r="D715" s="57" t="s">
+        <v>891</v>
+      </c>
+      <c r="E715" s="57" t="s">
+        <v>892</v>
+      </c>
+      <c r="F715" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G715" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H715" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A716" s="55">
+        <v>711</v>
+      </c>
+      <c r="B716" s="55">
+        <v>712</v>
+      </c>
+      <c r="C716" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D716" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E716" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F716" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G716" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H716" s="59" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A717" s="55">
+        <v>712</v>
+      </c>
+      <c r="B717" s="55">
+        <v>713</v>
+      </c>
+      <c r="C717" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D717" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E717" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F717" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G717" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H717" s="59" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A718" s="55">
+        <v>713</v>
+      </c>
+      <c r="B718" s="55">
+        <v>714</v>
+      </c>
+      <c r="C718" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D718" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E718" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F718" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G718" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H718" s="59" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A719" s="55">
+        <v>714</v>
+      </c>
+      <c r="B719" s="55">
+        <v>715</v>
+      </c>
+      <c r="C719" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D719" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E719" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F719" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G719" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H719" s="59" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A720" s="55">
+        <v>715</v>
+      </c>
+      <c r="B720" s="55">
+        <v>716</v>
+      </c>
+      <c r="C720" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D720" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E720" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F720" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G720" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H720" s="59" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A721" s="55">
+        <v>716</v>
+      </c>
+      <c r="B721" s="55">
+        <v>717</v>
+      </c>
+      <c r="C721" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D721" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E721" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F721" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G721" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H721" s="59" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A722" s="55">
+        <v>717</v>
+      </c>
+      <c r="B722" s="55">
+        <v>718</v>
+      </c>
+      <c r="C722" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D722" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E722" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F722" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G722" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H722" s="59" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A723" s="55">
+        <v>718</v>
+      </c>
+      <c r="B723" s="55">
+        <v>719</v>
+      </c>
+      <c r="C723" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D723" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E723" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F723" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G723" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H723" s="59" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A724" s="55">
+        <v>719</v>
+      </c>
+      <c r="B724" s="55">
+        <v>720</v>
+      </c>
+      <c r="C724" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D724" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E724" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F724" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G724" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H724" s="59" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A725" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B708" s="63"/>
-      <c r="C708" s="63"/>
-      <c r="D708" s="63"/>
-      <c r="E708" s="63"/>
-      <c r="F708" s="63"/>
-      <c r="G708" s="63"/>
-      <c r="H708" s="63"/>
+      <c r="B725" s="63"/>
+      <c r="C725" s="63"/>
+      <c r="D725" s="63"/>
+      <c r="E725" s="63"/>
+      <c r="F725" s="63"/>
+      <c r="G725" s="63"/>
+      <c r="H725" s="63"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H725"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A708:H708"/>
+    <mergeCell ref="A725:H725"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201204\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201205\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$725</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$725</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$738</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$738</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="908">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -7688,6 +7688,112 @@
   </si>
   <si>
     <t>※宇都宮市198例目</t>
+    <rPh sb="1" eb="5">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.687の夫</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.687の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.708の母</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.706の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.706の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐野市</t>
+    <rPh sb="0" eb="3">
+      <t>サノシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.701の同僚</t>
+    <rPh sb="7" eb="9">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.701の父</t>
+    <rPh sb="7" eb="8">
+      <t>チチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.719の母　※宇都宮市200例目</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.720の妻　※宇都宮市201例目</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※宇都宮市199例目</t>
     <rPh sb="1" eb="5">
       <t>ウツノミヤシ</t>
     </rPh>
@@ -8425,11 +8531,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H725"/>
+  <dimension ref="A1:H738"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I718" sqref="I718"/>
+      <pane ySplit="2" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F735" sqref="F735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -23204,8 +23310,8 @@
       <c r="F569" s="22">
         <v>44157</v>
       </c>
-      <c r="G569" s="19" t="s">
-        <v>728</v>
+      <c r="G569" s="22">
+        <v>44170</v>
       </c>
       <c r="H569" s="60" t="s">
         <v>726</v>
@@ -24938,8 +25044,8 @@
       <c r="F636" s="22">
         <v>44164</v>
       </c>
-      <c r="G636" s="19" t="s">
-        <v>815</v>
+      <c r="G636" s="22">
+        <v>44170</v>
       </c>
       <c r="H636" s="60" t="s">
         <v>804</v>
@@ -26790,464 +26896,795 @@
       </c>
     </row>
     <row r="708" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A708" s="55">
+      <c r="A708" s="18">
         <v>703</v>
       </c>
-      <c r="B708" s="55">
+      <c r="B708" s="18">
         <v>704</v>
       </c>
-      <c r="C708" s="56" t="s">
+      <c r="C708" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D708" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E708" s="57" t="s">
+      <c r="D708" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E708" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F708" s="58">
+      <c r="F708" s="22">
         <v>44168</v>
       </c>
-      <c r="G708" s="57" t="s">
+      <c r="G708" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H708" s="59" t="s">
+      <c r="H708" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="709" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A709" s="55">
+      <c r="A709" s="18">
         <v>704</v>
       </c>
-      <c r="B709" s="55">
+      <c r="B709" s="18">
         <v>705</v>
       </c>
-      <c r="C709" s="56" t="s">
+      <c r="C709" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D709" s="57" t="s">
+      <c r="D709" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E709" s="57" t="s">
+      <c r="E709" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F709" s="58">
+      <c r="F709" s="22">
         <v>44168</v>
       </c>
-      <c r="G709" s="57" t="s">
+      <c r="G709" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H709" s="59" t="s">
+      <c r="H709" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="710" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A710" s="55">
+      <c r="A710" s="18">
         <v>705</v>
       </c>
-      <c r="B710" s="55">
+      <c r="B710" s="18">
         <v>706</v>
       </c>
-      <c r="C710" s="56" t="s">
+      <c r="C710" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D710" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E710" s="57" t="s">
+      <c r="D710" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E710" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F710" s="58">
+      <c r="F710" s="22">
         <v>44168</v>
       </c>
-      <c r="G710" s="57" t="s">
+      <c r="G710" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H710" s="59" t="s">
+      <c r="H710" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="711" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A711" s="55">
+      <c r="A711" s="18">
         <v>706</v>
       </c>
-      <c r="B711" s="55">
+      <c r="B711" s="18">
         <v>707</v>
       </c>
-      <c r="C711" s="56" t="s">
+      <c r="C711" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D711" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E711" s="57" t="s">
+      <c r="D711" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E711" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F711" s="58">
+      <c r="F711" s="22">
         <v>44168</v>
       </c>
-      <c r="G711" s="57" t="s">
+      <c r="G711" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H711" s="59" t="s">
+      <c r="H711" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="712" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A712" s="55">
+      <c r="A712" s="18">
         <v>707</v>
       </c>
-      <c r="B712" s="55">
+      <c r="B712" s="18">
         <v>708</v>
       </c>
-      <c r="C712" s="56" t="s">
+      <c r="C712" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D712" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E712" s="57" t="s">
+      <c r="D712" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E712" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F712" s="58">
+      <c r="F712" s="22">
         <v>44168</v>
       </c>
-      <c r="G712" s="57" t="s">
+      <c r="G712" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H712" s="59" t="s">
+      <c r="H712" s="60" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="713" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A713" s="55">
+      <c r="A713" s="18">
         <v>708</v>
       </c>
-      <c r="B713" s="55">
+      <c r="B713" s="18">
         <v>709</v>
       </c>
-      <c r="C713" s="56" t="s">
+      <c r="C713" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D713" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E713" s="57" t="s">
+      <c r="D713" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E713" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="F713" s="58">
+      <c r="F713" s="22">
         <v>44168</v>
       </c>
-      <c r="G713" s="57" t="s">
+      <c r="G713" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H713" s="59" t="s">
+      <c r="H713" s="60" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="714" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A714" s="55">
+      <c r="A714" s="18">
         <v>709</v>
       </c>
-      <c r="B714" s="55">
+      <c r="B714" s="18">
         <v>710</v>
       </c>
-      <c r="C714" s="56" t="s">
+      <c r="C714" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D714" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E714" s="57" t="s">
+      <c r="D714" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E714" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F714" s="58">
+      <c r="F714" s="22">
         <v>44169</v>
       </c>
-      <c r="G714" s="57" t="s">
+      <c r="G714" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H714" s="59" t="s">
+      <c r="H714" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="715" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A715" s="55">
+      <c r="A715" s="18">
         <v>710</v>
       </c>
-      <c r="B715" s="55">
+      <c r="B715" s="18">
         <v>711</v>
       </c>
-      <c r="C715" s="56" t="s">
+      <c r="C715" s="34" t="s">
         <v>890</v>
       </c>
-      <c r="D715" s="57" t="s">
+      <c r="D715" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="E715" s="57" t="s">
+      <c r="E715" s="19" t="s">
         <v>892</v>
       </c>
-      <c r="F715" s="58">
+      <c r="F715" s="22">
         <v>44169</v>
       </c>
-      <c r="G715" s="57" t="s">
+      <c r="G715" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H715" s="59" t="s">
+      <c r="H715" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="716" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A716" s="55">
+      <c r="A716" s="18">
         <v>711</v>
       </c>
-      <c r="B716" s="55">
+      <c r="B716" s="18">
         <v>712</v>
       </c>
-      <c r="C716" s="56" t="s">
+      <c r="C716" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D716" s="57" t="s">
+      <c r="D716" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E716" s="57" t="s">
+      <c r="E716" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F716" s="58">
+      <c r="F716" s="22">
         <v>44169</v>
       </c>
-      <c r="G716" s="57" t="s">
+      <c r="G716" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H716" s="59" t="s">
+      <c r="H716" s="60" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="717" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A717" s="55">
+      <c r="A717" s="18">
         <v>712</v>
       </c>
-      <c r="B717" s="55">
+      <c r="B717" s="18">
         <v>713</v>
       </c>
-      <c r="C717" s="56" t="s">
+      <c r="C717" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D717" s="57" t="s">
+      <c r="D717" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E717" s="57" t="s">
+      <c r="E717" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F717" s="58">
+      <c r="F717" s="22">
         <v>44169</v>
       </c>
-      <c r="G717" s="57" t="s">
+      <c r="G717" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H717" s="59" t="s">
+      <c r="H717" s="60" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="718" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A718" s="55">
+      <c r="A718" s="18">
         <v>713</v>
       </c>
-      <c r="B718" s="55">
+      <c r="B718" s="18">
         <v>714</v>
       </c>
-      <c r="C718" s="56" t="s">
+      <c r="C718" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D718" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E718" s="57" t="s">
+      <c r="D718" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E718" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F718" s="58">
+      <c r="F718" s="22">
         <v>44169</v>
       </c>
-      <c r="G718" s="57" t="s">
+      <c r="G718" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H718" s="59" t="s">
+      <c r="H718" s="60" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="719" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A719" s="55">
+      <c r="A719" s="18">
         <v>714</v>
       </c>
-      <c r="B719" s="55">
+      <c r="B719" s="18">
         <v>715</v>
       </c>
-      <c r="C719" s="56" t="s">
+      <c r="C719" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D719" s="57" t="s">
+      <c r="D719" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E719" s="57" t="s">
+      <c r="E719" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F719" s="58">
+      <c r="F719" s="22">
         <v>44169</v>
       </c>
-      <c r="G719" s="57" t="s">
+      <c r="G719" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H719" s="59" t="s">
+      <c r="H719" s="60" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="720" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A720" s="55">
+      <c r="A720" s="18">
         <v>715</v>
       </c>
-      <c r="B720" s="55">
+      <c r="B720" s="18">
         <v>716</v>
       </c>
-      <c r="C720" s="56" t="s">
+      <c r="C720" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D720" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E720" s="57" t="s">
+      <c r="D720" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E720" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F720" s="58">
+      <c r="F720" s="22">
         <v>44169</v>
       </c>
-      <c r="G720" s="57" t="s">
+      <c r="G720" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H720" s="59" t="s">
+      <c r="H720" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="721" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A721" s="55">
+      <c r="A721" s="18">
         <v>716</v>
       </c>
-      <c r="B721" s="55">
+      <c r="B721" s="18">
         <v>717</v>
       </c>
-      <c r="C721" s="56" t="s">
+      <c r="C721" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D721" s="57" t="s">
+      <c r="D721" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E721" s="57" t="s">
+      <c r="E721" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F721" s="58">
+      <c r="F721" s="22">
         <v>44169</v>
       </c>
-      <c r="G721" s="57" t="s">
+      <c r="G721" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H721" s="59" t="s">
+      <c r="H721" s="60" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="722" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A722" s="55">
+      <c r="A722" s="18">
         <v>717</v>
       </c>
-      <c r="B722" s="55">
+      <c r="B722" s="18">
         <v>718</v>
       </c>
-      <c r="C722" s="56" t="s">
+      <c r="C722" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D722" s="57" t="s">
+      <c r="D722" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E722" s="57" t="s">
+      <c r="E722" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F722" s="58">
+      <c r="F722" s="22">
         <v>44169</v>
       </c>
-      <c r="G722" s="57" t="s">
+      <c r="G722" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H722" s="59" t="s">
+      <c r="H722" s="60" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="723" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A723" s="55">
+      <c r="A723" s="18">
         <v>718</v>
       </c>
-      <c r="B723" s="55">
+      <c r="B723" s="18">
         <v>719</v>
       </c>
-      <c r="C723" s="56" t="s">
+      <c r="C723" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D723" s="57" t="s">
+      <c r="D723" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E723" s="57" t="s">
+      <c r="E723" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F723" s="58">
+      <c r="F723" s="22">
         <v>44169</v>
       </c>
-      <c r="G723" s="57" t="s">
+      <c r="G723" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H723" s="59" t="s">
+      <c r="H723" s="60" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="724" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A724" s="55">
+      <c r="A724" s="18">
         <v>719</v>
       </c>
-      <c r="B724" s="55">
+      <c r="B724" s="18">
         <v>720</v>
       </c>
-      <c r="C724" s="56" t="s">
+      <c r="C724" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D724" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E724" s="57" t="s">
+      <c r="D724" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E724" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F724" s="58">
+      <c r="F724" s="22">
         <v>44169</v>
       </c>
-      <c r="G724" s="57" t="s">
+      <c r="G724" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H724" s="59" t="s">
+      <c r="H724" s="60" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A725" s="63" t="s">
+    <row r="725" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A725" s="55">
+        <v>720</v>
+      </c>
+      <c r="B725" s="55">
+        <v>721</v>
+      </c>
+      <c r="C725" s="56" t="s">
+        <v>895</v>
+      </c>
+      <c r="D725" s="57" t="s">
+        <v>896</v>
+      </c>
+      <c r="E725" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F725" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G725" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H725" s="59" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A726" s="55">
+        <v>721</v>
+      </c>
+      <c r="B726" s="55">
+        <v>722</v>
+      </c>
+      <c r="C726" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D726" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E726" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F726" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G726" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H726" s="59" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A727" s="55">
+        <v>722</v>
+      </c>
+      <c r="B727" s="55">
+        <v>723</v>
+      </c>
+      <c r="C727" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D727" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E727" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F727" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G727" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H727" s="59" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A728" s="55">
+        <v>723</v>
+      </c>
+      <c r="B728" s="55">
+        <v>724</v>
+      </c>
+      <c r="C728" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D728" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E728" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F728" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G728" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H728" s="59"/>
+    </row>
+    <row r="729" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A729" s="55">
+        <v>724</v>
+      </c>
+      <c r="B729" s="55">
+        <v>725</v>
+      </c>
+      <c r="C729" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D729" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E729" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F729" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G729" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H729" s="59"/>
+    </row>
+    <row r="730" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A730" s="55">
+        <v>725</v>
+      </c>
+      <c r="B730" s="55">
+        <v>726</v>
+      </c>
+      <c r="C730" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D730" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E730" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F730" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G730" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H730" s="59" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A731" s="55">
+        <v>726</v>
+      </c>
+      <c r="B731" s="55">
+        <v>727</v>
+      </c>
+      <c r="C731" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D731" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E731" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F731" s="58">
+        <v>44170</v>
+      </c>
+      <c r="G731" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H731" s="59" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A732" s="55">
+        <v>727</v>
+      </c>
+      <c r="B732" s="55">
+        <v>728</v>
+      </c>
+      <c r="C732" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D732" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E732" s="57" t="s">
+        <v>902</v>
+      </c>
+      <c r="F732" s="58">
+        <v>44170</v>
+      </c>
+      <c r="G732" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H732" s="59" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A733" s="55">
+        <v>728</v>
+      </c>
+      <c r="B733" s="55">
+        <v>729</v>
+      </c>
+      <c r="C733" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D733" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E733" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F733" s="58">
+        <v>44170</v>
+      </c>
+      <c r="G733" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H733" s="59" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A734" s="55">
+        <v>729</v>
+      </c>
+      <c r="B734" s="55">
+        <v>730</v>
+      </c>
+      <c r="C734" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D734" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E734" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="F734" s="58">
+        <v>44170</v>
+      </c>
+      <c r="G734" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H734" s="59"/>
+    </row>
+    <row r="735" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A735" s="55">
+        <v>730</v>
+      </c>
+      <c r="B735" s="55">
+        <v>731</v>
+      </c>
+      <c r="C735" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D735" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E735" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F735" s="58">
+        <v>44169</v>
+      </c>
+      <c r="G735" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H735" s="59" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A736" s="55">
+        <v>731</v>
+      </c>
+      <c r="B736" s="55">
+        <v>732</v>
+      </c>
+      <c r="C736" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D736" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E736" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F736" s="58">
+        <v>44170</v>
+      </c>
+      <c r="G736" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H736" s="59" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A737" s="55">
+        <v>732</v>
+      </c>
+      <c r="B737" s="55">
+        <v>733</v>
+      </c>
+      <c r="C737" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D737" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E737" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F737" s="58">
+        <v>44170</v>
+      </c>
+      <c r="G737" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="H737" s="59" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A738" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B725" s="63"/>
-      <c r="C725" s="63"/>
-      <c r="D725" s="63"/>
-      <c r="E725" s="63"/>
-      <c r="F725" s="63"/>
-      <c r="G725" s="63"/>
-      <c r="H725" s="63"/>
+      <c r="B738" s="63"/>
+      <c r="C738" s="63"/>
+      <c r="D738" s="63"/>
+      <c r="E738" s="63"/>
+      <c r="F738" s="63"/>
+      <c r="G738" s="63"/>
+      <c r="H738" s="63"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H725"/>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A725:H725"/>
+    <mergeCell ref="A738:H738"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="D20:D21"/>

--- a/work/09_tochigi.xlsx
+++ b/work/09_tochigi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Wifs507\新型コロナウイルス対策\06-01②総務G（広報チーム）\HP更新用\発生状況一覧\20201206\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="発生状況" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$H$738</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$738</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況!$A$2:$I$755</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況!$A$1:$H$755</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="936">
   <si>
     <t>栃木県内　新型コロナウイルス感染症　発生状況</t>
   </si>
@@ -7798,6 +7798,211 @@
       <t>ウツノミヤシ</t>
     </rPh>
     <rPh sb="8" eb="10">
+      <t>レイメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10才未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.739の夫</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.735の妻</t>
+    <rPh sb="7" eb="8">
+      <t>ツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.707の知人</t>
+    <rPh sb="7" eb="9">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃木市</t>
+    <rPh sb="0" eb="3">
+      <t>トチギシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.705の夫</t>
+    <rPh sb="7" eb="8">
+      <t>オット</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.705の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐野市</t>
+    <rPh sb="0" eb="3">
+      <t>サノシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.749の母</t>
+    <rPh sb="7" eb="8">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.748の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.741の子</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.740の父</t>
+    <rPh sb="7" eb="8">
+      <t>チチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.701・728・746の同僚</t>
+    <rPh sb="15" eb="17">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.701・728・743の同僚</t>
+    <rPh sb="15" eb="17">
+      <t>ドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.672・708・709の同僚 　※宇都宮市202例目</t>
+    <rPh sb="15" eb="17">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ウツノミヤシ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
       <t>レイメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -8162,6 +8367,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -8172,12 +8383,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8531,11 +8736,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H738"/>
+  <dimension ref="A1:H755"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F735" sqref="F735"/>
+      <pane ySplit="2" topLeftCell="A741" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A754" sqref="A754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8546,7 +8751,8 @@
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
     <col min="6" max="7" width="11.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="48.75" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -22871,7 +23077,7 @@
       <c r="G552" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H552" s="60" t="s">
+      <c r="H552" s="56" t="s">
         <v>703</v>
       </c>
     </row>
@@ -22897,7 +23103,7 @@
       <c r="G553" s="22">
         <v>44168</v>
       </c>
-      <c r="H553" s="60" t="s">
+      <c r="H553" s="56" t="s">
         <v>704</v>
       </c>
     </row>
@@ -22923,7 +23129,7 @@
       <c r="G554" s="22">
         <v>44168</v>
       </c>
-      <c r="H554" s="60" t="s">
+      <c r="H554" s="56" t="s">
         <v>705</v>
       </c>
     </row>
@@ -22949,7 +23155,7 @@
       <c r="G555" s="22">
         <v>44165</v>
       </c>
-      <c r="H555" s="60" t="s">
+      <c r="H555" s="56" t="s">
         <v>706</v>
       </c>
     </row>
@@ -22975,7 +23181,7 @@
       <c r="G556" s="22">
         <v>44164</v>
       </c>
-      <c r="H556" s="60" t="s">
+      <c r="H556" s="56" t="s">
         <v>707</v>
       </c>
     </row>
@@ -23001,7 +23207,7 @@
       <c r="G557" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H557" s="60" t="s">
+      <c r="H557" s="56" t="s">
         <v>708</v>
       </c>
     </row>
@@ -23027,7 +23233,7 @@
       <c r="G558" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H558" s="60" t="s">
+      <c r="H558" s="56" t="s">
         <v>585</v>
       </c>
     </row>
@@ -23053,7 +23259,7 @@
       <c r="G559" s="22">
         <v>44161</v>
       </c>
-      <c r="H559" s="60" t="s">
+      <c r="H559" s="56" t="s">
         <v>585</v>
       </c>
     </row>
@@ -23079,7 +23285,7 @@
       <c r="G560" s="22">
         <v>44169</v>
       </c>
-      <c r="H560" s="60" t="s">
+      <c r="H560" s="56" t="s">
         <v>709</v>
       </c>
     </row>
@@ -23102,10 +23308,10 @@
       <c r="F561" s="22">
         <v>44156</v>
       </c>
-      <c r="G561" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="H561" s="60" t="s">
+      <c r="G561" s="22">
+        <v>44170</v>
+      </c>
+      <c r="H561" s="56" t="s">
         <v>711</v>
       </c>
     </row>
@@ -23131,7 +23337,7 @@
       <c r="G562" s="22">
         <v>44163</v>
       </c>
-      <c r="H562" s="60" t="s">
+      <c r="H562" s="56" t="s">
         <v>710</v>
       </c>
     </row>
@@ -23157,7 +23363,7 @@
       <c r="G563" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H563" s="60" t="s">
+      <c r="H563" s="56" t="s">
         <v>585</v>
       </c>
     </row>
@@ -23183,7 +23389,7 @@
       <c r="G564" s="22">
         <v>44166</v>
       </c>
-      <c r="H564" s="60" t="s">
+      <c r="H564" s="56" t="s">
         <v>155</v>
       </c>
     </row>
@@ -23209,7 +23415,7 @@
       <c r="G565" s="22">
         <v>44169</v>
       </c>
-      <c r="H565" s="60" t="s">
+      <c r="H565" s="56" t="s">
         <v>727</v>
       </c>
     </row>
@@ -23235,7 +23441,7 @@
       <c r="G566" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="H566" s="60" t="s">
+      <c r="H566" s="56" t="s">
         <v>720</v>
       </c>
     </row>
@@ -23261,7 +23467,7 @@
       <c r="G567" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="H567" s="60" t="s">
+      <c r="H567" s="56" t="s">
         <v>728</v>
       </c>
     </row>
@@ -23287,7 +23493,7 @@
       <c r="G568" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="H568" s="60" t="s">
+      <c r="H568" s="56" t="s">
         <v>728</v>
       </c>
     </row>
@@ -23313,7 +23519,7 @@
       <c r="G569" s="22">
         <v>44170</v>
       </c>
-      <c r="H569" s="60" t="s">
+      <c r="H569" s="56" t="s">
         <v>726</v>
       </c>
     </row>
@@ -23339,7 +23545,7 @@
       <c r="G570" s="22">
         <v>44167</v>
       </c>
-      <c r="H570" s="60" t="s">
+      <c r="H570" s="56" t="s">
         <v>711</v>
       </c>
     </row>
@@ -23365,7 +23571,7 @@
       <c r="G571" s="22">
         <v>44165</v>
       </c>
-      <c r="H571" s="60" t="s">
+      <c r="H571" s="56" t="s">
         <v>723</v>
       </c>
     </row>
@@ -23391,7 +23597,7 @@
       <c r="G572" s="22">
         <v>44159</v>
       </c>
-      <c r="H572" s="60" t="s">
+      <c r="H572" s="56" t="s">
         <v>731</v>
       </c>
     </row>
@@ -23417,7 +23623,7 @@
       <c r="G573" s="22">
         <v>44161</v>
       </c>
-      <c r="H573" s="60" t="s">
+      <c r="H573" s="56" t="s">
         <v>730</v>
       </c>
     </row>
@@ -23443,7 +23649,7 @@
       <c r="G574" s="22">
         <v>44165</v>
       </c>
-      <c r="H574" s="60" t="s">
+      <c r="H574" s="56" t="s">
         <v>732</v>
       </c>
     </row>
@@ -23469,7 +23675,7 @@
       <c r="G575" s="22">
         <v>44161</v>
       </c>
-      <c r="H575" s="60" t="s">
+      <c r="H575" s="56" t="s">
         <v>724</v>
       </c>
     </row>
@@ -23495,7 +23701,7 @@
       <c r="G576" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="H576" s="60" t="s">
+      <c r="H576" s="56" t="s">
         <v>725</v>
       </c>
     </row>
@@ -23521,7 +23727,7 @@
       <c r="G577" s="22">
         <v>44166</v>
       </c>
-      <c r="H577" s="60" t="s">
+      <c r="H577" s="56" t="s">
         <v>729</v>
       </c>
     </row>
@@ -23547,7 +23753,7 @@
       <c r="G578" s="22">
         <v>44167</v>
       </c>
-      <c r="H578" s="60" t="s">
+      <c r="H578" s="56" t="s">
         <v>734</v>
       </c>
     </row>
@@ -23573,7 +23779,7 @@
       <c r="G579" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H579" s="60" t="s">
+      <c r="H579" s="56" t="s">
         <v>582</v>
       </c>
     </row>
@@ -23599,7 +23805,7 @@
       <c r="G580" s="22">
         <v>44168</v>
       </c>
-      <c r="H580" s="60" t="s">
+      <c r="H580" s="56" t="s">
         <v>582</v>
       </c>
     </row>
@@ -23622,10 +23828,10 @@
       <c r="F581" s="22">
         <v>44159</v>
       </c>
-      <c r="G581" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="H581" s="60" t="s">
+      <c r="G581" s="22">
+        <v>44169</v>
+      </c>
+      <c r="H581" s="56" t="s">
         <v>745</v>
       </c>
     </row>
@@ -23651,7 +23857,7 @@
       <c r="G582" s="22">
         <v>44165</v>
       </c>
-      <c r="H582" s="60" t="s">
+      <c r="H582" s="56" t="s">
         <v>742</v>
       </c>
     </row>
@@ -23677,7 +23883,7 @@
       <c r="G583" s="22">
         <v>44166</v>
       </c>
-      <c r="H583" s="60" t="s">
+      <c r="H583" s="56" t="s">
         <v>743</v>
       </c>
     </row>
@@ -23703,7 +23909,7 @@
       <c r="G584" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H584" s="60" t="s">
+      <c r="H584" s="56" t="s">
         <v>582</v>
       </c>
     </row>
@@ -23729,7 +23935,7 @@
       <c r="G585" s="22">
         <v>44165</v>
       </c>
-      <c r="H585" s="60" t="s">
+      <c r="H585" s="56" t="s">
         <v>748</v>
       </c>
     </row>
@@ -23755,7 +23961,7 @@
       <c r="G586" s="22">
         <v>44166</v>
       </c>
-      <c r="H586" s="60" t="s">
+      <c r="H586" s="56" t="s">
         <v>749</v>
       </c>
     </row>
@@ -23781,7 +23987,7 @@
       <c r="G587" s="22">
         <v>44167</v>
       </c>
-      <c r="H587" s="60" t="s">
+      <c r="H587" s="56" t="s">
         <v>750</v>
       </c>
     </row>
@@ -23807,7 +24013,7 @@
       <c r="G588" s="22">
         <v>44167</v>
       </c>
-      <c r="H588" s="60" t="s">
+      <c r="H588" s="56" t="s">
         <v>751</v>
       </c>
     </row>
@@ -23833,7 +24039,7 @@
       <c r="G589" s="22">
         <v>44168</v>
       </c>
-      <c r="H589" s="60" t="s">
+      <c r="H589" s="56" t="s">
         <v>752</v>
       </c>
     </row>
@@ -23859,7 +24065,7 @@
       <c r="G590" s="22">
         <v>44168</v>
       </c>
-      <c r="H590" s="60" t="s">
+      <c r="H590" s="56" t="s">
         <v>753</v>
       </c>
     </row>
@@ -23885,7 +24091,7 @@
       <c r="G591" s="22">
         <v>44168</v>
       </c>
-      <c r="H591" s="60" t="s">
+      <c r="H591" s="56" t="s">
         <v>821</v>
       </c>
     </row>
@@ -23908,10 +24114,10 @@
       <c r="F592" s="22">
         <v>44160</v>
       </c>
-      <c r="G592" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="H592" s="60" t="s">
+      <c r="G592" s="22">
+        <v>44170</v>
+      </c>
+      <c r="H592" s="56" t="s">
         <v>754</v>
       </c>
     </row>
@@ -23937,7 +24143,7 @@
       <c r="G593" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H593" s="60" t="s">
+      <c r="H593" s="56" t="s">
         <v>582</v>
       </c>
     </row>
@@ -23963,7 +24169,7 @@
       <c r="G594" s="22">
         <v>44165</v>
       </c>
-      <c r="H594" s="60" t="s">
+      <c r="H594" s="56" t="s">
         <v>755</v>
       </c>
     </row>
@@ -23989,7 +24195,7 @@
       <c r="G595" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H595" s="60" t="s">
+      <c r="H595" s="56" t="s">
         <v>756</v>
       </c>
     </row>
@@ -24015,7 +24221,7 @@
       <c r="G596" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H596" s="60" t="s">
+      <c r="H596" s="56" t="s">
         <v>757</v>
       </c>
     </row>
@@ -24041,7 +24247,7 @@
       <c r="G597" s="22">
         <v>44166</v>
       </c>
-      <c r="H597" s="60" t="s">
+      <c r="H597" s="56" t="s">
         <v>758</v>
       </c>
     </row>
@@ -24067,7 +24273,7 @@
       <c r="G598" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H598" s="60" t="s">
+      <c r="H598" s="56" t="s">
         <v>765</v>
       </c>
     </row>
@@ -24090,10 +24296,10 @@
       <c r="F599" s="22">
         <v>44160</v>
       </c>
-      <c r="G599" s="19" t="s">
-        <v>582</v>
-      </c>
-      <c r="H599" s="60" t="s">
+      <c r="G599" s="22">
+        <v>44170</v>
+      </c>
+      <c r="H599" s="56" t="s">
         <v>763</v>
       </c>
     </row>
@@ -24119,7 +24325,7 @@
       <c r="G600" s="22">
         <v>44168</v>
       </c>
-      <c r="H600" s="60" t="s">
+      <c r="H600" s="56" t="s">
         <v>764</v>
       </c>
     </row>
@@ -24145,7 +24351,7 @@
       <c r="G601" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H601" s="60" t="s">
+      <c r="H601" s="56" t="s">
         <v>582</v>
       </c>
     </row>
@@ -24171,7 +24377,7 @@
       <c r="G602" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H602" s="60" t="s">
+      <c r="H602" s="56" t="s">
         <v>766</v>
       </c>
     </row>
@@ -24197,7 +24403,7 @@
       <c r="G603" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H603" s="60" t="s">
+      <c r="H603" s="56" t="s">
         <v>767</v>
       </c>
     </row>
@@ -24223,7 +24429,7 @@
       <c r="G604" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="H604" s="60" t="s">
+      <c r="H604" s="56" t="s">
         <v>774</v>
       </c>
     </row>
@@ -24246,10 +24452,10 @@
       <c r="F605" s="26">
         <v>44161</v>
       </c>
-      <c r="G605" s="26" t="s">
-        <v>882</v>
-      </c>
-      <c r="H605" s="61" t="s">
+      <c r="G605" s="26">
+        <v>44171</v>
+      </c>
+      <c r="H605" s="57" t="s">
         <v>775</v>
       </c>
     </row>
@@ -24275,7 +24481,7 @@
       <c r="G606" s="26">
         <v>44168</v>
       </c>
-      <c r="H606" s="61" t="s">
+      <c r="H606" s="57" t="s">
         <v>776</v>
       </c>
     </row>
@@ -24301,7 +24507,7 @@
       <c r="G607" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="H607" s="61" t="s">
+      <c r="H607" s="57" t="s">
         <v>768</v>
       </c>
     </row>
@@ -24327,7 +24533,7 @@
       <c r="G608" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="H608" s="60" t="s">
+      <c r="H608" s="56" t="s">
         <v>822</v>
       </c>
     </row>
@@ -24353,7 +24559,7 @@
       <c r="G609" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="H609" s="61" t="s">
+      <c r="H609" s="57" t="s">
         <v>582</v>
       </c>
     </row>
@@ -24379,7 +24585,7 @@
       <c r="G610" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="H610" s="61" t="s">
+      <c r="H610" s="57" t="s">
         <v>772</v>
       </c>
     </row>
@@ -24405,7 +24611,7 @@
       <c r="G611" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="H611" s="61" t="s">
+      <c r="H611" s="57" t="s">
         <v>771</v>
       </c>
     </row>
@@ -24431,7 +24637,7 @@
       <c r="G612" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="H612" s="61" t="s">
+      <c r="H612" s="57" t="s">
         <v>773</v>
       </c>
     </row>
@@ -24457,7 +24663,7 @@
       <c r="G613" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="H613" s="60" t="s">
+      <c r="H613" s="56" t="s">
         <v>827</v>
       </c>
     </row>
@@ -24483,7 +24689,7 @@
       <c r="G614" s="22">
         <v>44169</v>
       </c>
-      <c r="H614" s="60" t="s">
+      <c r="H614" s="56" t="s">
         <v>793</v>
       </c>
     </row>
@@ -24509,7 +24715,7 @@
       <c r="G615" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="H615" s="60" t="s">
+      <c r="H615" s="56" t="s">
         <v>754</v>
       </c>
     </row>
@@ -24535,7 +24741,7 @@
       <c r="G616" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="H616" s="60" t="s">
+      <c r="H616" s="56" t="s">
         <v>790</v>
       </c>
     </row>
@@ -24561,7 +24767,7 @@
       <c r="G617" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H617" s="60"/>
+      <c r="H617" s="56"/>
     </row>
     <row r="618" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A618" s="18">
@@ -24585,7 +24791,7 @@
       <c r="G618" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H618" s="60"/>
+      <c r="H618" s="56"/>
     </row>
     <row r="619" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A619" s="18">
@@ -24609,7 +24815,7 @@
       <c r="G619" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H619" s="60"/>
+      <c r="H619" s="56"/>
     </row>
     <row r="620" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A620" s="18">
@@ -24633,7 +24839,7 @@
       <c r="G620" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H620" s="60" t="s">
+      <c r="H620" s="56" t="s">
         <v>791</v>
       </c>
     </row>
@@ -24659,7 +24865,7 @@
       <c r="G621" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H621" s="60" t="s">
+      <c r="H621" s="56" t="s">
         <v>788</v>
       </c>
     </row>
@@ -24685,7 +24891,7 @@
       <c r="G622" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H622" s="60"/>
+      <c r="H622" s="56"/>
     </row>
     <row r="623" spans="1:8" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A623" s="18">
@@ -24709,7 +24915,7 @@
       <c r="G623" s="22">
         <v>44167</v>
       </c>
-      <c r="H623" s="60" t="s">
+      <c r="H623" s="56" t="s">
         <v>794</v>
       </c>
     </row>
@@ -24732,10 +24938,10 @@
       <c r="F624" s="22">
         <v>44163</v>
       </c>
-      <c r="G624" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="H624" s="60" t="s">
+      <c r="G624" s="22">
+        <v>44169</v>
+      </c>
+      <c r="H624" s="56" t="s">
         <v>795</v>
       </c>
     </row>
@@ -24761,7 +24967,7 @@
       <c r="G625" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H625" s="60" t="s">
+      <c r="H625" s="56" t="s">
         <v>826</v>
       </c>
     </row>
@@ -24787,7 +24993,7 @@
       <c r="G626" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H626" s="60" t="s">
+      <c r="H626" s="56" t="s">
         <v>825</v>
       </c>
     </row>
@@ -24813,7 +25019,7 @@
       <c r="G627" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="H627" s="60" t="s">
+      <c r="H627" s="56" t="s">
         <v>796</v>
       </c>
     </row>
@@ -24839,7 +25045,7 @@
       <c r="G628" s="19